--- a/layouts/layouts.xlsx
+++ b/layouts/layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE408966-6919-42CF-8BD1-FBC8AAF425EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A564A3B0-0AE3-47C6-B1CD-48413D550B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" firstSheet="3" activeTab="17" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" activeTab="17" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -2422,7 +2422,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2994,7 +2994,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3566,7 +3566,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4138,7 +4138,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4710,7 +4710,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5282,7 +5282,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5854,7 +5854,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6426,7 +6426,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6998,7 +6998,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8435,7 +8435,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9012,7 +9012,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11302,7 +11302,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/layouts/layouts.xlsx
+++ b/layouts/layouts.xlsx
@@ -8,29 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34D1AC6-8B40-4084-BF53-8E7CD118BF4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7F62B1-BA68-4365-8EDB-D226C5D89E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" activeTab="4" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
-    <sheet name="Keys" sheetId="2" r:id="rId2"/>
-    <sheet name="Soul" sheetId="13" r:id="rId3"/>
-    <sheet name="Mtgap2" sheetId="8" r:id="rId4"/>
-    <sheet name="Norman" sheetId="21" r:id="rId5"/>
-    <sheet name="Breakl15" sheetId="6" r:id="rId6"/>
-    <sheet name="Querty" sheetId="3" r:id="rId7"/>
-    <sheet name="Collemak" sheetId="4" r:id="rId8"/>
-    <sheet name="Mtgap1" sheetId="5" r:id="rId9"/>
-    <sheet name="Dvorak" sheetId="9" r:id="rId10"/>
-    <sheet name="Workman" sheetId="10" r:id="rId11"/>
-    <sheet name="Niro" sheetId="12" r:id="rId12"/>
-    <sheet name="Kaehi" sheetId="14" r:id="rId13"/>
-    <sheet name="QFMLWY" sheetId="15" r:id="rId14"/>
-    <sheet name="QGMLWB" sheetId="16" r:id="rId15"/>
-    <sheet name="QGMLWY" sheetId="18" r:id="rId16"/>
-    <sheet name="TNWMLC" sheetId="19" r:id="rId17"/>
-    <sheet name="Gelatin" sheetId="20" r:id="rId18"/>
+    <sheet name="Results" sheetId="22" r:id="rId2"/>
+    <sheet name="Keys" sheetId="2" r:id="rId3"/>
+    <sheet name="Template" sheetId="23" r:id="rId4"/>
+    <sheet name="My" sheetId="24" r:id="rId5"/>
+    <sheet name="Soul" sheetId="13" r:id="rId6"/>
+    <sheet name="Mtgap2" sheetId="8" r:id="rId7"/>
+    <sheet name="Norman" sheetId="21" r:id="rId8"/>
+    <sheet name="Breakl15" sheetId="6" r:id="rId9"/>
+    <sheet name="Querty" sheetId="3" r:id="rId10"/>
+    <sheet name="Collemak" sheetId="4" r:id="rId11"/>
+    <sheet name="Mtgap1" sheetId="5" r:id="rId12"/>
+    <sheet name="Dvorak" sheetId="9" r:id="rId13"/>
+    <sheet name="Workman" sheetId="10" r:id="rId14"/>
+    <sheet name="Niro" sheetId="12" r:id="rId15"/>
+    <sheet name="Kaehi" sheetId="14" r:id="rId16"/>
+    <sheet name="QFMLWY" sheetId="15" r:id="rId17"/>
+    <sheet name="QGMLWB" sheetId="16" r:id="rId18"/>
+    <sheet name="QGMLWY" sheetId="18" r:id="rId19"/>
+    <sheet name="TNWMLC" sheetId="19" r:id="rId20"/>
+    <sheet name="Gelatin" sheetId="20" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="206">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -330,6 +333,342 @@
   </si>
   <si>
     <t>Effors</t>
+  </si>
+  <si>
+    <t>Workman</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>TNWMLC</t>
+  </si>
+  <si>
+    <t>Soul</t>
+  </si>
+  <si>
+    <t>QWERTY</t>
+  </si>
+  <si>
+    <t>QGMLWY</t>
+  </si>
+  <si>
+    <t>QGMLWB</t>
+  </si>
+  <si>
+    <t>QFMLWY</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>Niro</t>
+  </si>
+  <si>
+    <t>MTGAP v2</t>
+  </si>
+  <si>
+    <t>MTGAP v1</t>
+  </si>
+  <si>
+    <t>KAEHI</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>Dvorak</t>
+  </si>
+  <si>
+    <t>Collemak</t>
+  </si>
+  <si>
+    <t>Breakl15</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>by efforts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.02,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.68,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.31,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.95,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.28,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.02,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.92,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.32,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.98,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.88,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.71,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.61,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.30,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.09,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.03,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.82,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.49,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.69,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.17,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.52,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.28,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.94,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.82,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.68,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.63,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.59,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.57,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.56,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.55,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.53,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.52,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.50,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.47,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.46,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.43,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.34,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.33,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.27,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.19,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.18,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.09,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.08,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.06,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.04,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.02,</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>nd</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
+    <t>ea</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>ld</t>
+  </si>
+  <si>
+    <t>ur</t>
   </si>
 </sst>
 </file>
@@ -383,7 +722,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,8 +757,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -849,6 +1194,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -859,7 +1230,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,6 +1529,27 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1182,37 +1574,53 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="24" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,7 +1633,17 @@
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1236,6 +1654,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4AB133F-6DAE-4231-BA3E-5FD1535A37A6}" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0">
+  <autoFilter ref="A1:D17" xr:uid="{2A73B63B-9BCC-459A-B45A-DD63FBB605A0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+    <sortCondition ref="D1:D17"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A92DB4BE-1C52-4DA8-B720-753A193D705E}" name="Layout"/>
+    <tableColumn id="2" xr3:uid="{C632784E-76DD-49BC-8099-F3E74D7D0927}" name="Efforts" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{861611B6-B3ED-4625-A36F-101A58AACE9C}" name="Distance" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{B83FA508-E4A0-4DDA-B943-6B5F52E598DC}" name="Result" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1537,16 +1971,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B6691-7246-46A6-9F21-3516326982E4}">
   <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="4.77734375" style="4"/>
     <col min="9" max="9" width="4.77734375" style="2"/>
-    <col min="10" max="17" width="4.77734375" style="4"/>
+    <col min="10" max="10" width="4.77734375" style="4"/>
+    <col min="11" max="11" width="4.77734375" style="4" customWidth="1"/>
+    <col min="12" max="17" width="4.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1565,6 +2001,9 @@
       <c r="G1" s="58">
         <v>1.8</v>
       </c>
+      <c r="H1" s="4">
+        <v>3</v>
+      </c>
       <c r="J1" s="4" t="s">
         <v>92</v>
       </c>
@@ -1596,32 +2035,32 @@
         <v>8</v>
       </c>
       <c r="K2" s="12">
-        <f t="shared" ref="K2:M4" si="0">B2*$D$1</f>
-        <v>10</v>
+        <f>B2*$D$1/$H$1</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="L2" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" ref="L2:Q4" si="0">C2*$D$1/$H$1</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="M2" s="7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="N2" s="15">
-        <f>E2*$E$1</f>
-        <v>5</v>
+        <f t="shared" ref="N2:N5" si="1">E2*$E$1/$H$1</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="O2" s="15">
-        <f>F2*$E$1</f>
-        <v>6</v>
+        <f t="shared" ref="O2" si="2">F2*$E$1/$H$1</f>
+        <v>2</v>
       </c>
       <c r="P2" s="26">
-        <f>G2*$E$1</f>
-        <v>7</v>
+        <f t="shared" ref="P2" si="3">G2*$E$1/$H$1</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="Q2" s="56">
-        <f>H2*$E$1</f>
-        <v>8</v>
+        <f t="shared" ref="Q2" si="4">H2*$E$1/$H$1</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="T2" s="86" t="s">
         <v>54</v>
@@ -1693,32 +2132,32 @@
         <v>7</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" ref="K3:K4" si="5">B3*$D$1/$H$1</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="N3" s="16">
-        <f>E3*$E$1</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="O3" s="18">
-        <f>F3*$F$1</f>
-        <v>6</v>
+        <f>F3*$F$1/$H$1</f>
+        <v>2</v>
       </c>
       <c r="P3" s="24">
-        <f>G3*$F$1</f>
-        <v>7.1999999999999993</v>
+        <f t="shared" ref="P3:Q3" si="6">G3*$F$1/$H$1</f>
+        <v>2.4</v>
       </c>
       <c r="Q3" s="25">
-        <f>H3*$F$1</f>
-        <v>8.4</v>
+        <f t="shared" si="6"/>
+        <v>2.8000000000000003</v>
       </c>
       <c r="S3" s="27"/>
       <c r="T3" s="86" t="s">
@@ -1783,38 +2222,38 @@
         <v>1</v>
       </c>
       <c r="G4" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="40">
         <v>7</v>
       </c>
       <c r="K4" s="75">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>2.3333333333333335</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N4" s="16">
-        <f>E4*$E$1</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O4" s="18">
-        <f>F4*$F$1</f>
+        <f t="shared" ref="O4:O6" si="7">F4*$F$1/$H$1</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="P4" s="9">
+        <f>G4*$G$1/$H$1</f>
         <v>1.2</v>
       </c>
-      <c r="P4" s="9">
-        <f t="shared" ref="P4:Q6" si="1">G4*$G$1</f>
-        <v>5.4</v>
-      </c>
       <c r="Q4" s="21">
-        <f t="shared" si="1"/>
-        <v>12.6</v>
+        <f>H4*$G$1/$H$1</f>
+        <v>4.2</v>
       </c>
       <c r="S4" s="27"/>
       <c r="T4" s="86" t="s">
@@ -1884,39 +2323,39 @@
         <v>2</v>
       </c>
       <c r="H5" s="45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="71">
-        <f>A5*$C$1</f>
-        <v>10</v>
+        <f>A5*$C$1/$H$1</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="K5" s="72">
-        <f>B5*$C$1</f>
-        <v>9</v>
+        <f>B5*$C$1/$H$1</f>
+        <v>3</v>
       </c>
       <c r="L5" s="62">
-        <f>C5*$D$1</f>
-        <v>7</v>
+        <f>C5*$D$1/$H$1</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="M5" s="10">
-        <f>D5*$D$1</f>
-        <v>3</v>
+        <f>D5*$D$1/$H$1</f>
+        <v>1</v>
       </c>
       <c r="N5" s="17">
-        <f>E5*$E$1</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O5" s="19">
-        <f>F5*$F$1</f>
-        <v>3.5999999999999996</v>
+        <f t="shared" si="7"/>
+        <v>1.2</v>
       </c>
       <c r="P5" s="11">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
+        <f t="shared" ref="P5:P6" si="8">G5*$G$1/$H$1</f>
+        <v>1.2</v>
       </c>
       <c r="Q5" s="22">
-        <f t="shared" si="1"/>
-        <v>10.8</v>
+        <f t="shared" ref="Q5:Q6" si="9">H5*$G$1/$H$1</f>
+        <v>4.2</v>
       </c>
       <c r="S5" s="90" t="s">
         <v>61</v>
@@ -1971,10 +2410,10 @@
       <c r="A6" s="68">
         <v>9</v>
       </c>
-      <c r="B6" s="106">
+      <c r="B6" s="115">
         <v>3</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="117">
         <v>1</v>
       </c>
       <c r="D6" s="69">
@@ -1993,44 +2432,44 @@
         <v>8</v>
       </c>
       <c r="J6" s="73">
-        <f>A6*$C$1</f>
-        <v>9</v>
-      </c>
-      <c r="K6" s="102">
-        <f>B6*$C$1</f>
+        <f t="shared" ref="J6:J7" si="10">A6*$C$1/$H$1</f>
         <v>3</v>
       </c>
-      <c r="L6" s="104">
-        <f>C6*$C$1</f>
+      <c r="K6" s="111">
+        <f>B6*$C$1/$H$1</f>
         <v>1</v>
       </c>
+      <c r="L6" s="113">
+        <f>C6*$C$1/$H$1</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="M6" s="74">
-        <f>D6*$C$1</f>
-        <v>5</v>
+        <f t="shared" ref="L5:Q6" si="11">D6*$C$1/$H$1</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="N6" s="83">
-        <f>E6*$E$1</f>
-        <v>6</v>
+        <f>E6*$E$1/$H$1</f>
+        <v>2</v>
       </c>
       <c r="O6" s="20">
-        <f>F6*$F$1</f>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="7"/>
+        <v>2.4</v>
       </c>
       <c r="P6" s="14">
-        <f t="shared" si="1"/>
-        <v>10.8</v>
+        <f t="shared" si="8"/>
+        <v>3.6</v>
       </c>
       <c r="Q6" s="23">
-        <f t="shared" si="1"/>
-        <v>14.4</v>
+        <f t="shared" si="9"/>
+        <v>4.8</v>
       </c>
       <c r="S6" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="116" t="s">
+      <c r="T6" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="U6" s="118" t="s">
+      <c r="U6" s="107" t="s">
         <v>66</v>
       </c>
       <c r="V6" s="92" t="s">
@@ -2051,10 +2490,10 @@
       <c r="AB6" s="90">
         <v>37</v>
       </c>
-      <c r="AC6" s="112">
+      <c r="AC6" s="109">
         <v>36</v>
       </c>
-      <c r="AD6" s="112">
+      <c r="AD6" s="109">
         <v>35</v>
       </c>
       <c r="AE6" s="92">
@@ -2077,24 +2516,24 @@
       <c r="A7" s="84">
         <v>6</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="109"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="J7" s="82">
-        <f>A7*$C$1</f>
-        <v>6</v>
-      </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="105"/>
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="112"/>
+      <c r="L7" s="114"/>
       <c r="S7" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="117"/>
-      <c r="U7" s="119"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="108"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
       <c r="X7" s="27"/>
@@ -2103,8 +2542,8 @@
       <c r="AB7" s="90">
         <v>38</v>
       </c>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="113"/>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
       <c r="AE7" s="27"/>
       <c r="AF7" s="27"/>
       <c r="AG7" s="27"/>
@@ -2123,7 +2562,7 @@
       </c>
       <c r="D10" s="50" t="str">
         <f>_xlfn.CONCAT("{",U14,",",U15,"}")</f>
-        <v>{"L1": 8,"L2": 7,"L3": 6,"L4": 5,"L5": 7,"L6": 8,"L7": 10,"L8": 8.4,"L9": 7.2,"L10": 6,"L11": 4,"L12": 5,"L13": 7,"L14": 8,"L15": 12.6,"L16": 5.4,"L17": 1.2,"L18": 1,"L19": 1,"L20": 6,"L21": 7,"L22": 10.8,"L23": 3.6,"L24": 3.6,"L25": 3,"L26": 3,"L27": 7,"L28": 9,"L29": 10,"L30": 14.4,"L31": 10.8,"L32": 7.2,"L33": 6,"L34": 5,"L35": 1,"L36": 3,"L37": 9,"L38": 6,"R1": 8,"R2": 7,"R3": 6,"R4": 5,"R5": 7,"R6": 8,"R7": 10,"R8": 8.4,"R9": 7.2,"R10": 6,"R11": 4,"R12": 5,"R13": 7,"R14": 8,"R15": 12.6,"R16": 5.4,"R17": 1.2,"R18": 1,"R19": 1,"R20": 6,"R21": 7,"R22": 10.8,"R23": 3.6,"R24": 3.6,"R25": 3,"R26": 3,"R27": 7,"R28": 9,"R29": 10,"R30": 14.4,"R31": 10.8,"R32": 7.2,"R33": 6,"R34": 5,"R35": 1,"R36": 3,"R37": 9,"R38": 6}</v>
+        <v>{"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.8,"L9": 2.4,"L10": 2,"L11": 1.33333333333333,"L12": 1.66666666666667,"L13": 2.33333333333333,"L14": 2.66666666666667,"L15": 4.2,"L16": 1.2,"L17": 0.4,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 2,"L21": 2.33333333333333,"L22": 4.2,"L23": 1.2,"L24": 1.2,"L25": 1,"L26": 1,"L27": 2.33333333333333,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 3.6,"L32": 2.4,"L33": 2,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2,"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.8,"R9": 2.4,"R10": 2,"R11": 1.33333333333333,"R12": 1.66666666666667,"R13": 2.33333333333333,"R14": 2.66666666666667,"R15": 4.2,"R16": 1.2,"R17": 0.4,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 2,"R21": 2.33333333333333,"R22": 4.2,"R23": 1.2,"R24": 1.2,"R25": 1,"R26": 1,"R27": 2.33333333333333,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 3.6,"R32": 2.4,"R33": 2,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2}</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
@@ -2153,19 +2592,19 @@
       </c>
       <c r="C14" s="4">
         <f>Q2</f>
-        <v>8</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E14" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A14,""": ",$C14),",",".")</f>
-        <v>"L1": 8</v>
+        <f t="shared" ref="E14:E51" si="12">SUBSTITUTE(_xlfn.CONCAT("""L",$A14,""": ",$C14),",",".")</f>
+        <v>"L1": 2.66666666666667</v>
       </c>
       <c r="H14" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A14,""": ",$C14),",",".")</f>
-        <v>"R1": 8</v>
+        <f t="shared" ref="H14:H51" si="13">SUBSTITUTE(_xlfn.CONCAT("""R",$A14,""": ",$C14),",",".")</f>
+        <v>"R1": 2.66666666666667</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="2"/>
-      <c r="L14" s="120" t="str">
+      <c r="L14" s="103" t="str">
         <f>Z2</f>
         <v>0, 8</v>
       </c>
@@ -2179,7 +2618,7 @@
       </c>
       <c r="U14" s="50" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,E14:E51,)</f>
-        <v>"L1": 8,"L2": 7,"L3": 6,"L4": 5,"L5": 7,"L6": 8,"L7": 10,"L8": 8.4,"L9": 7.2,"L10": 6,"L11": 4,"L12": 5,"L13": 7,"L14": 8,"L15": 12.6,"L16": 5.4,"L17": 1.2,"L18": 1,"L19": 1,"L20": 6,"L21": 7,"L22": 10.8,"L23": 3.6,"L24": 3.6,"L25": 3,"L26": 3,"L27": 7,"L28": 9,"L29": 10,"L30": 14.4,"L31": 10.8,"L32": 7.2,"L33": 6,"L34": 5,"L35": 1,"L36": 3,"L37": 9,"L38": 6</v>
+        <v>"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.8,"L9": 2.4,"L10": 2,"L11": 1.33333333333333,"L12": 1.66666666666667,"L13": 2.33333333333333,"L14": 2.66666666666667,"L15": 4.2,"L16": 1.2,"L17": 0.4,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 2,"L21": 2.33333333333333,"L22": 4.2,"L23": 1.2,"L24": 1.2,"L25": 1,"L26": 1,"L27": 2.33333333333333,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 3.6,"L32": 2.4,"L33": 2,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
@@ -2188,33 +2627,33 @@
       </c>
       <c r="C15" s="4">
         <f>P2</f>
-        <v>7</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E15" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A15,""": ",$C15),",",".")</f>
-        <v>"L2": 7</v>
+        <f t="shared" si="12"/>
+        <v>"L2": 2.33333333333333</v>
       </c>
       <c r="H15" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A15,""": ",$C15),",",".")</f>
-        <v>"R2": 7</v>
+        <f t="shared" si="13"/>
+        <v>"R2": 2.33333333333333</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="2"/>
-      <c r="L15" s="120" t="str">
+      <c r="L15" s="103" t="str">
         <f>Y2</f>
         <v>0, 7</v>
       </c>
       <c r="N15" s="80" t="str">
-        <f t="shared" ref="N15:N51" si="2">_xlfn.CONCAT("""L",$A15,""": """,$L15,"""")</f>
+        <f t="shared" ref="N15:N51" si="14">_xlfn.CONCAT("""L",$A15,""": """,$L15,"""")</f>
         <v>"L2": "0, 7"</v>
       </c>
       <c r="Q15" s="80" t="str">
-        <f t="shared" ref="Q15:Q51" si="3">_xlfn.CONCAT("""R",$A15,""": """,$L15,"""")</f>
+        <f t="shared" ref="Q15:Q51" si="15">_xlfn.CONCAT("""R",$A15,""": """,$L15,"""")</f>
         <v>"R2": "0, 7"</v>
       </c>
       <c r="U15" s="50" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,H14:H51,)</f>
-        <v>"R1": 8,"R2": 7,"R3": 6,"R4": 5,"R5": 7,"R6": 8,"R7": 10,"R8": 8.4,"R9": 7.2,"R10": 6,"R11": 4,"R12": 5,"R13": 7,"R14": 8,"R15": 12.6,"R16": 5.4,"R17": 1.2,"R18": 1,"R19": 1,"R20": 6,"R21": 7,"R22": 10.8,"R23": 3.6,"R24": 3.6,"R25": 3,"R26": 3,"R27": 7,"R28": 9,"R29": 10,"R30": 14.4,"R31": 10.8,"R32": 7.2,"R33": 6,"R34": 5,"R35": 1,"R36": 3,"R37": 9,"R38": 6</v>
+        <v>"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.8,"R9": 2.4,"R10": 2,"R11": 1.33333333333333,"R12": 1.66666666666667,"R13": 2.33333333333333,"R14": 2.66666666666667,"R15": 4.2,"R16": 1.2,"R17": 0.4,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 2,"R21": 2.33333333333333,"R22": 4.2,"R23": 1.2,"R24": 1.2,"R25": 1,"R26": 1,"R27": 2.33333333333333,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 3.6,"R32": 2.4,"R33": 2,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
@@ -2223,28 +2662,28 @@
       </c>
       <c r="C16" s="4">
         <f>O2</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E16" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A16,""": ",$C16),",",".")</f>
-        <v>"L3": 6</v>
+        <f t="shared" si="12"/>
+        <v>"L3": 2</v>
       </c>
       <c r="H16" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A16,""": ",$C16),",",".")</f>
-        <v>"R3": 6</v>
+        <f t="shared" si="13"/>
+        <v>"R3": 2</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="2"/>
-      <c r="L16" s="120" t="str">
+      <c r="L16" s="103" t="str">
         <f>X2</f>
         <v>0, 6</v>
       </c>
       <c r="N16" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L3": "0, 6"</v>
       </c>
       <c r="Q16" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R3": "0, 6"</v>
       </c>
       <c r="U16" s="4"/>
@@ -2255,28 +2694,28 @@
       </c>
       <c r="C17" s="4">
         <f>N2</f>
-        <v>5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E17" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A17,""": ",$C17),",",".")</f>
-        <v>"L4": 5</v>
+        <f t="shared" si="12"/>
+        <v>"L4": 1.66666666666667</v>
       </c>
       <c r="H17" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A17,""": ",$C17),",",".")</f>
-        <v>"R4": 5</v>
+        <f t="shared" si="13"/>
+        <v>"R4": 1.66666666666667</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
-      <c r="L17" s="120" t="str">
+      <c r="L17" s="103" t="str">
         <f>W2</f>
         <v>0, 5</v>
       </c>
       <c r="N17" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L4": "0, 5"</v>
       </c>
       <c r="Q17" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R4": "0, 5"</v>
       </c>
     </row>
@@ -2286,30 +2725,30 @@
       </c>
       <c r="C18" s="4">
         <f>M2</f>
-        <v>7</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E18" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A18,""": ",$C18),",",".")</f>
-        <v>"L5": 7</v>
+        <f t="shared" si="12"/>
+        <v>"L5": 2.33333333333333</v>
       </c>
       <c r="G18" s="51"/>
       <c r="H18" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A18,""": ",$C18),",",".")</f>
-        <v>"R5": 7</v>
+        <f t="shared" si="13"/>
+        <v>"R5": 2.33333333333333</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
-      <c r="L18" s="120" t="str">
+      <c r="L18" s="103" t="str">
         <f>V2</f>
         <v>0, 4</v>
       </c>
       <c r="N18" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L5": "0, 4"</v>
       </c>
       <c r="P18" s="51"/>
       <c r="Q18" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R5": "0, 4"</v>
       </c>
       <c r="U18" t="s">
@@ -2322,28 +2761,28 @@
       </c>
       <c r="C19" s="4">
         <f>L2</f>
-        <v>8</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E19" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A19,""": ",$C19),",",".")</f>
-        <v>"L6": 8</v>
+        <f t="shared" si="12"/>
+        <v>"L6": 2.66666666666667</v>
       </c>
       <c r="H19" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A19,""": ",$C19),",",".")</f>
-        <v>"R6": 8</v>
+        <f t="shared" si="13"/>
+        <v>"R6": 2.66666666666667</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
-      <c r="L19" s="120" t="str">
+      <c r="L19" s="103" t="str">
         <f>U2</f>
         <v>0, 3</v>
       </c>
       <c r="N19" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L6": "0, 3"</v>
       </c>
       <c r="Q19" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R6": "0, 3"</v>
       </c>
       <c r="U19" s="50" t="str">
@@ -2357,28 +2796,28 @@
       </c>
       <c r="C20" s="4">
         <f>K2</f>
-        <v>10</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="E20" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A20,""": ",$C20),",",".")</f>
-        <v>"L7": 10</v>
+        <f t="shared" si="12"/>
+        <v>"L7": 3.33333333333333</v>
       </c>
       <c r="H20" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A20,""": ",$C20),",",".")</f>
-        <v>"R7": 10</v>
+        <f t="shared" si="13"/>
+        <v>"R7": 3.33333333333333</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="2"/>
-      <c r="L20" s="120" t="str">
+      <c r="L20" s="103" t="str">
         <f>T2</f>
         <v>0, 2</v>
       </c>
       <c r="N20" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L7": "0, 2"</v>
       </c>
       <c r="Q20" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R7": "0, 2"</v>
       </c>
       <c r="U20" s="50" t="str">
@@ -2392,28 +2831,28 @@
       </c>
       <c r="C21" s="4">
         <f>Q3</f>
-        <v>8.4</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="E21" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A21,""": ",$C21),",",".")</f>
-        <v>"L8": 8.4</v>
+        <f t="shared" si="12"/>
+        <v>"L8": 2.8</v>
       </c>
       <c r="H21" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A21,""": ",$C21),",",".")</f>
-        <v>"R8": 8.4</v>
+        <f t="shared" si="13"/>
+        <v>"R8": 2.8</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="2"/>
-      <c r="L21" s="120" t="str">
+      <c r="L21" s="103" t="str">
         <f>Z3</f>
         <v>1, 8</v>
       </c>
       <c r="N21" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L8": "1, 8"</v>
       </c>
       <c r="Q21" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R8": "1, 8"</v>
       </c>
     </row>
@@ -2423,28 +2862,28 @@
       </c>
       <c r="C22" s="4">
         <f>P3</f>
-        <v>7.1999999999999993</v>
+        <v>2.4</v>
       </c>
       <c r="E22" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A22,""": ",$C22),",",".")</f>
-        <v>"L9": 7.2</v>
+        <f t="shared" si="12"/>
+        <v>"L9": 2.4</v>
       </c>
       <c r="H22" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A22,""": ",$C22),",",".")</f>
-        <v>"R9": 7.2</v>
+        <f t="shared" si="13"/>
+        <v>"R9": 2.4</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="2"/>
-      <c r="L22" s="120" t="str">
+      <c r="L22" s="103" t="str">
         <f>Y3</f>
         <v>1, 7</v>
       </c>
       <c r="N22" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L9": "1, 7"</v>
       </c>
       <c r="Q22" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R9": "1, 7"</v>
       </c>
     </row>
@@ -2454,28 +2893,28 @@
       </c>
       <c r="C23" s="4">
         <f>O3</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E23" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A23,""": ",$C23),",",".")</f>
-        <v>"L10": 6</v>
+        <f t="shared" si="12"/>
+        <v>"L10": 2</v>
       </c>
       <c r="H23" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A23,""": ",$C23),",",".")</f>
-        <v>"R10": 6</v>
+        <f t="shared" si="13"/>
+        <v>"R10": 2</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="2"/>
-      <c r="L23" s="120" t="str">
+      <c r="L23" s="103" t="str">
         <f>X3</f>
         <v>1, 6</v>
       </c>
       <c r="N23" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L10": "1, 6"</v>
       </c>
       <c r="Q23" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R10": "1, 6"</v>
       </c>
       <c r="U23" t="s">
@@ -2488,28 +2927,28 @@
       </c>
       <c r="C24" s="4">
         <f>N3</f>
-        <v>4</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E24" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A24,""": ",$C24),",",".")</f>
-        <v>"L11": 4</v>
+        <f t="shared" si="12"/>
+        <v>"L11": 1.33333333333333</v>
       </c>
       <c r="H24" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A24,""": ",$C24),",",".")</f>
-        <v>"R11": 4</v>
+        <f t="shared" si="13"/>
+        <v>"R11": 1.33333333333333</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="2"/>
-      <c r="L24" s="120" t="str">
+      <c r="L24" s="103" t="str">
         <f>W3</f>
         <v>1, 5</v>
       </c>
       <c r="N24" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L11": "1, 5"</v>
       </c>
       <c r="Q24" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R11": "1, 5"</v>
       </c>
       <c r="U24" s="70" t="s">
@@ -2522,28 +2961,28 @@
       </c>
       <c r="C25" s="4">
         <f>M3</f>
-        <v>5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E25" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A25,""": ",$C25),",",".")</f>
-        <v>"L12": 5</v>
+        <f t="shared" si="12"/>
+        <v>"L12": 1.66666666666667</v>
       </c>
       <c r="H25" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A25,""": ",$C25),",",".")</f>
-        <v>"R12": 5</v>
+        <f t="shared" si="13"/>
+        <v>"R12": 1.66666666666667</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="2"/>
-      <c r="L25" s="120" t="str">
+      <c r="L25" s="103" t="str">
         <f>V3</f>
         <v>1, 4</v>
       </c>
       <c r="N25" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L12": "1, 4"</v>
       </c>
       <c r="Q25" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R12": "1, 4"</v>
       </c>
       <c r="U25" s="70" t="s">
@@ -2556,28 +2995,28 @@
       </c>
       <c r="C26" s="4">
         <f>L3</f>
-        <v>7</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E26" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A26,""": ",$C26),",",".")</f>
-        <v>"L13": 7</v>
+        <f t="shared" si="12"/>
+        <v>"L13": 2.33333333333333</v>
       </c>
       <c r="H26" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A26,""": ",$C26),",",".")</f>
-        <v>"R13": 7</v>
+        <f t="shared" si="13"/>
+        <v>"R13": 2.33333333333333</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="2"/>
-      <c r="L26" s="120" t="str">
+      <c r="L26" s="103" t="str">
         <f>U3</f>
         <v>1, 3</v>
       </c>
       <c r="N26" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L13": "1, 3"</v>
       </c>
       <c r="Q26" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R13": "1, 3"</v>
       </c>
       <c r="U26" s="70" t="s">
@@ -2590,28 +3029,28 @@
       </c>
       <c r="C27" s="4">
         <f>K3</f>
-        <v>8</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E27" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A27,""": ",$C27),",",".")</f>
-        <v>"L14": 8</v>
+        <f t="shared" si="12"/>
+        <v>"L14": 2.66666666666667</v>
       </c>
       <c r="H27" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A27,""": ",$C27),",",".")</f>
-        <v>"R14": 8</v>
+        <f t="shared" si="13"/>
+        <v>"R14": 2.66666666666667</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="2"/>
-      <c r="L27" s="120" t="str">
+      <c r="L27" s="103" t="str">
         <f>T3</f>
         <v>1.5, 2</v>
       </c>
       <c r="N27" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L14": "1.5, 2"</v>
       </c>
       <c r="Q27" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R14": "1.5, 2"</v>
       </c>
       <c r="U27" s="70" t="s">
@@ -2624,28 +3063,28 @@
       </c>
       <c r="C28" s="4">
         <f>Q4</f>
-        <v>12.6</v>
+        <v>4.2</v>
       </c>
       <c r="E28" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A28,""": ",$C28),",",".")</f>
-        <v>"L15": 12.6</v>
+        <f t="shared" si="12"/>
+        <v>"L15": 4.2</v>
       </c>
       <c r="H28" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A28,""": ",$C28),",",".")</f>
-        <v>"R15": 12.6</v>
+        <f t="shared" si="13"/>
+        <v>"R15": 4.2</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
-      <c r="L28" s="120" t="str">
+      <c r="L28" s="103" t="str">
         <f>Z4</f>
         <v>2, 8</v>
       </c>
       <c r="N28" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L15": "2, 8"</v>
       </c>
       <c r="Q28" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R15": "2, 8"</v>
       </c>
       <c r="U28" s="70" t="s">
@@ -2658,28 +3097,28 @@
       </c>
       <c r="C29" s="4">
         <f>P4</f>
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="E29" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A29,""": ",$C29),",",".")</f>
-        <v>"L16": 5.4</v>
+        <f t="shared" si="12"/>
+        <v>"L16": 1.2</v>
       </c>
       <c r="H29" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A29,""": ",$C29),",",".")</f>
-        <v>"R16": 5.4</v>
+        <f t="shared" si="13"/>
+        <v>"R16": 1.2</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="2"/>
-      <c r="L29" s="120" t="str">
+      <c r="L29" s="103" t="str">
         <f>Y4</f>
         <v>2, 7</v>
       </c>
       <c r="N29" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L16": "2, 7"</v>
       </c>
       <c r="Q29" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R16": "2, 7"</v>
       </c>
     </row>
@@ -2689,28 +3128,28 @@
       </c>
       <c r="C30" s="4">
         <f>O4</f>
-        <v>1.2</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="E30" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A30,""": ",$C30),",",".")</f>
-        <v>"L17": 1.2</v>
+        <f t="shared" si="12"/>
+        <v>"L17": 0.4</v>
       </c>
       <c r="H30" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A30,""": ",$C30),",",".")</f>
-        <v>"R17": 1.2</v>
+        <f t="shared" si="13"/>
+        <v>"R17": 0.4</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="2"/>
-      <c r="L30" s="120" t="str">
+      <c r="L30" s="103" t="str">
         <f>X4</f>
         <v>2, 6</v>
       </c>
       <c r="N30" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L17": "2, 6"</v>
       </c>
       <c r="Q30" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R17": "2, 6"</v>
       </c>
     </row>
@@ -2720,28 +3159,28 @@
       </c>
       <c r="C31" s="4">
         <f>N4</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E31" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A31,""": ",$C31),",",".")</f>
-        <v>"L18": 1</v>
+        <f t="shared" si="12"/>
+        <v>"L18": 0.333333333333333</v>
       </c>
       <c r="H31" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A31,""": ",$C31),",",".")</f>
-        <v>"R18": 1</v>
+        <f t="shared" si="13"/>
+        <v>"R18": 0.333333333333333</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="2"/>
-      <c r="L31" s="120" t="str">
+      <c r="L31" s="103" t="str">
         <f>W4</f>
         <v>2, 5</v>
       </c>
       <c r="N31" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L18": "2, 5"</v>
       </c>
       <c r="Q31" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R18": "2, 5"</v>
       </c>
     </row>
@@ -2751,28 +3190,28 @@
       </c>
       <c r="C32" s="4">
         <f>M4</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E32" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A32,""": ",$C32),",",".")</f>
-        <v>"L19": 1</v>
+        <f t="shared" si="12"/>
+        <v>"L19": 0.333333333333333</v>
       </c>
       <c r="H32" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A32,""": ",$C32),",",".")</f>
-        <v>"R19": 1</v>
+        <f t="shared" si="13"/>
+        <v>"R19": 0.333333333333333</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="2"/>
-      <c r="L32" s="120" t="str">
+      <c r="L32" s="103" t="str">
         <f>V4</f>
         <v>2, 4</v>
       </c>
       <c r="N32" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L19": "2, 4"</v>
       </c>
       <c r="Q32" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R19": "2, 4"</v>
       </c>
     </row>
@@ -2782,28 +3221,28 @@
       </c>
       <c r="C33" s="4">
         <f>L4</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E33" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A33,""": ",$C33),",",".")</f>
-        <v>"L20": 6</v>
+        <f t="shared" si="12"/>
+        <v>"L20": 2</v>
       </c>
       <c r="H33" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A33,""": ",$C33),",",".")</f>
-        <v>"R20": 6</v>
+        <f t="shared" si="13"/>
+        <v>"R20": 2</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="2"/>
-      <c r="L33" s="120" t="str">
+      <c r="L33" s="103" t="str">
         <f>U4</f>
         <v>2, 3</v>
       </c>
       <c r="N33" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L20": "2, 3"</v>
       </c>
       <c r="Q33" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R20": "2, 3"</v>
       </c>
     </row>
@@ -2813,28 +3252,28 @@
       </c>
       <c r="C34" s="4">
         <f>K4</f>
-        <v>7</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E34" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A34,""": ",$C34),",",".")</f>
-        <v>"L21": 7</v>
+        <f t="shared" si="12"/>
+        <v>"L21": 2.33333333333333</v>
       </c>
       <c r="H34" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A34,""": ",$C34),",",".")</f>
-        <v>"R21": 7</v>
+        <f t="shared" si="13"/>
+        <v>"R21": 2.33333333333333</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="2"/>
-      <c r="L34" s="120" t="str">
+      <c r="L34" s="103" t="str">
         <f>T4</f>
         <v>3, 2</v>
       </c>
       <c r="N34" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L21": "3, 2"</v>
       </c>
       <c r="Q34" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R21": "3, 2"</v>
       </c>
     </row>
@@ -2844,28 +3283,28 @@
       </c>
       <c r="C35" s="4">
         <f>Q5</f>
-        <v>10.8</v>
+        <v>4.2</v>
       </c>
       <c r="E35" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A35,""": ",$C35),",",".")</f>
-        <v>"L22": 10.8</v>
+        <f t="shared" si="12"/>
+        <v>"L22": 4.2</v>
       </c>
       <c r="H35" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A35,""": ",$C35),",",".")</f>
-        <v>"R22": 10.8</v>
+        <f t="shared" si="13"/>
+        <v>"R22": 4.2</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="2"/>
-      <c r="L35" s="120" t="str">
+      <c r="L35" s="103" t="str">
         <f>Z5</f>
         <v>3, 8</v>
       </c>
       <c r="N35" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L22": "3, 8"</v>
       </c>
       <c r="Q35" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R22": "3, 8"</v>
       </c>
     </row>
@@ -2875,28 +3314,28 @@
       </c>
       <c r="C36" s="4">
         <f>P5</f>
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="E36" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A36,""": ",$C36),",",".")</f>
-        <v>"L23": 3.6</v>
+        <f t="shared" si="12"/>
+        <v>"L23": 1.2</v>
       </c>
       <c r="H36" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A36,""": ",$C36),",",".")</f>
-        <v>"R23": 3.6</v>
+        <f t="shared" si="13"/>
+        <v>"R23": 1.2</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
-      <c r="L36" s="120" t="str">
+      <c r="L36" s="103" t="str">
         <f>Y5</f>
         <v>3, 7</v>
       </c>
       <c r="N36" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L23": "3, 7"</v>
       </c>
       <c r="Q36" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R23": "3, 7"</v>
       </c>
     </row>
@@ -2906,28 +3345,28 @@
       </c>
       <c r="C37" s="4">
         <f>O5</f>
-        <v>3.5999999999999996</v>
+        <v>1.2</v>
       </c>
       <c r="E37" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A37,""": ",$C37),",",".")</f>
-        <v>"L24": 3.6</v>
+        <f t="shared" si="12"/>
+        <v>"L24": 1.2</v>
       </c>
       <c r="H37" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A37,""": ",$C37),",",".")</f>
-        <v>"R24": 3.6</v>
+        <f t="shared" si="13"/>
+        <v>"R24": 1.2</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="2"/>
-      <c r="L37" s="120" t="str">
+      <c r="L37" s="103" t="str">
         <f>X5</f>
         <v>3, 6</v>
       </c>
       <c r="N37" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L24": "3, 6"</v>
       </c>
       <c r="Q37" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R24": "3, 6"</v>
       </c>
     </row>
@@ -2937,28 +3376,28 @@
       </c>
       <c r="C38" s="4">
         <f>N5</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A38,""": ",$C38),",",".")</f>
-        <v>"L25": 3</v>
+        <f t="shared" si="12"/>
+        <v>"L25": 1</v>
       </c>
       <c r="H38" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A38,""": ",$C38),",",".")</f>
-        <v>"R25": 3</v>
+        <f t="shared" si="13"/>
+        <v>"R25": 1</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="2"/>
-      <c r="L38" s="120" t="str">
+      <c r="L38" s="103" t="str">
         <f>W5</f>
         <v>3, 5</v>
       </c>
       <c r="N38" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L25": "3, 5"</v>
       </c>
       <c r="Q38" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R25": "3, 5"</v>
       </c>
     </row>
@@ -2968,28 +3407,28 @@
       </c>
       <c r="C39" s="4">
         <f>M5</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A39,""": ",$C39),",",".")</f>
-        <v>"L26": 3</v>
+        <f t="shared" si="12"/>
+        <v>"L26": 1</v>
       </c>
       <c r="H39" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A39,""": ",$C39),",",".")</f>
-        <v>"R26": 3</v>
+        <f t="shared" si="13"/>
+        <v>"R26": 1</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="2"/>
-      <c r="L39" s="120" t="str">
+      <c r="L39" s="103" t="str">
         <f>V5</f>
         <v>3, 4</v>
       </c>
       <c r="N39" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L26": "3, 4"</v>
       </c>
       <c r="Q39" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R26": "3, 4"</v>
       </c>
     </row>
@@ -2999,28 +3438,28 @@
       </c>
       <c r="C40" s="4">
         <f>L5</f>
-        <v>7</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E40" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A40,""": ",$C40),",",".")</f>
-        <v>"L27": 7</v>
+        <f t="shared" si="12"/>
+        <v>"L27": 2.33333333333333</v>
       </c>
       <c r="H40" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A40,""": ",$C40),",",".")</f>
-        <v>"R27": 7</v>
+        <f t="shared" si="13"/>
+        <v>"R27": 2.33333333333333</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="2"/>
-      <c r="L40" s="120" t="str">
+      <c r="L40" s="103" t="str">
         <f>U5</f>
         <v>3, 3</v>
       </c>
       <c r="N40" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L27": "3, 3"</v>
       </c>
       <c r="Q40" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R27": "3, 3"</v>
       </c>
     </row>
@@ -3030,28 +3469,28 @@
       </c>
       <c r="C41" s="4">
         <f>K5</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E41" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A41,""": ",$C41),",",".")</f>
-        <v>"L28": 9</v>
+        <f t="shared" si="12"/>
+        <v>"L28": 3</v>
       </c>
       <c r="H41" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A41,""": ",$C41),",",".")</f>
-        <v>"R28": 9</v>
+        <f t="shared" si="13"/>
+        <v>"R28": 3</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="2"/>
-      <c r="L41" s="120" t="str">
+      <c r="L41" s="103" t="str">
         <f>T5</f>
         <v>4, 1</v>
       </c>
       <c r="N41" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L28": "4, 1"</v>
       </c>
       <c r="Q41" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R28": "4, 1"</v>
       </c>
     </row>
@@ -3061,28 +3500,28 @@
       </c>
       <c r="C42" s="4">
         <f>J5</f>
-        <v>10</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="E42" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A42,""": ",$C42),",",".")</f>
-        <v>"L29": 10</v>
+        <f t="shared" si="12"/>
+        <v>"L29": 3.33333333333333</v>
       </c>
       <c r="H42" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A42,""": ",$C42),",",".")</f>
-        <v>"R29": 10</v>
+        <f t="shared" si="13"/>
+        <v>"R29": 3.33333333333333</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="2"/>
-      <c r="L42" s="120" t="str">
+      <c r="L42" s="103" t="str">
         <f>S5</f>
         <v>4, 0</v>
       </c>
       <c r="N42" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L29": "4, 0"</v>
       </c>
       <c r="Q42" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R29": "4, 0"</v>
       </c>
     </row>
@@ -3092,28 +3531,28 @@
       </c>
       <c r="C43" s="4">
         <f>Q6</f>
-        <v>14.4</v>
+        <v>4.8</v>
       </c>
       <c r="E43" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A43,""": ",$C43),",",".")</f>
-        <v>"L30": 14.4</v>
+        <f t="shared" si="12"/>
+        <v>"L30": 4.8</v>
       </c>
       <c r="H43" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A43,""": ",$C43),",",".")</f>
-        <v>"R30": 14.4</v>
+        <f t="shared" si="13"/>
+        <v>"R30": 4.8</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="2"/>
-      <c r="L43" s="120" t="str">
+      <c r="L43" s="103" t="str">
         <f>Z6</f>
         <v>4, 8</v>
       </c>
       <c r="N43" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L30": "4, 8"</v>
       </c>
       <c r="Q43" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R30": "4, 8"</v>
       </c>
     </row>
@@ -3123,28 +3562,28 @@
       </c>
       <c r="C44" s="4">
         <f>P6</f>
-        <v>10.8</v>
+        <v>3.6</v>
       </c>
       <c r="E44" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A44,""": ",$C44),",",".")</f>
-        <v>"L31": 10.8</v>
+        <f t="shared" si="12"/>
+        <v>"L31": 3.6</v>
       </c>
       <c r="H44" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A44,""": ",$C44),",",".")</f>
-        <v>"R31": 10.8</v>
+        <f t="shared" si="13"/>
+        <v>"R31": 3.6</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="2"/>
-      <c r="L44" s="120" t="str">
+      <c r="L44" s="103" t="str">
         <f>Y6</f>
         <v>4, 7</v>
       </c>
       <c r="N44" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L31": "4, 7"</v>
       </c>
       <c r="Q44" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R31": "4, 7"</v>
       </c>
     </row>
@@ -3154,28 +3593,28 @@
       </c>
       <c r="C45" s="4">
         <f>O6</f>
-        <v>7.1999999999999993</v>
+        <v>2.4</v>
       </c>
       <c r="E45" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A45,""": ",$C45),",",".")</f>
-        <v>"L32": 7.2</v>
+        <f t="shared" si="12"/>
+        <v>"L32": 2.4</v>
       </c>
       <c r="H45" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A45,""": ",$C45),",",".")</f>
-        <v>"R32": 7.2</v>
+        <f t="shared" si="13"/>
+        <v>"R32": 2.4</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="2"/>
-      <c r="L45" s="120" t="str">
+      <c r="L45" s="103" t="str">
         <f>X6</f>
         <v>4, 6</v>
       </c>
       <c r="N45" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L32": "4, 6"</v>
       </c>
       <c r="Q45" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R32": "4, 6"</v>
       </c>
     </row>
@@ -3185,28 +3624,28 @@
       </c>
       <c r="C46" s="4">
         <f>N6</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E46" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A46,""": ",$C46),",",".")</f>
-        <v>"L33": 6</v>
+        <f t="shared" si="12"/>
+        <v>"L33": 2</v>
       </c>
       <c r="H46" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A46,""": ",$C46),",",".")</f>
-        <v>"R33": 6</v>
+        <f t="shared" si="13"/>
+        <v>"R33": 2</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="2"/>
-      <c r="L46" s="120" t="str">
+      <c r="L46" s="103" t="str">
         <f>W6</f>
         <v>4, 5</v>
       </c>
       <c r="N46" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L33": "4, 5"</v>
       </c>
       <c r="Q46" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R33": "4, 5"</v>
       </c>
     </row>
@@ -3216,28 +3655,28 @@
       </c>
       <c r="C47" s="4">
         <f>M6</f>
-        <v>5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E47" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A47,""": ",$C47),",",".")</f>
-        <v>"L34": 5</v>
+        <f t="shared" si="12"/>
+        <v>"L34": 1.66666666666667</v>
       </c>
       <c r="H47" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A47,""": ",$C47),",",".")</f>
-        <v>"R34": 5</v>
+        <f t="shared" si="13"/>
+        <v>"R34": 1.66666666666667</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="2"/>
-      <c r="L47" s="120" t="str">
+      <c r="L47" s="103" t="str">
         <f>V6</f>
         <v>4, 4</v>
       </c>
       <c r="N47" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L34": "4, 4"</v>
       </c>
       <c r="Q47" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R34": "4, 4"</v>
       </c>
     </row>
@@ -3247,28 +3686,28 @@
       </c>
       <c r="C48" s="4">
         <f>L6</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E48" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A48,""": ",$C48),",",".")</f>
-        <v>"L35": 1</v>
+        <f t="shared" si="12"/>
+        <v>"L35": 0.333333333333333</v>
       </c>
       <c r="H48" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A48,""": ",$C48),",",".")</f>
-        <v>"R35": 1</v>
+        <f t="shared" si="13"/>
+        <v>"R35": 0.333333333333333</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="2"/>
-      <c r="L48" s="120" t="str">
+      <c r="L48" s="103" t="str">
         <f>U6</f>
         <v>5, 2.5</v>
       </c>
       <c r="N48" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L35": "5, 2.5"</v>
       </c>
       <c r="Q48" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R35": "5, 2.5"</v>
       </c>
     </row>
@@ -3278,28 +3717,28 @@
       </c>
       <c r="C49" s="4">
         <f>K6</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A49,""": ",$C49),",",".")</f>
-        <v>"L36": 3</v>
+        <f t="shared" si="12"/>
+        <v>"L36": 1</v>
       </c>
       <c r="H49" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A49,""": ",$C49),",",".")</f>
-        <v>"R36": 3</v>
+        <f t="shared" si="13"/>
+        <v>"R36": 1</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="2"/>
-      <c r="L49" s="120" t="str">
+      <c r="L49" s="103" t="str">
         <f>T6</f>
         <v>5.5, 1.5</v>
       </c>
       <c r="N49" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L36": "5.5, 1.5"</v>
       </c>
       <c r="Q49" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R36": "5.5, 1.5"</v>
       </c>
     </row>
@@ -3309,28 +3748,28 @@
       </c>
       <c r="C50" s="4">
         <f>J6</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E50" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A50,""": ",$C50),",",".")</f>
-        <v>"L37": 9</v>
+        <f t="shared" si="12"/>
+        <v>"L37": 3</v>
       </c>
       <c r="H50" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A50,""": ",$C50),",",".")</f>
-        <v>"R37": 9</v>
+        <f t="shared" si="13"/>
+        <v>"R37": 3</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="2"/>
-      <c r="L50" s="120" t="str">
+      <c r="L50" s="103" t="str">
         <f>S6</f>
         <v>5, 0.5</v>
       </c>
       <c r="N50" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L37": "5, 0.5"</v>
       </c>
       <c r="Q50" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R37": "5, 0.5"</v>
       </c>
     </row>
@@ -3340,41 +3779,41 @@
       </c>
       <c r="C51" s="4">
         <f>J7</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E51" s="80" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A51,""": ",$C51),",",".")</f>
-        <v>"L38": 6</v>
+        <f t="shared" si="12"/>
+        <v>"L38": 2</v>
       </c>
       <c r="H51" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A51,""": ",$C51),",",".")</f>
-        <v>"R38": 6</v>
+        <f t="shared" si="13"/>
+        <v>"R38": 2</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="2"/>
-      <c r="L51" s="120" t="str">
+      <c r="L51" s="103" t="str">
         <f>S7</f>
         <v>6, 1</v>
       </c>
       <c r="N51" s="80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>"L38": "6, 1"</v>
       </c>
       <c r="Q51" s="80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>"R38": "6, 1"</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="T6:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3385,6 +3824,1726 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86">
+        <v>6</v>
+      </c>
+      <c r="M1" s="91">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87">
+        <v>8</v>
+      </c>
+      <c r="O1" s="87">
+        <v>9</v>
+      </c>
+      <c r="P1" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "e"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "r"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "t"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "y"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "i"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "o"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "p"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "d"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "f"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "j"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "k"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "l"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": ";"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "n"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27715-3509-47E9-A9CB-5DE4634BE300}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86">
+        <v>6</v>
+      </c>
+      <c r="M1" s="91">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87">
+        <v>8</v>
+      </c>
+      <c r="O1" s="87">
+        <v>9</v>
+      </c>
+      <c r="P1" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "f"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "p"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "g"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "l"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "y"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "r"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "s"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "d"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "i"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "k"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{56FF858C-D053-4773-B17F-B101BCB7C75E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DCC6E8-8838-49B0-A240-A4CF935DB5EC}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86">
+        <v>6</v>
+      </c>
+      <c r="M1" s="91">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87">
+        <v>8</v>
+      </c>
+      <c r="O1" s="87">
+        <v>9</v>
+      </c>
+      <c r="P1" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "y"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "p"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "o"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "k"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "d"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "l"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "c"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "w"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "i"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "n"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "a"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": ","</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "m"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "h"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "t"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "r"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "q"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "z"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "/"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "."</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": ";"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "f"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "g"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "v"</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "x"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "y","10": "p","11": "o","12": "u","13": "j","14": "\\","15": "","16": "i","17": "n","18": "e","19": "a","20": ",","21": "","22": "`","23": "q","24": "z","25": "/","26": ".","27": ";","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "k","12": "d","11": "l","10": "c","9": "w","8": "[","21": "","20": "m","19": "h","18": "t","17": "s","16": "r","15": "'","29": "","28": "","27": "b","26": "f","25": "g","24": "v","23": "x","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "y","10": "p","11": "o","12": "u","13": "j","14": "\\","15": "","16": "i","17": "n","18": "e","19": "a","20": ",","21": "","22": "`","23": "q","24": "z","25": "/","26": ".","27": ";","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "k","12": "d","11": "l","10": "c","9": "w","8": "[","21": "","20": "m","19": "h","18": "t","17": "s","16": "r","15": "'","29": "","28": "","27": "b","26": "f","25": "g","24": "v","23": "x","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{8C12272F-70D4-459A-BF7C-F64AD58C34C5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F82B80-7F41-4926-8A25-14D35408A7A1}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -3572,12 +5731,12 @@
       <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="3"/>
       <c r="J5" s="90"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="124" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="92" t="s">
@@ -3596,12 +5755,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="J6" s="90"/>
       <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -3953,7 +6112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D0F36D-A06F-4E02-AC07-5A63EE7CD312}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -4141,12 +6300,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="3"/>
       <c r="J5" s="90"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="124" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="92" t="s">
@@ -4165,12 +6324,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="J6" s="90"/>
       <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -4525,7 +6684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDBB2D6-01F8-44E3-8C08-222DAA0B7703}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -4713,12 +6872,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="3"/>
       <c r="J5" s="90"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="124" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="92" t="s">
@@ -4737,12 +6896,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="J6" s="90"/>
       <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -5097,7 +7256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2B976-8DBD-44BC-8A4B-199C621F6D1E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -5285,12 +7444,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="3"/>
       <c r="J5" s="90"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="124" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="92" t="s">
@@ -5309,12 +7468,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="J6" s="90"/>
       <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -5669,7 +7828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8AC8BE-5EAD-43BE-A533-75865B4E96B5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -5857,12 +8016,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="3"/>
       <c r="J5" s="90"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="124" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="92" t="s">
@@ -5881,12 +8040,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="J6" s="90"/>
       <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -6241,7 +8400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0F971E-842D-4FFC-8F12-3AD6BFCF94FA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -6429,12 +8588,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="3"/>
       <c r="J5" s="90"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="124" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="92" t="s">
@@ -6453,12 +8612,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="J6" s="90"/>
       <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -6813,7 +8972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0ED93C-CABF-47EC-AD81-D7985BA91921}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -7001,12 +9160,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="3"/>
       <c r="J5" s="90"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="124" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="92" t="s">
@@ -7025,12 +9184,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="J6" s="90"/>
       <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -7385,7 +9544,321 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC63CFF-AE66-45CB-9330-30F96D8360CD}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="104">
+        <v>63006826.979999997</v>
+      </c>
+      <c r="C2" s="104">
+        <v>19395332.300000001</v>
+      </c>
+      <c r="D2" s="104">
+        <v>82935207.909999996</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="104">
+        <v>63021594.32</v>
+      </c>
+      <c r="C3" s="104">
+        <v>19826891.16</v>
+      </c>
+      <c r="D3" s="104">
+        <v>84866278.140000001</v>
+      </c>
+      <c r="F3" s="106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="104">
+        <v>67454002.200000003</v>
+      </c>
+      <c r="C4" s="104">
+        <v>19297528.530000001</v>
+      </c>
+      <c r="D4" s="104">
+        <v>86578542.310000002</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="104">
+        <v>67577455.799999997</v>
+      </c>
+      <c r="C5" s="104">
+        <v>19651448.32</v>
+      </c>
+      <c r="D5" s="104">
+        <v>87836971.450000003</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="104">
+        <v>64336488.939999998</v>
+      </c>
+      <c r="C6" s="104">
+        <v>20230518.75</v>
+      </c>
+      <c r="D6" s="104">
+        <v>87868316.140000001</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="104">
+        <v>62843938.359999999</v>
+      </c>
+      <c r="C7" s="104">
+        <v>21059347.890000001</v>
+      </c>
+      <c r="D7" s="104">
+        <v>87955816.640000001</v>
+      </c>
+      <c r="F7" s="106" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="104">
+        <v>67508647.859999999</v>
+      </c>
+      <c r="C8" s="104">
+        <v>20046089.260000002</v>
+      </c>
+      <c r="D8" s="104">
+        <v>88286789.760000005</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="104">
+        <v>66392714.619999997</v>
+      </c>
+      <c r="C9" s="104">
+        <v>20670094.780000001</v>
+      </c>
+      <c r="D9" s="104">
+        <v>88358159.370000005</v>
+      </c>
+      <c r="F9" s="106" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="104">
+        <v>64553896.880000003</v>
+      </c>
+      <c r="C10" s="104">
+        <v>20861397.899999999</v>
+      </c>
+      <c r="D10" s="104">
+        <v>89485860.049999997</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="104">
+        <v>70345275.159999996</v>
+      </c>
+      <c r="C11" s="104">
+        <v>18853846.870000001</v>
+      </c>
+      <c r="D11" s="104">
+        <v>89982358.519999996</v>
+      </c>
+      <c r="F11" s="106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="104">
+        <v>61493510.240000002</v>
+      </c>
+      <c r="C12" s="104">
+        <v>21237339.98</v>
+      </c>
+      <c r="D12" s="104">
+        <v>90472118.769999996</v>
+      </c>
+      <c r="F12" s="105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="104">
+        <v>69122581.920000002</v>
+      </c>
+      <c r="C13" s="104">
+        <v>19579550.539999999</v>
+      </c>
+      <c r="D13" s="104">
+        <v>91093558.439999998</v>
+      </c>
+      <c r="F13" s="106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="104">
+        <v>70217301.200000003</v>
+      </c>
+      <c r="C14" s="104">
+        <v>19953253.190000001</v>
+      </c>
+      <c r="D14" s="104">
+        <v>92342053.359999999</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="104">
+        <v>78131280.400000006</v>
+      </c>
+      <c r="C15" s="104">
+        <v>21101450.010000002</v>
+      </c>
+      <c r="D15" s="104">
+        <v>104726747.16</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="104">
+        <v>90643274.200000003</v>
+      </c>
+      <c r="C16" s="104">
+        <v>21071928.530000001</v>
+      </c>
+      <c r="D16" s="104">
+        <v>130204950.77</v>
+      </c>
+      <c r="F16" s="105" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="104">
+        <v>96384239.219999999</v>
+      </c>
+      <c r="C17" s="104">
+        <v>22149809.34</v>
+      </c>
+      <c r="D17" s="104">
+        <v>143316664.5</v>
+      </c>
+      <c r="F17" s="106" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54629CB4-1357-4DAA-81A6-F9F9C3E3952D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -7519,7 +9992,7 @@
       <c r="P3" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="115" t="s">
+      <c r="Q3" s="102" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7573,12 +10046,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="3"/>
       <c r="J5" s="90"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="124" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="92" t="s">
@@ -7597,12 +10070,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="J6" s="90"/>
       <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -7957,7 +10430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F804FA-BE53-4998-936F-C2B5351F1D8E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -8145,12 +10618,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="3"/>
       <c r="J5" s="90"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="124" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="92" t="s">
@@ -8169,12 +10642,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="J6" s="90"/>
       <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -8529,17 +11002,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224431CD-CF00-47DD-8ACA-64FF62A3AD19}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J6" sqref="J1:Q6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="81"/>
+    <col min="1" max="1" width="5.33203125" style="81" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="4.77734375" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -8754,10 +11228,10 @@
       <c r="E5" s="3">
         <v>34</v>
       </c>
-      <c r="F5" s="110">
+      <c r="F5" s="121">
         <v>35</v>
       </c>
-      <c r="G5" s="110">
+      <c r="G5" s="121">
         <v>36</v>
       </c>
       <c r="H5" s="3">
@@ -8767,10 +11241,10 @@
       <c r="J5" s="90">
         <v>37</v>
       </c>
-      <c r="K5" s="112">
+      <c r="K5" s="109">
         <v>36</v>
       </c>
-      <c r="L5" s="112">
+      <c r="L5" s="109">
         <v>35</v>
       </c>
       <c r="M5" s="92">
@@ -8795,8 +11269,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3">
         <v>38</v>
       </c>
@@ -8804,8 +11278,8 @@
       <c r="J6" s="90">
         <v>38</v>
       </c>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -8825,12 +11299,1544 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE5B34B-6F30-40B8-8389-C7CFE152C0D1}">
+  <dimension ref="A1:Z16"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:Z16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="4.77734375" style="128"/>
+    <col min="8" max="8" width="4.77734375" style="128" customWidth="1"/>
+    <col min="9" max="18" width="4.77734375" style="128"/>
+    <col min="19" max="20" width="4.77734375" style="128" customWidth="1"/>
+    <col min="21" max="16384" width="4.77734375" style="128"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="125">
+        <f t="shared" ref="A1:G6" ca="1" si="0">OFFSET($I1,0,COLUMN($I1)-COLUMN())</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="B1" s="125">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="C1" s="125">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D1" s="125">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E1" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="F1" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G1" s="127">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="12">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L1" s="6">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="M1" s="7">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="N1" s="15">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O1" s="15">
+        <v>2</v>
+      </c>
+      <c r="P1" s="26">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="Q1" s="56">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="B2" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="C2" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D2" s="125">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E2" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F2" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G2" s="127">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="13">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N2" s="16">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O2" s="18">
+        <v>2</v>
+      </c>
+      <c r="P2" s="24">
+        <v>2.4</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="130">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="B3" s="130">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D3" s="125">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E3" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F3" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G3" s="131">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="75">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="L3" s="8">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N3" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="130">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="B4" s="130">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="125">
+        <f ca="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="132">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G4" s="133">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H4" s="133">
+        <f t="shared" ref="H2:H6" ca="1" si="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J4" s="71">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K4" s="72">
+        <v>3</v>
+      </c>
+      <c r="L4" s="62">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="M4" s="10">
+        <v>1</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1</v>
+      </c>
+      <c r="O4" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="P4" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="130">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="B5" s="130">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="C5" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="D5" s="125">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="133">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F5" s="134">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5" s="134">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="133">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J5" s="73">
+        <v>3</v>
+      </c>
+      <c r="K5" s="111">
+        <v>1</v>
+      </c>
+      <c r="L5" s="123">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M5" s="74">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N5" s="83">
+        <v>2</v>
+      </c>
+      <c r="O5" s="20">
+        <v>2.4</v>
+      </c>
+      <c r="P5" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="135">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="135">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="133">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="82">
+        <v>2</v>
+      </c>
+      <c r="K6" s="112"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="128" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="O10" s="128" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="128" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q10" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="R10" s="128" t="s">
+        <v>131</v>
+      </c>
+      <c r="S10" s="128" t="s">
+        <v>132</v>
+      </c>
+      <c r="T10" s="128" t="s">
+        <v>133</v>
+      </c>
+      <c r="U10" s="128" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" s="128" t="s">
+        <v>135</v>
+      </c>
+      <c r="W10" s="128" t="s">
+        <v>136</v>
+      </c>
+      <c r="X10" s="128" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y10" s="128" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z10" s="128">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="81"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="128" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="128" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="128" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="128" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="128" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="128" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="128" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="128" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" s="128" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="128" t="s">
+        <v>180</v>
+      </c>
+      <c r="O13" s="128" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="128" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="R13" s="128" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" s="128" t="s">
+        <v>185</v>
+      </c>
+      <c r="T13" s="128" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="128" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="128" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="128" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="N14" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q14" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="R14" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="S14" s="128" t="s">
+        <v>152</v>
+      </c>
+      <c r="T14" s="128" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="128" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="128" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="128" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="128" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="128" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="128" t="s">
+        <v>195</v>
+      </c>
+      <c r="J15" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="K15" s="128" t="s">
+        <v>197</v>
+      </c>
+      <c r="L15" s="128" t="s">
+        <v>198</v>
+      </c>
+      <c r="M15" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="N15" s="128" t="s">
+        <v>200</v>
+      </c>
+      <c r="O15" s="128" t="s">
+        <v>201</v>
+      </c>
+      <c r="P15" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q15" s="128" t="s">
+        <v>203</v>
+      </c>
+      <c r="R15" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="S15" s="128" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="128" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="128" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="N16" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q16" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="R16" s="128" t="s">
+        <v>166</v>
+      </c>
+      <c r="S16" s="128">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB66398-4859-49C2-8B21-0B941AB427DC}">
+  <dimension ref="A1:Z34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="4.77734375" style="128"/>
+    <col min="8" max="8" width="4.77734375" style="128" customWidth="1"/>
+    <col min="9" max="18" width="4.77734375" style="128"/>
+    <col min="19" max="20" width="4.77734375" style="128" customWidth="1"/>
+    <col min="21" max="16384" width="4.77734375" style="128"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="125">
+        <f t="shared" ref="A1:H6" ca="1" si="0">OFFSET($I1,0,COLUMN($I1)-COLUMN())</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="B1" s="125">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="C1" s="125">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D1" s="125">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E1" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="F1" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G1" s="127">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="12">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L1" s="6">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="M1" s="7">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="N1" s="15">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O1" s="15">
+        <v>2</v>
+      </c>
+      <c r="P1" s="26">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="Q1" s="56">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="B2" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="C2" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D2" s="125">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E2" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F2" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G2" s="127">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="13">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N2" s="16">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O2" s="18">
+        <v>2</v>
+      </c>
+      <c r="P2" s="24">
+        <v>2.4</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="130">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="B3" s="130">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D3" s="125">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E3" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F3" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G3" s="131">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="75">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="L3" s="8">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N3" s="16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="130">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="B4" s="130">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="125">
+        <f ca="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="126">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="132">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G4" s="133">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H4" s="133">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J4" s="71">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K4" s="72">
+        <v>3</v>
+      </c>
+      <c r="L4" s="62">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="M4" s="10">
+        <v>1</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1</v>
+      </c>
+      <c r="O4" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="P4" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="130">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="B5" s="130">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="C5" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="D5" s="125">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="133">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F5" s="134">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5" s="134">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="133">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J5" s="73">
+        <v>3</v>
+      </c>
+      <c r="K5" s="111">
+        <v>1</v>
+      </c>
+      <c r="L5" s="123">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M5" s="74">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N5" s="83">
+        <v>2</v>
+      </c>
+      <c r="O5" s="20">
+        <v>2.4</v>
+      </c>
+      <c r="P5" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="135">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="135">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="133">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="82">
+        <v>2</v>
+      </c>
+      <c r="K6" s="112"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="128" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="O10" s="128" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="128" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q10" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="R10" s="128" t="s">
+        <v>131</v>
+      </c>
+      <c r="S10" s="128" t="s">
+        <v>132</v>
+      </c>
+      <c r="T10" s="128" t="s">
+        <v>133</v>
+      </c>
+      <c r="U10" s="128" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" s="128" t="s">
+        <v>135</v>
+      </c>
+      <c r="W10" s="128" t="s">
+        <v>136</v>
+      </c>
+      <c r="X10" s="128" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y10" s="128" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z10" s="128">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="81"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="128" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="128" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="128" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="128" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="128" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="128" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="128" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="128" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" s="128" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="128" t="s">
+        <v>180</v>
+      </c>
+      <c r="O13" s="128" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="128" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="R13" s="128" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" s="128" t="s">
+        <v>185</v>
+      </c>
+      <c r="T13" s="128" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="128" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="128" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="128" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="N14" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q14" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="R14" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="S14" s="128" t="s">
+        <v>152</v>
+      </c>
+      <c r="T14" s="128" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="128" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="128" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="128" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="128" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="128" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="128" t="s">
+        <v>195</v>
+      </c>
+      <c r="J15" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="K15" s="128" t="s">
+        <v>197</v>
+      </c>
+      <c r="L15" s="128" t="s">
+        <v>198</v>
+      </c>
+      <c r="M15" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="N15" s="128" t="s">
+        <v>200</v>
+      </c>
+      <c r="O15" s="128" t="s">
+        <v>201</v>
+      </c>
+      <c r="P15" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q15" s="128" t="s">
+        <v>203</v>
+      </c>
+      <c r="R15" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="S15" s="128" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="128" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="128" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="N16" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q16" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="R16" s="128" t="s">
+        <v>166</v>
+      </c>
+      <c r="S16" s="128">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="81"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="81"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="81"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="81"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="81"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="81"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="81"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="81"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="81"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="81"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="81"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="81"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="81"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="81"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="81"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="81"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="81"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA6E5BD-99B9-4E87-94B2-03F98F639228}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9013,12 +13019,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="3"/>
       <c r="J5" s="90"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="124" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="92" t="s">
@@ -9037,12 +13043,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="J6" s="90"/>
       <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -9397,7 +13403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1F72C-151E-43E5-9E9B-7B384388A13F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -9581,12 +13587,12 @@
       <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="3"/>
       <c r="J5" s="90"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="124" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="92" t="s">
@@ -9605,12 +13611,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="J6" s="90"/>
       <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -9970,12 +13976,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DB0E27-6502-49FD-827E-25754C2CC2C1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10158,12 +14164,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="3"/>
       <c r="J5" s="90"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="124" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="92" t="s">
@@ -10182,12 +14188,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="J6" s="90"/>
       <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -10542,7 +14548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE1B9F7-56A1-4B2B-8844-93D3218A2256}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -10728,12 +14734,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="3"/>
       <c r="J5" s="90"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="124" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="92" t="s">
@@ -10752,12 +14758,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="J6" s="90"/>
       <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -11115,1724 +15121,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
-  <dimension ref="A1:Q18"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
-        <v>6</v>
-      </c>
-      <c r="M1" s="91">
-        <v>7</v>
-      </c>
-      <c r="N1" s="87">
-        <v>8</v>
-      </c>
-      <c r="O1" s="87">
-        <v>9</v>
-      </c>
-      <c r="P1" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="87" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="88" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "w"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "e"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "r"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "t"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "y"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "u"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "i"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "o"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "p"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "a"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "s"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "d"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "f"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "g"</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "h"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "j"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "k"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "l"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": ";"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "z"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "x"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "c"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "v"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "b"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "n"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "m"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "."</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "/"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27715-3509-47E9-A9CB-5DE4634BE300}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
-        <v>6</v>
-      </c>
-      <c r="M1" s="91">
-        <v>7</v>
-      </c>
-      <c r="N1" s="87">
-        <v>8</v>
-      </c>
-      <c r="O1" s="87">
-        <v>9</v>
-      </c>
-      <c r="P1" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="96" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "w"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "f"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "p"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "g"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "j"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "l"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "u"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "y"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": ";"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "a"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "r"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "s"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "t"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "d"</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "h"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "n"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "e"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "i"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "o"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "z"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "x"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "c"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "v"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "b"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "k"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "m"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "."</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "/"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" xr:uid="{56FF858C-D053-4773-B17F-B101BCB7C75E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DCC6E8-8838-49B0-A240-A4CF935DB5EC}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
-        <v>6</v>
-      </c>
-      <c r="M1" s="91">
-        <v>7</v>
-      </c>
-      <c r="N1" s="87">
-        <v>8</v>
-      </c>
-      <c r="O1" s="87">
-        <v>9</v>
-      </c>
-      <c r="P1" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="96" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "y"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "p"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "o"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "u"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "j"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "k"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "d"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "l"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "c"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "w"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "i"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "n"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "e"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "a"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": ","</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "m"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "h"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "t"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "s"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "r"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "q"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "z"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "/"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "."</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": ";"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "b"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "f"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": "g"</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "v"</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "x"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "y","10": "p","11": "o","12": "u","13": "j","14": "\\","15": "","16": "i","17": "n","18": "e","19": "a","20": ",","21": "","22": "`","23": "q","24": "z","25": "/","26": ".","27": ";","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "k","12": "d","11": "l","10": "c","9": "w","8": "[","21": "","20": "m","19": "h","18": "t","17": "s","16": "r","15": "'","29": "","28": "","27": "b","26": "f","25": "g","24": "v","23": "x","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "y","10": "p","11": "o","12": "u","13": "j","14": "\\","15": "","16": "i","17": "n","18": "e","19": "a","20": ",","21": "","22": "`","23": "q","24": "z","25": "/","26": ".","27": ";","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "k","12": "d","11": "l","10": "c","9": "w","8": "[","21": "","20": "m","19": "h","18": "t","17": "s","16": "r","15": "'","29": "","28": "","27": "b","26": "f","25": "g","24": "v","23": "x","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" xr:uid="{8C12272F-70D4-459A-BF7C-F64AD58C34C5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>
--- a/layouts/layouts.xlsx
+++ b/layouts/layouts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7F62B1-BA68-4365-8EDB-D226C5D89E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF12F8-8489-4329-97CE-0D6786491474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" activeTab="4" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
@@ -18,19 +18,19 @@
     <sheet name="Keys" sheetId="2" r:id="rId3"/>
     <sheet name="Template" sheetId="23" r:id="rId4"/>
     <sheet name="My" sheetId="24" r:id="rId5"/>
-    <sheet name="Soul" sheetId="13" r:id="rId6"/>
-    <sheet name="Mtgap2" sheetId="8" r:id="rId7"/>
+    <sheet name="Mtgap2" sheetId="8" r:id="rId6"/>
+    <sheet name="Soul" sheetId="13" r:id="rId7"/>
     <sheet name="Norman" sheetId="21" r:id="rId8"/>
     <sheet name="Breakl15" sheetId="6" r:id="rId9"/>
-    <sheet name="Querty" sheetId="3" r:id="rId10"/>
-    <sheet name="Collemak" sheetId="4" r:id="rId11"/>
-    <sheet name="Mtgap1" sheetId="5" r:id="rId12"/>
-    <sheet name="Dvorak" sheetId="9" r:id="rId13"/>
-    <sheet name="Workman" sheetId="10" r:id="rId14"/>
+    <sheet name="QGMLWB" sheetId="16" r:id="rId10"/>
+    <sheet name="Workman" sheetId="10" r:id="rId11"/>
+    <sheet name="Collemak" sheetId="4" r:id="rId12"/>
+    <sheet name="Mtgap1" sheetId="5" r:id="rId13"/>
+    <sheet name="Dvorak" sheetId="9" r:id="rId14"/>
     <sheet name="Niro" sheetId="12" r:id="rId15"/>
     <sheet name="Kaehi" sheetId="14" r:id="rId16"/>
-    <sheet name="QFMLWY" sheetId="15" r:id="rId17"/>
-    <sheet name="QGMLWB" sheetId="16" r:id="rId18"/>
+    <sheet name="Querty" sheetId="3" r:id="rId17"/>
+    <sheet name="QFMLWY" sheetId="15" r:id="rId18"/>
     <sheet name="QGMLWY" sheetId="18" r:id="rId19"/>
     <sheet name="TNWMLC" sheetId="19" r:id="rId20"/>
     <sheet name="Gelatin" sheetId="20" r:id="rId21"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="208">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -669,6 +669,12 @@
   </si>
   <si>
     <t>ur</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>ctrl</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1236,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1623,6 +1629,8 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
@@ -3824,8 +3832,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
-  <dimension ref="A1:Q18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0F971E-842D-4FFC-8F12-3AD6BFCF94FA}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
@@ -3873,7 +3881,7 @@
       <c r="P1" s="87">
         <v>0</v>
       </c>
-      <c r="Q1" s="87" t="s">
+      <c r="Q1" s="96" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3883,16 +3891,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="52" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>2</v>
       </c>
       <c r="G2" s="76" t="s">
         <v>47</v>
@@ -3903,59 +3911,59 @@
         <v>48</v>
       </c>
       <c r="L2" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="N2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="87" t="s">
-        <v>25</v>
-      </c>
       <c r="O2" s="88" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P2" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="95" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3" s="76"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="86"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="89" t="s">
         <v>21</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>32</v>
       </c>
       <c r="Q3" s="89" t="s">
         <v>38</v>
@@ -3975,20 +3983,20 @@
         <v>18</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
       <c r="L4" s="86" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M4" s="91" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N4" s="87" t="s">
         <v>27</v>
@@ -4116,19 +4124,19 @@
       </c>
       <c r="C9" t="str">
         <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "w"</v>
+        <v>"10": "g"</v>
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "e"</v>
+        <v>"11": "m"</v>
       </c>
       <c r="E9" t="str">
         <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "r"</v>
+        <v>"12": "l"</v>
       </c>
       <c r="F9" t="str">
         <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "t"</v>
+        <v>"13": "w"</v>
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
@@ -4140,23 +4148,23 @@
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "y"</v>
+        <v>"13": "b"</v>
       </c>
       <c r="M9" t="str">
         <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "u"</v>
+        <v>"12": "y"</v>
       </c>
       <c r="N9" t="str">
         <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "i"</v>
+        <v>"11": "u"</v>
       </c>
       <c r="O9" t="str">
         <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "o"</v>
+        <v>"10": "v"</v>
       </c>
       <c r="P9" t="str">
         <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "p"</v>
+        <v>"9": ";"</v>
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
@@ -4170,7 +4178,7 @@
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "a"</v>
+        <v>"16": "d"</v>
       </c>
       <c r="C10" t="str">
         <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
@@ -4178,15 +4186,15 @@
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "d"</v>
+        <v>"18": "t"</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "f"</v>
+        <v>"19": "n"</v>
       </c>
       <c r="F10" t="str">
         <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "g"</v>
+        <v>"20": "r"</v>
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
@@ -4198,23 +4206,23 @@
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "h"</v>
+        <v>"20": "i"</v>
       </c>
       <c r="M10" t="str">
         <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "j"</v>
+        <v>"19": "a"</v>
       </c>
       <c r="N10" t="str">
         <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "k"</v>
+        <v>"18": "e"</v>
       </c>
       <c r="O10" t="str">
         <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "l"</v>
+        <v>"17": "o"</v>
       </c>
       <c r="P10" t="str">
         <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": ";"</v>
+        <v>"16": "h"</v>
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
@@ -4240,11 +4248,11 @@
       </c>
       <c r="E11" t="str">
         <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "v"</v>
+        <v>"26": "f"</v>
       </c>
       <c r="F11" t="str">
         <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "b"</v>
+        <v>"27": "j"</v>
       </c>
       <c r="G11" t="str">
         <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
@@ -4264,11 +4272,11 @@
       </c>
       <c r="L11" t="str">
         <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "n"</v>
+        <v>"27": "k"</v>
       </c>
       <c r="M11" t="str">
         <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "m"</v>
+        <v>"26": "p"</v>
       </c>
       <c r="N11" t="str">
         <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
@@ -4366,34 +4374,608 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "g","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "x","25": "c","26": "f","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "b","12": "y","11": "u","10": "v","9": ";","8": "[","21": "","20": "i","19": "a","18": "e","17": "o","16": "h","15": "'","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "g","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "x","25": "c","26": "f","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "b","12": "y","11": "u","10": "v","9": ";","8": "[","21": "","20": "i","19": "a","18": "e","17": "o","16": "h","15": "'","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="L5:L6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D0F36D-A06F-4E02-AC07-5A63EE7CD312}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86">
+        <v>6</v>
+      </c>
+      <c r="M1" s="91">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87">
+        <v>8</v>
+      </c>
+      <c r="O1" s="87">
+        <v>9</v>
+      </c>
+      <c r="P1" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "d"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "r"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "w"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "b"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "f"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "p"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "h"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "y"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "o"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "i"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "m"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "c"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "v"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "k"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "l"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "d","11": "r","12": "w","13": "b","14": "\\","15": "","16": "a","17": "s","18": "h","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "m","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "u","10": "p","9": ";","8": "[","21": "","20": "y","19": "n","18": "e","17": "o","16": "i","15": "'","29": "","28": "","27": "k","26": "l","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "d","11": "r","12": "w","13": "b","14": "\\","15": "","16": "a","17": "s","18": "h","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "m","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "u","10": "p","9": ";","8": "[","21": "","20": "y","19": "n","18": "e","17": "o","16": "i","15": "'","29": "","28": "","27": "k","26": "l","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27715-3509-47E9-A9CB-5DE4634BE300}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -4970,7 +5552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DCC6E8-8838-49B0-A240-A4CF935DB5EC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -5543,7 +6125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F82B80-7F41-4926-8A25-14D35408A7A1}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -6100,578 +6682,6 @@
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
         <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "\"","10": ",","11": ".","12": "p","13": "y","14": "\\","15": "","16": "a","17": "o","18": "e","19": "u","20": "i","21": "","22": "`","23": ";","24": "q","25": "j","26": "k","27": "x","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "'","13": "f","12": "g","11": "c","10": "r","9": "l","8": "/","21": "","20": "d","19": "h","18": "t","17": "n","16": "s","15": "-","29": "","28": "","27": "b","26": "m","25": "w","24": "v","23": "z","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D0F36D-A06F-4E02-AC07-5A63EE7CD312}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
-        <v>6</v>
-      </c>
-      <c r="M1" s="91">
-        <v>7</v>
-      </c>
-      <c r="N1" s="87">
-        <v>8</v>
-      </c>
-      <c r="O1" s="87">
-        <v>9</v>
-      </c>
-      <c r="P1" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="96" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "d"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "r"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "w"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "b"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "j"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "f"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "u"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "p"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": ";"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "a"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "s"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "h"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "t"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "g"</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "y"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "n"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "e"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "o"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "i"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "z"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "x"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "m"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "c"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "v"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "k"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "l"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "."</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "/"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "d","11": "r","12": "w","13": "b","14": "\\","15": "","16": "a","17": "s","18": "h","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "m","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "u","10": "p","9": ";","8": "[","21": "","20": "y","19": "n","18": "e","17": "o","16": "i","15": "'","29": "","28": "","27": "k","26": "l","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "d","11": "r","12": "w","13": "b","14": "\\","15": "","16": "a","17": "s","18": "h","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "m","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "u","10": "p","9": ";","8": "[","21": "","20": "y","19": "n","18": "e","17": "o","16": "i","15": "'","29": "","28": "","27": "k","26": "l","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7829,6 +7839,576 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86">
+        <v>6</v>
+      </c>
+      <c r="M1" s="91">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87">
+        <v>8</v>
+      </c>
+      <c r="O1" s="87">
+        <v>9</v>
+      </c>
+      <c r="P1" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "e"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "r"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "t"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "y"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "i"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "o"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "p"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "d"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "f"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "j"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "k"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "l"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": ";"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "n"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8AC8BE-5EAD-43BE-A533-75865B4E96B5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -8384,578 +8964,6 @@
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
         <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "f","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "v","25": "g","26": "c","27": "x","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "o","10": "b","9": "j","8": "[","21": "","20": "i","19": "a","18": "e","17": "h","16": ";","15": "'","29": "","28": "","27": "p","26": "k","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0F971E-842D-4FFC-8F12-3AD6BFCF94FA}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
-        <v>6</v>
-      </c>
-      <c r="M1" s="91">
-        <v>7</v>
-      </c>
-      <c r="N1" s="87">
-        <v>8</v>
-      </c>
-      <c r="O1" s="87">
-        <v>9</v>
-      </c>
-      <c r="P1" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="96" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "g"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "m"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "l"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "w"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "b"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "y"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "u"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "v"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": ";"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "d"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "s"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "t"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "n"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "r"</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "i"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "a"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "e"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "o"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "h"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "z"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "x"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "c"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "f"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "j"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "k"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "p"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "."</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "/"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "g","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "x","25": "c","26": "f","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "b","12": "y","11": "u","10": "v","9": ";","8": "[","21": "","20": "i","19": "a","18": "e","17": "o","16": "h","15": "'","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "g","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "x","25": "c","26": "f","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "b","12": "y","11": "u","10": "v","9": ";","8": "[","21": "","20": "i","19": "a","18": "e","17": "o","16": "h","15": "'","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -9549,7 +9557,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11304,7 +11312,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:Z16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12043,7 +12051,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12174,9 +12182,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="D3" s="125">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
+      <c r="D3" s="125" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="126">
         <f t="shared" ca="1" si="0"/>
@@ -12293,9 +12300,8 @@
         <f t="shared" ca="1" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="F5" s="134">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
+      <c r="F5" s="134" t="s">
+        <v>207</v>
       </c>
       <c r="G5" s="134">
         <f t="shared" ca="1" si="0"/>
@@ -12311,8 +12317,8 @@
       <c r="K5" s="111">
         <v>1</v>
       </c>
-      <c r="L5" s="123">
-        <v>0.33333333333333331</v>
+      <c r="L5" s="123" t="s">
+        <v>206</v>
       </c>
       <c r="M5" s="74">
         <v>1.6666666666666667</v>
@@ -12361,7 +12367,7 @@
     </row>
     <row r="7" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="136" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="81" t="s">
@@ -12441,7 +12447,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="137" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="128" t="s">
@@ -12832,6 +12838,579 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1F72C-151E-43E5-9E9B-7B384388A13F}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86">
+        <v>6</v>
+      </c>
+      <c r="M1" s="91">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87">
+        <v>8</v>
+      </c>
+      <c r="O1" s="87">
+        <v>9</v>
+      </c>
+      <c r="P1" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "="</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": ","</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "f"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "h"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "d"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "k"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "c"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "l"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "."</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "/"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "a"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "n"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "m"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "s"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "r"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "i"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "q"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "b"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "p"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "z"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "y"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "w"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "'"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "v"</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": ";"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "["</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "]"</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": ",","10": "f","11": "h","12": "d","13": "k","14": "\\","15": "","16": "o","17": "a","18": "n","19": "t","20": "g","21": "","22": "`","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "\"","13": "j","12": "c","11": "u","10": "l","9": ".","8": "/","21": "","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": ",","10": "f","11": "h","12": "d","13": "k","14": "\\","15": "","16": "o","17": "a","18": "n","19": "t","20": "g","21": "","22": "`","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "\"","13": "j","12": "c","11": "u","10": "l","9": ".","8": "/","21": "","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="97" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{F462A076-916C-47CB-ACC3-E666CF9EB88E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA6E5BD-99B9-4E87-94B2-03F98F639228}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -13400,579 +13979,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1F72C-151E-43E5-9E9B-7B384388A13F}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
-        <v>6</v>
-      </c>
-      <c r="M1" s="91">
-        <v>7</v>
-      </c>
-      <c r="N1" s="87">
-        <v>8</v>
-      </c>
-      <c r="O1" s="87">
-        <v>9</v>
-      </c>
-      <c r="P1" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="95" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "="</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": ","</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "f"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "h"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "d"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "k"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "j"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "c"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "u"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "l"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "."</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "/"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "o"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "a"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "n"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "t"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "g"</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "m"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "s"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "e"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "r"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "i"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "-"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "q"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "x"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "b"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "p"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "z"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "y"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "w"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": "'"</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "v"</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": ";"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "["</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "]"</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": ",","10": "f","11": "h","12": "d","13": "k","14": "\\","15": "","16": "o","17": "a","18": "n","19": "t","20": "g","21": "","22": "`","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "\"","13": "j","12": "c","11": "u","10": "l","9": ".","8": "/","21": "","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": ",","10": "f","11": "h","12": "d","13": "k","14": "\\","15": "","16": "o","17": "a","18": "n","19": "t","20": "g","21": "","22": "`","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "\"","13": "j","12": "c","11": "u","10": "l","9": ".","8": "/","21": "","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" xr:uid="{F462A076-916C-47CB-ACC3-E666CF9EB88E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/layouts/layouts.xlsx
+++ b/layouts/layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF12F8-8489-4329-97CE-0D6786491474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574474CC-2F5E-41C9-9E46-A64CA124E1E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" activeTab="4" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" firstSheet="1" activeTab="4" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -18,22 +18,22 @@
     <sheet name="Keys" sheetId="2" r:id="rId3"/>
     <sheet name="Template" sheetId="23" r:id="rId4"/>
     <sheet name="My" sheetId="24" r:id="rId5"/>
-    <sheet name="Mtgap2" sheetId="8" r:id="rId6"/>
+    <sheet name="Norman" sheetId="21" r:id="rId6"/>
     <sheet name="Soul" sheetId="13" r:id="rId7"/>
-    <sheet name="Norman" sheetId="21" r:id="rId8"/>
+    <sheet name="Mtgap2" sheetId="8" r:id="rId8"/>
     <sheet name="Breakl15" sheetId="6" r:id="rId9"/>
     <sheet name="QGMLWB" sheetId="16" r:id="rId10"/>
     <sheet name="Workman" sheetId="10" r:id="rId11"/>
-    <sheet name="Collemak" sheetId="4" r:id="rId12"/>
-    <sheet name="Mtgap1" sheetId="5" r:id="rId13"/>
-    <sheet name="Dvorak" sheetId="9" r:id="rId14"/>
-    <sheet name="Niro" sheetId="12" r:id="rId15"/>
-    <sheet name="Kaehi" sheetId="14" r:id="rId16"/>
-    <sheet name="Querty" sheetId="3" r:id="rId17"/>
-    <sheet name="QFMLWY" sheetId="15" r:id="rId18"/>
-    <sheet name="QGMLWY" sheetId="18" r:id="rId19"/>
-    <sheet name="TNWMLC" sheetId="19" r:id="rId20"/>
-    <sheet name="Gelatin" sheetId="20" r:id="rId21"/>
+    <sheet name="Niro" sheetId="12" r:id="rId12"/>
+    <sheet name="Collemak" sheetId="4" r:id="rId13"/>
+    <sheet name="QGMLWY" sheetId="18" r:id="rId14"/>
+    <sheet name="QFMLWY" sheetId="15" r:id="rId15"/>
+    <sheet name="Gelatin" sheetId="20" r:id="rId16"/>
+    <sheet name="Kaehi" sheetId="14" r:id="rId17"/>
+    <sheet name="Mtgap1" sheetId="5" r:id="rId18"/>
+    <sheet name="Dvorak" sheetId="9" r:id="rId19"/>
+    <sheet name="Querty" sheetId="3" r:id="rId20"/>
+    <sheet name="TNWMLC" sheetId="19" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="208">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -1981,7 +1981,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2:Q7"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2128,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="38">
         <v>5</v>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="N3" s="16">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="O3" s="18">
         <f>F3*$F$1/$H$1</f>
@@ -2322,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="43">
         <v>3</v>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="N5" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="O5" s="19">
         <f t="shared" si="7"/>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D10" s="50" t="str">
         <f>_xlfn.CONCAT("{",U14,",",U15,"}")</f>
-        <v>{"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.8,"L9": 2.4,"L10": 2,"L11": 1.33333333333333,"L12": 1.66666666666667,"L13": 2.33333333333333,"L14": 2.66666666666667,"L15": 4.2,"L16": 1.2,"L17": 0.4,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 2,"L21": 2.33333333333333,"L22": 4.2,"L23": 1.2,"L24": 1.2,"L25": 1,"L26": 1,"L27": 2.33333333333333,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 3.6,"L32": 2.4,"L33": 2,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2,"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.8,"R9": 2.4,"R10": 2,"R11": 1.33333333333333,"R12": 1.66666666666667,"R13": 2.33333333333333,"R14": 2.66666666666667,"R15": 4.2,"R16": 1.2,"R17": 0.4,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 2,"R21": 2.33333333333333,"R22": 4.2,"R23": 1.2,"R24": 1.2,"R25": 1,"R26": 1,"R27": 2.33333333333333,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 3.6,"R32": 2.4,"R33": 2,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2}</v>
+        <v>{"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.8,"L9": 2.4,"L10": 2,"L11": 1,"L12": 1.66666666666667,"L13": 2.33333333333333,"L14": 2.66666666666667,"L15": 4.2,"L16": 1.2,"L17": 0.4,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 2,"L21": 2.33333333333333,"L22": 4.2,"L23": 1.2,"L24": 1.2,"L25": 1.33333333333333,"L26": 1,"L27": 2.33333333333333,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 3.6,"L32": 2.4,"L33": 2,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2,"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.8,"R9": 2.4,"R10": 2,"R11": 1,"R12": 1.66666666666667,"R13": 2.33333333333333,"R14": 2.66666666666667,"R15": 4.2,"R16": 1.2,"R17": 0.4,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 2,"R21": 2.33333333333333,"R22": 4.2,"R23": 1.2,"R24": 1.2,"R25": 1.33333333333333,"R26": 1,"R27": 2.33333333333333,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 3.6,"R32": 2.4,"R33": 2,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2}</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="U14" s="50" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,E14:E51,)</f>
-        <v>"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.8,"L9": 2.4,"L10": 2,"L11": 1.33333333333333,"L12": 1.66666666666667,"L13": 2.33333333333333,"L14": 2.66666666666667,"L15": 4.2,"L16": 1.2,"L17": 0.4,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 2,"L21": 2.33333333333333,"L22": 4.2,"L23": 1.2,"L24": 1.2,"L25": 1,"L26": 1,"L27": 2.33333333333333,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 3.6,"L32": 2.4,"L33": 2,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2</v>
+        <v>"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.8,"L9": 2.4,"L10": 2,"L11": 1,"L12": 1.66666666666667,"L13": 2.33333333333333,"L14": 2.66666666666667,"L15": 4.2,"L16": 1.2,"L17": 0.4,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 2,"L21": 2.33333333333333,"L22": 4.2,"L23": 1.2,"L24": 1.2,"L25": 1.33333333333333,"L26": 1,"L27": 2.33333333333333,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 3.6,"L32": 2.4,"L33": 2,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="U15" s="50" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,H14:H51,)</f>
-        <v>"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.8,"R9": 2.4,"R10": 2,"R11": 1.33333333333333,"R12": 1.66666666666667,"R13": 2.33333333333333,"R14": 2.66666666666667,"R15": 4.2,"R16": 1.2,"R17": 0.4,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 2,"R21": 2.33333333333333,"R22": 4.2,"R23": 1.2,"R24": 1.2,"R25": 1,"R26": 1,"R27": 2.33333333333333,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 3.6,"R32": 2.4,"R33": 2,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2</v>
+        <v>"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.8,"R9": 2.4,"R10": 2,"R11": 1,"R12": 1.66666666666667,"R13": 2.33333333333333,"R14": 2.66666666666667,"R15": 4.2,"R16": 1.2,"R17": 0.4,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 2,"R21": 2.33333333333333,"R22": 4.2,"R23": 1.2,"R24": 1.2,"R25": 1.33333333333333,"R26": 1,"R27": 2.33333333333333,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 3.6,"R32": 2.4,"R33": 2,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="C24" s="4">
         <f>N3</f>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E24" s="80" t="str">
         <f t="shared" si="12"/>
-        <v>"L11": 1.33333333333333</v>
+        <v>"L11": 1</v>
       </c>
       <c r="H24" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R11": 1.33333333333333</v>
+        <v>"R11": 1</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="2"/>
@@ -3384,15 +3384,15 @@
       </c>
       <c r="C38" s="4">
         <f>N5</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E38" s="80" t="str">
         <f t="shared" si="12"/>
-        <v>"L25": 1</v>
+        <v>"L25": 1.33333333333333</v>
       </c>
       <c r="H38" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R25": 1</v>
+        <v>"R25": 1.33333333333333</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="2"/>
@@ -4976,6 +4976,578 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDBB2D6-01F8-44E3-8C08-222DAA0B7703}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86">
+        <v>6</v>
+      </c>
+      <c r="M1" s="91">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87">
+        <v>8</v>
+      </c>
+      <c r="O1" s="87">
+        <v>9</v>
+      </c>
+      <c r="P1" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "d"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "p"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "f"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "y"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "l"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "i"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "r"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "k"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "u","12": "d","13": "p","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "y","10": "l","9": ";","8": "[","21": "","20": "h","19": "n","18": "i","17": "r","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "u","12": "d","13": "p","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "y","10": "l","9": ";","8": "[","21": "","20": "h","19": "n","18": "i","17": "r","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27715-3509-47E9-A9CB-5DE4634BE300}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -5552,8 +6124,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DCC6E8-8838-49B0-A240-A4CF935DB5EC}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0ED93C-CABF-47EC-AD81-D7985BA91921}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
@@ -5561,6 +6133,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
@@ -5605,19 +6181,19 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55"/>
       <c r="B2" s="55" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G2" s="76" t="s">
         <v>47</v>
@@ -5628,19 +6204,19 @@
         <v>48</v>
       </c>
       <c r="L2" s="86" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M2" s="91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" s="87" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O2" s="88" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P2" s="88" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="95" t="s">
         <v>35</v>
@@ -5649,38 +6225,38 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="52" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G3" s="76"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
       <c r="K3" s="76"/>
       <c r="L3" s="86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="89" t="s">
         <v>21</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>10</v>
       </c>
       <c r="Q3" s="89" t="s">
         <v>38</v>
@@ -5691,38 +6267,38 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
       <c r="L4" s="86" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="M4" s="91" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N4" s="87" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="O4" s="88" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P4" s="89" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="89"/>
     </row>
@@ -5837,6 +6413,2290 @@
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "g"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "m"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "l"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "w"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "y"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "f"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "b"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "d"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "t"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "r"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "i"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "a"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "o"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "h"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "j"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "k"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "p"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "g","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "f","11": "u","10": "b","9": ";","8": "[","21": "","20": "i","19": "a","18": "e","17": "o","16": "h","15": "'","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "g","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "f","11": "u","10": "b","9": ";","8": "[","21": "","20": "i","19": "a","18": "e","17": "o","16": "h","15": "'","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8AC8BE-5EAD-43BE-A533-75865B4E96B5}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86">
+        <v>6</v>
+      </c>
+      <c r="M1" s="91">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87">
+        <v>8</v>
+      </c>
+      <c r="O1" s="87">
+        <v>9</v>
+      </c>
+      <c r="P1" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "f"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "m"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "l"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "w"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "y"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "o"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "b"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "j"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "d"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "t"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "r"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "i"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "a"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "h"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": ";"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "v"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "g"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "c"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "x"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "p"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "k"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "f","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "v","25": "g","26": "c","27": "x","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "o","10": "b","9": "j","8": "[","21": "","20": "i","19": "a","18": "e","17": "h","16": ";","15": "'","29": "","28": "","27": "p","26": "k","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "f","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "v","25": "g","26": "c","27": "x","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "o","10": "b","9": "j","8": "[","21": "","20": "i","19": "a","18": "e","17": "h","16": ";","15": "'","29": "","28": "","27": "p","26": "k","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F804FA-BE53-4998-936F-C2B5351F1D8E}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86">
+        <v>6</v>
+      </c>
+      <c r="M1" s="91">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87">
+        <v>8</v>
+      </c>
+      <c r="O1" s="87">
+        <v>9</v>
+      </c>
+      <c r="P1" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "f"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "p"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "g"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "l"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "y"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "n"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "r"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "s"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "d"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "a"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "i"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "k"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "a","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "a","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2B976-8DBD-44BC-8A4B-199C621F6D1E}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86">
+        <v>6</v>
+      </c>
+      <c r="M1" s="91">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87">
+        <v>8</v>
+      </c>
+      <c r="O1" s="87">
+        <v>9</v>
+      </c>
+      <c r="P1" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "l"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "d"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "g"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "o"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "p"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "/"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "n"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "r"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "s"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "m"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "k"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "a"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "h"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "i"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "y"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "f"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": ";"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "l","12": "d","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "m","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "o","10": "p","9": "/","8": "[","21": "","20": "k","19": "a","18": "e","17": "h","16": "i","15": "'","29": "","28": "","27": "y","26": "f","25": ",","24": ".","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "l","12": "d","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "m","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "o","10": "p","9": "/","8": "[","21": "","20": "k","19": "a","18": "e","17": "h","16": "i","15": "'","29": "","28": "","27": "y","26": "f","25": ",","24": ".","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DCC6E8-8838-49B0-A240-A4CF935DB5EC}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86">
+        <v>6</v>
+      </c>
+      <c r="M1" s="91">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87">
+        <v>8</v>
+      </c>
+      <c r="O1" s="87">
+        <v>9</v>
+      </c>
+      <c r="P1" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
         <v>"9": "y"</v>
       </c>
       <c r="C9" t="str">
@@ -6125,7 +8985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F82B80-7F41-4926-8A25-14D35408A7A1}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -6682,2864 +9542,6 @@
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
         <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "\"","10": ",","11": ".","12": "p","13": "y","14": "\\","15": "","16": "a","17": "o","18": "e","19": "u","20": "i","21": "","22": "`","23": ";","24": "q","25": "j","26": "k","27": "x","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "'","13": "f","12": "g","11": "c","10": "r","9": "l","8": "/","21": "","20": "d","19": "h","18": "t","17": "n","16": "s","15": "-","29": "","28": "","27": "b","26": "m","25": "w","24": "v","23": "z","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDBB2D6-01F8-44E3-8C08-222DAA0B7703}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
-        <v>6</v>
-      </c>
-      <c r="M1" s="91">
-        <v>7</v>
-      </c>
-      <c r="N1" s="87">
-        <v>8</v>
-      </c>
-      <c r="O1" s="87">
-        <v>9</v>
-      </c>
-      <c r="P1" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="96" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "w"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "u"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "d"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "p"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "j"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "f"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "y"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "l"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": ";"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "a"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "s"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "e"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "t"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "g"</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "h"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "n"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "i"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "r"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "o"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "z"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "x"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "c"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "v"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "b"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "k"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "m"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "."</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "/"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "u","12": "d","13": "p","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "y","10": "l","9": ";","8": "[","21": "","20": "h","19": "n","18": "i","17": "r","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "u","12": "d","13": "p","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "y","10": "l","9": ";","8": "[","21": "","20": "h","19": "n","18": "i","17": "r","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2B976-8DBD-44BC-8A4B-199C621F6D1E}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
-        <v>6</v>
-      </c>
-      <c r="M1" s="91">
-        <v>7</v>
-      </c>
-      <c r="N1" s="87">
-        <v>8</v>
-      </c>
-      <c r="O1" s="87">
-        <v>9</v>
-      </c>
-      <c r="P1" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="96" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "w"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "l"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "d"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "g"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "j"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "u"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "o"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "p"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "/"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "n"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "r"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "s"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "t"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "m"</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "k"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "a"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "e"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "h"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "i"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "z"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "x"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "c"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "v"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "b"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "y"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "f"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "."</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": ";"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "l","12": "d","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "m","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "o","10": "p","9": "/","8": "[","21": "","20": "k","19": "a","18": "e","17": "h","16": "i","15": "'","29": "","28": "","27": "y","26": "f","25": ",","24": ".","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "l","12": "d","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "m","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "o","10": "p","9": "/","8": "[","21": "","20": "k","19": "a","18": "e","17": "h","16": "i","15": "'","29": "","28": "","27": "y","26": "f","25": ",","24": ".","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
-  <dimension ref="A1:Q18"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
-        <v>6</v>
-      </c>
-      <c r="M1" s="91">
-        <v>7</v>
-      </c>
-      <c r="N1" s="87">
-        <v>8</v>
-      </c>
-      <c r="O1" s="87">
-        <v>9</v>
-      </c>
-      <c r="P1" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="87" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="88" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "w"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "e"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "r"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "t"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "y"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "u"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "i"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "o"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "p"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "a"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "s"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "d"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "f"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "g"</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "h"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "j"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "k"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "l"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": ";"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "z"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "x"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "c"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "v"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "b"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "n"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "m"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "."</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "/"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8AC8BE-5EAD-43BE-A533-75865B4E96B5}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
-        <v>6</v>
-      </c>
-      <c r="M1" s="91">
-        <v>7</v>
-      </c>
-      <c r="N1" s="87">
-        <v>8</v>
-      </c>
-      <c r="O1" s="87">
-        <v>9</v>
-      </c>
-      <c r="P1" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="96" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "f"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "m"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "l"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "w"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "y"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "u"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "o"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "b"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "j"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "d"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "s"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "t"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "n"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "r"</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "i"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "a"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "e"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "h"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": ";"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "z"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "v"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "g"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "c"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "x"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "p"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "k"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "."</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "/"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "f","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "v","25": "g","26": "c","27": "x","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "o","10": "b","9": "j","8": "[","21": "","20": "i","19": "a","18": "e","17": "h","16": ";","15": "'","29": "","28": "","27": "p","26": "k","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "f","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "v","25": "g","26": "c","27": "x","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "o","10": "b","9": "j","8": "[","21": "","20": "i","19": "a","18": "e","17": "h","16": ";","15": "'","29": "","28": "","27": "p","26": "k","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0ED93C-CABF-47EC-AD81-D7985BA91921}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
-        <v>6</v>
-      </c>
-      <c r="M1" s="91">
-        <v>7</v>
-      </c>
-      <c r="N1" s="87">
-        <v>8</v>
-      </c>
-      <c r="O1" s="87">
-        <v>9</v>
-      </c>
-      <c r="P1" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="96" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "g"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "m"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "l"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "w"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "y"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "f"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "u"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "b"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": ";"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "d"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "s"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "t"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "n"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "r"</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "i"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "a"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "e"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "o"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "h"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "z"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "x"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "c"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "v"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "j"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "k"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "p"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "."</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "/"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "g","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "f","11": "u","10": "b","9": ";","8": "[","21": "","20": "i","19": "a","18": "e","17": "o","16": "h","15": "'","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "g","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "f","11": "u","10": "b","9": ";","8": "[","21": "","20": "i","19": "a","18": "e","17": "o","16": "h","15": "'","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9867,6 +9869,576 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86">
+        <v>6</v>
+      </c>
+      <c r="M1" s="91">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87">
+        <v>8</v>
+      </c>
+      <c r="O1" s="87">
+        <v>9</v>
+      </c>
+      <c r="P1" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "e"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "r"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "t"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "y"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "i"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "o"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "p"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "d"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "f"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "j"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "k"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "l"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": ";"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "n"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54629CB4-1357-4DAA-81A6-F9F9C3E3952D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -10422,578 +10994,6 @@
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
         <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "t","10": "n","11": "w","12": "m","13": "l","14": "\\","15": "","16": "s","17": "g","18": "x","19": "j","20": "f","21": "","22": "`","23": "e","24": "a","25": "d","26": "i","27": "o","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "c","12": "b","11": "p","10": "r","9": "h","8": "[","21": "","20": "k","19": "q","18": "z","17": "v","16": ";","15": "'","29": "","28": "","27": "y","26": "u","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F804FA-BE53-4998-936F-C2B5351F1D8E}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
-        <v>6</v>
-      </c>
-      <c r="M1" s="91">
-        <v>7</v>
-      </c>
-      <c r="N1" s="87">
-        <v>8</v>
-      </c>
-      <c r="O1" s="87">
-        <v>9</v>
-      </c>
-      <c r="P1" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="96" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="89" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="89"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "w"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "f"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "p"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "g"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "j"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "l"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "u"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "y"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": ";"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "n"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "r"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "s"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "t"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "d"</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "h"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "a"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "e"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "i"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "o"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "z"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "x"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "c"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "v"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "b"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "k"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "m"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "."</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "/"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "a","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "a","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -11312,7 +11312,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11392,7 +11392,7 @@
       </c>
       <c r="D2" s="125">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E2" s="126">
         <f t="shared" ca="1" si="0"/>
@@ -11418,7 +11418,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="N2" s="16">
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="O2" s="18">
         <v>2</v>
@@ -11498,7 +11498,7 @@
       </c>
       <c r="D4" s="125">
         <f ca="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E4" s="126">
         <f t="shared" ca="1" si="0"/>
@@ -11529,7 +11529,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="17">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="O4" s="19">
         <v>1.2</v>
@@ -12051,7 +12051,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L9" sqref="L9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12065,31 +12065,24 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="125">
-        <f t="shared" ref="A1:H6" ca="1" si="0">OFFSET($I1,0,COLUMN($I1)-COLUMN())</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="B1" s="125">
-        <f t="shared" ca="1" si="0"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="C1" s="125">
-        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="D1" s="125">
-        <f t="shared" ca="1" si="0"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="E1" s="126">
-        <f t="shared" ca="1" si="0"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="F1" s="126">
-        <f t="shared" ca="1" si="0"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="G1" s="127">
-        <f t="shared" ca="1" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="H1" s="4"/>
@@ -12118,31 +12111,24 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="129">
-        <f t="shared" ca="1" si="0"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="B2" s="129">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4</v>
       </c>
       <c r="C2" s="129">
-        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="D2" s="125">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3333333333333333</v>
+      <c r="D2" s="125" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="126">
-        <f t="shared" ca="1" si="0"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="F2" s="126">
-        <f t="shared" ca="1" si="0"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="G2" s="127">
-        <f t="shared" ca="1" si="0"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="H2" s="4"/>
@@ -12156,8 +12142,8 @@
       <c r="M2" s="5">
         <v>1.6666666666666667</v>
       </c>
-      <c r="N2" s="16">
-        <v>1.3333333333333333</v>
+      <c r="N2" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="O2" s="18">
         <v>2</v>
@@ -12171,30 +12157,24 @@
     </row>
     <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="130">
-        <f t="shared" ca="1" si="0"/>
         <v>4.2</v>
       </c>
       <c r="B3" s="130">
-        <f t="shared" ca="1" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="C3" s="129">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39999999999999997</v>
+      <c r="C3" s="129" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="126">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
+      <c r="E3" s="126" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="126">
-        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="G3" s="131">
-        <f t="shared" ca="1" si="0"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="H3" s="4"/>
@@ -12202,17 +12182,17 @@
       <c r="K3" s="75">
         <v>2.3333333333333335</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N3" s="16">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O3" s="18">
-        <v>0.39999999999999997</v>
+      <c r="O3" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="P3" s="9">
         <v>1.2</v>
@@ -12223,35 +12203,27 @@
     </row>
     <row r="4" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="130">
-        <f t="shared" ca="1" si="0"/>
         <v>4.2</v>
       </c>
       <c r="B4" s="130">
-        <f t="shared" ca="1" si="0"/>
         <v>1.2</v>
       </c>
       <c r="C4" s="129">
-        <f t="shared" ca="1" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="D4" s="125">
-        <f ca="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="126">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+      <c r="D4" s="125" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="126" t="s">
+        <v>10</v>
       </c>
       <c r="F4" s="132">
-        <f t="shared" ca="1" si="0"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="G4" s="133">
-        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="H4" s="133">
-        <f t="shared" ca="1" si="0"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="J4" s="71">
@@ -12263,8 +12235,8 @@
       <c r="L4" s="62">
         <v>2.3333333333333335</v>
       </c>
-      <c r="M4" s="10">
-        <v>1</v>
+      <c r="M4" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="N4" s="17">
         <v>1</v>
@@ -12281,34 +12253,27 @@
     </row>
     <row r="5" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="130">
-        <f t="shared" ca="1" si="0"/>
         <v>4.8</v>
       </c>
       <c r="B5" s="130">
-        <f t="shared" ca="1" si="0"/>
         <v>3.6</v>
       </c>
       <c r="C5" s="129">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4</v>
       </c>
       <c r="D5" s="125">
-        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="E5" s="133">
-        <f t="shared" ca="1" si="0"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="F5" s="134" t="s">
         <v>207</v>
       </c>
       <c r="G5" s="134">
-        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="H5" s="133">
-        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="J5" s="73">
@@ -12343,15 +12308,12 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="135">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="135">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="133">
-        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="J6" s="82">
@@ -12366,41 +12328,79 @@
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="128" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="81" t="s">
+      <c r="I9" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="81" t="s">
+      <c r="K9" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="81" t="s">
+      <c r="L9" s="136" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="81" t="s">
@@ -12450,37 +12450,37 @@
       <c r="A10" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="128" t="s">
+      <c r="E10" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="128" t="s">
+      <c r="F10" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="128" t="s">
+      <c r="G10" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="128" t="s">
+      <c r="H10" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="128" t="s">
+      <c r="I10" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="J10" s="128" t="s">
+      <c r="J10" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="128" t="s">
+      <c r="K10" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="L10" s="128" t="s">
+      <c r="L10" s="137" t="s">
         <v>125</v>
       </c>
       <c r="M10" s="128" t="s">
@@ -12838,14 +12838,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1F72C-151E-43E5-9E9B-7B384388A13F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DB0E27-6502-49FD-827E-25754C2CC2C1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
@@ -12884,22 +12888,22 @@
         <v>0</v>
       </c>
       <c r="Q1" s="96" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55"/>
       <c r="B2" s="55" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>26</v>
@@ -12916,31 +12920,31 @@
         <v>1</v>
       </c>
       <c r="M2" s="91" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N2" s="87" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="O2" s="88" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>2</v>
@@ -12953,22 +12957,22 @@
       <c r="J3" s="27"/>
       <c r="K3" s="76"/>
       <c r="L3" s="86" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M3" s="91" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N3" s="87" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="O3" s="88" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P3" s="89" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="89" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -12976,38 +12980,38 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="77" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
       <c r="L4" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="96" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>27</v>
       </c>
       <c r="O4" s="88" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P4" s="89" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="89"/>
     </row>
@@ -13016,10 +13020,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="55"/>
       <c r="D5" s="54" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F5" s="121"/>
       <c r="G5" s="121"/>
@@ -13112,7 +13116,7 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "="</v>
+        <v>"1": "]"</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -13122,19 +13126,19 @@
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": ","</v>
+        <v>"9": "q"</v>
       </c>
       <c r="C9" t="str">
         <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "f"</v>
+        <v>"10": "w"</v>
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "h"</v>
+        <v>"11": "d"</v>
       </c>
       <c r="E9" t="str">
         <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "d"</v>
+        <v>"12": "f"</v>
       </c>
       <c r="F9" t="str">
         <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
@@ -13154,11 +13158,11 @@
       </c>
       <c r="M9" t="str">
         <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "c"</v>
+        <v>"12": "u"</v>
       </c>
       <c r="N9" t="str">
         <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "u"</v>
+        <v>"11": "r"</v>
       </c>
       <c r="O9" t="str">
         <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
@@ -13166,11 +13170,11 @@
       </c>
       <c r="P9" t="str">
         <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "."</v>
+        <v>"9": ";"</v>
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "/"</v>
+        <v>"8": "["</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -13180,15 +13184,15 @@
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "o"</v>
+        <v>"16": "a"</v>
       </c>
       <c r="C10" t="str">
         <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "a"</v>
+        <v>"17": "s"</v>
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "n"</v>
+        <v>"18": "e"</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
@@ -13208,27 +13212,27 @@
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "m"</v>
+        <v>"20": "y"</v>
       </c>
       <c r="M10" t="str">
         <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "s"</v>
+        <v>"19": "n"</v>
       </c>
       <c r="N10" t="str">
         <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "e"</v>
+        <v>"18": "i"</v>
       </c>
       <c r="O10" t="str">
         <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "r"</v>
+        <v>"17": "o"</v>
       </c>
       <c r="P10" t="str">
         <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "i"</v>
+        <v>"16": "h"</v>
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "-"</v>
+        <v>"15": "'"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -13238,7 +13242,7 @@
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "q"</v>
+        <v>"23": "z"</v>
       </c>
       <c r="C11" t="str">
         <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
@@ -13246,15 +13250,15 @@
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "b"</v>
+        <v>"25": "c"</v>
       </c>
       <c r="E11" t="str">
         <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "p"</v>
+        <v>"26": "v"</v>
       </c>
       <c r="F11" t="str">
         <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "z"</v>
+        <v>"27": "b"</v>
       </c>
       <c r="G11" t="str">
         <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
@@ -13274,23 +13278,23 @@
       </c>
       <c r="L11" t="str">
         <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "y"</v>
+        <v>"27": "p"</v>
       </c>
       <c r="M11" t="str">
         <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "w"</v>
+        <v>"26": "m"</v>
       </c>
       <c r="N11" t="str">
         <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": "'"</v>
+        <v>"25": ","</v>
       </c>
       <c r="O11" t="str">
         <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "v"</v>
+        <v>"24": "."</v>
       </c>
       <c r="P11" t="str">
         <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": ";"</v>
+        <v>"23": "/"</v>
       </c>
       <c r="Q11" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
@@ -13312,11 +13316,11 @@
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "["</v>
+        <v>"33": "-"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "]"</v>
+        <v>"34": "="</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -13376,25 +13380,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": ",","10": "f","11": "h","12": "d","13": "k","14": "\\","15": "","16": "o","17": "a","18": "n","19": "t","20": "g","21": "","22": "`","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "d","12": "f","13": "k","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "\"","13": "j","12": "c","11": "u","10": "l","9": ".","8": "/","21": "","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "r","10": "l","9": ";","8": "[","21": "","20": "y","19": "n","18": "i","17": "o","16": "h","15": "'","29": "","28": "","27": "p","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": ",","10": "f","11": "h","12": "d","13": "k","14": "\\","15": "","16": "o","17": "a","18": "n","19": "t","20": "g","21": "","22": "`","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "\"","13": "j","12": "c","11": "u","10": "l","9": ".","8": "/","21": "","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "d","12": "f","13": "k","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "r","10": "l","9": ";","8": "[","21": "","20": "y","19": "n","18": "i","17": "o","16": "h","15": "'","29": "","28": "","27": "p","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
-        <v>51</v>
-      </c>
+      <c r="A20" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13402,11 +13404,8 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="L5:L6"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" xr:uid="{F462A076-916C-47CB-ACC3-E666CF9EB88E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13983,18 +13982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DB0E27-6502-49FD-827E-25754C2CC2C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1F72C-151E-43E5-9E9B-7B384388A13F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
@@ -14033,22 +14028,22 @@
         <v>0</v>
       </c>
       <c r="Q1" s="96" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55"/>
       <c r="B2" s="55" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>26</v>
@@ -14065,31 +14060,31 @@
         <v>1</v>
       </c>
       <c r="M2" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="87" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>10</v>
       </c>
       <c r="O2" s="88" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="95" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="54" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>2</v>
@@ -14102,22 +14097,22 @@
       <c r="J3" s="27"/>
       <c r="K3" s="76"/>
       <c r="L3" s="86" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M3" s="91" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N3" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="89" t="s">
-        <v>21</v>
-      </c>
       <c r="Q3" s="89" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -14125,38 +14120,38 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
       <c r="L4" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="87" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="M4" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="96" t="s">
+        <v>38</v>
       </c>
       <c r="O4" s="88" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P4" s="89" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="89"/>
     </row>
@@ -14165,10 +14160,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="55"/>
       <c r="D5" s="54" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F5" s="121"/>
       <c r="G5" s="121"/>
@@ -14261,7 +14256,7 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": "="</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -14271,19 +14266,19 @@
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
+        <v>"9": ","</v>
       </c>
       <c r="C9" t="str">
         <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "w"</v>
+        <v>"10": "f"</v>
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "d"</v>
+        <v>"11": "h"</v>
       </c>
       <c r="E9" t="str">
         <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "f"</v>
+        <v>"12": "d"</v>
       </c>
       <c r="F9" t="str">
         <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
@@ -14303,11 +14298,11 @@
       </c>
       <c r="M9" t="str">
         <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "u"</v>
+        <v>"12": "c"</v>
       </c>
       <c r="N9" t="str">
         <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "r"</v>
+        <v>"11": "u"</v>
       </c>
       <c r="O9" t="str">
         <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
@@ -14315,11 +14310,11 @@
       </c>
       <c r="P9" t="str">
         <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": ";"</v>
+        <v>"9": "."</v>
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "/"</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -14329,15 +14324,15 @@
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "a"</v>
+        <v>"16": "o"</v>
       </c>
       <c r="C10" t="str">
         <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "s"</v>
+        <v>"17": "a"</v>
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "e"</v>
+        <v>"18": "n"</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
@@ -14357,27 +14352,27 @@
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "y"</v>
+        <v>"20": "m"</v>
       </c>
       <c r="M10" t="str">
         <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "n"</v>
+        <v>"19": "s"</v>
       </c>
       <c r="N10" t="str">
         <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "i"</v>
+        <v>"18": "e"</v>
       </c>
       <c r="O10" t="str">
         <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "o"</v>
+        <v>"17": "r"</v>
       </c>
       <c r="P10" t="str">
         <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "h"</v>
+        <v>"16": "i"</v>
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -14387,7 +14382,7 @@
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "z"</v>
+        <v>"23": "q"</v>
       </c>
       <c r="C11" t="str">
         <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
@@ -14395,15 +14390,15 @@
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "c"</v>
+        <v>"25": "b"</v>
       </c>
       <c r="E11" t="str">
         <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "v"</v>
+        <v>"26": "p"</v>
       </c>
       <c r="F11" t="str">
         <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "b"</v>
+        <v>"27": "z"</v>
       </c>
       <c r="G11" t="str">
         <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
@@ -14423,23 +14418,23 @@
       </c>
       <c r="L11" t="str">
         <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "p"</v>
+        <v>"27": "y"</v>
       </c>
       <c r="M11" t="str">
         <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "m"</v>
+        <v>"26": "w"</v>
       </c>
       <c r="N11" t="str">
         <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
+        <v>"25": "'"</v>
       </c>
       <c r="O11" t="str">
         <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "."</v>
+        <v>"24": "v"</v>
       </c>
       <c r="P11" t="str">
         <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "/"</v>
+        <v>"23": ";"</v>
       </c>
       <c r="Q11" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
@@ -14461,11 +14456,11 @@
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "["</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": "]"</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -14525,23 +14520,25 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "d","12": "f","13": "k","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": ",","10": "f","11": "h","12": "d","13": "k","14": "\\","15": "","16": "o","17": "a","18": "n","19": "t","20": "g","21": "","22": "`","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "r","10": "l","9": ";","8": "[","21": "","20": "y","19": "n","18": "i","17": "o","16": "h","15": "'","29": "","28": "","27": "p","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "\"","13": "j","12": "c","11": "u","10": "l","9": ".","8": "/","21": "","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "d","12": "f","13": "k","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "r","10": "l","9": ";","8": "[","21": "","20": "y","19": "n","18": "i","17": "o","16": "h","15": "'","29": "","28": "","27": "p","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": ",","10": "f","11": "h","12": "d","13": "k","14": "\\","15": "","16": "o","17": "a","18": "n","19": "t","20": "g","21": "","22": "`","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "\"","13": "j","12": "c","11": "u","10": "l","9": ".","8": "/","21": "","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="97" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14549,8 +14546,11 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="L5:L6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{F462A076-916C-47CB-ACC3-E666CF9EB88E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/layouts/layouts.xlsx
+++ b/layouts/layouts.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574474CC-2F5E-41C9-9E46-A64CA124E1E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C041E26-8B0A-458D-B553-87FF06CBA56F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" firstSheet="1" activeTab="4" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" activeTab="1" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
     <sheet name="Results" sheetId="22" r:id="rId2"/>
     <sheet name="Keys" sheetId="2" r:id="rId3"/>
     <sheet name="Template" sheetId="23" r:id="rId4"/>
-    <sheet name="My" sheetId="24" r:id="rId5"/>
+    <sheet name="My 1" sheetId="26" r:id="rId5"/>
     <sheet name="Norman" sheetId="21" r:id="rId6"/>
     <sheet name="Soul" sheetId="13" r:id="rId7"/>
     <sheet name="Mtgap2" sheetId="8" r:id="rId8"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="115">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -395,286 +395,7 @@
     <t>by efforts</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12.02,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.10,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.12,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.68,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.31,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.95,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.28,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.02,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.92,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.32,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.98,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.88,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.71,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.61,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.30,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.11,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.09,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.03,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.82,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.49,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.11,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.69,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.17,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.11,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.10,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.52,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.28,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.94,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.82,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.68,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.63,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.59,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.57,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.56,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.55,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.53,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.52,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.50,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.47,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.46,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.43,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.34,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.33,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.27,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.19,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.18,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.16,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.09,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.08,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.06,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.05,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.04,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.02,</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>he</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>nd</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>nt</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>ou</t>
-  </si>
-  <si>
-    <t>ea</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>ti</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>et</t>
-  </si>
-  <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>se</t>
-  </si>
-  <si>
-    <t>le</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>ve</t>
-  </si>
-  <si>
-    <t>ra</t>
-  </si>
-  <si>
-    <t>ld</t>
-  </si>
-  <si>
-    <t>ur</t>
-  </si>
-  <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>ctrl</t>
+    <t>"</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +957,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,21 +1125,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1629,8 +1335,78 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
@@ -1641,7 +1417,16 @@
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -1668,13 +1453,29 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4AB133F-6DAE-4231-BA3E-5FD1535A37A6}" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0">
   <autoFilter ref="A1:D17" xr:uid="{2A73B63B-9BCC-459A-B45A-DD63FBB605A0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
-    <sortCondition ref="D1:D17"/>
+    <sortCondition ref="A1:A17"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A92DB4BE-1C52-4DA8-B720-753A193D705E}" name="Layout"/>
-    <tableColumn id="2" xr3:uid="{C632784E-76DD-49BC-8099-F3E74D7D0927}" name="Efforts" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{861611B6-B3ED-4625-A36F-101A58AACE9C}" name="Distance" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B83FA508-E4A0-4DDA-B943-6B5F52E598DC}" name="Result" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C632784E-76DD-49BC-8099-F3E74D7D0927}" name="Efforts" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{861611B6-B3ED-4625-A36F-101A58AACE9C}" name="Distance" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B83FA508-E4A0-4DDA-B943-6B5F52E598DC}" name="Result" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFDBA6D7-EC37-4E14-93FB-9174212E6BD4}" name="Table13" displayName="Table13" ref="A20:D36" totalsRowShown="0">
+  <autoFilter ref="A20:D36" xr:uid="{738C2389-55F1-4C95-B7CF-5A6AEED0DEB9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:D36">
+    <sortCondition ref="A1:A17"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9F04C436-2F1F-4A49-B31D-4C90F5B28628}" name="Layout"/>
+    <tableColumn id="2" xr3:uid="{8F7C6D5E-62A8-4242-84B4-7D943BB0F035}" name="Efforts" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{447036AD-A550-43EC-BCA6-DEA6FBE57F77}" name="Distance" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{738A8816-D62B-4215-9443-ADFB340F799C}" name="Result" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1981,7 +1782,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,22 +1795,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="61">
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="150">
         <v>1</v>
       </c>
-      <c r="D1" s="60">
+      <c r="D1" s="151">
         <v>1</v>
       </c>
-      <c r="E1" s="57">
+      <c r="E1" s="152">
         <v>1</v>
       </c>
-      <c r="F1" s="59">
+      <c r="F1" s="153">
         <v>1.2</v>
       </c>
-      <c r="G1" s="58">
+      <c r="G1" s="154">
         <v>1.8</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="74">
         <v>3</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -2039,7 +1842,7 @@
       <c r="G2" s="32">
         <v>7</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="58">
         <v>8</v>
       </c>
       <c r="K2" s="12">
@@ -2070,49 +1873,49 @@
         <f t="shared" ref="Q2" si="4">H2*$E$1/$H$1</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="T2" s="86" t="s">
+      <c r="T2" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="86" t="s">
+      <c r="U2" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="91" t="s">
+      <c r="V2" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="87" t="s">
+      <c r="W2" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="87" t="s">
+      <c r="X2" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" s="87" t="s">
+      <c r="Y2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="87" t="s">
+      <c r="Z2" s="82" t="s">
         <v>63</v>
       </c>
       <c r="AB2" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="86">
+      <c r="AC2" s="81">
         <v>7</v>
       </c>
-      <c r="AD2" s="86">
+      <c r="AD2" s="81">
         <v>6</v>
       </c>
-      <c r="AE2" s="91">
+      <c r="AE2" s="86">
         <v>5</v>
       </c>
-      <c r="AF2" s="87">
+      <c r="AF2" s="82">
         <v>4</v>
       </c>
-      <c r="AG2" s="87">
+      <c r="AG2" s="82">
         <v>3</v>
       </c>
-      <c r="AH2" s="87">
+      <c r="AH2" s="82">
         <v>2</v>
       </c>
-      <c r="AI2" s="87">
+      <c r="AI2" s="82">
         <v>1</v>
       </c>
     </row>
@@ -2125,16 +1928,16 @@
         <v>7</v>
       </c>
       <c r="D3" s="35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="36">
         <v>3</v>
       </c>
       <c r="F3" s="38">
+        <v>3</v>
+      </c>
+      <c r="G3" s="49">
         <v>5</v>
-      </c>
-      <c r="G3" s="49">
-        <v>6</v>
       </c>
       <c r="H3" s="37">
         <v>7</v>
@@ -2149,7 +1952,7 @@
       </c>
       <c r="M3" s="5">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N3" s="16">
         <f t="shared" si="1"/>
@@ -2157,64 +1960,64 @@
       </c>
       <c r="O3" s="18">
         <f>F3*$F$1/$H$1</f>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="P3" s="24">
         <f t="shared" ref="P3:Q3" si="6">G3*$F$1/$H$1</f>
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="25">
         <f t="shared" si="6"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="S3" s="27"/>
-      <c r="T3" s="86" t="s">
+      <c r="T3" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="86" t="s">
+      <c r="U3" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="91" t="s">
+      <c r="V3" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="87" t="s">
+      <c r="W3" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="88" t="s">
+      <c r="X3" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="Y3" s="88" t="s">
+      <c r="Y3" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="88" t="s">
+      <c r="Z3" s="83" t="s">
         <v>78</v>
       </c>
       <c r="AB3" s="27"/>
-      <c r="AC3" s="86">
+      <c r="AC3" s="81">
         <v>14</v>
       </c>
-      <c r="AD3" s="86">
+      <c r="AD3" s="81">
         <v>13</v>
       </c>
-      <c r="AE3" s="91">
+      <c r="AE3" s="86">
         <v>12</v>
       </c>
-      <c r="AF3" s="87">
+      <c r="AF3" s="82">
         <v>11</v>
       </c>
-      <c r="AG3" s="88">
+      <c r="AG3" s="83">
         <v>10</v>
       </c>
-      <c r="AH3" s="88">
+      <c r="AH3" s="83">
         <v>9</v>
       </c>
-      <c r="AI3" s="88">
+      <c r="AI3" s="83">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27"/>
-      <c r="B4" s="64">
+      <c r="B4" s="59">
         <v>7</v>
       </c>
       <c r="C4" s="34">
@@ -2235,7 +2038,7 @@
       <c r="H4" s="40">
         <v>7</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="70">
         <f t="shared" si="5"/>
         <v>2.3333333333333335</v>
       </c>
@@ -2264,68 +2067,68 @@
         <v>4.2</v>
       </c>
       <c r="S4" s="27"/>
-      <c r="T4" s="86" t="s">
+      <c r="T4" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="W4" s="87" t="s">
+      <c r="W4" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="X4" s="88" t="s">
+      <c r="X4" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="Y4" s="89" t="s">
+      <c r="Y4" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="Z4" s="89" t="s">
+      <c r="Z4" s="84" t="s">
         <v>85</v>
       </c>
       <c r="AB4" s="27"/>
-      <c r="AC4" s="86">
+      <c r="AC4" s="81">
         <v>21</v>
       </c>
-      <c r="AD4" s="86">
+      <c r="AD4" s="81">
         <v>20</v>
       </c>
-      <c r="AE4" s="91">
+      <c r="AE4" s="86">
         <v>19</v>
       </c>
-      <c r="AF4" s="87">
+      <c r="AF4" s="82">
         <v>18</v>
       </c>
-      <c r="AG4" s="88">
+      <c r="AG4" s="83">
         <v>17</v>
       </c>
-      <c r="AH4" s="89">
+      <c r="AH4" s="84">
         <v>16</v>
       </c>
-      <c r="AI4" s="89">
+      <c r="AI4" s="84">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="65">
+      <c r="A5" s="60">
         <v>10</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="61">
         <v>9</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="62">
         <v>7</v>
       </c>
       <c r="D5" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="42">
         <v>4</v>
       </c>
       <c r="F5" s="43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="44">
         <v>2</v>
@@ -2333,21 +2136,21 @@
       <c r="H5" s="45">
         <v>7</v>
       </c>
-      <c r="J5" s="71">
+      <c r="J5" s="66">
         <f>A5*$C$1/$H$1</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="K5" s="72">
+      <c r="K5" s="67">
         <f>B5*$C$1/$H$1</f>
         <v>3</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="57">
         <f>C5*$D$1/$H$1</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="M5" s="10">
         <f>D5*$D$1/$H$1</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N5" s="17">
         <f t="shared" si="1"/>
@@ -2355,7 +2158,7 @@
       </c>
       <c r="O5" s="19">
         <f t="shared" si="7"/>
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" ref="P5:P6" si="8">G5*$G$1/$H$1</f>
@@ -2365,193 +2168,193 @@
         <f t="shared" ref="Q5:Q6" si="9">H5*$G$1/$H$1</f>
         <v>4.2</v>
       </c>
-      <c r="S5" s="90" t="s">
+      <c r="S5" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="90" t="s">
+      <c r="T5" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="U5" s="86" t="s">
+      <c r="U5" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="V5" s="91" t="s">
+      <c r="V5" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="W5" s="87" t="s">
+      <c r="W5" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="X5" s="88" t="s">
+      <c r="X5" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="Y5" s="89" t="s">
+      <c r="Y5" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="Z5" s="89" t="s">
+      <c r="Z5" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="AB5" s="90">
+      <c r="AB5" s="85">
         <v>29</v>
       </c>
-      <c r="AC5" s="90">
+      <c r="AC5" s="85">
         <v>28</v>
       </c>
-      <c r="AD5" s="86">
+      <c r="AD5" s="81">
         <v>27</v>
       </c>
-      <c r="AE5" s="91">
+      <c r="AE5" s="86">
         <v>26</v>
       </c>
-      <c r="AF5" s="87">
+      <c r="AF5" s="82">
         <v>25</v>
       </c>
-      <c r="AG5" s="88">
+      <c r="AG5" s="83">
         <v>24</v>
       </c>
-      <c r="AH5" s="89">
+      <c r="AH5" s="84">
         <v>23</v>
       </c>
-      <c r="AI5" s="89">
+      <c r="AI5" s="84">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="68">
+      <c r="A6" s="63">
         <v>9</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="110">
         <v>3</v>
       </c>
-      <c r="C6" s="117">
+      <c r="C6" s="112">
         <v>1</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="64">
         <v>5</v>
       </c>
-      <c r="E6" s="85">
-        <v>6</v>
+      <c r="E6" s="80">
+        <v>7</v>
       </c>
       <c r="F6" s="46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" s="48">
         <v>8</v>
       </c>
-      <c r="J6" s="73">
+      <c r="J6" s="68">
         <f t="shared" ref="J6:J7" si="10">A6*$C$1/$H$1</f>
         <v>3</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="106">
         <f>B6*$C$1/$H$1</f>
         <v>1</v>
       </c>
-      <c r="L6" s="113">
+      <c r="L6" s="108">
         <f>C6*$C$1/$H$1</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M6" s="74">
+      <c r="M6" s="69">
         <f t="shared" ref="L5:Q6" si="11">D6*$C$1/$H$1</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N6" s="83">
+      <c r="N6" s="78">
         <f>E6*$E$1/$H$1</f>
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="O6" s="20">
         <f t="shared" si="7"/>
-        <v>2.4</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="P6" s="14">
         <f t="shared" si="8"/>
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q6" s="23">
         <f t="shared" si="9"/>
         <v>4.8</v>
       </c>
-      <c r="S6" s="90" t="s">
+      <c r="S6" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="119" t="s">
+      <c r="T6" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="U6" s="107" t="s">
+      <c r="U6" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="92" t="s">
+      <c r="V6" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="W6" s="87" t="s">
+      <c r="W6" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="X6" s="88" t="s">
+      <c r="X6" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="Y6" s="89" t="s">
+      <c r="Y6" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="Z6" s="89" t="s">
+      <c r="Z6" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="AB6" s="90">
+      <c r="AB6" s="85">
         <v>37</v>
       </c>
-      <c r="AC6" s="109">
+      <c r="AC6" s="104">
         <v>36</v>
       </c>
-      <c r="AD6" s="109">
+      <c r="AD6" s="104">
         <v>35</v>
       </c>
-      <c r="AE6" s="92">
+      <c r="AE6" s="87">
         <v>34</v>
       </c>
-      <c r="AF6" s="87">
+      <c r="AF6" s="82">
         <v>33</v>
       </c>
-      <c r="AG6" s="88">
+      <c r="AG6" s="83">
         <v>32</v>
       </c>
-      <c r="AH6" s="89">
+      <c r="AH6" s="84">
         <v>31</v>
       </c>
-      <c r="AI6" s="89">
+      <c r="AI6" s="84">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="84">
+      <c r="A7" s="79">
         <v>6</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="118"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
-      <c r="J7" s="82">
+      <c r="J7" s="77">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="114"/>
-      <c r="S7" s="90" t="s">
+      <c r="K7" s="107"/>
+      <c r="L7" s="109"/>
+      <c r="S7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="120"/>
-      <c r="U7" s="108"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="103"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
       <c r="X7" s="27"/>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
-      <c r="AB7" s="90">
+      <c r="AB7" s="85">
         <v>38</v>
       </c>
-      <c r="AC7" s="110"/>
-      <c r="AD7" s="110"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
       <c r="AE7" s="27"/>
       <c r="AF7" s="27"/>
       <c r="AG7" s="27"/>
@@ -2559,10 +2362,10 @@
       <c r="AI7" s="27"/>
     </row>
     <row r="8" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J8" s="79"/>
+      <c r="J8" s="74"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="J9" s="79"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
@@ -2570,7 +2373,7 @@
       </c>
       <c r="D10" s="50" t="str">
         <f>_xlfn.CONCAT("{",U14,",",U15,"}")</f>
-        <v>{"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.8,"L9": 2.4,"L10": 2,"L11": 1,"L12": 1.66666666666667,"L13": 2.33333333333333,"L14": 2.66666666666667,"L15": 4.2,"L16": 1.2,"L17": 0.4,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 2,"L21": 2.33333333333333,"L22": 4.2,"L23": 1.2,"L24": 1.2,"L25": 1.33333333333333,"L26": 1,"L27": 2.33333333333333,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 3.6,"L32": 2.4,"L33": 2,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2,"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.8,"R9": 2.4,"R10": 2,"R11": 1,"R12": 1.66666666666667,"R13": 2.33333333333333,"R14": 2.66666666666667,"R15": 4.2,"R16": 1.2,"R17": 0.4,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 2,"R21": 2.33333333333333,"R22": 4.2,"R23": 1.2,"R24": 1.2,"R25": 1.33333333333333,"R26": 1,"R27": 2.33333333333333,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 3.6,"R32": 2.4,"R33": 2,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2}</v>
+        <v>{"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.8,"L9": 2,"L10": 1.2,"L11": 1,"L12": 1.33333333333333,"L13": 2.33333333333333,"L14": 2.66666666666667,"L15": 4.2,"L16": 1.2,"L17": 0.4,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 2,"L21": 2.33333333333333,"L22": 4.2,"L23": 1.2,"L24": 2,"L25": 1.33333333333333,"L26": 1.33333333333333,"L27": 2.33333333333333,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 4.2,"L32": 2.8,"L33": 2.33333333333333,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2,"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.8,"R9": 2,"R10": 1.2,"R11": 1,"R12": 1.33333333333333,"R13": 2.33333333333333,"R14": 2.66666666666667,"R15": 4.2,"R16": 1.2,"R17": 0.4,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 2,"R21": 2.33333333333333,"R22": 4.2,"R23": 1.2,"R24": 2,"R25": 1.33333333333333,"R26": 1.33333333333333,"R27": 2.33333333333333,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 4.2,"R32": 2.8,"R33": 2.33333333333333,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2}</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
@@ -2602,7 +2405,7 @@
         <f>Q2</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="E14" s="80" t="str">
+      <c r="E14" s="75" t="str">
         <f t="shared" ref="E14:E51" si="12">SUBSTITUTE(_xlfn.CONCAT("""L",$A14,""": ",$C14),",",".")</f>
         <v>"L1": 2.66666666666667</v>
       </c>
@@ -2612,21 +2415,21 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="2"/>
-      <c r="L14" s="103" t="str">
+      <c r="L14" s="98" t="str">
         <f>Z2</f>
         <v>0, 8</v>
       </c>
-      <c r="N14" s="80" t="str">
+      <c r="N14" s="75" t="str">
         <f>_xlfn.CONCAT("""L",$A14,""": """,$L14,"""")</f>
         <v>"L1": "0, 8"</v>
       </c>
-      <c r="Q14" s="80" t="str">
+      <c r="Q14" s="75" t="str">
         <f>_xlfn.CONCAT("""R",$A14,""": """,$L14,"""")</f>
         <v>"R1": "0, 8"</v>
       </c>
       <c r="U14" s="50" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,E14:E51,)</f>
-        <v>"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.8,"L9": 2.4,"L10": 2,"L11": 1,"L12": 1.66666666666667,"L13": 2.33333333333333,"L14": 2.66666666666667,"L15": 4.2,"L16": 1.2,"L17": 0.4,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 2,"L21": 2.33333333333333,"L22": 4.2,"L23": 1.2,"L24": 1.2,"L25": 1.33333333333333,"L26": 1,"L27": 2.33333333333333,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 3.6,"L32": 2.4,"L33": 2,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2</v>
+        <v>"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.8,"L9": 2,"L10": 1.2,"L11": 1,"L12": 1.33333333333333,"L13": 2.33333333333333,"L14": 2.66666666666667,"L15": 4.2,"L16": 1.2,"L17": 0.4,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 2,"L21": 2.33333333333333,"L22": 4.2,"L23": 1.2,"L24": 2,"L25": 1.33333333333333,"L26": 1.33333333333333,"L27": 2.33333333333333,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 4.2,"L32": 2.8,"L33": 2.33333333333333,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
@@ -2637,7 +2440,7 @@
         <f>P2</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="E15" s="80" t="str">
+      <c r="E15" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L2": 2.33333333333333</v>
       </c>
@@ -2647,21 +2450,21 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="2"/>
-      <c r="L15" s="103" t="str">
+      <c r="L15" s="98" t="str">
         <f>Y2</f>
         <v>0, 7</v>
       </c>
-      <c r="N15" s="80" t="str">
+      <c r="N15" s="75" t="str">
         <f t="shared" ref="N15:N51" si="14">_xlfn.CONCAT("""L",$A15,""": """,$L15,"""")</f>
         <v>"L2": "0, 7"</v>
       </c>
-      <c r="Q15" s="80" t="str">
+      <c r="Q15" s="75" t="str">
         <f t="shared" ref="Q15:Q51" si="15">_xlfn.CONCAT("""R",$A15,""": """,$L15,"""")</f>
         <v>"R2": "0, 7"</v>
       </c>
       <c r="U15" s="50" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,H14:H51,)</f>
-        <v>"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.8,"R9": 2.4,"R10": 2,"R11": 1,"R12": 1.66666666666667,"R13": 2.33333333333333,"R14": 2.66666666666667,"R15": 4.2,"R16": 1.2,"R17": 0.4,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 2,"R21": 2.33333333333333,"R22": 4.2,"R23": 1.2,"R24": 1.2,"R25": 1.33333333333333,"R26": 1,"R27": 2.33333333333333,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 3.6,"R32": 2.4,"R33": 2,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2</v>
+        <v>"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.8,"R9": 2,"R10": 1.2,"R11": 1,"R12": 1.33333333333333,"R13": 2.33333333333333,"R14": 2.66666666666667,"R15": 4.2,"R16": 1.2,"R17": 0.4,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 2,"R21": 2.33333333333333,"R22": 4.2,"R23": 1.2,"R24": 2,"R25": 1.33333333333333,"R26": 1.33333333333333,"R27": 2.33333333333333,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 4.2,"R32": 2.8,"R33": 2.33333333333333,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
@@ -2672,7 +2475,7 @@
         <f>O2</f>
         <v>2</v>
       </c>
-      <c r="E16" s="80" t="str">
+      <c r="E16" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L3": 2</v>
       </c>
@@ -2682,15 +2485,15 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="2"/>
-      <c r="L16" s="103" t="str">
+      <c r="L16" s="98" t="str">
         <f>X2</f>
         <v>0, 6</v>
       </c>
-      <c r="N16" s="80" t="str">
+      <c r="N16" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L3": "0, 6"</v>
       </c>
-      <c r="Q16" s="80" t="str">
+      <c r="Q16" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R3": "0, 6"</v>
       </c>
@@ -2704,7 +2507,7 @@
         <f>N2</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E17" s="80" t="str">
+      <c r="E17" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L4": 1.66666666666667</v>
       </c>
@@ -2714,15 +2517,15 @@
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
-      <c r="L17" s="103" t="str">
+      <c r="L17" s="98" t="str">
         <f>W2</f>
         <v>0, 5</v>
       </c>
-      <c r="N17" s="80" t="str">
+      <c r="N17" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L4": "0, 5"</v>
       </c>
-      <c r="Q17" s="80" t="str">
+      <c r="Q17" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R4": "0, 5"</v>
       </c>
@@ -2735,7 +2538,7 @@
         <f>M2</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="E18" s="80" t="str">
+      <c r="E18" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L5": 2.33333333333333</v>
       </c>
@@ -2746,16 +2549,16 @@
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
-      <c r="L18" s="103" t="str">
+      <c r="L18" s="98" t="str">
         <f>V2</f>
         <v>0, 4</v>
       </c>
-      <c r="N18" s="80" t="str">
+      <c r="N18" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L5": "0, 4"</v>
       </c>
       <c r="P18" s="51"/>
-      <c r="Q18" s="80" t="str">
+      <c r="Q18" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R5": "0, 4"</v>
       </c>
@@ -2771,7 +2574,7 @@
         <f>L2</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="E19" s="80" t="str">
+      <c r="E19" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L6": 2.66666666666667</v>
       </c>
@@ -2781,15 +2584,15 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
-      <c r="L19" s="103" t="str">
+      <c r="L19" s="98" t="str">
         <f>U2</f>
         <v>0, 3</v>
       </c>
-      <c r="N19" s="80" t="str">
+      <c r="N19" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L6": "0, 3"</v>
       </c>
-      <c r="Q19" s="80" t="str">
+      <c r="Q19" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R6": "0, 3"</v>
       </c>
@@ -2806,7 +2609,7 @@
         <f>K2</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="E20" s="80" t="str">
+      <c r="E20" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L7": 3.33333333333333</v>
       </c>
@@ -2816,15 +2619,15 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="2"/>
-      <c r="L20" s="103" t="str">
+      <c r="L20" s="98" t="str">
         <f>T2</f>
         <v>0, 2</v>
       </c>
-      <c r="N20" s="80" t="str">
+      <c r="N20" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L7": "0, 2"</v>
       </c>
-      <c r="Q20" s="80" t="str">
+      <c r="Q20" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R7": "0, 2"</v>
       </c>
@@ -2841,7 +2644,7 @@
         <f>Q3</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="E21" s="80" t="str">
+      <c r="E21" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L8": 2.8</v>
       </c>
@@ -2851,15 +2654,15 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="2"/>
-      <c r="L21" s="103" t="str">
+      <c r="L21" s="98" t="str">
         <f>Z3</f>
         <v>1, 8</v>
       </c>
-      <c r="N21" s="80" t="str">
+      <c r="N21" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L8": "1, 8"</v>
       </c>
-      <c r="Q21" s="80" t="str">
+      <c r="Q21" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R8": "1, 8"</v>
       </c>
@@ -2870,27 +2673,27 @@
       </c>
       <c r="C22" s="4">
         <f>P3</f>
-        <v>2.4</v>
-      </c>
-      <c r="E22" s="80" t="str">
+        <v>2</v>
+      </c>
+      <c r="E22" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L9": 2.4</v>
+        <v>"L9": 2</v>
       </c>
       <c r="H22" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R9": 2.4</v>
+        <v>"R9": 2</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="2"/>
-      <c r="L22" s="103" t="str">
+      <c r="L22" s="98" t="str">
         <f>Y3</f>
         <v>1, 7</v>
       </c>
-      <c r="N22" s="80" t="str">
+      <c r="N22" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L9": "1, 7"</v>
       </c>
-      <c r="Q22" s="80" t="str">
+      <c r="Q22" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R9": "1, 7"</v>
       </c>
@@ -2901,27 +2704,27 @@
       </c>
       <c r="C23" s="4">
         <f>O3</f>
-        <v>2</v>
-      </c>
-      <c r="E23" s="80" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="E23" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L10": 2</v>
+        <v>"L10": 1.2</v>
       </c>
       <c r="H23" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R10": 2</v>
+        <v>"R10": 1.2</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="2"/>
-      <c r="L23" s="103" t="str">
+      <c r="L23" s="98" t="str">
         <f>X3</f>
         <v>1, 6</v>
       </c>
-      <c r="N23" s="80" t="str">
+      <c r="N23" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L10": "1, 6"</v>
       </c>
-      <c r="Q23" s="80" t="str">
+      <c r="Q23" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R10": "1, 6"</v>
       </c>
@@ -2937,7 +2740,7 @@
         <f>N3</f>
         <v>1</v>
       </c>
-      <c r="E24" s="80" t="str">
+      <c r="E24" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L11": 1</v>
       </c>
@@ -2947,19 +2750,19 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="2"/>
-      <c r="L24" s="103" t="str">
+      <c r="L24" s="98" t="str">
         <f>W3</f>
         <v>1, 5</v>
       </c>
-      <c r="N24" s="80" t="str">
+      <c r="N24" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L11": "1, 5"</v>
       </c>
-      <c r="Q24" s="80" t="str">
+      <c r="Q24" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R11": "1, 5"</v>
       </c>
-      <c r="U24" s="70" t="s">
+      <c r="U24" s="65" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2969,31 +2772,31 @@
       </c>
       <c r="C25" s="4">
         <f>M3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="E25" s="80" t="str">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E25" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L12": 1.66666666666667</v>
+        <v>"L12": 1.33333333333333</v>
       </c>
       <c r="H25" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R12": 1.66666666666667</v>
+        <v>"R12": 1.33333333333333</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="2"/>
-      <c r="L25" s="103" t="str">
+      <c r="L25" s="98" t="str">
         <f>V3</f>
         <v>1, 4</v>
       </c>
-      <c r="N25" s="80" t="str">
+      <c r="N25" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L12": "1, 4"</v>
       </c>
-      <c r="Q25" s="80" t="str">
+      <c r="Q25" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R12": "1, 4"</v>
       </c>
-      <c r="U25" s="70" t="s">
+      <c r="U25" s="65" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3005,7 +2808,7 @@
         <f>L3</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="E26" s="80" t="str">
+      <c r="E26" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L13": 2.33333333333333</v>
       </c>
@@ -3015,19 +2818,19 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="2"/>
-      <c r="L26" s="103" t="str">
+      <c r="L26" s="98" t="str">
         <f>U3</f>
         <v>1, 3</v>
       </c>
-      <c r="N26" s="80" t="str">
+      <c r="N26" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L13": "1, 3"</v>
       </c>
-      <c r="Q26" s="80" t="str">
+      <c r="Q26" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R13": "1, 3"</v>
       </c>
-      <c r="U26" s="70" t="s">
+      <c r="U26" s="65" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3039,7 +2842,7 @@
         <f>K3</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="E27" s="80" t="str">
+      <c r="E27" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L14": 2.66666666666667</v>
       </c>
@@ -3049,19 +2852,19 @@
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="2"/>
-      <c r="L27" s="103" t="str">
+      <c r="L27" s="98" t="str">
         <f>T3</f>
         <v>1.5, 2</v>
       </c>
-      <c r="N27" s="80" t="str">
+      <c r="N27" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L14": "1.5, 2"</v>
       </c>
-      <c r="Q27" s="80" t="str">
+      <c r="Q27" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R14": "1.5, 2"</v>
       </c>
-      <c r="U27" s="70" t="s">
+      <c r="U27" s="65" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3073,7 +2876,7 @@
         <f>Q4</f>
         <v>4.2</v>
       </c>
-      <c r="E28" s="80" t="str">
+      <c r="E28" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L15": 4.2</v>
       </c>
@@ -3083,19 +2886,19 @@
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
-      <c r="L28" s="103" t="str">
+      <c r="L28" s="98" t="str">
         <f>Z4</f>
         <v>2, 8</v>
       </c>
-      <c r="N28" s="80" t="str">
+      <c r="N28" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L15": "2, 8"</v>
       </c>
-      <c r="Q28" s="80" t="str">
+      <c r="Q28" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R15": "2, 8"</v>
       </c>
-      <c r="U28" s="70" t="s">
+      <c r="U28" s="65" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3107,7 +2910,7 @@
         <f>P4</f>
         <v>1.2</v>
       </c>
-      <c r="E29" s="80" t="str">
+      <c r="E29" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L16": 1.2</v>
       </c>
@@ -3117,15 +2920,15 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="2"/>
-      <c r="L29" s="103" t="str">
+      <c r="L29" s="98" t="str">
         <f>Y4</f>
         <v>2, 7</v>
       </c>
-      <c r="N29" s="80" t="str">
+      <c r="N29" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L16": "2, 7"</v>
       </c>
-      <c r="Q29" s="80" t="str">
+      <c r="Q29" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R16": "2, 7"</v>
       </c>
@@ -3138,7 +2941,7 @@
         <f>O4</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="E30" s="80" t="str">
+      <c r="E30" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L17": 0.4</v>
       </c>
@@ -3148,15 +2951,15 @@
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="2"/>
-      <c r="L30" s="103" t="str">
+      <c r="L30" s="98" t="str">
         <f>X4</f>
         <v>2, 6</v>
       </c>
-      <c r="N30" s="80" t="str">
+      <c r="N30" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L17": "2, 6"</v>
       </c>
-      <c r="Q30" s="80" t="str">
+      <c r="Q30" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R17": "2, 6"</v>
       </c>
@@ -3169,7 +2972,7 @@
         <f>N4</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E31" s="80" t="str">
+      <c r="E31" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L18": 0.333333333333333</v>
       </c>
@@ -3179,15 +2982,15 @@
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="2"/>
-      <c r="L31" s="103" t="str">
+      <c r="L31" s="98" t="str">
         <f>W4</f>
         <v>2, 5</v>
       </c>
-      <c r="N31" s="80" t="str">
+      <c r="N31" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L18": "2, 5"</v>
       </c>
-      <c r="Q31" s="80" t="str">
+      <c r="Q31" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R18": "2, 5"</v>
       </c>
@@ -3200,7 +3003,7 @@
         <f>M4</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E32" s="80" t="str">
+      <c r="E32" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L19": 0.333333333333333</v>
       </c>
@@ -3210,15 +3013,15 @@
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="2"/>
-      <c r="L32" s="103" t="str">
+      <c r="L32" s="98" t="str">
         <f>V4</f>
         <v>2, 4</v>
       </c>
-      <c r="N32" s="80" t="str">
+      <c r="N32" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L19": "2, 4"</v>
       </c>
-      <c r="Q32" s="80" t="str">
+      <c r="Q32" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R19": "2, 4"</v>
       </c>
@@ -3231,7 +3034,7 @@
         <f>L4</f>
         <v>2</v>
       </c>
-      <c r="E33" s="80" t="str">
+      <c r="E33" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L20": 2</v>
       </c>
@@ -3241,15 +3044,15 @@
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="2"/>
-      <c r="L33" s="103" t="str">
+      <c r="L33" s="98" t="str">
         <f>U4</f>
         <v>2, 3</v>
       </c>
-      <c r="N33" s="80" t="str">
+      <c r="N33" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L20": "2, 3"</v>
       </c>
-      <c r="Q33" s="80" t="str">
+      <c r="Q33" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R20": "2, 3"</v>
       </c>
@@ -3262,7 +3065,7 @@
         <f>K4</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="E34" s="80" t="str">
+      <c r="E34" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L21": 2.33333333333333</v>
       </c>
@@ -3272,15 +3075,15 @@
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="2"/>
-      <c r="L34" s="103" t="str">
+      <c r="L34" s="98" t="str">
         <f>T4</f>
         <v>3, 2</v>
       </c>
-      <c r="N34" s="80" t="str">
+      <c r="N34" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L21": "3, 2"</v>
       </c>
-      <c r="Q34" s="80" t="str">
+      <c r="Q34" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R21": "3, 2"</v>
       </c>
@@ -3293,7 +3096,7 @@
         <f>Q5</f>
         <v>4.2</v>
       </c>
-      <c r="E35" s="80" t="str">
+      <c r="E35" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L22": 4.2</v>
       </c>
@@ -3303,15 +3106,15 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="2"/>
-      <c r="L35" s="103" t="str">
+      <c r="L35" s="98" t="str">
         <f>Z5</f>
         <v>3, 8</v>
       </c>
-      <c r="N35" s="80" t="str">
+      <c r="N35" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L22": "3, 8"</v>
       </c>
-      <c r="Q35" s="80" t="str">
+      <c r="Q35" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R22": "3, 8"</v>
       </c>
@@ -3324,7 +3127,7 @@
         <f>P5</f>
         <v>1.2</v>
       </c>
-      <c r="E36" s="80" t="str">
+      <c r="E36" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L23": 1.2</v>
       </c>
@@ -3334,15 +3137,15 @@
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
-      <c r="L36" s="103" t="str">
+      <c r="L36" s="98" t="str">
         <f>Y5</f>
         <v>3, 7</v>
       </c>
-      <c r="N36" s="80" t="str">
+      <c r="N36" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L23": "3, 7"</v>
       </c>
-      <c r="Q36" s="80" t="str">
+      <c r="Q36" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R23": "3, 7"</v>
       </c>
@@ -3353,27 +3156,27 @@
       </c>
       <c r="C37" s="4">
         <f>O5</f>
-        <v>1.2</v>
-      </c>
-      <c r="E37" s="80" t="str">
+        <v>2</v>
+      </c>
+      <c r="E37" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L24": 1.2</v>
+        <v>"L24": 2</v>
       </c>
       <c r="H37" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R24": 1.2</v>
+        <v>"R24": 2</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="2"/>
-      <c r="L37" s="103" t="str">
+      <c r="L37" s="98" t="str">
         <f>X5</f>
         <v>3, 6</v>
       </c>
-      <c r="N37" s="80" t="str">
+      <c r="N37" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L24": "3, 6"</v>
       </c>
-      <c r="Q37" s="80" t="str">
+      <c r="Q37" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R24": "3, 6"</v>
       </c>
@@ -3386,7 +3189,7 @@
         <f>N5</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="E38" s="80" t="str">
+      <c r="E38" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L25": 1.33333333333333</v>
       </c>
@@ -3396,15 +3199,15 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="2"/>
-      <c r="L38" s="103" t="str">
+      <c r="L38" s="98" t="str">
         <f>W5</f>
         <v>3, 5</v>
       </c>
-      <c r="N38" s="80" t="str">
+      <c r="N38" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L25": "3, 5"</v>
       </c>
-      <c r="Q38" s="80" t="str">
+      <c r="Q38" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R25": "3, 5"</v>
       </c>
@@ -3415,27 +3218,27 @@
       </c>
       <c r="C39" s="4">
         <f>M5</f>
-        <v>1</v>
-      </c>
-      <c r="E39" s="80" t="str">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E39" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L26": 1</v>
+        <v>"L26": 1.33333333333333</v>
       </c>
       <c r="H39" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R26": 1</v>
+        <v>"R26": 1.33333333333333</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="2"/>
-      <c r="L39" s="103" t="str">
+      <c r="L39" s="98" t="str">
         <f>V5</f>
         <v>3, 4</v>
       </c>
-      <c r="N39" s="80" t="str">
+      <c r="N39" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L26": "3, 4"</v>
       </c>
-      <c r="Q39" s="80" t="str">
+      <c r="Q39" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R26": "3, 4"</v>
       </c>
@@ -3448,7 +3251,7 @@
         <f>L5</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="E40" s="80" t="str">
+      <c r="E40" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L27": 2.33333333333333</v>
       </c>
@@ -3458,15 +3261,15 @@
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="2"/>
-      <c r="L40" s="103" t="str">
+      <c r="L40" s="98" t="str">
         <f>U5</f>
         <v>3, 3</v>
       </c>
-      <c r="N40" s="80" t="str">
+      <c r="N40" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L27": "3, 3"</v>
       </c>
-      <c r="Q40" s="80" t="str">
+      <c r="Q40" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R27": "3, 3"</v>
       </c>
@@ -3479,7 +3282,7 @@
         <f>K5</f>
         <v>3</v>
       </c>
-      <c r="E41" s="80" t="str">
+      <c r="E41" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L28": 3</v>
       </c>
@@ -3489,15 +3292,15 @@
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="2"/>
-      <c r="L41" s="103" t="str">
+      <c r="L41" s="98" t="str">
         <f>T5</f>
         <v>4, 1</v>
       </c>
-      <c r="N41" s="80" t="str">
+      <c r="N41" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L28": "4, 1"</v>
       </c>
-      <c r="Q41" s="80" t="str">
+      <c r="Q41" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R28": "4, 1"</v>
       </c>
@@ -3510,7 +3313,7 @@
         <f>J5</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="E42" s="80" t="str">
+      <c r="E42" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L29": 3.33333333333333</v>
       </c>
@@ -3520,15 +3323,15 @@
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="2"/>
-      <c r="L42" s="103" t="str">
+      <c r="L42" s="98" t="str">
         <f>S5</f>
         <v>4, 0</v>
       </c>
-      <c r="N42" s="80" t="str">
+      <c r="N42" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L29": "4, 0"</v>
       </c>
-      <c r="Q42" s="80" t="str">
+      <c r="Q42" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R29": "4, 0"</v>
       </c>
@@ -3541,7 +3344,7 @@
         <f>Q6</f>
         <v>4.8</v>
       </c>
-      <c r="E43" s="80" t="str">
+      <c r="E43" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L30": 4.8</v>
       </c>
@@ -3551,15 +3354,15 @@
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="2"/>
-      <c r="L43" s="103" t="str">
+      <c r="L43" s="98" t="str">
         <f>Z6</f>
         <v>4, 8</v>
       </c>
-      <c r="N43" s="80" t="str">
+      <c r="N43" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L30": "4, 8"</v>
       </c>
-      <c r="Q43" s="80" t="str">
+      <c r="Q43" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R30": "4, 8"</v>
       </c>
@@ -3570,27 +3373,27 @@
       </c>
       <c r="C44" s="4">
         <f>P6</f>
-        <v>3.6</v>
-      </c>
-      <c r="E44" s="80" t="str">
+        <v>4.2</v>
+      </c>
+      <c r="E44" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L31": 3.6</v>
+        <v>"L31": 4.2</v>
       </c>
       <c r="H44" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R31": 3.6</v>
+        <v>"R31": 4.2</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="2"/>
-      <c r="L44" s="103" t="str">
+      <c r="L44" s="98" t="str">
         <f>Y6</f>
         <v>4, 7</v>
       </c>
-      <c r="N44" s="80" t="str">
+      <c r="N44" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L31": "4, 7"</v>
       </c>
-      <c r="Q44" s="80" t="str">
+      <c r="Q44" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R31": "4, 7"</v>
       </c>
@@ -3601,27 +3404,27 @@
       </c>
       <c r="C45" s="4">
         <f>O6</f>
-        <v>2.4</v>
-      </c>
-      <c r="E45" s="80" t="str">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="E45" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L32": 2.4</v>
+        <v>"L32": 2.8</v>
       </c>
       <c r="H45" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R32": 2.4</v>
+        <v>"R32": 2.8</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="2"/>
-      <c r="L45" s="103" t="str">
+      <c r="L45" s="98" t="str">
         <f>X6</f>
         <v>4, 6</v>
       </c>
-      <c r="N45" s="80" t="str">
+      <c r="N45" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L32": "4, 6"</v>
       </c>
-      <c r="Q45" s="80" t="str">
+      <c r="Q45" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R32": "4, 6"</v>
       </c>
@@ -3632,27 +3435,27 @@
       </c>
       <c r="C46" s="4">
         <f>N6</f>
-        <v>2</v>
-      </c>
-      <c r="E46" s="80" t="str">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E46" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L33": 2</v>
+        <v>"L33": 2.33333333333333</v>
       </c>
       <c r="H46" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R33": 2</v>
+        <v>"R33": 2.33333333333333</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="2"/>
-      <c r="L46" s="103" t="str">
+      <c r="L46" s="98" t="str">
         <f>W6</f>
         <v>4, 5</v>
       </c>
-      <c r="N46" s="80" t="str">
+      <c r="N46" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L33": "4, 5"</v>
       </c>
-      <c r="Q46" s="80" t="str">
+      <c r="Q46" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R33": "4, 5"</v>
       </c>
@@ -3665,7 +3468,7 @@
         <f>M6</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E47" s="80" t="str">
+      <c r="E47" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L34": 1.66666666666667</v>
       </c>
@@ -3675,15 +3478,15 @@
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="2"/>
-      <c r="L47" s="103" t="str">
+      <c r="L47" s="98" t="str">
         <f>V6</f>
         <v>4, 4</v>
       </c>
-      <c r="N47" s="80" t="str">
+      <c r="N47" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L34": "4, 4"</v>
       </c>
-      <c r="Q47" s="80" t="str">
+      <c r="Q47" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R34": "4, 4"</v>
       </c>
@@ -3696,7 +3499,7 @@
         <f>L6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E48" s="80" t="str">
+      <c r="E48" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L35": 0.333333333333333</v>
       </c>
@@ -3706,15 +3509,15 @@
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="2"/>
-      <c r="L48" s="103" t="str">
+      <c r="L48" s="98" t="str">
         <f>U6</f>
         <v>5, 2.5</v>
       </c>
-      <c r="N48" s="80" t="str">
+      <c r="N48" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L35": "5, 2.5"</v>
       </c>
-      <c r="Q48" s="80" t="str">
+      <c r="Q48" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R35": "5, 2.5"</v>
       </c>
@@ -3727,7 +3530,7 @@
         <f>K6</f>
         <v>1</v>
       </c>
-      <c r="E49" s="80" t="str">
+      <c r="E49" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L36": 1</v>
       </c>
@@ -3737,15 +3540,15 @@
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="2"/>
-      <c r="L49" s="103" t="str">
+      <c r="L49" s="98" t="str">
         <f>T6</f>
         <v>5.5, 1.5</v>
       </c>
-      <c r="N49" s="80" t="str">
+      <c r="N49" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L36": "5.5, 1.5"</v>
       </c>
-      <c r="Q49" s="80" t="str">
+      <c r="Q49" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R36": "5.5, 1.5"</v>
       </c>
@@ -3758,7 +3561,7 @@
         <f>J6</f>
         <v>3</v>
       </c>
-      <c r="E50" s="80" t="str">
+      <c r="E50" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L37": 3</v>
       </c>
@@ -3768,15 +3571,15 @@
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="2"/>
-      <c r="L50" s="103" t="str">
+      <c r="L50" s="98" t="str">
         <f>S6</f>
         <v>5, 0.5</v>
       </c>
-      <c r="N50" s="80" t="str">
+      <c r="N50" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L37": "5, 0.5"</v>
       </c>
-      <c r="Q50" s="80" t="str">
+      <c r="Q50" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R37": "5, 0.5"</v>
       </c>
@@ -3789,7 +3592,7 @@
         <f>J7</f>
         <v>2</v>
       </c>
-      <c r="E51" s="80" t="str">
+      <c r="E51" s="75" t="str">
         <f t="shared" si="12"/>
         <v>"L38": 2</v>
       </c>
@@ -3799,15 +3602,15 @@
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="2"/>
-      <c r="L51" s="103" t="str">
+      <c r="L51" s="98" t="str">
         <f>S7</f>
         <v>6, 1</v>
       </c>
-      <c r="N51" s="80" t="str">
+      <c r="N51" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L38": "6, 1"</v>
       </c>
-      <c r="Q51" s="80" t="str">
+      <c r="Q51" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R38": "6, 1"</v>
       </c>
@@ -3865,23 +3668,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3902,30 +3705,30 @@
       <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3946,26 +3749,26 @@
       <c r="F3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3985,29 +3788,29 @@
       <c r="E4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -4019,23 +3822,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -4043,12 +3846,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -4390,7 +4193,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4437,23 +4240,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4474,30 +4277,30 @@
       <c r="F2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4518,26 +4321,26 @@
       <c r="F3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4557,29 +4360,29 @@
       <c r="E4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -4591,23 +4394,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -4615,12 +4418,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -4962,7 +4765,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5009,23 +4812,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5046,30 +4849,30 @@
       <c r="F2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5090,26 +4893,26 @@
       <c r="F3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5129,29 +4932,29 @@
       <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -5163,23 +4966,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -5187,12 +4990,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -5534,7 +5337,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5581,23 +5384,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5618,30 +5421,30 @@
       <c r="F2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5662,26 +5465,26 @@
       <c r="F3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5701,29 +5504,29 @@
       <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -5735,23 +5538,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -5759,12 +5562,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -6106,7 +5909,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="92" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6158,23 +5961,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6195,30 +5998,30 @@
       <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6239,26 +6042,26 @@
       <c r="F3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6278,29 +6081,29 @@
       <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -6312,23 +6115,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -6336,12 +6139,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -6683,7 +6486,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6730,23 +6533,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6767,30 +6570,30 @@
       <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6811,26 +6614,26 @@
       <c r="F3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6850,29 +6653,29 @@
       <c r="E4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -6884,23 +6687,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -6908,12 +6711,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -7255,7 +7058,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7302,23 +7105,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7339,30 +7142,30 @@
       <c r="F2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7383,26 +7186,26 @@
       <c r="F3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7422,29 +7225,29 @@
       <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -7456,23 +7259,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -7480,12 +7283,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -7827,7 +7630,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7874,23 +7677,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7911,30 +7714,30 @@
       <c r="F2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7955,26 +7758,26 @@
       <c r="F3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7994,29 +7797,29 @@
       <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -8028,23 +7831,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -8052,12 +7855,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -8399,7 +8202,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8442,23 +8245,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8479,30 +8282,30 @@
       <c r="F2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8523,26 +8326,26 @@
       <c r="F3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8562,29 +8365,29 @@
       <c r="E4" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -8596,23 +8399,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -8620,12 +8423,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -8967,7 +8770,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="92" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9019,29 +8822,29 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="87" t="s">
+      <c r="Q1" s="82" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="73" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="55" t="s">
@@ -9056,30 +8859,30 @@
       <c r="F2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="95" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="88" t="s">
+      <c r="Q2" s="83" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9100,26 +8903,26 @@
       <c r="F3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="81"/>
+      <c r="L3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9139,29 +8942,29 @@
       <c r="E4" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -9173,23 +8976,23 @@
       <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -9197,12 +9000,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -9556,10 +9359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC63CFF-AE66-45CB-9330-30F96D8360CD}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9589,154 +9392,154 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="104">
-        <v>63006826.979999997</v>
-      </c>
-      <c r="C2" s="104">
-        <v>19395332.300000001</v>
-      </c>
-      <c r="D2" s="104">
-        <v>82935207.909999996</v>
-      </c>
-      <c r="F2" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="99">
+        <v>63021594.32</v>
+      </c>
+      <c r="C2" s="99">
+        <v>19826891.16</v>
+      </c>
+      <c r="D2" s="99">
+        <v>84866278.140000001</v>
+      </c>
+      <c r="F2" s="100" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="104">
-        <v>63021594.32</v>
-      </c>
-      <c r="C3" s="104">
-        <v>19826891.16</v>
-      </c>
-      <c r="D3" s="104">
-        <v>84866278.140000001</v>
-      </c>
-      <c r="F3" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="99">
+        <v>66392714.619999997</v>
+      </c>
+      <c r="C3" s="99">
+        <v>20670094.780000001</v>
+      </c>
+      <c r="D3" s="99">
+        <v>88358159.370000005</v>
+      </c>
+      <c r="F3" s="101" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="104">
-        <v>67454002.200000003</v>
-      </c>
-      <c r="C4" s="104">
-        <v>19297528.530000001</v>
-      </c>
-      <c r="D4" s="104">
-        <v>86578542.310000002</v>
-      </c>
-      <c r="F4" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="99">
+        <v>78131280.400000006</v>
+      </c>
+      <c r="C4" s="99">
+        <v>21101450.010000002</v>
+      </c>
+      <c r="D4" s="99">
+        <v>104726747.16</v>
+      </c>
+      <c r="F4" s="100" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="104">
-        <v>67577455.799999997</v>
-      </c>
-      <c r="C5" s="104">
-        <v>19651448.32</v>
-      </c>
-      <c r="D5" s="104">
-        <v>87836971.450000003</v>
-      </c>
-      <c r="F5" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="99">
+        <v>67508647.859999999</v>
+      </c>
+      <c r="C5" s="99">
+        <v>20046089.260000002</v>
+      </c>
+      <c r="D5" s="99">
+        <v>88286789.760000005</v>
+      </c>
+      <c r="F5" s="101" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="104">
-        <v>64336488.939999998</v>
-      </c>
-      <c r="C6" s="104">
-        <v>20230518.75</v>
-      </c>
-      <c r="D6" s="104">
-        <v>87868316.140000001</v>
-      </c>
-      <c r="F6" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="99">
+        <v>69122581.920000002</v>
+      </c>
+      <c r="C6" s="99">
+        <v>19579550.539999999</v>
+      </c>
+      <c r="D6" s="99">
+        <v>91093558.439999998</v>
+      </c>
+      <c r="F6" s="100" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="104">
-        <v>62843938.359999999</v>
-      </c>
-      <c r="C7" s="104">
-        <v>21059347.890000001</v>
-      </c>
-      <c r="D7" s="104">
-        <v>87955816.640000001</v>
-      </c>
-      <c r="F7" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="99">
+        <v>70217301.200000003</v>
+      </c>
+      <c r="C7" s="99">
+        <v>19953253.190000001</v>
+      </c>
+      <c r="D7" s="99">
+        <v>92342053.359999999</v>
+      </c>
+      <c r="F7" s="101" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="104">
-        <v>67508647.859999999</v>
-      </c>
-      <c r="C8" s="104">
-        <v>20046089.260000002</v>
-      </c>
-      <c r="D8" s="104">
-        <v>88286789.760000005</v>
-      </c>
-      <c r="F8" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="99">
+        <v>61493510.240000002</v>
+      </c>
+      <c r="C8" s="99">
+        <v>21237339.98</v>
+      </c>
+      <c r="D8" s="99">
+        <v>90472118.769999996</v>
+      </c>
+      <c r="F8" s="100" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="104">
-        <v>66392714.619999997</v>
-      </c>
-      <c r="C9" s="104">
-        <v>20670094.780000001</v>
-      </c>
-      <c r="D9" s="104">
-        <v>88358159.370000005</v>
-      </c>
-      <c r="F9" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="99">
+        <v>64336488.939999998</v>
+      </c>
+      <c r="C9" s="99">
+        <v>20230518.75</v>
+      </c>
+      <c r="D9" s="99">
+        <v>87868316.140000001</v>
+      </c>
+      <c r="F9" s="101" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="104">
-        <v>64553896.880000003</v>
-      </c>
-      <c r="C10" s="104">
-        <v>20861397.899999999</v>
-      </c>
-      <c r="D10" s="104">
-        <v>89485860.049999997</v>
-      </c>
-      <c r="F10" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="99">
+        <v>63006826.979999997</v>
+      </c>
+      <c r="C10" s="99">
+        <v>19395332.300000001</v>
+      </c>
+      <c r="D10" s="99">
+        <v>82935207.909999996</v>
+      </c>
+      <c r="F10" s="100" t="s">
         <v>108</v>
       </c>
     </row>
@@ -9744,126 +9547,365 @@
       <c r="A11" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="104">
+      <c r="B11" s="99">
         <v>70345275.159999996</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="99">
         <v>18853846.870000001</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="99">
         <v>89982358.519999996</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="101" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="104">
-        <v>61493510.240000002</v>
-      </c>
-      <c r="C12" s="104">
-        <v>21237339.98</v>
-      </c>
-      <c r="D12" s="104">
-        <v>90472118.769999996</v>
-      </c>
-      <c r="F12" s="105" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="99">
+        <v>67454002.200000003</v>
+      </c>
+      <c r="C12" s="99">
+        <v>19297528.530000001</v>
+      </c>
+      <c r="D12" s="99">
+        <v>86578542.310000002</v>
+      </c>
+      <c r="F12" s="100" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="104">
-        <v>69122581.920000002</v>
-      </c>
-      <c r="C13" s="104">
-        <v>19579550.539999999</v>
-      </c>
-      <c r="D13" s="104">
-        <v>91093558.439999998</v>
-      </c>
-      <c r="F13" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="99">
+        <v>67577455.799999997</v>
+      </c>
+      <c r="C13" s="99">
+        <v>19651448.32</v>
+      </c>
+      <c r="D13" s="99">
+        <v>87836971.450000003</v>
+      </c>
+      <c r="F13" s="101" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="104">
-        <v>70217301.200000003</v>
-      </c>
-      <c r="C14" s="104">
-        <v>19953253.190000001</v>
-      </c>
-      <c r="D14" s="104">
-        <v>92342053.359999999</v>
-      </c>
-      <c r="F14" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="99">
+        <v>90643274.200000003</v>
+      </c>
+      <c r="C14" s="99">
+        <v>21071928.530000001</v>
+      </c>
+      <c r="D14" s="99">
+        <v>130204950.77</v>
+      </c>
+      <c r="F14" s="100" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="104">
-        <v>78131280.400000006</v>
-      </c>
-      <c r="C15" s="104">
-        <v>21101450.010000002</v>
-      </c>
-      <c r="D15" s="104">
-        <v>104726747.16</v>
-      </c>
-      <c r="F15" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="99">
+        <v>62843938.359999999</v>
+      </c>
+      <c r="C15" s="99">
+        <v>21059347.890000001</v>
+      </c>
+      <c r="D15" s="99">
+        <v>87955816.640000001</v>
+      </c>
+      <c r="F15" s="101" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="104">
-        <v>90643274.200000003</v>
-      </c>
-      <c r="C16" s="104">
-        <v>21071928.530000001</v>
-      </c>
-      <c r="D16" s="104">
-        <v>130204950.77</v>
-      </c>
-      <c r="F16" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="99">
+        <v>96384239.219999999</v>
+      </c>
+      <c r="C16" s="99">
+        <v>22149809.34</v>
+      </c>
+      <c r="D16" s="99">
+        <v>143316664.5</v>
+      </c>
+      <c r="F16" s="100" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="99">
+        <v>64553896.880000003</v>
+      </c>
+      <c r="C17" s="99">
+        <v>20861397.899999999</v>
+      </c>
+      <c r="D17" s="99">
+        <v>89485860.049999997</v>
+      </c>
+      <c r="F17" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="104">
-        <v>96384239.219999999</v>
-      </c>
-      <c r="C17" s="104">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="99">
+        <v>20639137.469999999</v>
+      </c>
+      <c r="C21" s="99">
+        <v>19826891.16</v>
+      </c>
+      <c r="D21" s="99">
+        <v>27722023.260000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="99">
+        <v>20534491.289999999</v>
+      </c>
+      <c r="C22" s="99">
+        <v>20670094.780000001</v>
+      </c>
+      <c r="D22" s="99">
+        <v>27146139.100000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="99">
+        <v>24324243.23</v>
+      </c>
+      <c r="C23" s="99">
+        <v>21101450.010000002</v>
+      </c>
+      <c r="D23" s="99">
+        <v>32694650.219999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="99">
+        <v>20743719.280000001</v>
+      </c>
+      <c r="C24" s="99">
+        <v>20046089.260000002</v>
+      </c>
+      <c r="D24" s="99">
+        <v>27238308.379999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="99">
+        <v>21203984.640000001</v>
+      </c>
+      <c r="C25" s="99">
+        <v>19579550.539999999</v>
+      </c>
+      <c r="D25" s="99">
+        <v>28051998.27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="99">
+        <v>21624015.41</v>
+      </c>
+      <c r="C26" s="99">
+        <v>19953253.190000001</v>
+      </c>
+      <c r="D26" s="99">
+        <v>28766978.190000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="99">
+        <v>18927229.890000001</v>
+      </c>
+      <c r="C27" s="99">
+        <v>21237339.98</v>
+      </c>
+      <c r="D27" s="99">
+        <v>27847199.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="99">
+        <v>19908971.43</v>
+      </c>
+      <c r="C28" s="99">
+        <v>20230518.75</v>
+      </c>
+      <c r="D28" s="99">
+        <v>26941336.800000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="99">
+        <v>19606366.420000002</v>
+      </c>
+      <c r="C29" s="99">
+        <v>19395332.300000001</v>
+      </c>
+      <c r="D29" s="99">
+        <v>25930094.809999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="99">
+        <v>23007242.829999998</v>
+      </c>
+      <c r="C30" s="99">
+        <v>18853846.870000001</v>
+      </c>
+      <c r="D30" s="99">
+        <v>29397548.789999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="99">
+        <v>21592424.98</v>
+      </c>
+      <c r="C31" s="99">
+        <v>19297528.530000001</v>
+      </c>
+      <c r="D31" s="99">
+        <v>27772921.629999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="99">
+        <v>21633546.48</v>
+      </c>
+      <c r="C32" s="99">
+        <v>19651448.32</v>
+      </c>
+      <c r="D32" s="99">
+        <v>28192285.280000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="99">
+        <v>29325379.289999999</v>
+      </c>
+      <c r="C33" s="99">
+        <v>21071928.530000001</v>
+      </c>
+      <c r="D33" s="99">
+        <v>42105942.07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="99">
+        <v>19362564.77</v>
+      </c>
+      <c r="C34" s="99">
+        <v>21059347.890000001</v>
+      </c>
+      <c r="D34" s="99">
+        <v>26986067.969999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="99">
+        <v>31477579.66</v>
+      </c>
+      <c r="C35" s="99">
         <v>22149809.34</v>
       </c>
-      <c r="D17" s="104">
-        <v>143316664.5</v>
-      </c>
-      <c r="F17" s="106" t="s">
-        <v>97</v>
+      <c r="D35" s="99">
+        <v>46890688.869999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="99">
+        <v>19877583.690000001</v>
+      </c>
+      <c r="C36" s="99">
+        <v>20861397.899999999</v>
+      </c>
+      <c r="D36" s="99">
+        <v>27317291</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9902,23 +9944,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="87" t="s">
+      <c r="Q1" s="82" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9939,30 +9981,30 @@
       <c r="F2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="88" t="s">
+      <c r="Q2" s="83" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9983,26 +10025,26 @@
       <c r="F3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="81"/>
+      <c r="L3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10022,29 +10064,29 @@
       <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -10056,23 +10098,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -10080,12 +10122,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -10472,23 +10514,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>36</v>
       </c>
     </row>
@@ -10509,30 +10551,30 @@
       <c r="F2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10553,26 +10595,26 @@
       <c r="F3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="102" t="s">
+      <c r="Q3" s="97" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10592,29 +10634,29 @@
       <c r="E4" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -10626,23 +10668,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -10650,12 +10692,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -10997,7 +11039,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11020,8 +11062,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="4.77734375" style="81"/>
+    <col min="1" max="1" width="5.33203125" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="4.77734375" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -11053,25 +11095,25 @@
       <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="86">
+      <c r="K1" s="81">
         <v>7</v>
       </c>
-      <c r="L1" s="86">
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>5</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>4</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>3</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>2</v>
       </c>
-      <c r="Q1" s="87">
+      <c r="Q1" s="82">
         <v>1</v>
       </c>
     </row>
@@ -11100,25 +11142,25 @@
       <c r="H2" s="2"/>
       <c r="I2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86">
+      <c r="K2" s="81">
         <v>14</v>
       </c>
-      <c r="L2" s="86">
+      <c r="L2" s="81">
         <v>13</v>
       </c>
-      <c r="M2" s="91">
+      <c r="M2" s="86">
         <v>12</v>
       </c>
-      <c r="N2" s="87">
+      <c r="N2" s="82">
         <v>11</v>
       </c>
-      <c r="O2" s="88">
+      <c r="O2" s="83">
         <v>10</v>
       </c>
-      <c r="P2" s="88">
+      <c r="P2" s="83">
         <v>9</v>
       </c>
-      <c r="Q2" s="88">
+      <c r="Q2" s="83">
         <v>8</v>
       </c>
     </row>
@@ -11141,31 +11183,31 @@
       <c r="F3" s="52">
         <v>20</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="71">
         <v>21</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="86">
+      <c r="K3" s="81">
         <v>21</v>
       </c>
-      <c r="L3" s="86">
+      <c r="L3" s="81">
         <v>20</v>
       </c>
-      <c r="M3" s="91">
+      <c r="M3" s="86">
         <v>19</v>
       </c>
-      <c r="N3" s="87">
+      <c r="N3" s="82">
         <v>18</v>
       </c>
-      <c r="O3" s="88">
+      <c r="O3" s="83">
         <v>17</v>
       </c>
-      <c r="P3" s="89">
+      <c r="P3" s="84">
         <v>16</v>
       </c>
-      <c r="Q3" s="89">
+      <c r="Q3" s="84">
         <v>15</v>
       </c>
     </row>
@@ -11185,7 +11227,7 @@
       <c r="E4" s="52">
         <v>26</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="72">
         <v>27</v>
       </c>
       <c r="G4" s="3">
@@ -11195,28 +11237,28 @@
         <v>29</v>
       </c>
       <c r="I4"/>
-      <c r="J4" s="90">
+      <c r="J4" s="85">
         <v>29</v>
       </c>
-      <c r="K4" s="90">
+      <c r="K4" s="85">
         <v>28</v>
       </c>
-      <c r="L4" s="86">
+      <c r="L4" s="81">
         <v>27</v>
       </c>
-      <c r="M4" s="91">
+      <c r="M4" s="86">
         <v>26</v>
       </c>
-      <c r="N4" s="87">
+      <c r="N4" s="82">
         <v>25</v>
       </c>
-      <c r="O4" s="88">
+      <c r="O4" s="83">
         <v>24</v>
       </c>
-      <c r="P4" s="89">
+      <c r="P4" s="84">
         <v>23</v>
       </c>
-      <c r="Q4" s="89">
+      <c r="Q4" s="84">
         <v>22</v>
       </c>
     </row>
@@ -11236,38 +11278,38 @@
       <c r="E5" s="3">
         <v>34</v>
       </c>
-      <c r="F5" s="121">
+      <c r="F5" s="116">
         <v>35</v>
       </c>
-      <c r="G5" s="121">
+      <c r="G5" s="116">
         <v>36</v>
       </c>
       <c r="H5" s="3">
         <v>37</v>
       </c>
       <c r="I5"/>
-      <c r="J5" s="90">
+      <c r="J5" s="85">
         <v>37</v>
       </c>
-      <c r="K5" s="109">
+      <c r="K5" s="104">
         <v>36</v>
       </c>
-      <c r="L5" s="109">
+      <c r="L5" s="104">
         <v>35</v>
       </c>
-      <c r="M5" s="92">
+      <c r="M5" s="87">
         <v>34</v>
       </c>
-      <c r="N5" s="87">
+      <c r="N5" s="82">
         <v>33</v>
       </c>
-      <c r="O5" s="88">
+      <c r="O5" s="83">
         <v>32</v>
       </c>
-      <c r="P5" s="89">
+      <c r="P5" s="84">
         <v>31</v>
       </c>
-      <c r="Q5" s="89">
+      <c r="Q5" s="84">
         <v>30</v>
       </c>
     </row>
@@ -11277,17 +11319,17 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3">
         <v>38</v>
       </c>
       <c r="I6"/>
-      <c r="J6" s="90">
+      <c r="J6" s="85">
         <v>38</v>
       </c>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -11309,47 +11351,47 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE5B34B-6F30-40B8-8389-C7CFE152C0D1}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="4.77734375" style="128"/>
-    <col min="8" max="8" width="4.77734375" style="128" customWidth="1"/>
-    <col min="9" max="18" width="4.77734375" style="128"/>
-    <col min="19" max="20" width="4.77734375" style="128" customWidth="1"/>
-    <col min="21" max="16384" width="4.77734375" style="128"/>
+    <col min="1" max="7" width="4.77734375" style="123"/>
+    <col min="8" max="8" width="4.77734375" style="123" customWidth="1"/>
+    <col min="9" max="18" width="4.77734375" style="123"/>
+    <col min="19" max="20" width="4.77734375" style="123" customWidth="1"/>
+    <col min="21" max="16384" width="4.77734375" style="123"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125">
+      <c r="A1" s="120">
         <f t="shared" ref="A1:G6" ca="1" si="0">OFFSET($I1,0,COLUMN($I1)-COLUMN())</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="B1" s="125">
+      <c r="B1" s="120">
         <f t="shared" ca="1" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="C1" s="125">
+      <c r="C1" s="120">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="D1" s="125">
+      <c r="D1" s="120">
         <f t="shared" ca="1" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E1" s="126">
+      <c r="E1" s="121">
         <f t="shared" ca="1" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="F1" s="126">
+      <c r="F1" s="121">
         <f t="shared" ca="1" si="0"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="G1" s="127">
+      <c r="G1" s="122">
         <f t="shared" ca="1" si="0"/>
         <v>3.3333333333333335</v>
       </c>
@@ -11378,31 +11420,31 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="129">
+      <c r="A2" s="124">
         <f t="shared" ca="1" si="0"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="B2" s="129">
+      <c r="B2" s="124">
         <f t="shared" ca="1" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="C2" s="129">
+      <c r="C2" s="124">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="D2" s="125">
+      <c r="D2" s="120">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="E2" s="126">
+      <c r="E2" s="121">
         <f t="shared" ca="1" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="F2" s="126">
+      <c r="F2" s="121">
         <f t="shared" ca="1" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="G2" s="127">
+      <c r="G2" s="122">
         <f t="shared" ca="1" si="0"/>
         <v>2.6666666666666665</v>
       </c>
@@ -11431,37 +11473,37 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="130">
+      <c r="A3" s="125">
         <f t="shared" ca="1" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="B3" s="130">
+      <c r="B3" s="125">
         <f t="shared" ca="1" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="C3" s="129">
+      <c r="C3" s="124">
         <f t="shared" ca="1" si="0"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="D3" s="125">
+      <c r="D3" s="120">
         <f t="shared" ca="1" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E3" s="126">
+      <c r="E3" s="121">
         <f t="shared" ca="1" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F3" s="126">
+      <c r="F3" s="121">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="G3" s="131">
+      <c r="G3" s="126">
         <f t="shared" ca="1" si="0"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="75">
+      <c r="K3" s="70">
         <v>2.3333333333333335</v>
       </c>
       <c r="L3" s="8">
@@ -11484,45 +11526,45 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="130">
+      <c r="A4" s="125">
         <f t="shared" ca="1" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="B4" s="130">
+      <c r="B4" s="125">
         <f t="shared" ca="1" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="C4" s="129">
+      <c r="C4" s="124">
         <f t="shared" ca="1" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="D4" s="125">
+      <c r="D4" s="120">
         <f ca="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
         <v>1.3</v>
       </c>
-      <c r="E4" s="126">
+      <c r="E4" s="121">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F4" s="132">
+      <c r="F4" s="127">
         <f t="shared" ca="1" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="G4" s="133">
+      <c r="G4" s="128">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="H4" s="133">
+      <c r="H4" s="128">
         <f t="shared" ref="H2:H6" ca="1" si="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="66">
         <v>3.3333333333333335</v>
       </c>
-      <c r="K4" s="72">
+      <c r="K4" s="67">
         <v>3</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="57">
         <v>2.3333333333333335</v>
       </c>
       <c r="M4" s="10">
@@ -11542,51 +11584,51 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="130">
+      <c r="A5" s="125">
         <f t="shared" ca="1" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="B5" s="130">
+      <c r="B5" s="125">
         <f t="shared" ca="1" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="124">
         <f t="shared" ca="1" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="D5" s="125">
+      <c r="D5" s="120">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="128">
         <f t="shared" ca="1" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="F5" s="134">
+      <c r="F5" s="129">
         <f t="shared" ca="1" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G5" s="134">
+      <c r="G5" s="129">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="H5" s="133">
+      <c r="H5" s="128">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="68">
         <v>3</v>
       </c>
-      <c r="K5" s="111">
+      <c r="K5" s="106">
         <v>1</v>
       </c>
-      <c r="L5" s="123">
+      <c r="L5" s="118">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M5" s="74">
+      <c r="M5" s="69">
         <v>1.6666666666666667</v>
       </c>
-      <c r="N5" s="83">
+      <c r="N5" s="78">
         <v>2</v>
       </c>
       <c r="O5" s="20">
@@ -11605,23 +11647,23 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="135">
+      <c r="F6" s="130">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="135">
+      <c r="G6" s="130">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="133">
+      <c r="H6" s="128">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="J6" s="82">
+      <c r="J6" s="77">
         <v>2</v>
       </c>
-      <c r="K6" s="112"/>
-      <c r="L6" s="114"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="109"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -11630,409 +11672,35 @@
     </row>
     <row r="7" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="R9" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="V9" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="W9" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="X9" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="128" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="128" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="128" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="128" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="128" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="128" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="128" t="s">
-        <v>126</v>
-      </c>
-      <c r="N10" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="O10" s="128" t="s">
-        <v>128</v>
-      </c>
-      <c r="P10" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="128" t="s">
-        <v>130</v>
-      </c>
-      <c r="R10" s="128" t="s">
-        <v>131</v>
-      </c>
-      <c r="S10" s="128" t="s">
-        <v>132</v>
-      </c>
-      <c r="T10" s="128" t="s">
-        <v>133</v>
-      </c>
-      <c r="U10" s="128" t="s">
-        <v>134</v>
-      </c>
-      <c r="V10" s="128" t="s">
-        <v>135</v>
-      </c>
-      <c r="W10" s="128" t="s">
-        <v>136</v>
-      </c>
-      <c r="X10" s="128" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y10" s="128" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z10" s="128">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="128" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="128" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="128" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="128" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="128" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="128" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="128" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" s="128" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13" s="128" t="s">
-        <v>175</v>
-      </c>
-      <c r="J13" s="128" t="s">
-        <v>176</v>
-      </c>
-      <c r="K13" s="128" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" s="128" t="s">
-        <v>178</v>
-      </c>
-      <c r="M13" s="128" t="s">
-        <v>179</v>
-      </c>
-      <c r="N13" s="128" t="s">
-        <v>180</v>
-      </c>
-      <c r="O13" s="128" t="s">
-        <v>181</v>
-      </c>
-      <c r="P13" s="128" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q13" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="R13" s="128" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="128" t="s">
-        <v>185</v>
-      </c>
-      <c r="T13" s="128" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="128" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="128" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="128" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="128" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="128" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="128" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="128" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="128" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" s="128" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="M14" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="N14" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="O14" s="128" t="s">
-        <v>149</v>
-      </c>
-      <c r="P14" s="128" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q14" s="128" t="s">
-        <v>151</v>
-      </c>
-      <c r="R14" s="128" t="s">
-        <v>151</v>
-      </c>
-      <c r="S14" s="128" t="s">
-        <v>152</v>
-      </c>
-      <c r="T14" s="128" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="128" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="128" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="128" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="128" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="128" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="128" t="s">
-        <v>195</v>
-      </c>
-      <c r="J15" s="128" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" s="128" t="s">
-        <v>197</v>
-      </c>
-      <c r="L15" s="128" t="s">
-        <v>198</v>
-      </c>
-      <c r="M15" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="N15" s="128" t="s">
-        <v>200</v>
-      </c>
-      <c r="O15" s="128" t="s">
-        <v>201</v>
-      </c>
-      <c r="P15" s="128" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q15" s="128" t="s">
-        <v>203</v>
-      </c>
-      <c r="R15" s="128" t="s">
-        <v>204</v>
-      </c>
-      <c r="S15" s="128" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="128" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="128" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="128" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="128" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="128" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" s="128" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="128" t="s">
-        <v>161</v>
-      </c>
-      <c r="J16" s="128" t="s">
-        <v>161</v>
-      </c>
-      <c r="K16" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="L16" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="M16" s="128" t="s">
-        <v>163</v>
-      </c>
-      <c r="N16" s="128" t="s">
-        <v>164</v>
-      </c>
-      <c r="O16" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="P16" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q16" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="R16" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="S16" s="128">
-        <v>0.02</v>
-      </c>
+      <c r="A11" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12047,790 +11715,576 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB66398-4859-49C2-8B21-0B941AB427DC}">
-  <dimension ref="A1:Z34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15136440-61DC-4A50-9319-BEE2FCDFA9FD}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L10"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="4.77734375" style="128"/>
-    <col min="8" max="8" width="4.77734375" style="128" customWidth="1"/>
-    <col min="9" max="18" width="4.77734375" style="128"/>
-    <col min="19" max="20" width="4.77734375" style="128" customWidth="1"/>
-    <col min="21" max="16384" width="4.77734375" style="128"/>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="B1" s="125">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="C1" s="125">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="120"/>
+      <c r="B1" s="131">
+        <v>1</v>
+      </c>
+      <c r="C1" s="131">
         <v>2</v>
       </c>
-      <c r="D1" s="125">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="E1" s="126">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="F1" s="126">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="G1" s="127">
-        <v>3.3333333333333335</v>
-      </c>
+      <c r="D1" s="131">
+        <v>3</v>
+      </c>
+      <c r="E1" s="132">
+        <v>4</v>
+      </c>
+      <c r="F1" s="132">
+        <v>5</v>
+      </c>
+      <c r="G1" s="121"/>
       <c r="H1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="12">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L1" s="6">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="M1" s="7">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="N1" s="15">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="O1" s="15">
+      <c r="I1" s="123"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="134">
+        <v>6</v>
+      </c>
+      <c r="M1" s="135">
+        <v>7</v>
+      </c>
+      <c r="N1" s="136">
+        <v>8</v>
+      </c>
+      <c r="O1" s="136">
+        <v>9</v>
+      </c>
+      <c r="P1" s="136">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="126"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="138" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="140" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="141" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="149" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="126"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="133" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="138" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="26">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="Q1" s="56">
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="129">
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="B2" s="129">
-        <v>2.4</v>
-      </c>
-      <c r="C2" s="129">
-        <v>2</v>
-      </c>
-      <c r="D2" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="126">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="F2" s="126">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="G2" s="127">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="13">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="L2" s="8">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="18">
-        <v>2</v>
-      </c>
-      <c r="P2" s="24">
-        <v>2.4</v>
-      </c>
-      <c r="Q2" s="25">
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="130">
-        <v>4.2</v>
-      </c>
-      <c r="B3" s="130">
-        <v>1.2</v>
-      </c>
-      <c r="C3" s="129" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="125" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="126">
-        <v>2</v>
-      </c>
-      <c r="G3" s="131">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="75">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="130">
-        <v>4.2</v>
-      </c>
-      <c r="B4" s="130">
-        <v>1.2</v>
-      </c>
-      <c r="C4" s="129">
-        <v>1.2</v>
-      </c>
-      <c r="D4" s="125" t="s">
+      <c r="P3" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="142" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="132">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="G4" s="133">
+      <c r="F4" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="133">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="J4" s="71">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="K4" s="72">
-        <v>3</v>
-      </c>
-      <c r="L4" s="62">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="M4" s="10" t="s">
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="17">
-        <v>1</v>
-      </c>
-      <c r="O4" s="19">
-        <v>1.2</v>
-      </c>
-      <c r="P4" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="130">
-        <v>4.8</v>
-      </c>
-      <c r="B5" s="130">
-        <v>3.6</v>
-      </c>
-      <c r="C5" s="129">
-        <v>2.4</v>
-      </c>
-      <c r="D5" s="125">
-        <v>2</v>
-      </c>
-      <c r="E5" s="133">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="F5" s="134" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="134">
-        <v>1</v>
-      </c>
-      <c r="H5" s="133">
-        <v>3</v>
-      </c>
-      <c r="J5" s="73">
-        <v>3</v>
-      </c>
-      <c r="K5" s="111">
-        <v>1</v>
-      </c>
-      <c r="L5" s="123" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="74">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N5" s="83">
-        <v>2</v>
-      </c>
-      <c r="O5" s="20">
-        <v>2.4</v>
-      </c>
-      <c r="P5" s="14">
-        <v>3.6</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N4" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="142" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="142" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="145" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="140"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="135">
-        <v>0</v>
-      </c>
-      <c r="G6" s="135">
-        <v>0</v>
-      </c>
-      <c r="H6" s="133">
-        <v>2</v>
-      </c>
-      <c r="J6" s="82">
-        <v>2</v>
-      </c>
-      <c r="K6" s="112"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="128" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="136" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="136" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="136" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="136" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="136" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="136" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="136" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="136" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="136" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="136" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="R9" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="V9" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="W9" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="X9" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="137" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="137" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="137" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="137" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="137" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="137" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="137" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="137" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="137" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="137" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="128" t="s">
-        <v>126</v>
-      </c>
-      <c r="N10" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="O10" s="128" t="s">
-        <v>128</v>
-      </c>
-      <c r="P10" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="128" t="s">
-        <v>130</v>
-      </c>
-      <c r="R10" s="128" t="s">
-        <v>131</v>
-      </c>
-      <c r="S10" s="128" t="s">
-        <v>132</v>
-      </c>
-      <c r="T10" s="128" t="s">
-        <v>133</v>
-      </c>
-      <c r="U10" s="128" t="s">
-        <v>134</v>
-      </c>
-      <c r="V10" s="128" t="s">
-        <v>135</v>
-      </c>
-      <c r="W10" s="128" t="s">
-        <v>136</v>
-      </c>
-      <c r="X10" s="128" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y10" s="128" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z10" s="128">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="128" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="128" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="128" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="128" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="128" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="128" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="128" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" s="128" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13" s="128" t="s">
-        <v>175</v>
-      </c>
-      <c r="J13" s="128" t="s">
-        <v>176</v>
-      </c>
-      <c r="K13" s="128" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" s="128" t="s">
-        <v>178</v>
-      </c>
-      <c r="M13" s="128" t="s">
-        <v>179</v>
-      </c>
-      <c r="N13" s="128" t="s">
-        <v>180</v>
-      </c>
-      <c r="O13" s="128" t="s">
-        <v>181</v>
-      </c>
-      <c r="P13" s="128" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q13" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="R13" s="128" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="128" t="s">
-        <v>185</v>
-      </c>
-      <c r="T13" s="128" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="128" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="128" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="128" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="128" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="128" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="128" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="128" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="128" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" s="128" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="M14" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="N14" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="O14" s="128" t="s">
-        <v>149</v>
-      </c>
-      <c r="P14" s="128" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q14" s="128" t="s">
-        <v>151</v>
-      </c>
-      <c r="R14" s="128" t="s">
-        <v>151</v>
-      </c>
-      <c r="S14" s="128" t="s">
-        <v>152</v>
-      </c>
-      <c r="T14" s="128" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="128" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="128" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="128" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="128" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="128" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="128" t="s">
-        <v>195</v>
-      </c>
-      <c r="J15" s="128" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" s="128" t="s">
-        <v>197</v>
-      </c>
-      <c r="L15" s="128" t="s">
-        <v>198</v>
-      </c>
-      <c r="M15" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="N15" s="128" t="s">
-        <v>200</v>
-      </c>
-      <c r="O15" s="128" t="s">
-        <v>201</v>
-      </c>
-      <c r="P15" s="128" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q15" s="128" t="s">
-        <v>203</v>
-      </c>
-      <c r="R15" s="128" t="s">
-        <v>204</v>
-      </c>
-      <c r="S15" s="128" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="128" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="128" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="128" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="128" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="128" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" s="128" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="128" t="s">
-        <v>161</v>
-      </c>
-      <c r="J16" s="128" t="s">
-        <v>161</v>
-      </c>
-      <c r="K16" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="L16" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="M16" s="128" t="s">
-        <v>163</v>
-      </c>
-      <c r="N16" s="128" t="s">
-        <v>164</v>
-      </c>
-      <c r="O16" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="P16" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q16" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="R16" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="S16" s="128">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "p"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "d"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "v"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "k"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "z"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": ";"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "l"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "y"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "j"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "f"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "h"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "o"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "w"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "s"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "a"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "t"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "i"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "m"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "\\"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "x"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "c"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "u"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "r"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": """</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "n"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "g"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": ","</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "."</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": "/"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "p","11": "d","12": "v","13": "k","14": "","15": "'","16": "f","17": "h","18": "e","19": "o","20": "w","21": "","22": "`","23": "x","24": "c","25": "u","26": "r","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "[","21": "","20": "s","19": "a","18": "t","17": "i","16": "m","15": "\\","29": "","28": "","27": ""","26": "n","25": "g","24": ",","23": ".","22": "/","37": "","36": "","35": "","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "p","11": "d","12": "v","13": "k","14": "","15": "'","16": "f","17": "h","18": "e","19": "o","20": "w","21": "","22": "`","23": "x","24": "c","25": "u","26": "r","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "[","21": "","20": "s","19": "a","18": "t","17": "i","16": "m","15": "\\","29": "","28": "","27": ""","26": "n","25": "g","24": ",","23": ".","22": "/","37": "","36": "","35": "","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="81"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="81"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="81"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="81"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="81"/>
+      <c r="A20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12871,23 +12325,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>36</v>
       </c>
     </row>
@@ -12908,30 +12362,30 @@
       <c r="F2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -12952,26 +12406,26 @@
       <c r="F3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12991,29 +12445,29 @@
       <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -13025,23 +12479,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -13049,12 +12503,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -13396,7 +12850,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13443,23 +12897,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>36</v>
       </c>
     </row>
@@ -13480,30 +12934,30 @@
       <c r="F2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13524,26 +12978,26 @@
       <c r="F3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>38</v>
       </c>
     </row>
@@ -13563,29 +13017,29 @@
       <c r="E4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -13597,23 +13051,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -13621,12 +13075,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -13968,7 +13422,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
+      <c r="A20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14011,23 +13465,23 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>6</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>7</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>8</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>6</v>
       </c>
     </row>
@@ -14048,30 +13502,30 @@
       <c r="F2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="71" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>37</v>
       </c>
     </row>
@@ -14092,26 +13546,26 @@
       <c r="F3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="86" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>5</v>
       </c>
     </row>
@@ -14131,29 +13585,29 @@
       <c r="E4" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="99" t="s">
+      <c r="M4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -14165,23 +13619,23 @@
       <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -14189,12 +13643,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -14536,7 +13990,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="92" t="s">
         <v>51</v>
       </c>
     </row>
@@ -14584,28 +14038,28 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
         <v>7</v>
       </c>
-      <c r="M1" s="91">
+      <c r="M1" s="86">
         <v>6</v>
       </c>
-      <c r="N1" s="87">
+      <c r="N1" s="82">
         <v>5</v>
       </c>
-      <c r="O1" s="87">
+      <c r="O1" s="82">
         <v>9</v>
       </c>
-      <c r="P1" s="87">
+      <c r="P1" s="82">
         <v>8</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="91" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
@@ -14621,30 +14075,30 @@
       <c r="F2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="95" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="87" t="s">
+      <c r="N2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -14665,28 +14119,28 @@
       <c r="F3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="89" t="s">
+      <c r="Q3" s="84" t="s">
         <v>32</v>
       </c>
     </row>
@@ -14706,29 +14160,29 @@
       <c r="E4" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="93" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="89"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -14740,23 +14194,23 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="124" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -14764,12 +14218,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -15111,7 +14565,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="92" t="s">
         <v>50</v>
       </c>
     </row>

--- a/layouts/layouts.xlsx
+++ b/layouts/layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C041E26-8B0A-458D-B553-87FF06CBA56F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB75E53-301D-4485-930E-083DCBFFC908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" activeTab="1" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="114">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -393,9 +393,6 @@
   </si>
   <si>
     <t>by efforts</t>
-  </si>
-  <si>
-    <t>"</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1450,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4AB133F-6DAE-4231-BA3E-5FD1535A37A6}" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0">
   <autoFilter ref="A1:D17" xr:uid="{2A73B63B-9BCC-459A-B45A-DD63FBB605A0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
-    <sortCondition ref="A1:A17"/>
+    <sortCondition ref="D1:D17"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A92DB4BE-1C52-4DA8-B720-753A193D705E}" name="Layout"/>
@@ -1469,7 +1466,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFDBA6D7-EC37-4E14-93FB-9174212E6BD4}" name="Table13" displayName="Table13" ref="A20:D36" totalsRowShown="0">
   <autoFilter ref="A20:D36" xr:uid="{738C2389-55F1-4C95-B7CF-5A6AEED0DEB9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:D36">
-    <sortCondition ref="A1:A17"/>
+    <sortCondition ref="D20:D36"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9F04C436-2F1F-4A49-B31D-4C90F5B28628}" name="Layout"/>
@@ -1778,11 +1775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B6691-7246-46A6-9F21-3516326982E4}">
-  <dimension ref="A1:AI51"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="153">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G1" s="154">
         <v>1.8</v>
@@ -1850,7 +1847,7 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="L2" s="6">
-        <f t="shared" ref="L2:Q4" si="0">C2*$D$1/$H$1</f>
+        <f t="shared" ref="L2:M4" si="0">C2*$D$1/$H$1</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="M2" s="7">
@@ -1925,7 +1922,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="35">
         <v>4</v>
@@ -1948,7 +1945,7 @@
       </c>
       <c r="L3" s="8">
         <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" si="0"/>
@@ -1960,15 +1957,15 @@
       </c>
       <c r="O3" s="18">
         <f>F3*$F$1/$H$1</f>
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P3" s="24">
         <f t="shared" ref="P3:Q3" si="6">G3*$F$1/$H$1</f>
-        <v>2</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="Q3" s="25">
         <f t="shared" si="6"/>
-        <v>2.8000000000000003</v>
+        <v>2.5666666666666669</v>
       </c>
       <c r="S3" s="27"/>
       <c r="T3" s="81" t="s">
@@ -2021,7 +2018,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="35">
         <v>1</v>
@@ -2033,10 +2030,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K4" s="70">
         <f t="shared" si="5"/>
@@ -2044,7 +2041,7 @@
       </c>
       <c r="L4" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" si="0"/>
@@ -2056,15 +2053,15 @@
       </c>
       <c r="O4" s="18">
         <f t="shared" ref="O4:O6" si="7">F4*$F$1/$H$1</f>
-        <v>0.39999999999999997</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="P4" s="9">
         <f>G4*$G$1/$H$1</f>
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="Q4" s="21">
         <f>H4*$G$1/$H$1</f>
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="S4" s="27"/>
       <c r="T4" s="81" t="s">
@@ -2119,7 +2116,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="41">
         <v>4</v>
@@ -2128,13 +2125,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="44">
         <v>2</v>
       </c>
       <c r="H5" s="45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="66">
         <f>A5*$C$1/$H$1</f>
@@ -2146,7 +2143,7 @@
       </c>
       <c r="L5" s="57">
         <f>C5*$D$1/$H$1</f>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="M5" s="10">
         <f>D5*$D$1/$H$1</f>
@@ -2158,7 +2155,7 @@
       </c>
       <c r="O5" s="19">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.4666666666666668</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" ref="P5:P6" si="8">G5*$G$1/$H$1</f>
@@ -2166,7 +2163,7 @@
       </c>
       <c r="Q5" s="22">
         <f t="shared" ref="Q5:Q6" si="9">H5*$G$1/$H$1</f>
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="S5" s="85" t="s">
         <v>61</v>
@@ -2255,7 +2252,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="M6" s="69">
-        <f t="shared" ref="L5:Q6" si="11">D6*$C$1/$H$1</f>
+        <f t="shared" ref="M6" si="11">D6*$C$1/$H$1</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="N6" s="78">
@@ -2264,7 +2261,7 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" si="7"/>
-        <v>2.8000000000000003</v>
+        <v>2.5666666666666669</v>
       </c>
       <c r="P6" s="14">
         <f t="shared" si="8"/>
@@ -2365,1252 +2362,1260 @@
       <c r="J8" s="74"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>92</v>
+      </c>
       <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="50" t="str">
+        <f>_xlfn.CONCAT("{",U16,",",U17,"}")</f>
+        <v>{"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.56666666666667,"L9": 1.83333333333333,"L10": 1.1,"L11": 1,"L12": 1.33333333333333,"L13": 2,"L14": 2.66666666666667,"L15": 3,"L16": 0.6,"L17": 0.366666666666667,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 1.66666666666667,"L21": 2.33333333333333,"L22": 3,"L23": 1.2,"L24": 1.46666666666667,"L25": 1.33333333333333,"L26": 1.33333333333333,"L27": 2,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 4.2,"L32": 2.56666666666667,"L33": 2.33333333333333,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2,"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.56666666666667,"R9": 1.83333333333333,"R10": 1.1,"R11": 1,"R12": 1.33333333333333,"R13": 2,"R14": 2.66666666666667,"R15": 3,"R16": 0.6,"R17": 0.366666666666667,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 1.66666666666667,"R21": 2.33333333333333,"R22": 3,"R23": 1.2,"R24": 1.46666666666667,"R25": 1.33333333333333,"R26": 1.33333333333333,"R27": 2,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 4.2,"R32": 2.56666666666667,"R33": 2.33333333333333,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="str">
+        <f>_xlfn.CONCAT("{",U21,",",U22,"}")</f>
+        <v>{"L1": "0, 8","L2": "0, 7","L3": "0, 6","L4": "0, 5","L5": "0, 4","L6": "0, 3","L7": "0, 2","L8": "1, 8","L9": "1, 7","L10": "1, 6","L11": "1, 5","L12": "1, 4","L13": "1, 3","L14": "1.5, 2","L15": "2, 8","L16": "2, 7","L17": "2, 6","L18": "2, 5","L19": "2, 4","L20": "2, 3","L21": "3, 2","L22": "3, 8","L23": "3, 7","L24": "3, 6","L25": "3, 5","L26": "3, 4","L27": "3, 3","L28": "4, 1","L29": "4, 0","L30": "4, 8","L31": "4, 7","L32": "4, 6","L33": "4, 5","L34": "4, 4","L35": "5, 2.5","L36": "5.5, 1.5","L37": "5, 0.5","L38": "6, 1","R1": "0, 8","R2": "0, 7","R3": "0, 6","R4": "0, 5","R5": "0, 4","R6": "0, 3","R7": "0, 2","R8": "1, 8","R9": "1, 7","R10": "1, 6","R11": "1, 5","R12": "1, 4","R13": "1, 3","R14": "1.5, 2","R15": "2, 8","R16": "2, 7","R17": "2, 6","R18": "2, 5","R19": "2, 4","R20": "2, 3","R21": "3, 2","R22": "3, 8","R23": "3, 7","R24": "3, 6","R25": "3, 5","R26": "3, 4","R27": "3, 3","R28": "4, 1","R29": "4, 0","R30": "4, 8","R31": "4, 7","R32": "4, 6","R33": "4, 5","R34": "4, 4","R35": "5, 2.5","R36": "5.5, 1.5","R37": "5, 0.5","R38": "6, 1"}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="C15" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="U15" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="50" t="str">
-        <f>_xlfn.CONCAT("{",U14,",",U15,"}")</f>
-        <v>{"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.8,"L9": 2,"L10": 1.2,"L11": 1,"L12": 1.33333333333333,"L13": 2.33333333333333,"L14": 2.66666666666667,"L15": 4.2,"L16": 1.2,"L17": 0.4,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 2,"L21": 2.33333333333333,"L22": 4.2,"L23": 1.2,"L24": 2,"L25": 1.33333333333333,"L26": 1.33333333333333,"L27": 2.33333333333333,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 4.2,"L32": 2.8,"L33": 2.33333333333333,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2,"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.8,"R9": 2,"R10": 1.2,"R11": 1,"R12": 1.33333333333333,"R13": 2.33333333333333,"R14": 2.66666666666667,"R15": 4.2,"R16": 1.2,"R17": 0.4,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 2,"R21": 2.33333333333333,"R22": 4.2,"R23": 1.2,"R24": 2,"R25": 1.33333333333333,"R26": 1.33333333333333,"R27": 2.33333333333333,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 4.2,"R32": 2.8,"R33": 2.33333333333333,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2}</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="50" t="str">
-        <f>_xlfn.CONCAT("{",U19,",",U20,"}")</f>
-        <v>{"L1": "0, 8","L2": "0, 7","L3": "0, 6","L4": "0, 5","L5": "0, 4","L6": "0, 3","L7": "0, 2","L8": "1, 8","L9": "1, 7","L10": "1, 6","L11": "1, 5","L12": "1, 4","L13": "1, 3","L14": "1.5, 2","L15": "2, 8","L16": "2, 7","L17": "2, 6","L18": "2, 5","L19": "2, 4","L20": "2, 3","L21": "3, 2","L22": "3, 8","L23": "3, 7","L24": "3, 6","L25": "3, 5","L26": "3, 4","L27": "3, 3","L28": "4, 1","L29": "4, 0","L30": "4, 8","L31": "4, 7","L32": "4, 6","L33": "4, 5","L34": "4, 4","L35": "5, 2.5","L36": "5.5, 1.5","L37": "5, 0.5","L38": "6, 1","R1": "0, 8","R2": "0, 7","R3": "0, 6","R4": "0, 5","R5": "0, 4","R6": "0, 3","R7": "0, 2","R8": "1, 8","R9": "1, 7","R10": "1, 6","R11": "1, 5","R12": "1, 4","R13": "1, 3","R14": "1.5, 2","R15": "2, 8","R16": "2, 7","R17": "2, 6","R18": "2, 5","R19": "2, 4","R20": "2, 3","R21": "3, 2","R22": "3, 8","R23": "3, 7","R24": "3, 6","R25": "3, 5","R26": "3, 4","R27": "3, 3","R28": "4, 1","R29": "4, 0","R30": "4, 8","R31": "4, 7","R32": "4, 6","R33": "4, 5","R34": "4, 4","R35": "5, 2.5","R36": "5.5, 1.5","R37": "5, 0.5","R38": "6, 1"}</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="C13" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="U13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C16" s="4">
         <f>Q2</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="E14" s="75" t="str">
-        <f t="shared" ref="E14:E51" si="12">SUBSTITUTE(_xlfn.CONCAT("""L",$A14,""": ",$C14),",",".")</f>
+      <c r="E16" s="75" t="str">
+        <f t="shared" ref="E16:E53" si="12">SUBSTITUTE(_xlfn.CONCAT("""L",$A16,""": ",$C16),",",".")</f>
         <v>"L1": 2.66666666666667</v>
       </c>
-      <c r="H14" s="50" t="str">
-        <f t="shared" ref="H14:H51" si="13">SUBSTITUTE(_xlfn.CONCAT("""R",$A14,""": ",$C14),",",".")</f>
+      <c r="H16" s="50" t="str">
+        <f t="shared" ref="H16:H53" si="13">SUBSTITUTE(_xlfn.CONCAT("""R",$A16,""": ",$C16),",",".")</f>
         <v>"R1": 2.66666666666667</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="2"/>
-      <c r="L14" s="98" t="str">
-        <f>Z2</f>
-        <v>0, 8</v>
-      </c>
-      <c r="N14" s="75" t="str">
-        <f>_xlfn.CONCAT("""L",$A14,""": """,$L14,"""")</f>
-        <v>"L1": "0, 8"</v>
-      </c>
-      <c r="Q14" s="75" t="str">
-        <f>_xlfn.CONCAT("""R",$A14,""": """,$L14,"""")</f>
-        <v>"R1": "0, 8"</v>
-      </c>
-      <c r="U14" s="50" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,E14:E51,)</f>
-        <v>"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.8,"L9": 2,"L10": 1.2,"L11": 1,"L12": 1.33333333333333,"L13": 2.33333333333333,"L14": 2.66666666666667,"L15": 4.2,"L16": 1.2,"L17": 0.4,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 2,"L21": 2.33333333333333,"L22": 4.2,"L23": 1.2,"L24": 2,"L25": 1.33333333333333,"L26": 1.33333333333333,"L27": 2.33333333333333,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 4.2,"L32": 2.8,"L33": 2.33333333333333,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4">
-        <f>P2</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E15" s="75" t="str">
-        <f t="shared" si="12"/>
-        <v>"L2": 2.33333333333333</v>
-      </c>
-      <c r="H15" s="50" t="str">
-        <f t="shared" si="13"/>
-        <v>"R2": 2.33333333333333</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="2"/>
-      <c r="L15" s="98" t="str">
-        <f>Y2</f>
-        <v>0, 7</v>
-      </c>
-      <c r="N15" s="75" t="str">
-        <f t="shared" ref="N15:N51" si="14">_xlfn.CONCAT("""L",$A15,""": """,$L15,"""")</f>
-        <v>"L2": "0, 7"</v>
-      </c>
-      <c r="Q15" s="75" t="str">
-        <f t="shared" ref="Q15:Q51" si="15">_xlfn.CONCAT("""R",$A15,""": """,$L15,"""")</f>
-        <v>"R2": "0, 7"</v>
-      </c>
-      <c r="U15" s="50" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,H14:H51,)</f>
-        <v>"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.8,"R9": 2,"R10": 1.2,"R11": 1,"R12": 1.33333333333333,"R13": 2.33333333333333,"R14": 2.66666666666667,"R15": 4.2,"R16": 1.2,"R17": 0.4,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 2,"R21": 2.33333333333333,"R22": 4.2,"R23": 1.2,"R24": 2,"R25": 1.33333333333333,"R26": 1.33333333333333,"R27": 2.33333333333333,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 4.2,"R32": 2.8,"R33": 2.33333333333333,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4">
-        <f>O2</f>
-        <v>2</v>
-      </c>
-      <c r="E16" s="75" t="str">
-        <f t="shared" si="12"/>
-        <v>"L3": 2</v>
-      </c>
-      <c r="H16" s="50" t="str">
-        <f t="shared" si="13"/>
-        <v>"R3": 2</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="2"/>
       <c r="L16" s="98" t="str">
-        <f>X2</f>
-        <v>0, 6</v>
+        <f>Z2</f>
+        <v>0, 8</v>
       </c>
       <c r="N16" s="75" t="str">
-        <f t="shared" si="14"/>
-        <v>"L3": "0, 6"</v>
+        <f>_xlfn.CONCAT("""L",$A16,""": """,$L16,"""")</f>
+        <v>"L1": "0, 8"</v>
       </c>
       <c r="Q16" s="75" t="str">
-        <f t="shared" si="15"/>
-        <v>"R3": "0, 6"</v>
-      </c>
-      <c r="U16" s="4"/>
+        <f>_xlfn.CONCAT("""R",$A16,""": """,$L16,"""")</f>
+        <v>"R1": "0, 8"</v>
+      </c>
+      <c r="U16" s="50" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,E16:E53,)</f>
+        <v>"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.56666666666667,"L9": 1.83333333333333,"L10": 1.1,"L11": 1,"L12": 1.33333333333333,"L13": 2,"L14": 2.66666666666667,"L15": 3,"L16": 0.6,"L17": 0.366666666666667,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 1.66666666666667,"L21": 2.33333333333333,"L22": 3,"L23": 1.2,"L24": 1.46666666666667,"L25": 1.33333333333333,"L26": 1.33333333333333,"L27": 2,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 4.2,"L32": 2.56666666666667,"L33": 2.33333333333333,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4">
-        <f>N2</f>
-        <v>1.6666666666666667</v>
+        <f>P2</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E17" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L4": 1.66666666666667</v>
+        <v>"L2": 2.33333333333333</v>
       </c>
       <c r="H17" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R4": 1.66666666666667</v>
+        <v>"R2": 2.33333333333333</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
       <c r="L17" s="98" t="str">
-        <f>W2</f>
-        <v>0, 5</v>
+        <f>Y2</f>
+        <v>0, 7</v>
       </c>
       <c r="N17" s="75" t="str">
-        <f t="shared" si="14"/>
-        <v>"L4": "0, 5"</v>
+        <f t="shared" ref="N17:N53" si="14">_xlfn.CONCAT("""L",$A17,""": """,$L17,"""")</f>
+        <v>"L2": "0, 7"</v>
       </c>
       <c r="Q17" s="75" t="str">
-        <f t="shared" si="15"/>
-        <v>"R4": "0, 5"</v>
+        <f t="shared" ref="Q17:Q53" si="15">_xlfn.CONCAT("""R",$A17,""": """,$L17,"""")</f>
+        <v>"R2": "0, 7"</v>
+      </c>
+      <c r="U17" s="50" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,H16:H53,)</f>
+        <v>"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.56666666666667,"R9": 1.83333333333333,"R10": 1.1,"R11": 1,"R12": 1.33333333333333,"R13": 2,"R14": 2.66666666666667,"R15": 3,"R16": 0.6,"R17": 0.366666666666667,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 1.66666666666667,"R21": 2.33333333333333,"R22": 3,"R23": 1.2,"R24": 1.46666666666667,"R25": 1.33333333333333,"R26": 1.33333333333333,"R27": 2,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 4.2,"R32": 2.56666666666667,"R33": 2.33333333333333,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4">
-        <f>M2</f>
-        <v>2.3333333333333335</v>
+        <f>O2</f>
+        <v>2</v>
       </c>
       <c r="E18" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L5": 2.33333333333333</v>
-      </c>
-      <c r="G18" s="51"/>
+        <v>"L3": 2</v>
+      </c>
       <c r="H18" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R5": 2.33333333333333</v>
+        <v>"R3": 2</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="L18" s="98" t="str">
-        <f>V2</f>
-        <v>0, 4</v>
+        <f>X2</f>
+        <v>0, 6</v>
       </c>
       <c r="N18" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L5": "0, 4"</v>
-      </c>
-      <c r="P18" s="51"/>
+        <v>"L3": "0, 6"</v>
+      </c>
       <c r="Q18" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R5": "0, 4"</v>
-      </c>
-      <c r="U18" t="s">
-        <v>53</v>
-      </c>
+        <v>"R3": "0, 6"</v>
+      </c>
+      <c r="U18" s="4"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="4">
-        <f>L2</f>
-        <v>2.6666666666666665</v>
+        <f>N2</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E19" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L6": 2.66666666666667</v>
+        <v>"L4": 1.66666666666667</v>
       </c>
       <c r="H19" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R6": 2.66666666666667</v>
+        <v>"R4": 1.66666666666667</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="L19" s="98" t="str">
-        <f>U2</f>
-        <v>0, 3</v>
+        <f>W2</f>
+        <v>0, 5</v>
       </c>
       <c r="N19" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L6": "0, 3"</v>
+        <v>"L4": "0, 5"</v>
       </c>
       <c r="Q19" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R6": "0, 3"</v>
-      </c>
-      <c r="U19" s="50" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,N14:N51,)</f>
-        <v>"L1": "0, 8","L2": "0, 7","L3": "0, 6","L4": "0, 5","L5": "0, 4","L6": "0, 3","L7": "0, 2","L8": "1, 8","L9": "1, 7","L10": "1, 6","L11": "1, 5","L12": "1, 4","L13": "1, 3","L14": "1.5, 2","L15": "2, 8","L16": "2, 7","L17": "2, 6","L18": "2, 5","L19": "2, 4","L20": "2, 3","L21": "3, 2","L22": "3, 8","L23": "3, 7","L24": "3, 6","L25": "3, 5","L26": "3, 4","L27": "3, 3","L28": "4, 1","L29": "4, 0","L30": "4, 8","L31": "4, 7","L32": "4, 6","L33": "4, 5","L34": "4, 4","L35": "5, 2.5","L36": "5.5, 1.5","L37": "5, 0.5","L38": "6, 1"</v>
+        <v>"R4": "0, 5"</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4">
-        <f>K2</f>
-        <v>3.3333333333333335</v>
+        <f>M2</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E20" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L7": 3.33333333333333</v>
-      </c>
+        <v>"L5": 2.33333333333333</v>
+      </c>
+      <c r="G20" s="51"/>
       <c r="H20" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R7": 3.33333333333333</v>
+        <v>"R5": 2.33333333333333</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="2"/>
       <c r="L20" s="98" t="str">
-        <f>T2</f>
-        <v>0, 2</v>
+        <f>V2</f>
+        <v>0, 4</v>
       </c>
       <c r="N20" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L7": "0, 2"</v>
-      </c>
+        <v>"L5": "0, 4"</v>
+      </c>
+      <c r="P20" s="51"/>
       <c r="Q20" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R7": "0, 2"</v>
-      </c>
-      <c r="U20" s="50" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Q14:Q51,)</f>
-        <v>"R1": "0, 8","R2": "0, 7","R3": "0, 6","R4": "0, 5","R5": "0, 4","R6": "0, 3","R7": "0, 2","R8": "1, 8","R9": "1, 7","R10": "1, 6","R11": "1, 5","R12": "1, 4","R13": "1, 3","R14": "1.5, 2","R15": "2, 8","R16": "2, 7","R17": "2, 6","R18": "2, 5","R19": "2, 4","R20": "2, 3","R21": "3, 2","R22": "3, 8","R23": "3, 7","R24": "3, 6","R25": "3, 5","R26": "3, 4","R27": "3, 3","R28": "4, 1","R29": "4, 0","R30": "4, 8","R31": "4, 7","R32": "4, 6","R33": "4, 5","R34": "4, 4","R35": "5, 2.5","R36": "5.5, 1.5","R37": "5, 0.5","R38": "6, 1"</v>
+        <v>"R5": "0, 4"</v>
+      </c>
+      <c r="U20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4">
-        <f>Q3</f>
-        <v>2.8000000000000003</v>
+        <f>L2</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E21" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L8": 2.8</v>
+        <v>"L6": 2.66666666666667</v>
       </c>
       <c r="H21" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R8": 2.8</v>
+        <v>"R6": 2.66666666666667</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="2"/>
       <c r="L21" s="98" t="str">
-        <f>Z3</f>
-        <v>1, 8</v>
+        <f>U2</f>
+        <v>0, 3</v>
       </c>
       <c r="N21" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L8": "1, 8"</v>
+        <v>"L6": "0, 3"</v>
       </c>
       <c r="Q21" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R8": "1, 8"</v>
+        <v>"R6": "0, 3"</v>
+      </c>
+      <c r="U21" s="50" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,N16:N53,)</f>
+        <v>"L1": "0, 8","L2": "0, 7","L3": "0, 6","L4": "0, 5","L5": "0, 4","L6": "0, 3","L7": "0, 2","L8": "1, 8","L9": "1, 7","L10": "1, 6","L11": "1, 5","L12": "1, 4","L13": "1, 3","L14": "1.5, 2","L15": "2, 8","L16": "2, 7","L17": "2, 6","L18": "2, 5","L19": "2, 4","L20": "2, 3","L21": "3, 2","L22": "3, 8","L23": "3, 7","L24": "3, 6","L25": "3, 5","L26": "3, 4","L27": "3, 3","L28": "4, 1","L29": "4, 0","L30": "4, 8","L31": "4, 7","L32": "4, 6","L33": "4, 5","L34": "4, 4","L35": "5, 2.5","L36": "5.5, 1.5","L37": "5, 0.5","L38": "6, 1"</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4">
-        <f>P3</f>
-        <v>2</v>
+        <f>K2</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="E22" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L9": 2</v>
+        <v>"L7": 3.33333333333333</v>
       </c>
       <c r="H22" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R9": 2</v>
+        <v>"R7": 3.33333333333333</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="2"/>
       <c r="L22" s="98" t="str">
-        <f>Y3</f>
-        <v>1, 7</v>
+        <f>T2</f>
+        <v>0, 2</v>
       </c>
       <c r="N22" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L9": "1, 7"</v>
+        <v>"L7": "0, 2"</v>
       </c>
       <c r="Q22" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R9": "1, 7"</v>
+        <v>"R7": "0, 2"</v>
+      </c>
+      <c r="U22" s="50" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Q16:Q53,)</f>
+        <v>"R1": "0, 8","R2": "0, 7","R3": "0, 6","R4": "0, 5","R5": "0, 4","R6": "0, 3","R7": "0, 2","R8": "1, 8","R9": "1, 7","R10": "1, 6","R11": "1, 5","R12": "1, 4","R13": "1, 3","R14": "1.5, 2","R15": "2, 8","R16": "2, 7","R17": "2, 6","R18": "2, 5","R19": "2, 4","R20": "2, 3","R21": "3, 2","R22": "3, 8","R23": "3, 7","R24": "3, 6","R25": "3, 5","R26": "3, 4","R27": "3, 3","R28": "4, 1","R29": "4, 0","R30": "4, 8","R31": "4, 7","R32": "4, 6","R33": "4, 5","R34": "4, 4","R35": "5, 2.5","R36": "5.5, 1.5","R37": "5, 0.5","R38": "6, 1"</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4">
-        <f>O3</f>
-        <v>1.2</v>
+        <f>Q3</f>
+        <v>2.5666666666666669</v>
       </c>
       <c r="E23" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L10": 1.2</v>
+        <v>"L8": 2.56666666666667</v>
       </c>
       <c r="H23" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R10": 1.2</v>
+        <v>"R8": 2.56666666666667</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="2"/>
       <c r="L23" s="98" t="str">
-        <f>X3</f>
-        <v>1, 6</v>
+        <f>Z3</f>
+        <v>1, 8</v>
       </c>
       <c r="N23" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L10": "1, 6"</v>
+        <v>"L8": "1, 8"</v>
       </c>
       <c r="Q23" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R10": "1, 6"</v>
-      </c>
-      <c r="U23" t="s">
-        <v>0</v>
+        <v>"R8": "1, 8"</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4">
-        <f>N3</f>
-        <v>1</v>
+        <f>P3</f>
+        <v>1.8333333333333333</v>
       </c>
       <c r="E24" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L11": 1</v>
+        <v>"L9": 1.83333333333333</v>
       </c>
       <c r="H24" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R11": 1</v>
+        <v>"R9": 1.83333333333333</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="2"/>
       <c r="L24" s="98" t="str">
-        <f>W3</f>
-        <v>1, 5</v>
+        <f>Y3</f>
+        <v>1, 7</v>
       </c>
       <c r="N24" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L11": "1, 5"</v>
+        <v>"L9": "1, 7"</v>
       </c>
       <c r="Q24" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R11": "1, 5"</v>
-      </c>
-      <c r="U24" s="65" t="s">
-        <v>40</v>
+        <v>"R9": "1, 7"</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4">
-        <f>M3</f>
-        <v>1.3333333333333333</v>
+        <f>O3</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E25" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L12": 1.33333333333333</v>
+        <v>"L10": 1.1</v>
       </c>
       <c r="H25" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R12": 1.33333333333333</v>
+        <v>"R10": 1.1</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="2"/>
       <c r="L25" s="98" t="str">
-        <f>V3</f>
-        <v>1, 4</v>
+        <f>X3</f>
+        <v>1, 6</v>
       </c>
       <c r="N25" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L12": "1, 4"</v>
+        <v>"L10": "1, 6"</v>
       </c>
       <c r="Q25" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R12": "1, 4"</v>
-      </c>
-      <c r="U25" s="65" t="s">
-        <v>42</v>
+        <v>"R10": "1, 6"</v>
+      </c>
+      <c r="U25" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4">
-        <f>L3</f>
-        <v>2.3333333333333335</v>
+        <f>N3</f>
+        <v>1</v>
       </c>
       <c r="E26" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L13": 2.33333333333333</v>
+        <v>"L11": 1</v>
       </c>
       <c r="H26" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R13": 2.33333333333333</v>
+        <v>"R11": 1</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="2"/>
       <c r="L26" s="98" t="str">
-        <f>U3</f>
-        <v>1, 3</v>
+        <f>W3</f>
+        <v>1, 5</v>
       </c>
       <c r="N26" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L13": "1, 3"</v>
+        <v>"L11": "1, 5"</v>
       </c>
       <c r="Q26" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R13": "1, 3"</v>
+        <v>"R11": "1, 5"</v>
       </c>
       <c r="U26" s="65" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4">
-        <f>K3</f>
-        <v>2.6666666666666665</v>
+        <f>M3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E27" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L14": 2.66666666666667</v>
+        <v>"L12": 1.33333333333333</v>
       </c>
       <c r="H27" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R14": 2.66666666666667</v>
+        <v>"R12": 1.33333333333333</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="2"/>
       <c r="L27" s="98" t="str">
-        <f>T3</f>
-        <v>1.5, 2</v>
+        <f>V3</f>
+        <v>1, 4</v>
       </c>
       <c r="N27" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L14": "1.5, 2"</v>
+        <v>"L12": "1, 4"</v>
       </c>
       <c r="Q27" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R14": "1.5, 2"</v>
+        <v>"R12": "1, 4"</v>
       </c>
       <c r="U27" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4">
-        <f>Q4</f>
-        <v>4.2</v>
+        <f>L3</f>
+        <v>2</v>
       </c>
       <c r="E28" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L15": 4.2</v>
+        <v>"L13": 2</v>
       </c>
       <c r="H28" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R15": 4.2</v>
+        <v>"R13": 2</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="L28" s="98" t="str">
-        <f>Z4</f>
-        <v>2, 8</v>
+        <f>U3</f>
+        <v>1, 3</v>
       </c>
       <c r="N28" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L15": "2, 8"</v>
+        <v>"L13": "1, 3"</v>
       </c>
       <c r="Q28" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R15": "2, 8"</v>
+        <v>"R13": "1, 3"</v>
       </c>
       <c r="U28" s="65" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="4">
-        <f>P4</f>
-        <v>1.2</v>
+        <f>K3</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="E29" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L16": 1.2</v>
+        <v>"L14": 2.66666666666667</v>
       </c>
       <c r="H29" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R16": 1.2</v>
+        <v>"R14": 2.66666666666667</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="2"/>
       <c r="L29" s="98" t="str">
-        <f>Y4</f>
-        <v>2, 7</v>
+        <f>T3</f>
+        <v>1.5, 2</v>
       </c>
       <c r="N29" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L16": "2, 7"</v>
+        <v>"L14": "1.5, 2"</v>
       </c>
       <c r="Q29" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R16": "2, 7"</v>
+        <v>"R14": "1.5, 2"</v>
+      </c>
+      <c r="U29" s="65" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30" s="4">
-        <f>O4</f>
-        <v>0.39999999999999997</v>
+        <f>Q4</f>
+        <v>3</v>
       </c>
       <c r="E30" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L17": 0.4</v>
+        <v>"L15": 3</v>
       </c>
       <c r="H30" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R17": 0.4</v>
+        <v>"R15": 3</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="2"/>
       <c r="L30" s="98" t="str">
-        <f>X4</f>
-        <v>2, 6</v>
+        <f>Z4</f>
+        <v>2, 8</v>
       </c>
       <c r="N30" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L17": "2, 6"</v>
+        <v>"L15": "2, 8"</v>
       </c>
       <c r="Q30" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R17": "2, 6"</v>
+        <v>"R15": "2, 8"</v>
+      </c>
+      <c r="U30" s="65" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" s="4">
-        <f>N4</f>
-        <v>0.33333333333333331</v>
+        <f>P4</f>
+        <v>0.6</v>
       </c>
       <c r="E31" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L18": 0.333333333333333</v>
+        <v>"L16": 0.6</v>
       </c>
       <c r="H31" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R18": 0.333333333333333</v>
+        <v>"R16": 0.6</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="2"/>
       <c r="L31" s="98" t="str">
-        <f>W4</f>
-        <v>2, 5</v>
+        <f>Y4</f>
+        <v>2, 7</v>
       </c>
       <c r="N31" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L18": "2, 5"</v>
+        <v>"L16": "2, 7"</v>
       </c>
       <c r="Q31" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R18": "2, 5"</v>
+        <v>"R16": "2, 7"</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32" s="4">
-        <f>M4</f>
-        <v>0.33333333333333331</v>
+        <f>O4</f>
+        <v>0.3666666666666667</v>
       </c>
       <c r="E32" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L19": 0.333333333333333</v>
+        <v>"L17": 0.366666666666667</v>
       </c>
       <c r="H32" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R19": 0.333333333333333</v>
+        <v>"R17": 0.366666666666667</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="2"/>
       <c r="L32" s="98" t="str">
-        <f>V4</f>
-        <v>2, 4</v>
+        <f>X4</f>
+        <v>2, 6</v>
       </c>
       <c r="N32" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L19": "2, 4"</v>
+        <v>"L17": "2, 6"</v>
       </c>
       <c r="Q32" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R19": "2, 4"</v>
+        <v>"R17": "2, 6"</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="4">
-        <f>L4</f>
-        <v>2</v>
+        <f>N4</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E33" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L20": 2</v>
+        <v>"L18": 0.333333333333333</v>
       </c>
       <c r="H33" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R20": 2</v>
+        <v>"R18": 0.333333333333333</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="2"/>
       <c r="L33" s="98" t="str">
-        <f>U4</f>
-        <v>2, 3</v>
+        <f>W4</f>
+        <v>2, 5</v>
       </c>
       <c r="N33" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L20": "2, 3"</v>
+        <v>"L18": "2, 5"</v>
       </c>
       <c r="Q33" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R20": "2, 3"</v>
+        <v>"R18": "2, 5"</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" s="4">
-        <f>K4</f>
-        <v>2.3333333333333335</v>
+        <f>M4</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E34" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L21": 2.33333333333333</v>
+        <v>"L19": 0.333333333333333</v>
       </c>
       <c r="H34" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R21": 2.33333333333333</v>
+        <v>"R19": 0.333333333333333</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="2"/>
       <c r="L34" s="98" t="str">
-        <f>T4</f>
-        <v>3, 2</v>
+        <f>V4</f>
+        <v>2, 4</v>
       </c>
       <c r="N34" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L21": "3, 2"</v>
+        <v>"L19": "2, 4"</v>
       </c>
       <c r="Q34" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R21": "3, 2"</v>
+        <v>"R19": "2, 4"</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C35" s="4">
-        <f>Q5</f>
-        <v>4.2</v>
+        <f>L4</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E35" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L22": 4.2</v>
+        <v>"L20": 1.66666666666667</v>
       </c>
       <c r="H35" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R22": 4.2</v>
+        <v>"R20": 1.66666666666667</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="2"/>
       <c r="L35" s="98" t="str">
-        <f>Z5</f>
-        <v>3, 8</v>
+        <f>U4</f>
+        <v>2, 3</v>
       </c>
       <c r="N35" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L22": "3, 8"</v>
+        <v>"L20": "2, 3"</v>
       </c>
       <c r="Q35" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R22": "3, 8"</v>
+        <v>"R20": "2, 3"</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="4">
-        <f>P5</f>
-        <v>1.2</v>
+        <f>K4</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E36" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L23": 1.2</v>
+        <v>"L21": 2.33333333333333</v>
       </c>
       <c r="H36" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R23": 1.2</v>
+        <v>"R21": 2.33333333333333</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="L36" s="98" t="str">
-        <f>Y5</f>
-        <v>3, 7</v>
+        <f>T4</f>
+        <v>3, 2</v>
       </c>
       <c r="N36" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L23": "3, 7"</v>
+        <v>"L21": "3, 2"</v>
       </c>
       <c r="Q36" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R23": "3, 7"</v>
+        <v>"R21": "3, 2"</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" s="4">
-        <f>O5</f>
-        <v>2</v>
+        <f>Q5</f>
+        <v>3</v>
       </c>
       <c r="E37" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L24": 2</v>
+        <v>"L22": 3</v>
       </c>
       <c r="H37" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R24": 2</v>
+        <v>"R22": 3</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="2"/>
       <c r="L37" s="98" t="str">
-        <f>X5</f>
-        <v>3, 6</v>
+        <f>Z5</f>
+        <v>3, 8</v>
       </c>
       <c r="N37" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L24": "3, 6"</v>
+        <v>"L22": "3, 8"</v>
       </c>
       <c r="Q37" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R24": "3, 6"</v>
+        <v>"R22": "3, 8"</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" s="4">
-        <f>N5</f>
-        <v>1.3333333333333333</v>
+        <f>P5</f>
+        <v>1.2</v>
       </c>
       <c r="E38" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L25": 1.33333333333333</v>
+        <v>"L23": 1.2</v>
       </c>
       <c r="H38" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R25": 1.33333333333333</v>
+        <v>"R23": 1.2</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="2"/>
       <c r="L38" s="98" t="str">
-        <f>W5</f>
-        <v>3, 5</v>
+        <f>Y5</f>
+        <v>3, 7</v>
       </c>
       <c r="N38" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L25": "3, 5"</v>
+        <v>"L23": "3, 7"</v>
       </c>
       <c r="Q38" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R25": "3, 5"</v>
+        <v>"R23": "3, 7"</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="4">
-        <f>M5</f>
-        <v>1.3333333333333333</v>
+        <f>O5</f>
+        <v>1.4666666666666668</v>
       </c>
       <c r="E39" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L26": 1.33333333333333</v>
+        <v>"L24": 1.46666666666667</v>
       </c>
       <c r="H39" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R26": 1.33333333333333</v>
+        <v>"R24": 1.46666666666667</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="2"/>
       <c r="L39" s="98" t="str">
-        <f>V5</f>
-        <v>3, 4</v>
+        <f>X5</f>
+        <v>3, 6</v>
       </c>
       <c r="N39" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L26": "3, 4"</v>
+        <v>"L24": "3, 6"</v>
       </c>
       <c r="Q39" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R26": "3, 4"</v>
+        <v>"R24": "3, 6"</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40" s="4">
-        <f>L5</f>
-        <v>2.3333333333333335</v>
+        <f>N5</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E40" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L27": 2.33333333333333</v>
+        <v>"L25": 1.33333333333333</v>
       </c>
       <c r="H40" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R27": 2.33333333333333</v>
+        <v>"R25": 1.33333333333333</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="2"/>
       <c r="L40" s="98" t="str">
-        <f>U5</f>
-        <v>3, 3</v>
+        <f>W5</f>
+        <v>3, 5</v>
       </c>
       <c r="N40" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L27": "3, 3"</v>
+        <v>"L25": "3, 5"</v>
       </c>
       <c r="Q40" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R27": "3, 3"</v>
+        <v>"R25": "3, 5"</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41" s="4">
-        <f>K5</f>
-        <v>3</v>
+        <f>M5</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E41" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L28": 3</v>
+        <v>"L26": 1.33333333333333</v>
       </c>
       <c r="H41" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R28": 3</v>
+        <v>"R26": 1.33333333333333</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="2"/>
       <c r="L41" s="98" t="str">
-        <f>T5</f>
-        <v>4, 1</v>
+        <f>V5</f>
+        <v>3, 4</v>
       </c>
       <c r="N41" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L28": "4, 1"</v>
+        <v>"L26": "3, 4"</v>
       </c>
       <c r="Q41" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R28": "4, 1"</v>
+        <v>"R26": "3, 4"</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C42" s="4">
-        <f>J5</f>
-        <v>3.3333333333333335</v>
+        <f>L5</f>
+        <v>2</v>
       </c>
       <c r="E42" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L29": 3.33333333333333</v>
+        <v>"L27": 2</v>
       </c>
       <c r="H42" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R29": 3.33333333333333</v>
+        <v>"R27": 2</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="2"/>
       <c r="L42" s="98" t="str">
-        <f>S5</f>
-        <v>4, 0</v>
+        <f>U5</f>
+        <v>3, 3</v>
       </c>
       <c r="N42" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L29": "4, 0"</v>
+        <v>"L27": "3, 3"</v>
       </c>
       <c r="Q42" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R29": "4, 0"</v>
+        <v>"R27": "3, 3"</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C43" s="4">
-        <f>Q6</f>
-        <v>4.8</v>
+        <f>K5</f>
+        <v>3</v>
       </c>
       <c r="E43" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L30": 4.8</v>
+        <v>"L28": 3</v>
       </c>
       <c r="H43" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R30": 4.8</v>
+        <v>"R28": 3</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="2"/>
       <c r="L43" s="98" t="str">
-        <f>Z6</f>
-        <v>4, 8</v>
+        <f>T5</f>
+        <v>4, 1</v>
       </c>
       <c r="N43" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L30": "4, 8"</v>
+        <v>"L28": "4, 1"</v>
       </c>
       <c r="Q43" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R30": "4, 8"</v>
+        <v>"R28": "4, 1"</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C44" s="4">
-        <f>P6</f>
-        <v>4.2</v>
+        <f>J5</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="E44" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L31": 4.2</v>
+        <v>"L29": 3.33333333333333</v>
       </c>
       <c r="H44" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R31": 4.2</v>
+        <v>"R29": 3.33333333333333</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="2"/>
       <c r="L44" s="98" t="str">
-        <f>Y6</f>
-        <v>4, 7</v>
+        <f>S5</f>
+        <v>4, 0</v>
       </c>
       <c r="N44" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L31": "4, 7"</v>
+        <v>"L29": "4, 0"</v>
       </c>
       <c r="Q44" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R31": "4, 7"</v>
+        <v>"R29": "4, 0"</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C45" s="4">
-        <f>O6</f>
-        <v>2.8000000000000003</v>
+        <f>Q6</f>
+        <v>4.8</v>
       </c>
       <c r="E45" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L32": 2.8</v>
+        <v>"L30": 4.8</v>
       </c>
       <c r="H45" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R32": 2.8</v>
+        <v>"R30": 4.8</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="2"/>
       <c r="L45" s="98" t="str">
-        <f>X6</f>
-        <v>4, 6</v>
+        <f>Z6</f>
+        <v>4, 8</v>
       </c>
       <c r="N45" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L32": "4, 6"</v>
+        <v>"L30": "4, 8"</v>
       </c>
       <c r="Q45" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R32": "4, 6"</v>
+        <v>"R30": "4, 8"</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46" s="4">
-        <f>N6</f>
-        <v>2.3333333333333335</v>
+        <f>P6</f>
+        <v>4.2</v>
       </c>
       <c r="E46" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L33": 2.33333333333333</v>
+        <v>"L31": 4.2</v>
       </c>
       <c r="H46" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R33": 2.33333333333333</v>
+        <v>"R31": 4.2</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="2"/>
       <c r="L46" s="98" t="str">
-        <f>W6</f>
-        <v>4, 5</v>
+        <f>Y6</f>
+        <v>4, 7</v>
       </c>
       <c r="N46" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L33": "4, 5"</v>
+        <v>"L31": "4, 7"</v>
       </c>
       <c r="Q46" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R33": "4, 5"</v>
+        <v>"R31": "4, 7"</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C47" s="4">
-        <f>M6</f>
-        <v>1.6666666666666667</v>
+        <f>O6</f>
+        <v>2.5666666666666669</v>
       </c>
       <c r="E47" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L34": 1.66666666666667</v>
+        <v>"L32": 2.56666666666667</v>
       </c>
       <c r="H47" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R34": 1.66666666666667</v>
+        <v>"R32": 2.56666666666667</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="2"/>
       <c r="L47" s="98" t="str">
-        <f>V6</f>
-        <v>4, 4</v>
+        <f>X6</f>
+        <v>4, 6</v>
       </c>
       <c r="N47" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L34": "4, 4"</v>
+        <v>"L32": "4, 6"</v>
       </c>
       <c r="Q47" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R34": "4, 4"</v>
+        <v>"R32": "4, 6"</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C48" s="4">
-        <f>L6</f>
-        <v>0.33333333333333331</v>
+        <f>N6</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E48" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L35": 0.333333333333333</v>
+        <v>"L33": 2.33333333333333</v>
       </c>
       <c r="H48" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R35": 0.333333333333333</v>
+        <v>"R33": 2.33333333333333</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="2"/>
       <c r="L48" s="98" t="str">
-        <f>U6</f>
-        <v>5, 2.5</v>
+        <f>W6</f>
+        <v>4, 5</v>
       </c>
       <c r="N48" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L35": "5, 2.5"</v>
+        <v>"L33": "4, 5"</v>
       </c>
       <c r="Q48" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R35": "5, 2.5"</v>
+        <v>"R33": "4, 5"</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C49" s="4">
-        <f>K6</f>
-        <v>1</v>
+        <f>M6</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E49" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L36": 1</v>
+        <v>"L34": 1.66666666666667</v>
       </c>
       <c r="H49" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R36": 1</v>
+        <v>"R34": 1.66666666666667</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="2"/>
       <c r="L49" s="98" t="str">
-        <f>T6</f>
-        <v>5.5, 1.5</v>
+        <f>V6</f>
+        <v>4, 4</v>
       </c>
       <c r="N49" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L36": "5.5, 1.5"</v>
+        <v>"L34": "4, 4"</v>
       </c>
       <c r="Q49" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R36": "5.5, 1.5"</v>
+        <v>"R34": "4, 4"</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C50" s="4">
-        <f>J6</f>
-        <v>3</v>
+        <f>L6</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E50" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L37": 3</v>
+        <v>"L35": 0.333333333333333</v>
       </c>
       <c r="H50" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R37": 3</v>
+        <v>"R35": 0.333333333333333</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="2"/>
       <c r="L50" s="98" t="str">
-        <f>S6</f>
-        <v>5, 0.5</v>
+        <f>U6</f>
+        <v>5, 2.5</v>
       </c>
       <c r="N50" s="75" t="str">
         <f t="shared" si="14"/>
-        <v>"L37": "5, 0.5"</v>
+        <v>"L35": "5, 2.5"</v>
       </c>
       <c r="Q50" s="75" t="str">
         <f t="shared" si="15"/>
-        <v>"R37": "5, 0.5"</v>
+        <v>"R35": "5, 2.5"</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C51" s="4">
-        <f>J7</f>
-        <v>2</v>
+        <f>K6</f>
+        <v>1</v>
       </c>
       <c r="E51" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L38": 2</v>
+        <v>"L36": 1</v>
       </c>
       <c r="H51" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R38": 2</v>
+        <v>"R36": 1</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="2"/>
       <c r="L51" s="98" t="str">
+        <f>T6</f>
+        <v>5.5, 1.5</v>
+      </c>
+      <c r="N51" s="75" t="str">
+        <f t="shared" si="14"/>
+        <v>"L36": "5.5, 1.5"</v>
+      </c>
+      <c r="Q51" s="75" t="str">
+        <f t="shared" si="15"/>
+        <v>"R36": "5.5, 1.5"</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>37</v>
+      </c>
+      <c r="C52" s="4">
+        <f>J6</f>
+        <v>3</v>
+      </c>
+      <c r="E52" s="75" t="str">
+        <f t="shared" si="12"/>
+        <v>"L37": 3</v>
+      </c>
+      <c r="H52" s="50" t="str">
+        <f t="shared" si="13"/>
+        <v>"R37": 3</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="2"/>
+      <c r="L52" s="98" t="str">
+        <f>S6</f>
+        <v>5, 0.5</v>
+      </c>
+      <c r="N52" s="75" t="str">
+        <f t="shared" si="14"/>
+        <v>"L37": "5, 0.5"</v>
+      </c>
+      <c r="Q52" s="75" t="str">
+        <f t="shared" si="15"/>
+        <v>"R37": "5, 0.5"</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>38</v>
+      </c>
+      <c r="C53" s="4">
+        <f>J7</f>
+        <v>2</v>
+      </c>
+      <c r="E53" s="75" t="str">
+        <f t="shared" si="12"/>
+        <v>"L38": 2</v>
+      </c>
+      <c r="H53" s="50" t="str">
+        <f t="shared" si="13"/>
+        <v>"R38": 2</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="2"/>
+      <c r="L53" s="98" t="str">
         <f>S7</f>
         <v>6, 1</v>
       </c>
-      <c r="N51" s="75" t="str">
+      <c r="N53" s="75" t="str">
         <f t="shared" si="14"/>
         <v>"L38": "6, 1"</v>
       </c>
-      <c r="Q51" s="75" t="str">
+      <c r="Q53" s="75" t="str">
         <f t="shared" si="15"/>
         <v>"R38": "6, 1"</v>
       </c>
@@ -9361,8 +9366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC63CFF-AE66-45CB-9330-30F96D8360CD}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9392,16 +9397,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B2" s="99">
-        <v>63021594.32</v>
+        <v>63006826.979999997</v>
       </c>
       <c r="C2" s="99">
-        <v>19826891.16</v>
+        <v>19395332.300000001</v>
       </c>
       <c r="D2" s="99">
-        <v>84866278.140000001</v>
+        <v>82935207.909999996</v>
       </c>
       <c r="F2" s="100" t="s">
         <v>105</v>
@@ -9409,16 +9414,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="99">
-        <v>66392714.619999997</v>
+        <v>63021594.32</v>
       </c>
       <c r="C3" s="99">
-        <v>20670094.780000001</v>
+        <v>19826891.16</v>
       </c>
       <c r="D3" s="99">
-        <v>88358159.370000005</v>
+        <v>84866278.140000001</v>
       </c>
       <c r="F3" s="101" t="s">
         <v>98</v>
@@ -9426,16 +9431,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B4" s="99">
-        <v>78131280.400000006</v>
+        <v>67454002.200000003</v>
       </c>
       <c r="C4" s="99">
-        <v>21101450.010000002</v>
+        <v>19297528.530000001</v>
       </c>
       <c r="D4" s="99">
-        <v>104726747.16</v>
+        <v>86578542.310000002</v>
       </c>
       <c r="F4" s="100" t="s">
         <v>103</v>
@@ -9443,16 +9448,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B5" s="99">
-        <v>67508647.859999999</v>
+        <v>67577455.799999997</v>
       </c>
       <c r="C5" s="99">
-        <v>20046089.260000002</v>
+        <v>19651448.32</v>
       </c>
       <c r="D5" s="99">
-        <v>88286789.760000005</v>
+        <v>87836971.450000003</v>
       </c>
       <c r="F5" s="101" t="s">
         <v>111</v>
@@ -9460,16 +9465,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" s="99">
-        <v>69122581.920000002</v>
+        <v>64336488.939999998</v>
       </c>
       <c r="C6" s="99">
-        <v>19579550.539999999</v>
+        <v>20230518.75</v>
       </c>
       <c r="D6" s="99">
-        <v>91093558.439999998</v>
+        <v>87868316.140000001</v>
       </c>
       <c r="F6" s="100" t="s">
         <v>104</v>
@@ -9477,16 +9482,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B7" s="99">
-        <v>70217301.200000003</v>
+        <v>62843938.359999999</v>
       </c>
       <c r="C7" s="99">
-        <v>19953253.190000001</v>
+        <v>21059347.890000001</v>
       </c>
       <c r="D7" s="99">
-        <v>92342053.359999999</v>
+        <v>87955816.640000001</v>
       </c>
       <c r="F7" s="101" t="s">
         <v>94</v>
@@ -9494,16 +9499,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B8" s="99">
-        <v>61493510.240000002</v>
+        <v>67508647.859999999</v>
       </c>
       <c r="C8" s="99">
-        <v>21237339.98</v>
+        <v>20046089.260000002</v>
       </c>
       <c r="D8" s="99">
-        <v>90472118.769999996</v>
+        <v>88286789.760000005</v>
       </c>
       <c r="F8" s="100" t="s">
         <v>110</v>
@@ -9511,16 +9516,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B9" s="99">
-        <v>64336488.939999998</v>
+        <v>66392714.619999997</v>
       </c>
       <c r="C9" s="99">
-        <v>20230518.75</v>
+        <v>20670094.780000001</v>
       </c>
       <c r="D9" s="99">
-        <v>87868316.140000001</v>
+        <v>88358159.370000005</v>
       </c>
       <c r="F9" s="101" t="s">
         <v>101</v>
@@ -9528,16 +9533,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B10" s="99">
-        <v>63006826.979999997</v>
+        <v>64553896.880000003</v>
       </c>
       <c r="C10" s="99">
-        <v>19395332.300000001</v>
+        <v>20861397.899999999</v>
       </c>
       <c r="D10" s="99">
-        <v>82935207.909999996</v>
+        <v>89485860.049999997</v>
       </c>
       <c r="F10" s="100" t="s">
         <v>108</v>
@@ -9562,16 +9567,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B12" s="99">
-        <v>67454002.200000003</v>
+        <v>61493510.240000002</v>
       </c>
       <c r="C12" s="99">
-        <v>19297528.530000001</v>
+        <v>21237339.98</v>
       </c>
       <c r="D12" s="99">
-        <v>86578542.310000002</v>
+        <v>90472118.769999996</v>
       </c>
       <c r="F12" s="100" t="s">
         <v>107</v>
@@ -9579,16 +9584,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B13" s="99">
-        <v>67577455.799999997</v>
+        <v>69122581.920000002</v>
       </c>
       <c r="C13" s="99">
-        <v>19651448.32</v>
+        <v>19579550.539999999</v>
       </c>
       <c r="D13" s="99">
-        <v>87836971.450000003</v>
+        <v>91093558.439999998</v>
       </c>
       <c r="F13" s="101" t="s">
         <v>106</v>
@@ -9596,16 +9601,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B14" s="99">
-        <v>90643274.200000003</v>
+        <v>70217301.200000003</v>
       </c>
       <c r="C14" s="99">
-        <v>21071928.530000001</v>
+        <v>19953253.190000001</v>
       </c>
       <c r="D14" s="99">
-        <v>130204950.77</v>
+        <v>92342053.359999999</v>
       </c>
       <c r="F14" s="100" t="s">
         <v>102</v>
@@ -9613,16 +9618,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B15" s="99">
-        <v>62843938.359999999</v>
+        <v>78131280.400000006</v>
       </c>
       <c r="C15" s="99">
-        <v>21059347.890000001</v>
+        <v>21101450.010000002</v>
       </c>
       <c r="D15" s="99">
-        <v>87955816.640000001</v>
+        <v>104726747.16</v>
       </c>
       <c r="F15" s="101" t="s">
         <v>109</v>
@@ -9630,16 +9635,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B16" s="99">
-        <v>96384239.219999999</v>
+        <v>90643274.200000003</v>
       </c>
       <c r="C16" s="99">
-        <v>22149809.34</v>
+        <v>21071928.530000001</v>
       </c>
       <c r="D16" s="99">
-        <v>143316664.5</v>
+        <v>130204950.77</v>
       </c>
       <c r="F16" s="100" t="s">
         <v>99</v>
@@ -9647,16 +9652,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B17" s="99">
-        <v>64553896.880000003</v>
+        <v>96384239.219999999</v>
       </c>
       <c r="C17" s="99">
-        <v>20861397.899999999</v>
+        <v>22149809.34</v>
       </c>
       <c r="D17" s="99">
-        <v>89485860.049999997</v>
+        <v>143316664.5</v>
       </c>
       <c r="F17" s="101" t="s">
         <v>97</v>
@@ -9678,226 +9683,274 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B21" s="99">
-        <v>20639137.469999999</v>
+        <v>19606366.420000002</v>
       </c>
       <c r="C21" s="99">
-        <v>19826891.16</v>
+        <v>19395332.300000001</v>
       </c>
       <c r="D21" s="99">
-        <v>27722023.260000002</v>
+        <v>25930094.809999999</v>
+      </c>
+      <c r="F21" s="100" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B22" s="99">
-        <v>20534491.289999999</v>
+        <v>19908971.43</v>
       </c>
       <c r="C22" s="99">
-        <v>20670094.780000001</v>
+        <v>20230518.75</v>
       </c>
       <c r="D22" s="99">
-        <v>27146139.100000001</v>
+        <v>26941336.800000001</v>
+      </c>
+      <c r="F22" s="101" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B23" s="99">
-        <v>24324243.23</v>
+        <v>19362564.77</v>
       </c>
       <c r="C23" s="99">
-        <v>21101450.010000002</v>
+        <v>21059347.890000001</v>
       </c>
       <c r="D23" s="99">
-        <v>32694650.219999999</v>
+        <v>26986067.969999999</v>
+      </c>
+      <c r="F23" s="100" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B24" s="99">
-        <v>20743719.280000001</v>
+        <v>20534491.289999999</v>
       </c>
       <c r="C24" s="99">
-        <v>20046089.260000002</v>
+        <v>20670094.780000001</v>
       </c>
       <c r="D24" s="99">
-        <v>27238308.379999999</v>
+        <v>27146139.100000001</v>
+      </c>
+      <c r="F24" s="101" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="99">
-        <v>21203984.640000001</v>
+        <v>20743719.280000001</v>
       </c>
       <c r="C25" s="99">
-        <v>19579550.539999999</v>
+        <v>20046089.260000002</v>
       </c>
       <c r="D25" s="99">
-        <v>28051998.27</v>
+        <v>27238308.379999999</v>
+      </c>
+      <c r="F25" s="100" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B26" s="99">
-        <v>21624015.41</v>
+        <v>19877583.690000001</v>
       </c>
       <c r="C26" s="99">
-        <v>19953253.190000001</v>
+        <v>20861397.899999999</v>
       </c>
       <c r="D26" s="99">
-        <v>28766978.190000001</v>
+        <v>27317291</v>
+      </c>
+      <c r="F26" s="101" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B27" s="99">
-        <v>18927229.890000001</v>
+        <v>20639137.469999999</v>
       </c>
       <c r="C27" s="99">
-        <v>21237339.98</v>
+        <v>19826891.16</v>
       </c>
       <c r="D27" s="99">
-        <v>27847199.75</v>
+        <v>27722023.260000002</v>
+      </c>
+      <c r="F27" s="100" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B28" s="99">
-        <v>19908971.43</v>
+        <v>21592424.98</v>
       </c>
       <c r="C28" s="99">
-        <v>20230518.75</v>
+        <v>19297528.530000001</v>
       </c>
       <c r="D28" s="99">
-        <v>26941336.800000001</v>
+        <v>27772921.629999999</v>
+      </c>
+      <c r="F28" s="101" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B29" s="99">
-        <v>19606366.420000002</v>
+        <v>18927229.890000001</v>
       </c>
       <c r="C29" s="99">
-        <v>19395332.300000001</v>
+        <v>21237339.98</v>
       </c>
       <c r="D29" s="99">
-        <v>25930094.809999999</v>
+        <v>27847199.75</v>
+      </c>
+      <c r="F29" s="100" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B30" s="99">
-        <v>23007242.829999998</v>
+        <v>21203984.640000001</v>
       </c>
       <c r="C30" s="99">
-        <v>18853846.870000001</v>
+        <v>19579550.539999999</v>
       </c>
       <c r="D30" s="99">
-        <v>29397548.789999999</v>
+        <v>28051998.27</v>
+      </c>
+      <c r="F30" s="101" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="99">
-        <v>21592424.98</v>
+        <v>21633546.48</v>
       </c>
       <c r="C31" s="99">
-        <v>19297528.530000001</v>
+        <v>19651448.32</v>
       </c>
       <c r="D31" s="99">
-        <v>27772921.629999999</v>
+        <v>28192285.280000001</v>
+      </c>
+      <c r="F31" s="100" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="99">
+        <v>21624015.41</v>
+      </c>
+      <c r="C32" s="99">
+        <v>19953253.190000001</v>
+      </c>
+      <c r="D32" s="99">
+        <v>28766978.190000001</v>
+      </c>
+      <c r="F32" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="99">
-        <v>21633546.48</v>
-      </c>
-      <c r="C32" s="99">
-        <v>19651448.32</v>
-      </c>
-      <c r="D32" s="99">
-        <v>28192285.280000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="99">
+        <v>23007242.829999998</v>
+      </c>
+      <c r="C33" s="99">
+        <v>18853846.870000001</v>
+      </c>
+      <c r="D33" s="99">
+        <v>29397548.789999999</v>
+      </c>
+      <c r="F33" s="100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="99">
+        <v>24324243.23</v>
+      </c>
+      <c r="C34" s="99">
+        <v>21101450.010000002</v>
+      </c>
+      <c r="D34" s="99">
+        <v>32694650.219999999</v>
+      </c>
+      <c r="F34" s="101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="99">
+      <c r="B35" s="99">
         <v>29325379.289999999</v>
       </c>
-      <c r="C33" s="99">
+      <c r="C35" s="99">
         <v>21071928.530000001</v>
       </c>
-      <c r="D33" s="99">
+      <c r="D35" s="99">
         <v>42105942.07</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="99">
-        <v>19362564.77</v>
-      </c>
-      <c r="C34" s="99">
-        <v>21059347.890000001</v>
-      </c>
-      <c r="D34" s="99">
-        <v>26986067.969999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="F35" s="100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="99">
+      <c r="B36" s="99">
         <v>31477579.66</v>
       </c>
-      <c r="C35" s="99">
+      <c r="C36" s="99">
         <v>22149809.34</v>
       </c>
-      <c r="D35" s="99">
+      <c r="D36" s="99">
         <v>46890688.869999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="99">
-        <v>19877583.690000001</v>
-      </c>
-      <c r="C36" s="99">
-        <v>20861397.899999999</v>
-      </c>
-      <c r="D36" s="99">
-        <v>27317291</v>
+      <c r="F36" s="101" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -11719,7 +11772,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11878,7 +11931,7 @@
       <c r="J4" s="143"/>
       <c r="K4" s="143"/>
       <c r="L4" s="133" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="M4" s="138" t="s">
         <v>22</v>
@@ -12159,7 +12212,7 @@
       </c>
       <c r="L11" t="str">
         <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": """</v>
+        <v>"27": "\""</v>
       </c>
       <c r="M11" t="str">
         <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
@@ -12267,13 +12320,13 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "[","21": "","20": "s","19": "a","18": "t","17": "i","16": "m","15": "\\","29": "","28": "","27": ""","26": "n","25": "g","24": ",","23": ".","22": "/","37": "","36": "","35": "","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "[","21": "","20": "s","19": "a","18": "t","17": "i","16": "m","15": "\\","29": "","28": "","27": "\"","26": "n","25": "g","24": ",","23": ".","22": "/","37": "","36": "","35": "","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "p","11": "d","12": "v","13": "k","14": "","15": "'","16": "f","17": "h","18": "e","19": "o","20": "w","21": "","22": "`","23": "x","24": "c","25": "u","26": "r","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "[","21": "","20": "s","19": "a","18": "t","17": "i","16": "m","15": "\\","29": "","28": "","27": ""","26": "n","25": "g","24": ",","23": ".","22": "/","37": "","36": "","35": "","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "p","11": "d","12": "v","13": "k","14": "","15": "'","16": "f","17": "h","18": "e","19": "o","20": "w","21": "","22": "`","23": "x","24": "c","25": "u","26": "r","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "[","21": "","20": "s","19": "a","18": "t","17": "i","16": "m","15": "\\","29": "","28": "","27": "\"","26": "n","25": "g","24": ",","23": ".","22": "/","37": "","36": "","35": "","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">

--- a/layouts/layouts.xlsx
+++ b/layouts/layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB75E53-301D-4485-930E-083DCBFFC908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BB6842-79B5-4967-8002-E09F718BACA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" activeTab="5" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -18,22 +18,23 @@
     <sheet name="Keys" sheetId="2" r:id="rId3"/>
     <sheet name="Template" sheetId="23" r:id="rId4"/>
     <sheet name="My 1" sheetId="26" r:id="rId5"/>
-    <sheet name="Norman" sheetId="21" r:id="rId6"/>
-    <sheet name="Soul" sheetId="13" r:id="rId7"/>
-    <sheet name="Mtgap2" sheetId="8" r:id="rId8"/>
-    <sheet name="Breakl15" sheetId="6" r:id="rId9"/>
-    <sheet name="QGMLWB" sheetId="16" r:id="rId10"/>
-    <sheet name="Workman" sheetId="10" r:id="rId11"/>
-    <sheet name="Niro" sheetId="12" r:id="rId12"/>
-    <sheet name="Collemak" sheetId="4" r:id="rId13"/>
-    <sheet name="QGMLWY" sheetId="18" r:id="rId14"/>
-    <sheet name="QFMLWY" sheetId="15" r:id="rId15"/>
-    <sheet name="Gelatin" sheetId="20" r:id="rId16"/>
-    <sheet name="Kaehi" sheetId="14" r:id="rId17"/>
-    <sheet name="Mtgap1" sheetId="5" r:id="rId18"/>
-    <sheet name="Dvorak" sheetId="9" r:id="rId19"/>
-    <sheet name="Querty" sheetId="3" r:id="rId20"/>
-    <sheet name="TNWMLC" sheetId="19" r:id="rId21"/>
+    <sheet name="My 2" sheetId="27" r:id="rId6"/>
+    <sheet name="Norman" sheetId="21" r:id="rId7"/>
+    <sheet name="Soul" sheetId="13" r:id="rId8"/>
+    <sheet name="Mtgap2" sheetId="8" r:id="rId9"/>
+    <sheet name="Breakl15" sheetId="6" r:id="rId10"/>
+    <sheet name="QGMLWB" sheetId="16" r:id="rId11"/>
+    <sheet name="Workman" sheetId="10" r:id="rId12"/>
+    <sheet name="Niro" sheetId="12" r:id="rId13"/>
+    <sheet name="Collemak" sheetId="4" r:id="rId14"/>
+    <sheet name="QGMLWY" sheetId="18" r:id="rId15"/>
+    <sheet name="QFMLWY" sheetId="15" r:id="rId16"/>
+    <sheet name="Gelatin" sheetId="20" r:id="rId17"/>
+    <sheet name="Kaehi" sheetId="14" r:id="rId18"/>
+    <sheet name="Mtgap1" sheetId="5" r:id="rId19"/>
+    <sheet name="Dvorak" sheetId="9" r:id="rId20"/>
+    <sheet name="Querty" sheetId="3" r:id="rId21"/>
+    <sheet name="TNWMLC" sheetId="19" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="116">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -393,6 +394,12 @@
   </si>
   <si>
     <t>by efforts</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Weighed</t>
   </si>
 </sst>
 </file>
@@ -1447,10 +1454,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4AB133F-6DAE-4231-BA3E-5FD1535A37A6}" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0">
-  <autoFilter ref="A1:D17" xr:uid="{2A73B63B-9BCC-459A-B45A-DD63FBB605A0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
-    <sortCondition ref="D1:D17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4AB133F-6DAE-4231-BA3E-5FD1535A37A6}" name="Table1" displayName="Table1" ref="A2:D18" totalsRowShown="0">
+  <autoFilter ref="A2:D18" xr:uid="{2A73B63B-9BCC-459A-B45A-DD63FBB605A0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D18">
+    <sortCondition ref="D2:D18"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A92DB4BE-1C52-4DA8-B720-753A193D705E}" name="Layout"/>
@@ -1463,10 +1470,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFDBA6D7-EC37-4E14-93FB-9174212E6BD4}" name="Table13" displayName="Table13" ref="A20:D36" totalsRowShown="0">
-  <autoFilter ref="A20:D36" xr:uid="{738C2389-55F1-4C95-B7CF-5A6AEED0DEB9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:D36">
-    <sortCondition ref="D20:D36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AFDBA6D7-EC37-4E14-93FB-9174212E6BD4}" name="Table13" displayName="Table13" ref="A21:D37" totalsRowShown="0">
+  <autoFilter ref="A21:D37" xr:uid="{738C2389-55F1-4C95-B7CF-5A6AEED0DEB9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:D37">
+    <sortCondition ref="D21:D37"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9F04C436-2F1F-4A49-B31D-4C90F5B28628}" name="Layout"/>
@@ -1777,9 +1784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B6691-7246-46A6-9F21-3516326982E4}">
   <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3640,6 +3647,581 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE1B9F7-56A1-4B2B-8844-93D3218A2256}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>4</v>
+      </c>
+      <c r="C1" s="54">
+        <v>0</v>
+      </c>
+      <c r="D1" s="54">
+        <v>1</v>
+      </c>
+      <c r="E1" s="52">
+        <v>2</v>
+      </c>
+      <c r="F1" s="52">
+        <v>3</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>7</v>
+      </c>
+      <c r="M1" s="86">
+        <v>6</v>
+      </c>
+      <c r="N1" s="82">
+        <v>5</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="73"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="71"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="84"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "4"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "0"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "1"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "2"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "3"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "7"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "6"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "5"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "8"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "h"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "o"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "x"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "'"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "g"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "c"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "r"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "f"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "z"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "y"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "i"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "a"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "."</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "\\"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "d"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "s"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "t"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "n"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "b"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": ";"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "j"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "/"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "k"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "'"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "w"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "l"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "p"</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "v"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "4","3": "0","4": "1","5": "2","6": "3","7": "","8": "","9": "q","10": "h","11": "o","12": "u","13": "x","14": "'","15": "","16": "y","17": "i","18": "e","19": "a","20": ".","21": "","22": "`","23": "j","24": "/","25": ",","26": "k","27": "'","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "]","14": "\"","13": "g","12": "c","11": "r","10": "f","9": "z","8": "[","21": "\\","20": "d","19": "s","18": "t","17": "n","16": "b","15": ";","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "4","3": "0","4": "1","5": "2","6": "3","7": "","8": "","9": "q","10": "h","11": "o","12": "u","13": "x","14": "'","15": "","16": "y","17": "i","18": "e","19": "a","20": ".","21": "","22": "`","23": "j","24": "/","25": ",","26": "k","27": "'","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "]","14": "\"","13": "g","12": "c","11": "r","10": "f","9": "z","8": "[","21": "\\","20": "d","19": "s","18": "t","17": "n","16": "b","15": ";","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{74B7D92D-F350-482E-9D42-C4BE77FB6B6F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0F971E-842D-4FFC-8F12-3AD6BFCF94FA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -4211,7 +4793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D0F36D-A06F-4E02-AC07-5A63EE7CD312}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -4783,7 +5365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDBB2D6-01F8-44E3-8C08-222DAA0B7703}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -5355,7 +5937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27715-3509-47E9-A9CB-5DE4634BE300}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -5932,7 +6514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0ED93C-CABF-47EC-AD81-D7985BA91921}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -6504,7 +7086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8AC8BE-5EAD-43BE-A533-75865B4E96B5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -7076,7 +7658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F804FA-BE53-4998-936F-C2B5351F1D8E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -7648,7 +8230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2B976-8DBD-44BC-8A4B-199C621F6D1E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -8220,7 +8802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DCC6E8-8838-49B0-A240-A4CF935DB5EC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -8793,7 +9375,621 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC63CFF-AE66-45CB-9330-30F96D8360CD}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="99">
+        <v>63006826.979999997</v>
+      </c>
+      <c r="C3" s="99">
+        <v>19395332.300000001</v>
+      </c>
+      <c r="D3" s="99">
+        <v>82935207.909999996</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="99">
+        <v>63021594.32</v>
+      </c>
+      <c r="C4" s="99">
+        <v>19826891.16</v>
+      </c>
+      <c r="D4" s="99">
+        <v>84866278.140000001</v>
+      </c>
+      <c r="F4" s="101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="99">
+        <v>67454002.200000003</v>
+      </c>
+      <c r="C5" s="99">
+        <v>19297528.530000001</v>
+      </c>
+      <c r="D5" s="99">
+        <v>86578542.310000002</v>
+      </c>
+      <c r="F5" s="100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="99">
+        <v>67577455.799999997</v>
+      </c>
+      <c r="C6" s="99">
+        <v>19651448.32</v>
+      </c>
+      <c r="D6" s="99">
+        <v>87836971.450000003</v>
+      </c>
+      <c r="F6" s="101" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="99">
+        <v>64336488.939999998</v>
+      </c>
+      <c r="C7" s="99">
+        <v>20230518.75</v>
+      </c>
+      <c r="D7" s="99">
+        <v>87868316.140000001</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="99">
+        <v>62843938.359999999</v>
+      </c>
+      <c r="C8" s="99">
+        <v>21059347.890000001</v>
+      </c>
+      <c r="D8" s="99">
+        <v>87955816.640000001</v>
+      </c>
+      <c r="F8" s="101" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="99">
+        <v>67508647.859999999</v>
+      </c>
+      <c r="C9" s="99">
+        <v>20046089.260000002</v>
+      </c>
+      <c r="D9" s="99">
+        <v>88286789.760000005</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="99">
+        <v>66392714.619999997</v>
+      </c>
+      <c r="C10" s="99">
+        <v>20670094.780000001</v>
+      </c>
+      <c r="D10" s="99">
+        <v>88358159.370000005</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="99">
+        <v>64553896.880000003</v>
+      </c>
+      <c r="C11" s="99">
+        <v>20861397.899999999</v>
+      </c>
+      <c r="D11" s="99">
+        <v>89485860.049999997</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="99">
+        <v>70345275.159999996</v>
+      </c>
+      <c r="C12" s="99">
+        <v>18853846.870000001</v>
+      </c>
+      <c r="D12" s="99">
+        <v>89982358.519999996</v>
+      </c>
+      <c r="F12" s="101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="99">
+        <v>61493510.240000002</v>
+      </c>
+      <c r="C13" s="99">
+        <v>21237339.98</v>
+      </c>
+      <c r="D13" s="99">
+        <v>90472118.769999996</v>
+      </c>
+      <c r="F13" s="100" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="99">
+        <v>69122581.920000002</v>
+      </c>
+      <c r="C14" s="99">
+        <v>19579550.539999999</v>
+      </c>
+      <c r="D14" s="99">
+        <v>91093558.439999998</v>
+      </c>
+      <c r="F14" s="101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="99">
+        <v>70217301.200000003</v>
+      </c>
+      <c r="C15" s="99">
+        <v>19953253.190000001</v>
+      </c>
+      <c r="D15" s="99">
+        <v>92342053.359999999</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="99">
+        <v>78131280.400000006</v>
+      </c>
+      <c r="C16" s="99">
+        <v>21101450.010000002</v>
+      </c>
+      <c r="D16" s="99">
+        <v>104726747.16</v>
+      </c>
+      <c r="F16" s="101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="99">
+        <v>90643274.200000003</v>
+      </c>
+      <c r="C17" s="99">
+        <v>21071928.530000001</v>
+      </c>
+      <c r="D17" s="99">
+        <v>130204950.77</v>
+      </c>
+      <c r="F17" s="100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="99">
+        <v>96384239.219999999</v>
+      </c>
+      <c r="C18" s="99">
+        <v>22149809.34</v>
+      </c>
+      <c r="D18" s="99">
+        <v>143316664.5</v>
+      </c>
+      <c r="F18" s="101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="99">
+        <v>19606366.420000002</v>
+      </c>
+      <c r="C22" s="99">
+        <v>19395332.300000001</v>
+      </c>
+      <c r="D22" s="99">
+        <v>25930094.809999999</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="99">
+        <v>19908971.43</v>
+      </c>
+      <c r="C23" s="99">
+        <v>20230518.75</v>
+      </c>
+      <c r="D23" s="99">
+        <v>26941336.800000001</v>
+      </c>
+      <c r="F23" s="101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="99">
+        <v>19362564.77</v>
+      </c>
+      <c r="C24" s="99">
+        <v>21059347.890000001</v>
+      </c>
+      <c r="D24" s="99">
+        <v>26986067.969999999</v>
+      </c>
+      <c r="F24" s="100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="99">
+        <v>20534491.289999999</v>
+      </c>
+      <c r="C25" s="99">
+        <v>20670094.780000001</v>
+      </c>
+      <c r="D25" s="99">
+        <v>27146139.100000001</v>
+      </c>
+      <c r="F25" s="101" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="99">
+        <v>20743719.280000001</v>
+      </c>
+      <c r="C26" s="99">
+        <v>20046089.260000002</v>
+      </c>
+      <c r="D26" s="99">
+        <v>27238308.379999999</v>
+      </c>
+      <c r="F26" s="100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="99">
+        <v>19877583.690000001</v>
+      </c>
+      <c r="C27" s="99">
+        <v>20861397.899999999</v>
+      </c>
+      <c r="D27" s="99">
+        <v>27317291</v>
+      </c>
+      <c r="F27" s="101" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="99">
+        <v>20639137.469999999</v>
+      </c>
+      <c r="C28" s="99">
+        <v>19826891.16</v>
+      </c>
+      <c r="D28" s="99">
+        <v>27722023.260000002</v>
+      </c>
+      <c r="F28" s="100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="99">
+        <v>21592424.98</v>
+      </c>
+      <c r="C29" s="99">
+        <v>19297528.530000001</v>
+      </c>
+      <c r="D29" s="99">
+        <v>27772921.629999999</v>
+      </c>
+      <c r="F29" s="101" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="99">
+        <v>18927229.890000001</v>
+      </c>
+      <c r="C30" s="99">
+        <v>21237339.98</v>
+      </c>
+      <c r="D30" s="99">
+        <v>27847199.75</v>
+      </c>
+      <c r="F30" s="100" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="99">
+        <v>21203984.640000001</v>
+      </c>
+      <c r="C31" s="99">
+        <v>19579550.539999999</v>
+      </c>
+      <c r="D31" s="99">
+        <v>28051998.27</v>
+      </c>
+      <c r="F31" s="101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="99">
+        <v>21633546.48</v>
+      </c>
+      <c r="C32" s="99">
+        <v>19651448.32</v>
+      </c>
+      <c r="D32" s="99">
+        <v>28192285.280000001</v>
+      </c>
+      <c r="F32" s="100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="99">
+        <v>21624015.41</v>
+      </c>
+      <c r="C33" s="99">
+        <v>19953253.190000001</v>
+      </c>
+      <c r="D33" s="99">
+        <v>28766978.190000001</v>
+      </c>
+      <c r="F33" s="101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="99">
+        <v>23007242.829999998</v>
+      </c>
+      <c r="C34" s="99">
+        <v>18853846.870000001</v>
+      </c>
+      <c r="D34" s="99">
+        <v>29397548.789999999</v>
+      </c>
+      <c r="F34" s="100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="99">
+        <v>24324243.23</v>
+      </c>
+      <c r="C35" s="99">
+        <v>21101450.010000002</v>
+      </c>
+      <c r="D35" s="99">
+        <v>32694650.219999999</v>
+      </c>
+      <c r="F35" s="101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="99">
+        <v>29325379.289999999</v>
+      </c>
+      <c r="C36" s="99">
+        <v>21071928.530000001</v>
+      </c>
+      <c r="D36" s="99">
+        <v>42105942.07</v>
+      </c>
+      <c r="F36" s="100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="99">
+        <v>31477579.66</v>
+      </c>
+      <c r="C37" s="99">
+        <v>22149809.34</v>
+      </c>
+      <c r="D37" s="99">
+        <v>46890688.869999997</v>
+      </c>
+      <c r="F37" s="101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F82B80-7F41-4926-8A25-14D35408A7A1}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -9362,608 +10558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC63CFF-AE66-45CB-9330-30F96D8360CD}">
-  <dimension ref="A1:F36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="99">
-        <v>63006826.979999997</v>
-      </c>
-      <c r="C2" s="99">
-        <v>19395332.300000001</v>
-      </c>
-      <c r="D2" s="99">
-        <v>82935207.909999996</v>
-      </c>
-      <c r="F2" s="100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="99">
-        <v>63021594.32</v>
-      </c>
-      <c r="C3" s="99">
-        <v>19826891.16</v>
-      </c>
-      <c r="D3" s="99">
-        <v>84866278.140000001</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="99">
-        <v>67454002.200000003</v>
-      </c>
-      <c r="C4" s="99">
-        <v>19297528.530000001</v>
-      </c>
-      <c r="D4" s="99">
-        <v>86578542.310000002</v>
-      </c>
-      <c r="F4" s="100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="99">
-        <v>67577455.799999997</v>
-      </c>
-      <c r="C5" s="99">
-        <v>19651448.32</v>
-      </c>
-      <c r="D5" s="99">
-        <v>87836971.450000003</v>
-      </c>
-      <c r="F5" s="101" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="99">
-        <v>64336488.939999998</v>
-      </c>
-      <c r="C6" s="99">
-        <v>20230518.75</v>
-      </c>
-      <c r="D6" s="99">
-        <v>87868316.140000001</v>
-      </c>
-      <c r="F6" s="100" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="99">
-        <v>62843938.359999999</v>
-      </c>
-      <c r="C7" s="99">
-        <v>21059347.890000001</v>
-      </c>
-      <c r="D7" s="99">
-        <v>87955816.640000001</v>
-      </c>
-      <c r="F7" s="101" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="99">
-        <v>67508647.859999999</v>
-      </c>
-      <c r="C8" s="99">
-        <v>20046089.260000002</v>
-      </c>
-      <c r="D8" s="99">
-        <v>88286789.760000005</v>
-      </c>
-      <c r="F8" s="100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="99">
-        <v>66392714.619999997</v>
-      </c>
-      <c r="C9" s="99">
-        <v>20670094.780000001</v>
-      </c>
-      <c r="D9" s="99">
-        <v>88358159.370000005</v>
-      </c>
-      <c r="F9" s="101" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="99">
-        <v>64553896.880000003</v>
-      </c>
-      <c r="C10" s="99">
-        <v>20861397.899999999</v>
-      </c>
-      <c r="D10" s="99">
-        <v>89485860.049999997</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="99">
-        <v>70345275.159999996</v>
-      </c>
-      <c r="C11" s="99">
-        <v>18853846.870000001</v>
-      </c>
-      <c r="D11" s="99">
-        <v>89982358.519999996</v>
-      </c>
-      <c r="F11" s="101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="99">
-        <v>61493510.240000002</v>
-      </c>
-      <c r="C12" s="99">
-        <v>21237339.98</v>
-      </c>
-      <c r="D12" s="99">
-        <v>90472118.769999996</v>
-      </c>
-      <c r="F12" s="100" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="99">
-        <v>69122581.920000002</v>
-      </c>
-      <c r="C13" s="99">
-        <v>19579550.539999999</v>
-      </c>
-      <c r="D13" s="99">
-        <v>91093558.439999998</v>
-      </c>
-      <c r="F13" s="101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="99">
-        <v>70217301.200000003</v>
-      </c>
-      <c r="C14" s="99">
-        <v>19953253.190000001</v>
-      </c>
-      <c r="D14" s="99">
-        <v>92342053.359999999</v>
-      </c>
-      <c r="F14" s="100" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="99">
-        <v>78131280.400000006</v>
-      </c>
-      <c r="C15" s="99">
-        <v>21101450.010000002</v>
-      </c>
-      <c r="D15" s="99">
-        <v>104726747.16</v>
-      </c>
-      <c r="F15" s="101" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="99">
-        <v>90643274.200000003</v>
-      </c>
-      <c r="C16" s="99">
-        <v>21071928.530000001</v>
-      </c>
-      <c r="D16" s="99">
-        <v>130204950.77</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="99">
-        <v>96384239.219999999</v>
-      </c>
-      <c r="C17" s="99">
-        <v>22149809.34</v>
-      </c>
-      <c r="D17" s="99">
-        <v>143316664.5</v>
-      </c>
-      <c r="F17" s="101" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="99">
-        <v>19606366.420000002</v>
-      </c>
-      <c r="C21" s="99">
-        <v>19395332.300000001</v>
-      </c>
-      <c r="D21" s="99">
-        <v>25930094.809999999</v>
-      </c>
-      <c r="F21" s="100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="99">
-        <v>19908971.43</v>
-      </c>
-      <c r="C22" s="99">
-        <v>20230518.75</v>
-      </c>
-      <c r="D22" s="99">
-        <v>26941336.800000001</v>
-      </c>
-      <c r="F22" s="101" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="99">
-        <v>19362564.77</v>
-      </c>
-      <c r="C23" s="99">
-        <v>21059347.890000001</v>
-      </c>
-      <c r="D23" s="99">
-        <v>26986067.969999999</v>
-      </c>
-      <c r="F23" s="100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="99">
-        <v>20534491.289999999</v>
-      </c>
-      <c r="C24" s="99">
-        <v>20670094.780000001</v>
-      </c>
-      <c r="D24" s="99">
-        <v>27146139.100000001</v>
-      </c>
-      <c r="F24" s="101" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="99">
-        <v>20743719.280000001</v>
-      </c>
-      <c r="C25" s="99">
-        <v>20046089.260000002</v>
-      </c>
-      <c r="D25" s="99">
-        <v>27238308.379999999</v>
-      </c>
-      <c r="F25" s="100" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="99">
-        <v>19877583.690000001</v>
-      </c>
-      <c r="C26" s="99">
-        <v>20861397.899999999</v>
-      </c>
-      <c r="D26" s="99">
-        <v>27317291</v>
-      </c>
-      <c r="F26" s="101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="99">
-        <v>20639137.469999999</v>
-      </c>
-      <c r="C27" s="99">
-        <v>19826891.16</v>
-      </c>
-      <c r="D27" s="99">
-        <v>27722023.260000002</v>
-      </c>
-      <c r="F27" s="100" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="99">
-        <v>21592424.98</v>
-      </c>
-      <c r="C28" s="99">
-        <v>19297528.530000001</v>
-      </c>
-      <c r="D28" s="99">
-        <v>27772921.629999999</v>
-      </c>
-      <c r="F28" s="101" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="99">
-        <v>18927229.890000001</v>
-      </c>
-      <c r="C29" s="99">
-        <v>21237339.98</v>
-      </c>
-      <c r="D29" s="99">
-        <v>27847199.75</v>
-      </c>
-      <c r="F29" s="100" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="99">
-        <v>21203984.640000001</v>
-      </c>
-      <c r="C30" s="99">
-        <v>19579550.539999999</v>
-      </c>
-      <c r="D30" s="99">
-        <v>28051998.27</v>
-      </c>
-      <c r="F30" s="101" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="99">
-        <v>21633546.48</v>
-      </c>
-      <c r="C31" s="99">
-        <v>19651448.32</v>
-      </c>
-      <c r="D31" s="99">
-        <v>28192285.280000001</v>
-      </c>
-      <c r="F31" s="100" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="99">
-        <v>21624015.41</v>
-      </c>
-      <c r="C32" s="99">
-        <v>19953253.190000001</v>
-      </c>
-      <c r="D32" s="99">
-        <v>28766978.190000001</v>
-      </c>
-      <c r="F32" s="101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="99">
-        <v>23007242.829999998</v>
-      </c>
-      <c r="C33" s="99">
-        <v>18853846.870000001</v>
-      </c>
-      <c r="D33" s="99">
-        <v>29397548.789999999</v>
-      </c>
-      <c r="F33" s="100" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="99">
-        <v>24324243.23</v>
-      </c>
-      <c r="C34" s="99">
-        <v>21101450.010000002</v>
-      </c>
-      <c r="D34" s="99">
-        <v>32694650.219999999</v>
-      </c>
-      <c r="F34" s="101" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="99">
-        <v>29325379.289999999</v>
-      </c>
-      <c r="C35" s="99">
-        <v>21071928.530000001</v>
-      </c>
-      <c r="D35" s="99">
-        <v>42105942.07</v>
-      </c>
-      <c r="F35" s="100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="99">
-        <v>31477579.66</v>
-      </c>
-      <c r="C36" s="99">
-        <v>22149809.34</v>
-      </c>
-      <c r="D36" s="99">
-        <v>46890688.869999997</v>
-      </c>
-      <c r="F36" s="101" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -10533,7 +11128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54629CB4-1357-4DAA-81A6-F9F9C3E3952D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -11407,7 +12002,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11475,15 +12070,15 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8000000000000003</v>
+        <v>2.5666666666666669</v>
       </c>
       <c r="B2" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="C2" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D2" s="120">
         <f t="shared" ca="1" si="0"/>
@@ -11491,11 +12086,11 @@
       </c>
       <c r="E2" s="121">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="F2" s="121">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="G2" s="122">
         <f t="shared" ca="1" si="0"/>
@@ -11507,36 +12102,36 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="L2" s="8">
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5">
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N2" s="16">
         <v>1</v>
       </c>
       <c r="O2" s="18">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P2" s="24">
-        <v>2.4</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="Q2" s="25">
-        <v>2.8000000000000003</v>
+        <v>2.5666666666666669</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="125">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="125">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="C3" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39999999999999997</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="D3" s="120">
         <f t="shared" ca="1" si="0"/>
@@ -11548,7 +12143,7 @@
       </c>
       <c r="F3" s="121">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G3" s="126">
         <f t="shared" ca="1" si="0"/>
@@ -11560,7 +12155,7 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="L3" s="8">
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="M3" s="5">
         <v>0.33333333333333331</v>
@@ -11569,19 +12164,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="O3" s="18">
-        <v>0.39999999999999997</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="P3" s="9">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="Q3" s="21">
-        <v>4.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="125">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="125">
         <f t="shared" ca="1" si="0"/>
@@ -11589,19 +12184,19 @@
       </c>
       <c r="C4" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>1.4666666666666668</v>
       </c>
       <c r="D4" s="120">
         <f ca="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
-        <v>1.3</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E4" s="121">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="F4" s="127">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="G4" s="128">
         <f t="shared" ca="1" si="0"/>
@@ -11618,22 +12213,22 @@
         <v>3</v>
       </c>
       <c r="L4" s="57">
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="M4" s="10">
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N4" s="17">
-        <v>1.3</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="O4" s="19">
-        <v>1.2</v>
+        <v>1.4666666666666668</v>
       </c>
       <c r="P4" s="11">
         <v>1.2</v>
       </c>
       <c r="Q4" s="22">
-        <v>4.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11643,15 +12238,15 @@
       </c>
       <c r="B5" s="125">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="C5" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>2.5666666666666669</v>
       </c>
       <c r="D5" s="120">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E5" s="128">
         <f t="shared" ca="1" si="0"/>
@@ -11682,13 +12277,13 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="N5" s="78">
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="O5" s="20">
-        <v>2.4</v>
+        <v>2.5666666666666669</v>
       </c>
       <c r="P5" s="14">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q5" s="23">
         <v>4.8</v>
@@ -11965,7 +12560,9 @@
       <c r="I5" s="123"/>
       <c r="J5" s="143"/>
       <c r="K5" s="147"/>
-      <c r="L5" s="144"/>
+      <c r="L5" s="144" t="s">
+        <v>39</v>
+      </c>
       <c r="M5" s="145" t="s">
         <v>33</v>
       </c>
@@ -12278,7 +12875,7 @@
       </c>
       <c r="L12" t="str">
         <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": ""</v>
+        <v>"35": " "</v>
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
@@ -12320,13 +12917,13 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "[","21": "","20": "s","19": "a","18": "t","17": "i","16": "m","15": "\\","29": "","28": "","27": "\"","26": "n","25": "g","24": ",","23": ".","22": "/","37": "","36": "","35": "","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "[","21": "","20": "s","19": "a","18": "t","17": "i","16": "m","15": "\\","29": "","28": "","27": "\"","26": "n","25": "g","24": ",","23": ".","22": "/","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "p","11": "d","12": "v","13": "k","14": "","15": "'","16": "f","17": "h","18": "e","19": "o","20": "w","21": "","22": "`","23": "x","24": "c","25": "u","26": "r","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "[","21": "","20": "s","19": "a","18": "t","17": "i","16": "m","15": "\\","29": "","28": "","27": "\"","26": "n","25": "g","24": ",","23": ".","22": "/","37": "","36": "","35": "","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "p","11": "d","12": "v","13": "k","14": "","15": "'","16": "f","17": "h","18": "e","19": "o","20": "w","21": "","22": "`","23": "x","24": "c","25": "u","26": "r","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "[","21": "","20": "s","19": "a","18": "t","17": "i","16": "m","15": "\\","29": "","28": "","27": "\"","26": "n","25": "g","24": ",","23": ".","22": "/","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -12345,11 +12942,600 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E980F9-6F0D-48BC-9620-9B07A08FEE06}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="120"/>
+      <c r="B1" s="131">
+        <v>1</v>
+      </c>
+      <c r="C1" s="131">
+        <v>2</v>
+      </c>
+      <c r="D1" s="131">
+        <v>3</v>
+      </c>
+      <c r="E1" s="132">
+        <v>4</v>
+      </c>
+      <c r="F1" s="132">
+        <v>5</v>
+      </c>
+      <c r="G1" s="121"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="134">
+        <v>6</v>
+      </c>
+      <c r="M1" s="135">
+        <v>7</v>
+      </c>
+      <c r="N1" s="136">
+        <v>8</v>
+      </c>
+      <c r="O1" s="136">
+        <v>9</v>
+      </c>
+      <c r="P1" s="136">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="137"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="124">
+        <v>2.5666666666666669</v>
+      </c>
+      <c r="B2" s="124">
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="C2" s="124">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2" s="120">
+        <v>1</v>
+      </c>
+      <c r="E2" s="121">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F2" s="121">
+        <v>2</v>
+      </c>
+      <c r="G2" s="126"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133">
+        <v>2</v>
+      </c>
+      <c r="M2" s="138">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N2" s="139">
+        <v>1</v>
+      </c>
+      <c r="O2" s="140">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P2" s="140">
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="Q2" s="141"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="149">
+        <v>3</v>
+      </c>
+      <c r="B3" s="125">
+        <v>0.6</v>
+      </c>
+      <c r="C3" s="124">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="D3" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="121">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F3" s="121">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G3" s="126"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="133">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M3" s="138">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N3" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="140">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="P3" s="142">
+        <v>0.6</v>
+      </c>
+      <c r="Q3" s="142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="125">
+        <v>3</v>
+      </c>
+      <c r="B4" s="125">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="124">
+        <v>1.4666666666666668</v>
+      </c>
+      <c r="D4" s="120">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E4" s="121">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F4" s="127">
+        <v>2</v>
+      </c>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="133">
+        <v>2</v>
+      </c>
+      <c r="M4" s="138">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N4" s="139">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O4" s="140">
+        <v>1.4666666666666668</v>
+      </c>
+      <c r="P4" s="142">
+        <v>1.2</v>
+      </c>
+      <c r="Q4" s="142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="125">
+        <v>4.8</v>
+      </c>
+      <c r="B5" s="125">
+        <v>4.2</v>
+      </c>
+      <c r="C5" s="124">
+        <v>2.5666666666666669</v>
+      </c>
+      <c r="D5" s="120">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E5" s="128">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="144" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="145">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N5" s="139">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="O5" s="140">
+        <v>2.5666666666666669</v>
+      </c>
+      <c r="P5" s="142">
+        <v>4.2</v>
+      </c>
+      <c r="Q5" s="142">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "2.56666666666667"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "1.83333333333333"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "1.1"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "1"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "1.33333333333333"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "2"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "2"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "1.33333333333333"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "1"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "1.1"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "1.83333333333333"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "3"</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "0.6"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "0.366666666666667"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "a"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "0.333333333333333"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "1.66666666666667"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "1.66666666666667"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "0.333333333333333"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "0.366666666666667"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "0.6"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "3"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "3"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "1.2"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "1.46666666666667"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "1.33333333333333"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "1.33333333333333"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "2"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "2"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "1.33333333333333"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "1.33333333333333"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "1.46666666666667"</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "1.2"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": "3"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": "4.8"</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": "4.2"</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "2.56666666666667"</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "2.33333333333333"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "1.66666666666667"</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "1.66666666666667"</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "2.33333333333333"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": "2.56666666666667"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": "4.2"</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": "4.8"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "2.56666666666667","9": "1.83333333333333","10": "1.1","11": "1","12": "1.33333333333333","13": "2","14": "","15": "3","16": "0.6","17": "0.366666666666667","18": "a","19": "0.333333333333333","20": "1.66666666666667","21": "","22": "3","23": "1.2","24": "1.46666666666667","25": "1.33333333333333","26": "1.33333333333333","27": "2","28": "","29": "","30": "4.8","31": "4.2","32": "2.56666666666667","33": "2.33333333333333","34": "1.66666666666667","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "2","12": "1.33333333333333","11": "1","10": "1.1","9": "1.83333333333333","8": "","21": "","20": "1.66666666666667","19": "0.333333333333333","18": "e","17": "0.366666666666667","16": "0.6","15": "3","29": "","28": "","27": "2","26": "1.33333333333333","25": "1.33333333333333","24": "1.46666666666667","23": "1.2","22": "3","37": "","36": "","35": " ","34": "1.66666666666667","33": "2.33333333333333","32": "2.56666666666667","31": "4.2","30": "4.8","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "2.56666666666667","9": "1.83333333333333","10": "1.1","11": "1","12": "1.33333333333333","13": "2","14": "","15": "3","16": "0.6","17": "0.366666666666667","18": "a","19": "0.333333333333333","20": "1.66666666666667","21": "","22": "3","23": "1.2","24": "1.46666666666667","25": "1.33333333333333","26": "1.33333333333333","27": "2","28": "","29": "","30": "4.8","31": "4.2","32": "2.56666666666667","33": "2.33333333333333","34": "1.66666666666667","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "2","12": "1.33333333333333","11": "1","10": "1.1","9": "1.83333333333333","8": "","21": "","20": "1.66666666666667","19": "0.333333333333333","18": "e","17": "0.366666666666667","16": "0.6","15": "3","29": "","28": "","27": "2","26": "1.33333333333333","25": "1.33333333333333","24": "1.46666666666667","23": "1.2","22": "3","37": "","36": "","35": " ","34": "1.66666666666667","33": "2.33333333333333","32": "2.56666666666667","31": "4.2","30": "4.8","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DB0E27-6502-49FD-827E-25754C2CC2C1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12916,7 +14102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA6E5BD-99B9-4E87-94B2-03F98F639228}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -13488,7 +14674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1F72C-151E-43E5-9E9B-7B384388A13F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -14059,579 +15245,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE1B9F7-56A1-4B2B-8844-93D3218A2256}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>4</v>
-      </c>
-      <c r="C1" s="54">
-        <v>0</v>
-      </c>
-      <c r="D1" s="54">
-        <v>1</v>
-      </c>
-      <c r="E1" s="52">
-        <v>2</v>
-      </c>
-      <c r="F1" s="52">
-        <v>3</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81">
-        <v>7</v>
-      </c>
-      <c r="M1" s="86">
-        <v>6</v>
-      </c>
-      <c r="N1" s="82">
-        <v>5</v>
-      </c>
-      <c r="O1" s="82">
-        <v>9</v>
-      </c>
-      <c r="P1" s="82">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="84" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="84"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "4"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "0"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "1"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "2"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "3"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "7"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "6"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "5"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "8"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "h"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "o"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "u"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "x"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "'"</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "g"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "c"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "r"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "f"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "z"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "y"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "i"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "e"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "a"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "."</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": "\\"</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "d"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "s"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "t"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "n"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "b"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": ";"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "j"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "/"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": ","</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "k"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "'"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "w"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "m"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": "l"</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "p"</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "v"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "4","3": "0","4": "1","5": "2","6": "3","7": "","8": "","9": "q","10": "h","11": "o","12": "u","13": "x","14": "'","15": "","16": "y","17": "i","18": "e","19": "a","20": ".","21": "","22": "`","23": "j","24": "/","25": ",","26": "k","27": "'","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "]","14": "\"","13": "g","12": "c","11": "r","10": "f","9": "z","8": "[","21": "\\","20": "d","19": "s","18": "t","17": "n","16": "b","15": ";","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "4","3": "0","4": "1","5": "2","6": "3","7": "","8": "","9": "q","10": "h","11": "o","12": "u","13": "x","14": "'","15": "","16": "y","17": "i","18": "e","19": "a","20": ".","21": "","22": "`","23": "j","24": "/","25": ",","26": "k","27": "'","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "]","14": "\"","13": "g","12": "c","11": "r","10": "f","9": "z","8": "[","21": "\\","20": "d","19": "s","18": "t","17": "n","16": "b","15": ";","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" xr:uid="{74B7D92D-F350-482E-9D42-C4BE77FB6B6F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>
--- a/layouts/layouts.xlsx
+++ b/layouts/layouts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BB6842-79B5-4967-8002-E09F718BACA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549AC21C-AA0F-4D49-A54A-A464AA7B6525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" activeTab="5" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="116">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -1786,7 +1786,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9380,7 +9380,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12946,7 +12946,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12956,7 +12956,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="120"/>
+      <c r="A1" s="120" t="s">
+        <v>16</v>
+      </c>
       <c r="B1" s="131">
         <v>1</v>
       </c>
@@ -12992,150 +12994,142 @@
       <c r="P1" s="136">
         <v>0</v>
       </c>
-      <c r="Q1" s="137"/>
+      <c r="Q1" s="137" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="124">
-        <v>2.5666666666666669</v>
-      </c>
-      <c r="B2" s="124">
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="C2" s="124">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D2" s="120">
-        <v>1</v>
-      </c>
-      <c r="E2" s="121">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="F2" s="121">
-        <v>2</v>
+      <c r="A2" s="124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="121" t="s">
+        <v>7</v>
       </c>
       <c r="G2" s="126"/>
       <c r="H2" s="4"/>
       <c r="I2" s="123"/>
       <c r="J2" s="74"/>
       <c r="K2" s="133"/>
-      <c r="L2" s="133">
-        <v>2</v>
-      </c>
-      <c r="M2" s="138">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="N2" s="139">
+      <c r="L2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="140">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P2" s="140">
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="Q2" s="141"/>
+      <c r="M2" s="138" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="141" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="149">
-        <v>3</v>
-      </c>
-      <c r="B3" s="125">
-        <v>0.6</v>
-      </c>
-      <c r="C3" s="124">
-        <v>0.3666666666666667</v>
+      <c r="A3" s="149"/>
+      <c r="B3" s="125" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="124" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="121">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F3" s="121">
-        <v>1.6666666666666667</v>
+      <c r="E3" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="126"/>
       <c r="H3" s="4"/>
       <c r="I3" s="123"/>
       <c r="J3" s="74"/>
       <c r="K3" s="126"/>
-      <c r="L3" s="133">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="M3" s="138">
-        <v>0.33333333333333331</v>
+      <c r="L3" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="138" t="s">
+        <v>10</v>
       </c>
       <c r="N3" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="140">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="P3" s="142">
-        <v>0.6</v>
-      </c>
-      <c r="Q3" s="142">
-        <v>3</v>
-      </c>
+      <c r="O3" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="142"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="125">
-        <v>3</v>
-      </c>
-      <c r="B4" s="125">
-        <v>1.2</v>
-      </c>
-      <c r="C4" s="124">
-        <v>1.4666666666666668</v>
-      </c>
-      <c r="D4" s="120">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="E4" s="121">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="F4" s="127">
-        <v>2</v>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="127" t="s">
+        <v>48</v>
       </c>
       <c r="G4" s="128"/>
       <c r="H4" s="128"/>
       <c r="I4" s="123"/>
       <c r="J4" s="143"/>
       <c r="K4" s="143"/>
-      <c r="L4" s="133">
-        <v>2</v>
-      </c>
-      <c r="M4" s="138">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="N4" s="139">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O4" s="140">
-        <v>1.4666666666666668</v>
-      </c>
-      <c r="P4" s="142">
-        <v>1.2</v>
-      </c>
-      <c r="Q4" s="142">
-        <v>3</v>
-      </c>
+      <c r="L4" s="133" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="142" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="142"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="125">
-        <v>4.8</v>
-      </c>
-      <c r="B5" s="125">
-        <v>4.2</v>
-      </c>
-      <c r="C5" s="124">
-        <v>2.5666666666666669</v>
-      </c>
-      <c r="D5" s="120">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E5" s="128">
-        <v>1.6666666666666667</v>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="124" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>5</v>
       </c>
       <c r="F5" s="129"/>
       <c r="G5" s="129"/>
@@ -13146,21 +13140,17 @@
       <c r="L5" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="145">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N5" s="139">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="O5" s="140">
-        <v>2.5666666666666669</v>
-      </c>
-      <c r="P5" s="142">
-        <v>4.2</v>
-      </c>
-      <c r="Q5" s="142">
-        <v>4.8</v>
-      </c>
+      <c r="M5" s="145" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -13184,7 +13174,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
+        <v>"1": "z"</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
@@ -13236,33 +13226,33 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": ""</v>
+        <v>"1": "]"</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": "2.56666666666667"</v>
+        <v>"8": "`"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "1.83333333333333"</v>
+        <v>"9": "k"</v>
       </c>
       <c r="C9" t="str">
         <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "1.1"</v>
+        <v>"10": "s"</v>
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "1"</v>
+        <v>"11": "u"</v>
       </c>
       <c r="E9" t="str">
         <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "1.33333333333333"</v>
+        <v>"12": "b"</v>
       </c>
       <c r="F9" t="str">
         <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "2"</v>
+        <v>"13": "q"</v>
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
@@ -13274,41 +13264,41 @@
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "2"</v>
+        <v>"13": "j"</v>
       </c>
       <c r="M9" t="str">
         <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "1.33333333333333"</v>
+        <v>"12": "p"</v>
       </c>
       <c r="N9" t="str">
         <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "1"</v>
+        <v>"11": "h"</v>
       </c>
       <c r="O9" t="str">
         <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "1.1"</v>
+        <v>"10": "m"</v>
       </c>
       <c r="P9" t="str">
         <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "1.83333333333333"</v>
+        <v>"9": "x"</v>
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "["</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": "3"</v>
+        <v>"15": ""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "0.6"</v>
+        <v>"16": "n"</v>
       </c>
       <c r="C10" t="str">
         <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "0.366666666666667"</v>
+        <v>"17": "i"</v>
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
@@ -13316,11 +13306,11 @@
       </c>
       <c r="E10" t="str">
         <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "0.333333333333333"</v>
+        <v>"19": "t"</v>
       </c>
       <c r="F10" t="str">
         <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "1.66666666666667"</v>
+        <v>"20": "y"</v>
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
@@ -13332,11 +13322,11 @@
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "1.66666666666667"</v>
+        <v>"20": "f"</v>
       </c>
       <c r="M10" t="str">
         <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "0.333333333333333"</v>
+        <v>"19": "r"</v>
       </c>
       <c r="N10" t="str">
         <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
@@ -13344,41 +13334,41 @@
       </c>
       <c r="O10" t="str">
         <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "0.366666666666667"</v>
+        <v>"17": "o"</v>
       </c>
       <c r="P10" t="str">
         <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "0.6"</v>
+        <v>"16": "c"</v>
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "3"</v>
+        <v>"15": ""</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "3"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "1.2"</v>
+        <v>"23": "/"</v>
       </c>
       <c r="C11" t="str">
         <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "1.46666666666667"</v>
+        <v>"24": ";"</v>
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "1.33333333333333"</v>
+        <v>"25": "l"</v>
       </c>
       <c r="E11" t="str">
         <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "1.33333333333333"</v>
+        <v>"26": "g"</v>
       </c>
       <c r="F11" t="str">
         <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "2"</v>
+        <v>"27": "\""</v>
       </c>
       <c r="G11" t="str">
         <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
@@ -13398,49 +13388,49 @@
       </c>
       <c r="L11" t="str">
         <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "2"</v>
+        <v>"27": "v"</v>
       </c>
       <c r="M11" t="str">
         <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "1.33333333333333"</v>
+        <v>"26": "d"</v>
       </c>
       <c r="N11" t="str">
         <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": "1.33333333333333"</v>
+        <v>"25": "w"</v>
       </c>
       <c r="O11" t="str">
         <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "1.46666666666667"</v>
+        <v>"24": ","</v>
       </c>
       <c r="P11" t="str">
         <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "1.2"</v>
+        <v>"23": "."</v>
       </c>
       <c r="Q11" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": "3"</v>
+        <v>"22": ""</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": "4.8"</v>
+        <v>"30": ""</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": "4.2"</v>
+        <v>"31": ""</v>
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": "2.56666666666667"</v>
+        <v>"32": "\\"</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "2.33333333333333"</v>
+        <v>"33": "="</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "1.66666666666667"</v>
+        <v>"34": "-"</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -13468,23 +13458,23 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "1.66666666666667"</v>
+        <v>"34": "("</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": "2.33333333333333"</v>
+        <v>"33": ")"</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": "2.56666666666667"</v>
+        <v>"32": "'"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": "4.2"</v>
+        <v>"31": ""</v>
       </c>
       <c r="Q12" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": "4.8"</v>
+        <v>"30": ""</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -13500,19 +13490,19 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "2.56666666666667","9": "1.83333333333333","10": "1.1","11": "1","12": "1.33333333333333","13": "2","14": "","15": "3","16": "0.6","17": "0.366666666666667","18": "a","19": "0.333333333333333","20": "1.66666666666667","21": "","22": "3","23": "1.2","24": "1.46666666666667","25": "1.33333333333333","26": "1.33333333333333","27": "2","28": "","29": "","30": "4.8","31": "4.2","32": "2.56666666666667","33": "2.33333333333333","34": "1.66666666666667","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "z","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "`","9": "k","10": "s","11": "u","12": "b","13": "q","14": "","15": "","16": "n","17": "i","18": "a","19": "t","20": "y","21": "","22": "","23": "/","24": ";","25": "l","26": "g","27": "\"","28": "","29": "","30": "","31": "","32": "\\","33": "=","34": "-","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "2","12": "1.33333333333333","11": "1","10": "1.1","9": "1.83333333333333","8": "","21": "","20": "1.66666666666667","19": "0.333333333333333","18": "e","17": "0.366666666666667","16": "0.6","15": "3","29": "","28": "","27": "2","26": "1.33333333333333","25": "1.33333333333333","24": "1.46666666666667","23": "1.2","22": "3","37": "","36": "","35": " ","34": "1.66666666666667","33": "2.33333333333333","32": "2.56666666666667","31": "4.2","30": "4.8","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "j","12": "p","11": "h","10": "m","9": "x","8": "[","21": "","20": "f","19": "r","18": "e","17": "o","16": "c","15": "","29": "","28": "","27": "v","26": "d","25": "w","24": ",","23": ".","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "'","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "2.56666666666667","9": "1.83333333333333","10": "1.1","11": "1","12": "1.33333333333333","13": "2","14": "","15": "3","16": "0.6","17": "0.366666666666667","18": "a","19": "0.333333333333333","20": "1.66666666666667","21": "","22": "3","23": "1.2","24": "1.46666666666667","25": "1.33333333333333","26": "1.33333333333333","27": "2","28": "","29": "","30": "4.8","31": "4.2","32": "2.56666666666667","33": "2.33333333333333","34": "1.66666666666667","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "2","12": "1.33333333333333","11": "1","10": "1.1","9": "1.83333333333333","8": "","21": "","20": "1.66666666666667","19": "0.333333333333333","18": "e","17": "0.366666666666667","16": "0.6","15": "3","29": "","28": "","27": "2","26": "1.33333333333333","25": "1.33333333333333","24": "1.46666666666667","23": "1.2","22": "3","37": "","36": "","35": " ","34": "1.66666666666667","33": "2.33333333333333","32": "2.56666666666667","31": "4.2","30": "4.8","38": ""}}</v>
+        <v>{"left": {"1": "z","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "`","9": "k","10": "s","11": "u","12": "b","13": "q","14": "","15": "","16": "n","17": "i","18": "a","19": "t","20": "y","21": "","22": "","23": "/","24": ";","25": "l","26": "g","27": "\"","28": "","29": "","30": "","31": "","32": "\\","33": "=","34": "-","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "j","12": "p","11": "h","10": "m","9": "x","8": "[","21": "","20": "f","19": "r","18": "e","17": "o","16": "c","15": "","29": "","28": "","27": "v","26": "d","25": "w","24": ",","23": ".","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "'","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">

--- a/layouts/layouts.xlsx
+++ b/layouts/layouts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\layouts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgaliamov\projects\personal\ergo-layouts\layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549AC21C-AA0F-4D49-A54A-A464AA7B6525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C06ADC5-0DF6-4D94-9D00-B26F92C337EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" tabRatio="757" activeTab="5" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" tabRatio="874" firstSheet="2" activeTab="9" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="117">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -399,7 +399,10 @@
     <t>Original</t>
   </si>
   <si>
-    <t>Weighed</t>
+    <t>Weighed 1</t>
+  </si>
+  <si>
+    <t>4.5</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +495,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -952,7 +967,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -960,8 +975,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1226,9 +1243,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,9 +1257,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1254,6 +1265,109 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="24" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1278,143 +1392,129 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="24" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="13" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="20" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="17" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="18" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="28" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="14" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="15" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="13" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="19" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="40% - Accent3" xfId="7" builtinId="39"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
+    <cellStyle name="60% - Accent3" xfId="8" builtinId="40"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1478,8 +1578,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9F04C436-2F1F-4A49-B31D-4C90F5B28628}" name="Layout"/>
     <tableColumn id="2" xr3:uid="{8F7C6D5E-62A8-4242-84B4-7D943BB0F035}" name="Efforts" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{447036AD-A550-43EC-BCA6-DEA6FBE57F77}" name="Distance" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{738A8816-D62B-4215-9443-ADFB340F799C}" name="Result" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{447036AD-A550-43EC-BCA6-DEA6FBE57F77}" name="Distance" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{738A8816-D62B-4215-9443-ADFB340F799C}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1786,7 +1886,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1801,23 +1901,23 @@
     <row r="1" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="74"/>
       <c r="B1" s="74"/>
-      <c r="C1" s="150">
+      <c r="C1" s="124">
         <v>1</v>
       </c>
-      <c r="D1" s="151">
+      <c r="D1" s="125">
         <v>1</v>
       </c>
-      <c r="E1" s="152">
+      <c r="E1" s="126">
         <v>1</v>
       </c>
-      <c r="F1" s="153">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G1" s="154">
-        <v>1.8</v>
+      <c r="F1" s="127">
+        <v>1</v>
+      </c>
+      <c r="G1" s="128">
+        <v>2</v>
       </c>
       <c r="H1" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>92</v>
@@ -1851,31 +1951,31 @@
       </c>
       <c r="K2" s="12">
         <f>B2*$D$1/$H$1</f>
-        <v>3.3333333333333335</v>
+        <v>5</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ref="L2:M4" si="0">C2*$D$1/$H$1</f>
-        <v>2.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="M2" s="7">
         <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="N2" s="15">
         <f t="shared" ref="N2:N5" si="1">E2*$E$1/$H$1</f>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="O2" s="15">
         <f t="shared" ref="O2" si="2">F2*$E$1/$H$1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" s="26">
         <f t="shared" ref="P2" si="3">G2*$E$1/$H$1</f>
-        <v>2.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" s="56">
         <f t="shared" ref="Q2" si="4">H2*$E$1/$H$1</f>
-        <v>2.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="T2" s="81" t="s">
         <v>54</v>
@@ -1926,7 +2026,7 @@
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="34">
         <v>6</v>
@@ -1948,31 +2048,31 @@
       </c>
       <c r="K3" s="13">
         <f t="shared" ref="K3:K4" si="5">B3*$D$1/$H$1</f>
-        <v>2.6666666666666665</v>
+        <v>4.5</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="N3" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O3" s="18">
         <f>F3*$F$1/$H$1</f>
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="P3" s="24">
         <f t="shared" ref="P3:Q3" si="6">G3*$F$1/$H$1</f>
-        <v>1.8333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" s="25">
         <f t="shared" si="6"/>
-        <v>2.5666666666666669</v>
+        <v>3.5</v>
       </c>
       <c r="S3" s="27"/>
       <c r="T3" s="81" t="s">
@@ -2022,7 +2122,7 @@
     <row r="4" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27"/>
       <c r="B4" s="59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="34">
         <v>5</v>
@@ -2037,34 +2137,34 @@
         <v>1</v>
       </c>
       <c r="G4" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" s="70">
         <f t="shared" si="5"/>
-        <v>2.3333333333333335</v>
+        <v>4</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="O4" s="18">
         <f t="shared" ref="O4:O6" si="7">F4*$F$1/$H$1</f>
-        <v>0.3666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="9">
         <f>G4*$G$1/$H$1</f>
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="21">
         <f>H4*$G$1/$H$1</f>
@@ -2126,7 +2226,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="42">
         <v>4</v>
@@ -2135,42 +2235,42 @@
         <v>4</v>
       </c>
       <c r="G5" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="66">
         <f>A5*$C$1/$H$1</f>
-        <v>3.3333333333333335</v>
+        <v>5</v>
       </c>
       <c r="K5" s="67">
         <f>B5*$C$1/$H$1</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L5" s="57">
         <f>C5*$D$1/$H$1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" s="10">
         <f>D5*$D$1/$H$1</f>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="N5" s="17">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="O5" s="19">
         <f t="shared" si="7"/>
-        <v>1.4666666666666668</v>
+        <v>2</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" ref="P5:P6" si="8">G5*$G$1/$H$1</f>
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="22">
         <f t="shared" ref="Q5:Q6" si="9">H5*$G$1/$H$1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" s="85" t="s">
         <v>61</v>
@@ -2225,10 +2325,10 @@
       <c r="A6" s="63">
         <v>9</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6" s="129">
         <v>3</v>
       </c>
-      <c r="C6" s="112">
+      <c r="C6" s="131">
         <v>1</v>
       </c>
       <c r="D6" s="64">
@@ -2248,43 +2348,43 @@
       </c>
       <c r="J6" s="68">
         <f t="shared" ref="J6:J7" si="10">A6*$C$1/$H$1</f>
-        <v>3</v>
-      </c>
-      <c r="K6" s="106">
+        <v>4.5</v>
+      </c>
+      <c r="K6" s="139">
         <f>B6*$C$1/$H$1</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="108">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="141">
         <f>C6*$C$1/$H$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="M6" s="69">
         <f t="shared" ref="M6" si="11">D6*$C$1/$H$1</f>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="N6" s="78">
         <f>E6*$E$1/$H$1</f>
-        <v>2.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="O6" s="20">
         <f t="shared" si="7"/>
-        <v>2.5666666666666669</v>
+        <v>3.5</v>
       </c>
       <c r="P6" s="14">
         <f t="shared" si="8"/>
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="23">
         <f t="shared" si="9"/>
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="S6" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="114" t="s">
+      <c r="T6" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="U6" s="102" t="s">
+      <c r="U6" s="135" t="s">
         <v>66</v>
       </c>
       <c r="V6" s="87" t="s">
@@ -2305,10 +2405,10 @@
       <c r="AB6" s="85">
         <v>37</v>
       </c>
-      <c r="AC6" s="104">
+      <c r="AC6" s="137">
         <v>36</v>
       </c>
-      <c r="AD6" s="104">
+      <c r="AD6" s="137">
         <v>35</v>
       </c>
       <c r="AE6" s="87">
@@ -2331,8 +2431,8 @@
       <c r="A7" s="79">
         <v>6</v>
       </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="113"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -2340,15 +2440,15 @@
       <c r="H7" s="27"/>
       <c r="J7" s="77">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="K7" s="107"/>
-      <c r="L7" s="109"/>
+        <v>3</v>
+      </c>
+      <c r="K7" s="140"/>
+      <c r="L7" s="142"/>
       <c r="S7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="115"/>
-      <c r="U7" s="103"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="136"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
       <c r="X7" s="27"/>
@@ -2357,8 +2457,8 @@
       <c r="AB7" s="85">
         <v>38</v>
       </c>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
       <c r="AE7" s="27"/>
       <c r="AF7" s="27"/>
       <c r="AG7" s="27"/>
@@ -2377,7 +2477,7 @@
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="str">
         <f>_xlfn.CONCAT("{",U16,",",U17,"}")</f>
-        <v>{"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.56666666666667,"L9": 1.83333333333333,"L10": 1.1,"L11": 1,"L12": 1.33333333333333,"L13": 2,"L14": 2.66666666666667,"L15": 3,"L16": 0.6,"L17": 0.366666666666667,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 1.66666666666667,"L21": 2.33333333333333,"L22": 3,"L23": 1.2,"L24": 1.46666666666667,"L25": 1.33333333333333,"L26": 1.33333333333333,"L27": 2,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 4.2,"L32": 2.56666666666667,"L33": 2.33333333333333,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2,"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.56666666666667,"R9": 1.83333333333333,"R10": 1.1,"R11": 1,"R12": 1.33333333333333,"R13": 2,"R14": 2.66666666666667,"R15": 3,"R16": 0.6,"R17": 0.366666666666667,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 1.66666666666667,"R21": 2.33333333333333,"R22": 3,"R23": 1.2,"R24": 1.46666666666667,"R25": 1.33333333333333,"R26": 1.33333333333333,"R27": 2,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 4.2,"R32": 2.56666666666667,"R33": 2.33333333333333,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2}</v>
+        <v>{"L1": 4,"L2": 3.5,"L3": 3,"L4": 2.5,"L5": 3.5,"L6": 4,"L7": 5,"L8": 3.5,"L9": 2.5,"L10": 1.5,"L11": 1.5,"L12": 2,"L13": 3,"L14": 4.5,"L15": 3,"L16": 2,"L17": 0.5,"L18": 0.5,"L19": 0.5,"L20": 2.5,"L21": 4,"L22": 4,"L23": 3,"L24": 2,"L25": 2,"L26": 1.5,"L27": 3,"L28": 4.5,"L29": 5,"L30": 8,"L31": 7,"L32": 3.5,"L33": 3.5,"L34": 2.5,"L35": 0.5,"L36": 1.5,"L37": 4.5,"L38": 3,"R1": 4,"R2": 3.5,"R3": 3,"R4": 2.5,"R5": 3.5,"R6": 4,"R7": 5,"R8": 3.5,"R9": 2.5,"R10": 1.5,"R11": 1.5,"R12": 2,"R13": 3,"R14": 4.5,"R15": 3,"R16": 2,"R17": 0.5,"R18": 0.5,"R19": 0.5,"R20": 2.5,"R21": 4,"R22": 4,"R23": 3,"R24": 2,"R25": 2,"R26": 1.5,"R27": 3,"R28": 4.5,"R29": 5,"R30": 8,"R31": 7,"R32": 3.5,"R33": 3.5,"R34": 2.5,"R35": 0.5,"R36": 1.5,"R37": 4.5,"R38": 3}</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
@@ -2415,19 +2515,19 @@
       </c>
       <c r="C16" s="4">
         <f>Q2</f>
-        <v>2.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="E16" s="75" t="str">
         <f t="shared" ref="E16:E53" si="12">SUBSTITUTE(_xlfn.CONCAT("""L",$A16,""": ",$C16),",",".")</f>
-        <v>"L1": 2.66666666666667</v>
+        <v>"L1": 4</v>
       </c>
       <c r="H16" s="50" t="str">
         <f t="shared" ref="H16:H53" si="13">SUBSTITUTE(_xlfn.CONCAT("""R",$A16,""": ",$C16),",",".")</f>
-        <v>"R1": 2.66666666666667</v>
+        <v>"R1": 4</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="2"/>
-      <c r="L16" s="98" t="str">
+      <c r="L16" s="96" t="str">
         <f>Z2</f>
         <v>0, 8</v>
       </c>
@@ -2441,7 +2541,7 @@
       </c>
       <c r="U16" s="50" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,E16:E53,)</f>
-        <v>"L1": 2.66666666666667,"L2": 2.33333333333333,"L3": 2,"L4": 1.66666666666667,"L5": 2.33333333333333,"L6": 2.66666666666667,"L7": 3.33333333333333,"L8": 2.56666666666667,"L9": 1.83333333333333,"L10": 1.1,"L11": 1,"L12": 1.33333333333333,"L13": 2,"L14": 2.66666666666667,"L15": 3,"L16": 0.6,"L17": 0.366666666666667,"L18": 0.333333333333333,"L19": 0.333333333333333,"L20": 1.66666666666667,"L21": 2.33333333333333,"L22": 3,"L23": 1.2,"L24": 1.46666666666667,"L25": 1.33333333333333,"L26": 1.33333333333333,"L27": 2,"L28": 3,"L29": 3.33333333333333,"L30": 4.8,"L31": 4.2,"L32": 2.56666666666667,"L33": 2.33333333333333,"L34": 1.66666666666667,"L35": 0.333333333333333,"L36": 1,"L37": 3,"L38": 2</v>
+        <v>"L1": 4,"L2": 3.5,"L3": 3,"L4": 2.5,"L5": 3.5,"L6": 4,"L7": 5,"L8": 3.5,"L9": 2.5,"L10": 1.5,"L11": 1.5,"L12": 2,"L13": 3,"L14": 4.5,"L15": 3,"L16": 2,"L17": 0.5,"L18": 0.5,"L19": 0.5,"L20": 2.5,"L21": 4,"L22": 4,"L23": 3,"L24": 2,"L25": 2,"L26": 1.5,"L27": 3,"L28": 4.5,"L29": 5,"L30": 8,"L31": 7,"L32": 3.5,"L33": 3.5,"L34": 2.5,"L35": 0.5,"L36": 1.5,"L37": 4.5,"L38": 3</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -2450,19 +2550,19 @@
       </c>
       <c r="C17" s="4">
         <f>P2</f>
-        <v>2.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="E17" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L2": 2.33333333333333</v>
+        <v>"L2": 3.5</v>
       </c>
       <c r="H17" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R2": 2.33333333333333</v>
+        <v>"R2": 3.5</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
-      <c r="L17" s="98" t="str">
+      <c r="L17" s="96" t="str">
         <f>Y2</f>
         <v>0, 7</v>
       </c>
@@ -2476,7 +2576,7 @@
       </c>
       <c r="U17" s="50" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,H16:H53,)</f>
-        <v>"R1": 2.66666666666667,"R2": 2.33333333333333,"R3": 2,"R4": 1.66666666666667,"R5": 2.33333333333333,"R6": 2.66666666666667,"R7": 3.33333333333333,"R8": 2.56666666666667,"R9": 1.83333333333333,"R10": 1.1,"R11": 1,"R12": 1.33333333333333,"R13": 2,"R14": 2.66666666666667,"R15": 3,"R16": 0.6,"R17": 0.366666666666667,"R18": 0.333333333333333,"R19": 0.333333333333333,"R20": 1.66666666666667,"R21": 2.33333333333333,"R22": 3,"R23": 1.2,"R24": 1.46666666666667,"R25": 1.33333333333333,"R26": 1.33333333333333,"R27": 2,"R28": 3,"R29": 3.33333333333333,"R30": 4.8,"R31": 4.2,"R32": 2.56666666666667,"R33": 2.33333333333333,"R34": 1.66666666666667,"R35": 0.333333333333333,"R36": 1,"R37": 3,"R38": 2</v>
+        <v>"R1": 4,"R2": 3.5,"R3": 3,"R4": 2.5,"R5": 3.5,"R6": 4,"R7": 5,"R8": 3.5,"R9": 2.5,"R10": 1.5,"R11": 1.5,"R12": 2,"R13": 3,"R14": 4.5,"R15": 3,"R16": 2,"R17": 0.5,"R18": 0.5,"R19": 0.5,"R20": 2.5,"R21": 4,"R22": 4,"R23": 3,"R24": 2,"R25": 2,"R26": 1.5,"R27": 3,"R28": 4.5,"R29": 5,"R30": 8,"R31": 7,"R32": 3.5,"R33": 3.5,"R34": 2.5,"R35": 0.5,"R36": 1.5,"R37": 4.5,"R38": 3</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -2485,19 +2585,19 @@
       </c>
       <c r="C18" s="4">
         <f>O2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L3": 2</v>
+        <v>"L3": 3</v>
       </c>
       <c r="H18" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R3": 2</v>
+        <v>"R3": 3</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
-      <c r="L18" s="98" t="str">
+      <c r="L18" s="96" t="str">
         <f>X2</f>
         <v>0, 6</v>
       </c>
@@ -2517,19 +2617,19 @@
       </c>
       <c r="C19" s="4">
         <f>N2</f>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="E19" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L4": 1.66666666666667</v>
+        <v>"L4": 2.5</v>
       </c>
       <c r="H19" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R4": 1.66666666666667</v>
+        <v>"R4": 2.5</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
-      <c r="L19" s="98" t="str">
+      <c r="L19" s="96" t="str">
         <f>W2</f>
         <v>0, 5</v>
       </c>
@@ -2548,20 +2648,20 @@
       </c>
       <c r="C20" s="4">
         <f>M2</f>
-        <v>2.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="E20" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L5": 2.33333333333333</v>
+        <v>"L5": 3.5</v>
       </c>
       <c r="G20" s="51"/>
       <c r="H20" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R5": 2.33333333333333</v>
+        <v>"R5": 3.5</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="2"/>
-      <c r="L20" s="98" t="str">
+      <c r="L20" s="96" t="str">
         <f>V2</f>
         <v>0, 4</v>
       </c>
@@ -2584,19 +2684,19 @@
       </c>
       <c r="C21" s="4">
         <f>L2</f>
-        <v>2.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="E21" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L6": 2.66666666666667</v>
+        <v>"L6": 4</v>
       </c>
       <c r="H21" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R6": 2.66666666666667</v>
+        <v>"R6": 4</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="2"/>
-      <c r="L21" s="98" t="str">
+      <c r="L21" s="96" t="str">
         <f>U2</f>
         <v>0, 3</v>
       </c>
@@ -2619,19 +2719,19 @@
       </c>
       <c r="C22" s="4">
         <f>K2</f>
-        <v>3.3333333333333335</v>
+        <v>5</v>
       </c>
       <c r="E22" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L7": 3.33333333333333</v>
+        <v>"L7": 5</v>
       </c>
       <c r="H22" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R7": 3.33333333333333</v>
+        <v>"R7": 5</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="2"/>
-      <c r="L22" s="98" t="str">
+      <c r="L22" s="96" t="str">
         <f>T2</f>
         <v>0, 2</v>
       </c>
@@ -2654,19 +2754,19 @@
       </c>
       <c r="C23" s="4">
         <f>Q3</f>
-        <v>2.5666666666666669</v>
+        <v>3.5</v>
       </c>
       <c r="E23" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L8": 2.56666666666667</v>
+        <v>"L8": 3.5</v>
       </c>
       <c r="H23" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R8": 2.56666666666667</v>
+        <v>"R8": 3.5</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="2"/>
-      <c r="L23" s="98" t="str">
+      <c r="L23" s="96" t="str">
         <f>Z3</f>
         <v>1, 8</v>
       </c>
@@ -2685,19 +2785,19 @@
       </c>
       <c r="C24" s="4">
         <f>P3</f>
-        <v>1.8333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="E24" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L9": 1.83333333333333</v>
+        <v>"L9": 2.5</v>
       </c>
       <c r="H24" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R9": 1.83333333333333</v>
+        <v>"R9": 2.5</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="2"/>
-      <c r="L24" s="98" t="str">
+      <c r="L24" s="96" t="str">
         <f>Y3</f>
         <v>1, 7</v>
       </c>
@@ -2716,19 +2816,19 @@
       </c>
       <c r="C25" s="4">
         <f>O3</f>
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E25" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L10": 1.1</v>
+        <v>"L10": 1.5</v>
       </c>
       <c r="H25" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R10": 1.1</v>
+        <v>"R10": 1.5</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="2"/>
-      <c r="L25" s="98" t="str">
+      <c r="L25" s="96" t="str">
         <f>X3</f>
         <v>1, 6</v>
       </c>
@@ -2750,19 +2850,19 @@
       </c>
       <c r="C26" s="4">
         <f>N3</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E26" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L11": 1</v>
+        <v>"L11": 1.5</v>
       </c>
       <c r="H26" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R11": 1</v>
+        <v>"R11": 1.5</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="2"/>
-      <c r="L26" s="98" t="str">
+      <c r="L26" s="96" t="str">
         <f>W3</f>
         <v>1, 5</v>
       </c>
@@ -2784,19 +2884,19 @@
       </c>
       <c r="C27" s="4">
         <f>M3</f>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="E27" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L12": 1.33333333333333</v>
+        <v>"L12": 2</v>
       </c>
       <c r="H27" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R12": 1.33333333333333</v>
+        <v>"R12": 2</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="2"/>
-      <c r="L27" s="98" t="str">
+      <c r="L27" s="96" t="str">
         <f>V3</f>
         <v>1, 4</v>
       </c>
@@ -2818,19 +2918,19 @@
       </c>
       <c r="C28" s="4">
         <f>L3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L13": 2</v>
+        <v>"L13": 3</v>
       </c>
       <c r="H28" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R13": 2</v>
+        <v>"R13": 3</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
-      <c r="L28" s="98" t="str">
+      <c r="L28" s="96" t="str">
         <f>U3</f>
         <v>1, 3</v>
       </c>
@@ -2852,19 +2952,19 @@
       </c>
       <c r="C29" s="4">
         <f>K3</f>
-        <v>2.6666666666666665</v>
+        <v>4.5</v>
       </c>
       <c r="E29" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L14": 2.66666666666667</v>
+        <v>"L14": 4.5</v>
       </c>
       <c r="H29" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R14": 2.66666666666667</v>
+        <v>"R14": 4.5</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="2"/>
-      <c r="L29" s="98" t="str">
+      <c r="L29" s="96" t="str">
         <f>T3</f>
         <v>1.5, 2</v>
       </c>
@@ -2898,7 +2998,7 @@
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="2"/>
-      <c r="L30" s="98" t="str">
+      <c r="L30" s="96" t="str">
         <f>Z4</f>
         <v>2, 8</v>
       </c>
@@ -2920,19 +3020,19 @@
       </c>
       <c r="C31" s="4">
         <f>P4</f>
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="E31" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L16": 0.6</v>
+        <v>"L16": 2</v>
       </c>
       <c r="H31" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R16": 0.6</v>
+        <v>"R16": 2</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="2"/>
-      <c r="L31" s="98" t="str">
+      <c r="L31" s="96" t="str">
         <f>Y4</f>
         <v>2, 7</v>
       </c>
@@ -2951,19 +3051,19 @@
       </c>
       <c r="C32" s="4">
         <f>O4</f>
-        <v>0.3666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L17": 0.366666666666667</v>
+        <v>"L17": 0.5</v>
       </c>
       <c r="H32" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R17": 0.366666666666667</v>
+        <v>"R17": 0.5</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="2"/>
-      <c r="L32" s="98" t="str">
+      <c r="L32" s="96" t="str">
         <f>X4</f>
         <v>2, 6</v>
       </c>
@@ -2982,19 +3082,19 @@
       </c>
       <c r="C33" s="4">
         <f>N4</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E33" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L18": 0.333333333333333</v>
+        <v>"L18": 0.5</v>
       </c>
       <c r="H33" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R18": 0.333333333333333</v>
+        <v>"R18": 0.5</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="2"/>
-      <c r="L33" s="98" t="str">
+      <c r="L33" s="96" t="str">
         <f>W4</f>
         <v>2, 5</v>
       </c>
@@ -3013,19 +3113,19 @@
       </c>
       <c r="C34" s="4">
         <f>M4</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E34" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L19": 0.333333333333333</v>
+        <v>"L19": 0.5</v>
       </c>
       <c r="H34" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R19": 0.333333333333333</v>
+        <v>"R19": 0.5</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="2"/>
-      <c r="L34" s="98" t="str">
+      <c r="L34" s="96" t="str">
         <f>V4</f>
         <v>2, 4</v>
       </c>
@@ -3044,19 +3144,19 @@
       </c>
       <c r="C35" s="4">
         <f>L4</f>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="E35" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L20": 1.66666666666667</v>
+        <v>"L20": 2.5</v>
       </c>
       <c r="H35" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R20": 1.66666666666667</v>
+        <v>"R20": 2.5</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="2"/>
-      <c r="L35" s="98" t="str">
+      <c r="L35" s="96" t="str">
         <f>U4</f>
         <v>2, 3</v>
       </c>
@@ -3075,19 +3175,19 @@
       </c>
       <c r="C36" s="4">
         <f>K4</f>
-        <v>2.3333333333333335</v>
+        <v>4</v>
       </c>
       <c r="E36" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L21": 2.33333333333333</v>
+        <v>"L21": 4</v>
       </c>
       <c r="H36" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R21": 2.33333333333333</v>
+        <v>"R21": 4</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
-      <c r="L36" s="98" t="str">
+      <c r="L36" s="96" t="str">
         <f>T4</f>
         <v>3, 2</v>
       </c>
@@ -3106,19 +3206,19 @@
       </c>
       <c r="C37" s="4">
         <f>Q5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L22": 3</v>
+        <v>"L22": 4</v>
       </c>
       <c r="H37" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R22": 3</v>
+        <v>"R22": 4</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="2"/>
-      <c r="L37" s="98" t="str">
+      <c r="L37" s="96" t="str">
         <f>Z5</f>
         <v>3, 8</v>
       </c>
@@ -3137,19 +3237,19 @@
       </c>
       <c r="C38" s="4">
         <f>P5</f>
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L23": 1.2</v>
+        <v>"L23": 3</v>
       </c>
       <c r="H38" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R23": 1.2</v>
+        <v>"R23": 3</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="2"/>
-      <c r="L38" s="98" t="str">
+      <c r="L38" s="96" t="str">
         <f>Y5</f>
         <v>3, 7</v>
       </c>
@@ -3168,19 +3268,19 @@
       </c>
       <c r="C39" s="4">
         <f>O5</f>
-        <v>1.4666666666666668</v>
+        <v>2</v>
       </c>
       <c r="E39" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L24": 1.46666666666667</v>
+        <v>"L24": 2</v>
       </c>
       <c r="H39" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R24": 1.46666666666667</v>
+        <v>"R24": 2</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="2"/>
-      <c r="L39" s="98" t="str">
+      <c r="L39" s="96" t="str">
         <f>X5</f>
         <v>3, 6</v>
       </c>
@@ -3199,19 +3299,19 @@
       </c>
       <c r="C40" s="4">
         <f>N5</f>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="E40" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L25": 1.33333333333333</v>
+        <v>"L25": 2</v>
       </c>
       <c r="H40" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R25": 1.33333333333333</v>
+        <v>"R25": 2</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="2"/>
-      <c r="L40" s="98" t="str">
+      <c r="L40" s="96" t="str">
         <f>W5</f>
         <v>3, 5</v>
       </c>
@@ -3230,19 +3330,19 @@
       </c>
       <c r="C41" s="4">
         <f>M5</f>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="E41" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L26": 1.33333333333333</v>
+        <v>"L26": 1.5</v>
       </c>
       <c r="H41" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R26": 1.33333333333333</v>
+        <v>"R26": 1.5</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="2"/>
-      <c r="L41" s="98" t="str">
+      <c r="L41" s="96" t="str">
         <f>V5</f>
         <v>3, 4</v>
       </c>
@@ -3261,19 +3361,19 @@
       </c>
       <c r="C42" s="4">
         <f>L5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L27": 2</v>
+        <v>"L27": 3</v>
       </c>
       <c r="H42" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R27": 2</v>
+        <v>"R27": 3</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="2"/>
-      <c r="L42" s="98" t="str">
+      <c r="L42" s="96" t="str">
         <f>U5</f>
         <v>3, 3</v>
       </c>
@@ -3292,19 +3392,19 @@
       </c>
       <c r="C43" s="4">
         <f>K5</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E43" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L28": 3</v>
+        <v>"L28": 4.5</v>
       </c>
       <c r="H43" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R28": 3</v>
+        <v>"R28": 4.5</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="2"/>
-      <c r="L43" s="98" t="str">
+      <c r="L43" s="96" t="str">
         <f>T5</f>
         <v>4, 1</v>
       </c>
@@ -3323,19 +3423,19 @@
       </c>
       <c r="C44" s="4">
         <f>J5</f>
-        <v>3.3333333333333335</v>
+        <v>5</v>
       </c>
       <c r="E44" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L29": 3.33333333333333</v>
+        <v>"L29": 5</v>
       </c>
       <c r="H44" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R29": 3.33333333333333</v>
+        <v>"R29": 5</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="2"/>
-      <c r="L44" s="98" t="str">
+      <c r="L44" s="96" t="str">
         <f>S5</f>
         <v>4, 0</v>
       </c>
@@ -3354,19 +3454,19 @@
       </c>
       <c r="C45" s="4">
         <f>Q6</f>
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="E45" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L30": 4.8</v>
+        <v>"L30": 8</v>
       </c>
       <c r="H45" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R30": 4.8</v>
+        <v>"R30": 8</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="2"/>
-      <c r="L45" s="98" t="str">
+      <c r="L45" s="96" t="str">
         <f>Z6</f>
         <v>4, 8</v>
       </c>
@@ -3385,19 +3485,19 @@
       </c>
       <c r="C46" s="4">
         <f>P6</f>
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="E46" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L31": 4.2</v>
+        <v>"L31": 7</v>
       </c>
       <c r="H46" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R31": 4.2</v>
+        <v>"R31": 7</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="2"/>
-      <c r="L46" s="98" t="str">
+      <c r="L46" s="96" t="str">
         <f>Y6</f>
         <v>4, 7</v>
       </c>
@@ -3416,19 +3516,19 @@
       </c>
       <c r="C47" s="4">
         <f>O6</f>
-        <v>2.5666666666666669</v>
+        <v>3.5</v>
       </c>
       <c r="E47" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L32": 2.56666666666667</v>
+        <v>"L32": 3.5</v>
       </c>
       <c r="H47" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R32": 2.56666666666667</v>
+        <v>"R32": 3.5</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="2"/>
-      <c r="L47" s="98" t="str">
+      <c r="L47" s="96" t="str">
         <f>X6</f>
         <v>4, 6</v>
       </c>
@@ -3447,19 +3547,19 @@
       </c>
       <c r="C48" s="4">
         <f>N6</f>
-        <v>2.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="E48" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L33": 2.33333333333333</v>
+        <v>"L33": 3.5</v>
       </c>
       <c r="H48" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R33": 2.33333333333333</v>
+        <v>"R33": 3.5</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="2"/>
-      <c r="L48" s="98" t="str">
+      <c r="L48" s="96" t="str">
         <f>W6</f>
         <v>4, 5</v>
       </c>
@@ -3478,19 +3578,19 @@
       </c>
       <c r="C49" s="4">
         <f>M6</f>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="E49" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L34": 1.66666666666667</v>
+        <v>"L34": 2.5</v>
       </c>
       <c r="H49" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R34": 1.66666666666667</v>
+        <v>"R34": 2.5</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="2"/>
-      <c r="L49" s="98" t="str">
+      <c r="L49" s="96" t="str">
         <f>V6</f>
         <v>4, 4</v>
       </c>
@@ -3509,19 +3609,19 @@
       </c>
       <c r="C50" s="4">
         <f>L6</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E50" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L35": 0.333333333333333</v>
+        <v>"L35": 0.5</v>
       </c>
       <c r="H50" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R35": 0.333333333333333</v>
+        <v>"R35": 0.5</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="2"/>
-      <c r="L50" s="98" t="str">
+      <c r="L50" s="96" t="str">
         <f>U6</f>
         <v>5, 2.5</v>
       </c>
@@ -3540,19 +3640,19 @@
       </c>
       <c r="C51" s="4">
         <f>K6</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E51" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L36": 1</v>
+        <v>"L36": 1.5</v>
       </c>
       <c r="H51" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R36": 1</v>
+        <v>"R36": 1.5</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="2"/>
-      <c r="L51" s="98" t="str">
+      <c r="L51" s="96" t="str">
         <f>T6</f>
         <v>5.5, 1.5</v>
       </c>
@@ -3571,19 +3671,19 @@
       </c>
       <c r="C52" s="4">
         <f>J6</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E52" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L37": 3</v>
+        <v>"L37": 4.5</v>
       </c>
       <c r="H52" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R37": 3</v>
+        <v>"R37": 4.5</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="2"/>
-      <c r="L52" s="98" t="str">
+      <c r="L52" s="96" t="str">
         <f>S6</f>
         <v>5, 0.5</v>
       </c>
@@ -3602,19 +3702,19 @@
       </c>
       <c r="C53" s="4">
         <f>J7</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" s="75" t="str">
         <f t="shared" si="12"/>
-        <v>"L38": 2</v>
+        <v>"L38": 3</v>
       </c>
       <c r="H53" s="50" t="str">
         <f t="shared" si="13"/>
-        <v>"R38": 2</v>
+        <v>"R38": 3</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="2"/>
-      <c r="L53" s="98" t="str">
+      <c r="L53" s="96" t="str">
         <f>S7</f>
         <v>6, 1</v>
       </c>
@@ -3629,14 +3729,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3650,8 +3750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE1B9F7-56A1-4B2B-8844-93D3218A2256}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3692,12 +3792,12 @@
       <c r="P1" s="82">
         <v>8</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
+      <c r="A2" s="55" t="s">
+        <v>32</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
@@ -3713,14 +3813,10 @@
       <c r="F2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="95" t="s">
-        <v>38</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>15</v>
       </c>
@@ -3736,12 +3832,14 @@
       <c r="P2" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -3757,11 +3855,13 @@
       <c r="F3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>47</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71" t="s">
-        <v>47</v>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
         <v>13</v>
@@ -3778,14 +3878,12 @@
       <c r="P3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>32</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3798,7 +3896,7 @@
       <c r="E4" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="92" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="3"/>
@@ -3820,34 +3918,34 @@
       <c r="P4" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,12 +3954,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -3923,13 +4021,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": ";"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -3953,11 +4051,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "'"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -3981,13 +4079,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -4011,11 +4109,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "\\"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": "\\"</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -4039,13 +4137,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": ";"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -4119,15 +4217,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -4155,15 +4253,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -4187,23 +4285,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "4","3": "0","4": "1","5": "2","6": "3","7": "","8": "","9": "q","10": "h","11": "o","12": "u","13": "x","14": "'","15": "","16": "y","17": "i","18": "e","19": "a","20": ".","21": "","22": "`","23": "j","24": "/","25": ",","26": "k","27": "'","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "4","3": "0","4": "1","5": "2","6": "3","7": "","8": ";","9": "q","10": "h","11": "o","12": "u","13": "x","14": "","15": "\"","16": "y","17": "i","18": "e","19": "a","20": ".","21": "\\","22": "","23": "j","24": "/","25": ",","26": "k","27": "'","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "]","14": "\"","13": "g","12": "c","11": "r","10": "f","9": "z","8": "[","21": "\\","20": "d","19": "s","18": "t","17": "n","16": "b","15": ";","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "","14": "","13": "g","12": "c","11": "r","10": "f","9": "z","8": "=","21": "`","20": "d","19": "s","18": "t","17": "n","16": "b","15": "-","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "4","3": "0","4": "1","5": "2","6": "3","7": "","8": "","9": "q","10": "h","11": "o","12": "u","13": "x","14": "'","15": "","16": "y","17": "i","18": "e","19": "a","20": ".","21": "","22": "`","23": "j","24": "/","25": ",","26": "k","27": "'","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "]","14": "\"","13": "g","12": "c","11": "r","10": "f","9": "z","8": "[","21": "\\","20": "d","19": "s","18": "t","17": "n","16": "b","15": ";","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "4","3": "0","4": "1","5": "2","6": "3","7": "","8": ";","9": "q","10": "h","11": "o","12": "u","13": "x","14": "","15": "\"","16": "y","17": "i","18": "e","19": "a","20": ".","21": "\\","22": "","23": "j","24": "/","25": ",","26": "k","27": "'","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "","14": "","13": "g","12": "c","11": "r","10": "f","9": "z","8": "=","21": "`","20": "d","19": "s","18": "t","17": "n","16": "b","15": "-","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="91" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4226,7 +4324,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="Q1" sqref="Q1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4271,12 +4369,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
@@ -4292,14 +4390,10 @@
       <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>3</v>
       </c>
@@ -4315,12 +4409,14 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -4336,10 +4432,14 @@
       <c r="F3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>25</v>
       </c>
@@ -4355,14 +4455,12 @@
       <c r="P3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>38</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4397,34 +4495,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,12 +4531,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -4500,13 +4598,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -4530,11 +4628,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -4558,13 +4656,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -4588,11 +4686,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -4616,13 +4714,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -4696,15 +4794,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -4732,15 +4830,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -4764,23 +4862,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "g","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "x","25": "c","26": "f","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "g","11": "m","12": "l","13": "w","14": "","15": "\"","16": "d","17": "s","18": "t","19": "n","20": "r","21": "'","22": "","23": "z","24": "x","25": "c","26": "f","27": "j","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "b","12": "y","11": "u","10": "v","9": ";","8": "[","21": "","20": "i","19": "a","18": "e","17": "o","16": "h","15": "'","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "b","12": "y","11": "u","10": "v","9": ";","8": "=","21": "`","20": "i","19": "a","18": "e","17": "o","16": "h","15": "-","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "g","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "x","25": "c","26": "f","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "b","12": "y","11": "u","10": "v","9": ";","8": "[","21": "","20": "i","19": "a","18": "e","17": "o","16": "h","15": "'","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "g","11": "m","12": "l","13": "w","14": "","15": "\"","16": "d","17": "s","18": "t","19": "n","20": "r","21": "'","22": "","23": "z","24": "x","25": "c","26": "f","27": "j","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "b","12": "y","11": "u","10": "v","9": ";","8": "=","21": "`","20": "i","19": "a","18": "e","17": "o","16": "h","15": "-","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4798,7 +4896,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="Q1" sqref="Q1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4843,12 +4941,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
@@ -4864,14 +4962,10 @@
       <c r="F2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -4887,12 +4981,14 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4908,10 +5004,14 @@
       <c r="F3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>20</v>
       </c>
@@ -4927,14 +5027,12 @@
       <c r="P3" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>38</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4969,34 +5067,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,12 +5103,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -5072,13 +5170,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -5102,11 +5200,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -5130,13 +5228,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -5160,11 +5258,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -5188,13 +5286,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -5268,15 +5366,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -5304,15 +5402,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -5336,23 +5434,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "d","11": "r","12": "w","13": "b","14": "\\","15": "","16": "a","17": "s","18": "h","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "m","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "d","11": "r","12": "w","13": "b","14": "","15": "\"","16": "a","17": "s","18": "h","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "m","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "u","10": "p","9": ";","8": "[","21": "","20": "y","19": "n","18": "e","17": "o","16": "i","15": "'","29": "","28": "","27": "k","26": "l","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "f","11": "u","10": "p","9": ";","8": "=","21": "`","20": "y","19": "n","18": "e","17": "o","16": "i","15": "-","29": "","28": "","27": "k","26": "l","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "d","11": "r","12": "w","13": "b","14": "\\","15": "","16": "a","17": "s","18": "h","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "m","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "u","10": "p","9": ";","8": "[","21": "","20": "y","19": "n","18": "e","17": "o","16": "i","15": "'","29": "","28": "","27": "k","26": "l","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "d","11": "r","12": "w","13": "b","14": "","15": "\"","16": "a","17": "s","18": "h","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "m","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "f","11": "u","10": "p","9": ";","8": "=","21": "`","20": "y","19": "n","18": "e","17": "o","16": "i","15": "-","29": "","28": "","27": "k","26": "l","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5370,7 +5468,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="Q1" sqref="Q1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5415,12 +5513,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
@@ -5436,14 +5534,10 @@
       <c r="F2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -5459,12 +5553,14 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -5480,10 +5576,14 @@
       <c r="F3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>21</v>
       </c>
@@ -5499,14 +5599,12 @@
       <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>38</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -5541,34 +5639,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,12 +5675,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -5644,13 +5742,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -5674,11 +5772,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -5702,13 +5800,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -5732,11 +5830,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -5760,13 +5858,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -5840,15 +5938,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -5876,15 +5974,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -5908,23 +6006,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "u","12": "d","13": "p","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "u","12": "d","13": "p","14": "","15": "\"","16": "a","17": "s","18": "e","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "y","10": "l","9": ";","8": "[","21": "","20": "h","19": "n","18": "i","17": "r","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "f","11": "y","10": "l","9": ";","8": "=","21": "`","20": "h","19": "n","18": "i","17": "r","16": "o","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "u","12": "d","13": "p","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "y","10": "l","9": ";","8": "[","21": "","20": "h","19": "n","18": "i","17": "r","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "u","12": "d","13": "p","14": "","15": "\"","16": "a","17": "s","18": "e","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "f","11": "y","10": "l","9": ";","8": "=","21": "`","20": "h","19": "n","18": "i","17": "r","16": "o","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5942,7 +6040,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="Q1" sqref="Q1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5987,12 +6085,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
@@ -6008,14 +6106,10 @@
       <c r="F2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -6031,12 +6125,14 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -6052,10 +6148,14 @@
       <c r="F3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>21</v>
       </c>
@@ -6071,14 +6171,12 @@
       <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>38</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -6113,34 +6211,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,12 +6247,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -6216,13 +6314,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -6246,11 +6344,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -6274,13 +6372,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -6304,11 +6402,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -6332,13 +6430,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -6412,15 +6510,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -6448,15 +6546,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -6480,23 +6578,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "f","12": "p","13": "g","14": "","15": "\"","16": "a","17": "r","18": "s","19": "t","20": "d","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "l","11": "u","10": "y","9": ";","8": "=","21": "`","20": "h","19": "n","18": "e","17": "i","16": "o","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "f","12": "p","13": "g","14": "","15": "\"","16": "a","17": "r","18": "s","19": "t","20": "d","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "l","11": "u","10": "y","9": ";","8": "=","21": "`","20": "h","19": "n","18": "e","17": "i","16": "o","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="91" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6519,7 +6617,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="Q1" sqref="Q1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6564,12 +6662,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
@@ -6585,14 +6683,10 @@
       <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>20</v>
       </c>
@@ -6608,12 +6702,14 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -6629,10 +6725,14 @@
       <c r="F3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>25</v>
       </c>
@@ -6648,14 +6748,12 @@
       <c r="P3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>38</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -6690,34 +6788,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,12 +6824,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -6793,13 +6891,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -6823,11 +6921,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -6851,13 +6949,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -6881,11 +6979,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -6909,13 +7007,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -6989,15 +7087,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -7025,15 +7123,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -7057,23 +7155,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "g","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "g","11": "m","12": "l","13": "w","14": "","15": "\"","16": "d","17": "s","18": "t","19": "n","20": "r","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "f","11": "u","10": "b","9": ";","8": "[","21": "","20": "i","19": "a","18": "e","17": "o","16": "h","15": "'","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "y","12": "f","11": "u","10": "b","9": ";","8": "=","21": "`","20": "i","19": "a","18": "e","17": "o","16": "h","15": "-","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "g","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "f","11": "u","10": "b","9": ";","8": "[","21": "","20": "i","19": "a","18": "e","17": "o","16": "h","15": "'","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "g","11": "m","12": "l","13": "w","14": "","15": "\"","16": "d","17": "s","18": "t","19": "n","20": "r","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "y","12": "f","11": "u","10": "b","9": ";","8": "=","21": "`","20": "i","19": "a","18": "e","17": "o","16": "h","15": "-","29": "","28": "","27": "k","26": "p","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7091,7 +7189,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="Q1" sqref="Q1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7136,12 +7234,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
@@ -7157,14 +7255,10 @@
       <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>20</v>
       </c>
@@ -7180,12 +7274,14 @@
       <c r="P2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -7201,10 +7297,14 @@
       <c r="F3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>25</v>
       </c>
@@ -7220,14 +7320,12 @@
       <c r="P3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>38</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -7262,34 +7360,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,12 +7396,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -7365,13 +7463,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -7395,11 +7493,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -7423,13 +7521,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -7453,11 +7551,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -7481,13 +7579,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -7561,15 +7659,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -7597,15 +7695,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -7629,23 +7727,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "f","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "v","25": "g","26": "c","27": "x","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "f","11": "m","12": "l","13": "w","14": "","15": "\"","16": "d","17": "s","18": "t","19": "n","20": "r","21": "'","22": "","23": "z","24": "v","25": "g","26": "c","27": "x","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "o","10": "b","9": "j","8": "[","21": "","20": "i","19": "a","18": "e","17": "h","16": ";","15": "'","29": "","28": "","27": "p","26": "k","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "y","12": "u","11": "o","10": "b","9": "j","8": "=","21": "`","20": "i","19": "a","18": "e","17": "h","16": ";","15": "-","29": "","28": "","27": "p","26": "k","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "f","11": "m","12": "l","13": "w","14": "\\","15": "","16": "d","17": "s","18": "t","19": "n","20": "r","21": "","22": "`","23": "z","24": "v","25": "g","26": "c","27": "x","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "o","10": "b","9": "j","8": "[","21": "","20": "i","19": "a","18": "e","17": "h","16": ";","15": "'","29": "","28": "","27": "p","26": "k","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "f","11": "m","12": "l","13": "w","14": "","15": "\"","16": "d","17": "s","18": "t","19": "n","20": "r","21": "'","22": "","23": "z","24": "v","25": "g","26": "c","27": "x","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "y","12": "u","11": "o","10": "b","9": "j","8": "=","21": "`","20": "i","19": "a","18": "e","17": "h","16": ";","15": "-","29": "","28": "","27": "p","26": "k","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7663,7 +7761,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="Q1" sqref="Q1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7708,12 +7806,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
@@ -7729,14 +7827,10 @@
       <c r="F2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -7752,12 +7846,14 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -7773,10 +7869,14 @@
       <c r="F3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>21</v>
       </c>
@@ -7792,14 +7892,12 @@
       <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>38</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -7834,34 +7932,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,12 +7968,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -7937,13 +8035,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -7967,11 +8065,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -7995,13 +8093,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -8025,11 +8123,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -8053,13 +8151,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -8133,15 +8231,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -8169,15 +8267,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -8201,23 +8299,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "f","12": "p","13": "g","14": "","15": "\"","16": "n","17": "r","18": "s","19": "t","20": "d","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "a","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "l","11": "u","10": "y","9": ";","8": "=","21": "`","20": "h","19": "a","18": "e","17": "i","16": "o","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "a","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "f","12": "p","13": "g","14": "","15": "\"","16": "n","17": "r","18": "s","19": "t","20": "d","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "l","11": "u","10": "y","9": ";","8": "=","21": "`","20": "h","19": "a","18": "e","17": "i","16": "o","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8235,7 +8333,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="Q1" sqref="Q1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8280,12 +8378,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
@@ -8301,14 +8399,10 @@
       <c r="F2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -8324,12 +8418,14 @@
       <c r="P2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -8345,10 +8441,14 @@
       <c r="F3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>26</v>
       </c>
@@ -8364,14 +8464,12 @@
       <c r="P3" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>38</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -8406,34 +8504,34 @@
       <c r="P4" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8442,12 +8540,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -8509,13 +8607,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -8539,11 +8637,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -8567,13 +8665,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -8597,11 +8695,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -8625,13 +8723,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -8705,15 +8803,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -8741,15 +8839,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -8773,23 +8871,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "l","12": "d","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "m","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "l","12": "d","13": "g","14": "","15": "\"","16": "n","17": "r","18": "s","19": "t","20": "m","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "o","10": "p","9": "/","8": "[","21": "","20": "k","19": "a","18": "e","17": "h","16": "i","15": "'","29": "","28": "","27": "y","26": "f","25": ",","24": ".","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "u","11": "o","10": "p","9": "/","8": "=","21": "`","20": "k","19": "a","18": "e","17": "h","16": "i","15": "-","29": "","28": "","27": "y","26": "f","25": ",","24": ".","23": ";","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "l","12": "d","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "m","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "o","10": "p","9": "/","8": "[","21": "","20": "k","19": "a","18": "e","17": "h","16": "i","15": "'","29": "","28": "","27": "y","26": "f","25": ",","24": ".","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "l","12": "d","13": "g","14": "","15": "\"","16": "n","17": "r","18": "s","19": "t","20": "m","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "u","11": "o","10": "p","9": "/","8": "=","21": "`","20": "k","19": "a","18": "e","17": "h","16": "i","15": "-","29": "","28": "","27": "y","26": "f","25": ",","24": ".","23": ";","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8807,7 +8905,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="Q1" sqref="Q1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8848,12 +8946,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>20</v>
       </c>
@@ -8869,14 +8967,10 @@
       <c r="F2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>26</v>
       </c>
@@ -8892,12 +8986,14 @@
       <c r="P2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -8913,10 +9009,14 @@
       <c r="F3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>24</v>
       </c>
@@ -8932,14 +9032,12 @@
       <c r="P3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>38</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -8974,34 +9072,34 @@
       <c r="P4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9010,12 +9108,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -9077,13 +9175,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -9107,11 +9205,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -9135,13 +9233,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -9165,11 +9263,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -9193,13 +9291,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -9273,15 +9371,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -9309,15 +9407,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -9341,23 +9439,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "y","10": "p","11": "o","12": "u","13": "j","14": "\\","15": "","16": "i","17": "n","18": "e","19": "a","20": ",","21": "","22": "`","23": "q","24": "z","25": "/","26": ".","27": ";","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "y","10": "p","11": "o","12": "u","13": "j","14": "","15": "\"","16": "i","17": "n","18": "e","19": "a","20": ",","21": "'","22": "","23": "q","24": "z","25": "/","26": ".","27": ";","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "k","12": "d","11": "l","10": "c","9": "w","8": "[","21": "","20": "m","19": "h","18": "t","17": "s","16": "r","15": "'","29": "","28": "","27": "b","26": "f","25": "g","24": "v","23": "x","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "k","12": "d","11": "l","10": "c","9": "w","8": "=","21": "`","20": "m","19": "h","18": "t","17": "s","16": "r","15": "-","29": "","28": "","27": "b","26": "f","25": "g","24": "v","23": "x","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "y","10": "p","11": "o","12": "u","13": "j","14": "\\","15": "","16": "i","17": "n","18": "e","19": "a","20": ",","21": "","22": "`","23": "q","24": "z","25": "/","26": ".","27": ";","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "k","12": "d","11": "l","10": "c","9": "w","8": "[","21": "","20": "m","19": "h","18": "t","17": "s","16": "r","15": "'","29": "","28": "","27": "b","26": "f","25": "g","24": "v","23": "x","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "y","10": "p","11": "o","12": "u","13": "j","14": "","15": "\"","16": "i","17": "n","18": "e","19": "a","20": ",","21": "'","22": "","23": "q","24": "z","25": "/","26": ".","27": ";","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "k","12": "d","11": "l","10": "c","9": "w","8": "=","21": "`","20": "m","19": "h","18": "t","17": "s","16": "r","15": "-","29": "","28": "","27": "b","26": "f","25": "g","24": "v","23": "x","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="91" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9380,7 +9478,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9417,16 +9515,16 @@
       <c r="A3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="99">
+      <c r="B3" s="97">
         <v>63006826.979999997</v>
       </c>
-      <c r="C3" s="99">
+      <c r="C3" s="97">
         <v>19395332.300000001</v>
       </c>
-      <c r="D3" s="99">
+      <c r="D3" s="97">
         <v>82935207.909999996</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="98" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9434,16 +9532,16 @@
       <c r="A4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="99">
+      <c r="B4" s="97">
         <v>63021594.32</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="97">
         <v>19826891.16</v>
       </c>
-      <c r="D4" s="99">
+      <c r="D4" s="97">
         <v>84866278.140000001</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="99" t="s">
         <v>98</v>
       </c>
     </row>
@@ -9451,16 +9549,16 @@
       <c r="A5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="99">
+      <c r="B5" s="97">
         <v>67454002.200000003</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="97">
         <v>19297528.530000001</v>
       </c>
-      <c r="D5" s="99">
+      <c r="D5" s="97">
         <v>86578542.310000002</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="98" t="s">
         <v>103</v>
       </c>
     </row>
@@ -9468,16 +9566,16 @@
       <c r="A6" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="99">
+      <c r="B6" s="97">
         <v>67577455.799999997</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="97">
         <v>19651448.32</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="97">
         <v>87836971.450000003</v>
       </c>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="99" t="s">
         <v>111</v>
       </c>
     </row>
@@ -9485,16 +9583,16 @@
       <c r="A7" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="97">
         <v>64336488.939999998</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="97">
         <v>20230518.75</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="97">
         <v>87868316.140000001</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="98" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9502,16 +9600,16 @@
       <c r="A8" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="97">
         <v>62843938.359999999</v>
       </c>
-      <c r="C8" s="99">
+      <c r="C8" s="97">
         <v>21059347.890000001</v>
       </c>
-      <c r="D8" s="99">
+      <c r="D8" s="97">
         <v>87955816.640000001</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="99" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9519,16 +9617,16 @@
       <c r="A9" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="99">
+      <c r="B9" s="97">
         <v>67508647.859999999</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="97">
         <v>20046089.260000002</v>
       </c>
-      <c r="D9" s="99">
+      <c r="D9" s="97">
         <v>88286789.760000005</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="98" t="s">
         <v>110</v>
       </c>
     </row>
@@ -9536,16 +9634,16 @@
       <c r="A10" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="99">
+      <c r="B10" s="97">
         <v>66392714.619999997</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="97">
         <v>20670094.780000001</v>
       </c>
-      <c r="D10" s="99">
+      <c r="D10" s="97">
         <v>88358159.370000005</v>
       </c>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="99" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9553,16 +9651,16 @@
       <c r="A11" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="99">
+      <c r="B11" s="97">
         <v>64553896.880000003</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="97">
         <v>20861397.899999999</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="97">
         <v>89485860.049999997</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="98" t="s">
         <v>108</v>
       </c>
     </row>
@@ -9570,16 +9668,16 @@
       <c r="A12" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="99">
+      <c r="B12" s="97">
         <v>70345275.159999996</v>
       </c>
-      <c r="C12" s="99">
+      <c r="C12" s="97">
         <v>18853846.870000001</v>
       </c>
-      <c r="D12" s="99">
+      <c r="D12" s="97">
         <v>89982358.519999996</v>
       </c>
-      <c r="F12" s="101" t="s">
+      <c r="F12" s="99" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9587,16 +9685,16 @@
       <c r="A13" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="99">
+      <c r="B13" s="97">
         <v>61493510.240000002</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="97">
         <v>21237339.98</v>
       </c>
-      <c r="D13" s="99">
+      <c r="D13" s="97">
         <v>90472118.769999996</v>
       </c>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="98" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9604,16 +9702,16 @@
       <c r="A14" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="99">
+      <c r="B14" s="97">
         <v>69122581.920000002</v>
       </c>
-      <c r="C14" s="99">
+      <c r="C14" s="97">
         <v>19579550.539999999</v>
       </c>
-      <c r="D14" s="99">
+      <c r="D14" s="97">
         <v>91093558.439999998</v>
       </c>
-      <c r="F14" s="101" t="s">
+      <c r="F14" s="99" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9621,16 +9719,16 @@
       <c r="A15" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="99">
+      <c r="B15" s="97">
         <v>70217301.200000003</v>
       </c>
-      <c r="C15" s="99">
+      <c r="C15" s="97">
         <v>19953253.190000001</v>
       </c>
-      <c r="D15" s="99">
+      <c r="D15" s="97">
         <v>92342053.359999999</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="98" t="s">
         <v>102</v>
       </c>
     </row>
@@ -9638,16 +9736,16 @@
       <c r="A16" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B16" s="97">
         <v>78131280.400000006</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C16" s="97">
         <v>21101450.010000002</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D16" s="97">
         <v>104726747.16</v>
       </c>
-      <c r="F16" s="101" t="s">
+      <c r="F16" s="99" t="s">
         <v>109</v>
       </c>
     </row>
@@ -9655,16 +9753,16 @@
       <c r="A17" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="99">
+      <c r="B17" s="97">
         <v>90643274.200000003</v>
       </c>
-      <c r="C17" s="99">
+      <c r="C17" s="97">
         <v>21071928.530000001</v>
       </c>
-      <c r="D17" s="99">
+      <c r="D17" s="97">
         <v>130204950.77</v>
       </c>
-      <c r="F17" s="100" t="s">
+      <c r="F17" s="98" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9672,16 +9770,16 @@
       <c r="A18" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="99">
+      <c r="B18" s="97">
         <v>96384239.219999999</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="97">
         <v>22149809.34</v>
       </c>
-      <c r="D18" s="99">
+      <c r="D18" s="97">
         <v>143316664.5</v>
       </c>
-      <c r="F18" s="101" t="s">
+      <c r="F18" s="99" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9711,16 +9809,16 @@
       <c r="A22" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="99">
+      <c r="B22" s="97">
         <v>19606366.420000002</v>
       </c>
-      <c r="C22" s="99">
+      <c r="C22" s="97">
         <v>19395332.300000001</v>
       </c>
-      <c r="D22" s="99">
+      <c r="D22" s="97">
         <v>25930094.809999999</v>
       </c>
-      <c r="F22" s="100" t="s">
+      <c r="F22" s="98" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9728,16 +9826,16 @@
       <c r="A23" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="99">
+      <c r="B23" s="97">
         <v>19908971.43</v>
       </c>
-      <c r="C23" s="99">
+      <c r="C23" s="97">
         <v>20230518.75</v>
       </c>
-      <c r="D23" s="99">
+      <c r="D23" s="97">
         <v>26941336.800000001</v>
       </c>
-      <c r="F23" s="101" t="s">
+      <c r="F23" s="99" t="s">
         <v>98</v>
       </c>
     </row>
@@ -9745,16 +9843,16 @@
       <c r="A24" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="99">
+      <c r="B24" s="97">
         <v>19362564.77</v>
       </c>
-      <c r="C24" s="99">
+      <c r="C24" s="97">
         <v>21059347.890000001</v>
       </c>
-      <c r="D24" s="99">
+      <c r="D24" s="97">
         <v>26986067.969999999</v>
       </c>
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="98" t="s">
         <v>103</v>
       </c>
     </row>
@@ -9762,16 +9860,16 @@
       <c r="A25" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="99">
+      <c r="B25" s="97">
         <v>20534491.289999999</v>
       </c>
-      <c r="C25" s="99">
+      <c r="C25" s="97">
         <v>20670094.780000001</v>
       </c>
-      <c r="D25" s="99">
+      <c r="D25" s="97">
         <v>27146139.100000001</v>
       </c>
-      <c r="F25" s="101" t="s">
+      <c r="F25" s="99" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9779,16 +9877,16 @@
       <c r="A26" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="99">
+      <c r="B26" s="97">
         <v>20743719.280000001</v>
       </c>
-      <c r="C26" s="99">
+      <c r="C26" s="97">
         <v>20046089.260000002</v>
       </c>
-      <c r="D26" s="99">
+      <c r="D26" s="97">
         <v>27238308.379999999</v>
       </c>
-      <c r="F26" s="100" t="s">
+      <c r="F26" s="98" t="s">
         <v>104</v>
       </c>
     </row>
@@ -9796,16 +9894,16 @@
       <c r="A27" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="99">
+      <c r="B27" s="97">
         <v>19877583.690000001</v>
       </c>
-      <c r="C27" s="99">
+      <c r="C27" s="97">
         <v>20861397.899999999</v>
       </c>
-      <c r="D27" s="99">
+      <c r="D27" s="97">
         <v>27317291</v>
       </c>
-      <c r="F27" s="101" t="s">
+      <c r="F27" s="99" t="s">
         <v>110</v>
       </c>
     </row>
@@ -9813,16 +9911,16 @@
       <c r="A28" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="99">
+      <c r="B28" s="97">
         <v>20639137.469999999</v>
       </c>
-      <c r="C28" s="99">
+      <c r="C28" s="97">
         <v>19826891.16</v>
       </c>
-      <c r="D28" s="99">
+      <c r="D28" s="97">
         <v>27722023.260000002</v>
       </c>
-      <c r="F28" s="100" t="s">
+      <c r="F28" s="98" t="s">
         <v>111</v>
       </c>
     </row>
@@ -9830,16 +9928,16 @@
       <c r="A29" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="99">
+      <c r="B29" s="97">
         <v>21592424.98</v>
       </c>
-      <c r="C29" s="99">
+      <c r="C29" s="97">
         <v>19297528.530000001</v>
       </c>
-      <c r="D29" s="99">
+      <c r="D29" s="97">
         <v>27772921.629999999</v>
       </c>
-      <c r="F29" s="101" t="s">
+      <c r="F29" s="99" t="s">
         <v>108</v>
       </c>
     </row>
@@ -9847,16 +9945,16 @@
       <c r="A30" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="99">
+      <c r="B30" s="97">
         <v>18927229.890000001</v>
       </c>
-      <c r="C30" s="99">
+      <c r="C30" s="97">
         <v>21237339.98</v>
       </c>
-      <c r="D30" s="99">
+      <c r="D30" s="97">
         <v>27847199.75</v>
       </c>
-      <c r="F30" s="100" t="s">
+      <c r="F30" s="98" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9864,16 +9962,16 @@
       <c r="A31" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="99">
+      <c r="B31" s="97">
         <v>21203984.640000001</v>
       </c>
-      <c r="C31" s="99">
+      <c r="C31" s="97">
         <v>19579550.539999999</v>
       </c>
-      <c r="D31" s="99">
+      <c r="D31" s="97">
         <v>28051998.27</v>
       </c>
-      <c r="F31" s="101" t="s">
+      <c r="F31" s="99" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9881,16 +9979,16 @@
       <c r="A32" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="99">
+      <c r="B32" s="97">
         <v>21633546.48</v>
       </c>
-      <c r="C32" s="99">
+      <c r="C32" s="97">
         <v>19651448.32</v>
       </c>
-      <c r="D32" s="99">
+      <c r="D32" s="97">
         <v>28192285.280000001</v>
       </c>
-      <c r="F32" s="100" t="s">
+      <c r="F32" s="98" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9898,16 +9996,16 @@
       <c r="A33" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="99">
+      <c r="B33" s="97">
         <v>21624015.41</v>
       </c>
-      <c r="C33" s="99">
+      <c r="C33" s="97">
         <v>19953253.190000001</v>
       </c>
-      <c r="D33" s="99">
+      <c r="D33" s="97">
         <v>28766978.190000001</v>
       </c>
-      <c r="F33" s="101" t="s">
+      <c r="F33" s="99" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9915,16 +10013,16 @@
       <c r="A34" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="99">
+      <c r="B34" s="97">
         <v>23007242.829999998</v>
       </c>
-      <c r="C34" s="99">
+      <c r="C34" s="97">
         <v>18853846.870000001</v>
       </c>
-      <c r="D34" s="99">
+      <c r="D34" s="97">
         <v>29397548.789999999</v>
       </c>
-      <c r="F34" s="100" t="s">
+      <c r="F34" s="98" t="s">
         <v>102</v>
       </c>
     </row>
@@ -9932,16 +10030,16 @@
       <c r="A35" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="99">
+      <c r="B35" s="97">
         <v>24324243.23</v>
       </c>
-      <c r="C35" s="99">
+      <c r="C35" s="97">
         <v>21101450.010000002</v>
       </c>
-      <c r="D35" s="99">
+      <c r="D35" s="97">
         <v>32694650.219999999</v>
       </c>
-      <c r="F35" s="101" t="s">
+      <c r="F35" s="99" t="s">
         <v>109</v>
       </c>
     </row>
@@ -9949,16 +10047,16 @@
       <c r="A36" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="99">
+      <c r="B36" s="97">
         <v>29325379.289999999</v>
       </c>
-      <c r="C36" s="99">
+      <c r="C36" s="97">
         <v>21071928.530000001</v>
       </c>
-      <c r="D36" s="99">
+      <c r="D36" s="97">
         <v>42105942.07</v>
       </c>
-      <c r="F36" s="100" t="s">
+      <c r="F36" s="98" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9966,16 +10064,16 @@
       <c r="A37" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="99">
+      <c r="B37" s="97">
         <v>31477579.66</v>
       </c>
-      <c r="C37" s="99">
+      <c r="C37" s="97">
         <v>22149809.34</v>
       </c>
-      <c r="D37" s="99">
+      <c r="D37" s="97">
         <v>46890688.869999997</v>
       </c>
-      <c r="F37" s="101" t="s">
+      <c r="F37" s="99" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9994,7 +10092,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="Q1" sqref="Q1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10004,7 +10102,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
+      <c r="A1" s="100"/>
       <c r="B1" s="54">
         <v>1</v>
       </c>
@@ -10039,12 +10137,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="82" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="181" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="73" t="s">
         <v>48</v>
       </c>
@@ -10060,14 +10158,10 @@
       <c r="F2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="95" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="96" t="s">
-        <v>38</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>14</v>
       </c>
@@ -10083,12 +10177,14 @@
       <c r="P2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="123" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -10104,10 +10200,14 @@
       <c r="F3" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="81"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>13</v>
       </c>
@@ -10123,14 +10223,12 @@
       <c r="P3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="84" t="s">
+      <c r="Q3" s="120" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="105"/>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
@@ -10165,34 +10263,34 @@
       <c r="P4" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10201,12 +10299,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -10268,13 +10366,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "="</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -10298,11 +10396,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "'"</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -10326,13 +10424,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "/"</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "/"</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -10356,11 +10454,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -10390,7 +10488,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -10464,15 +10562,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "["</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "]"</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -10500,15 +10598,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -10532,19 +10630,19 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "\"","10": ",","11": ".","12": "p","13": "y","14": "\\","15": "","16": "a","17": "o","18": "e","19": "u","20": "i","21": "","22": "`","23": ";","24": "q","25": "j","26": "k","27": "x","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "\"","10": ",","11": ".","12": "p","13": "y","14": "","15": "/","16": "a","17": "o","18": "e","19": "u","20": "i","21": "'","22": "","23": ";","24": "q","25": "j","26": "k","27": "x","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "'","13": "f","12": "g","11": "c","10": "r","9": "l","8": "/","21": "","20": "d","19": "h","18": "t","17": "n","16": "s","15": "-","29": "","28": "","27": "b","26": "m","25": "w","24": "v","23": "z","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "f","12": "g","11": "c","10": "r","9": "l","8": "=","21": "`","20": "d","19": "h","18": "t","17": "n","16": "s","15": "-","29": "","28": "","27": "b","26": "m","25": "w","24": "v","23": "z","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "\"","10": ",","11": ".","12": "p","13": "y","14": "\\","15": "","16": "a","17": "o","18": "e","19": "u","20": "i","21": "","22": "`","23": ";","24": "q","25": "j","26": "k","27": "x","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "'","13": "f","12": "g","11": "c","10": "r","9": "l","8": "/","21": "","20": "d","19": "h","18": "t","17": "n","16": "s","15": "-","29": "","28": "","27": "b","26": "m","25": "w","24": "v","23": "z","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "\"","10": ",","11": ".","12": "p","13": "y","14": "","15": "/","16": "a","17": "o","18": "e","19": "u","20": "i","21": "'","22": "","23": ";","24": "q","25": "j","26": "k","27": "x","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "f","12": "g","11": "c","10": "r","9": "l","8": "=","21": "`","20": "d","19": "h","18": "t","17": "n","16": "s","15": "-","29": "","28": "","27": "b","26": "m","25": "w","24": "v","23": "z","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
   </sheetData>
@@ -10563,7 +10661,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="Q1" sqref="Q1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10608,12 +10706,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="82" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
@@ -10629,14 +10727,10 @@
       <c r="F2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>20</v>
       </c>
@@ -10652,12 +10746,14 @@
       <c r="P2" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="83" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -10673,10 +10769,14 @@
       <c r="F3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="81"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>21</v>
       </c>
@@ -10692,14 +10792,12 @@
       <c r="P3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>38</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -10734,34 +10832,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10770,12 +10868,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -10837,13 +10935,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -10867,11 +10965,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -10895,13 +10993,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -10925,11 +11023,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -10953,13 +11051,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -11033,15 +11131,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -11069,15 +11167,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -11101,19 +11199,19 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "e","12": "r","13": "t","14": "","15": "\"","16": "a","17": "s","18": "d","19": "f","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "`","20": "h","19": "j","18": "k","17": "l","16": ";","15": "-","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "e","12": "r","13": "t","14": "","15": "\"","16": "a","17": "s","18": "d","19": "f","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "`","20": "h","19": "j","18": "k","17": "l","16": ";","15": "-","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
   </sheetData>
@@ -11133,7 +11231,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11178,12 +11276,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
@@ -11199,14 +11297,10 @@
       <c r="F2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>18</v>
       </c>
@@ -11222,12 +11316,14 @@
       <c r="P2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -11243,10 +11339,14 @@
       <c r="F3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>26</v>
       </c>
@@ -11262,14 +11362,12 @@
       <c r="P3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="97" t="s">
-        <v>38</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -11304,34 +11402,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11340,12 +11438,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -11407,13 +11505,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -11437,11 +11535,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -11465,13 +11563,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -11495,11 +11593,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -11523,13 +11621,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -11603,15 +11701,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -11639,15 +11737,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -11671,23 +11769,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "t","10": "n","11": "w","12": "m","13": "l","14": "\\","15": "","16": "s","17": "g","18": "x","19": "j","20": "f","21": "","22": "`","23": "e","24": "a","25": "d","26": "i","27": "o","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "t","10": "n","11": "w","12": "m","13": "l","14": "","15": "\"","16": "s","17": "g","18": "x","19": "j","20": "f","21": "'","22": "","23": "e","24": "a","25": "d","26": "i","27": "o","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "c","12": "b","11": "p","10": "r","9": "h","8": "[","21": "","20": "k","19": "q","18": "z","17": "v","16": ";","15": "'","29": "","28": "","27": "y","26": "u","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "c","12": "b","11": "p","10": "r","9": "h","8": "=","21": "`","20": "k","19": "q","18": "z","17": "v","16": ";","15": "-","29": "","28": "","27": "y","26": "u","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "t","10": "n","11": "w","12": "m","13": "l","14": "\\","15": "","16": "s","17": "g","18": "x","19": "j","20": "f","21": "","22": "`","23": "e","24": "a","25": "d","26": "i","27": "o","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "c","12": "b","11": "p","10": "r","9": "h","8": "[","21": "","20": "k","19": "q","18": "z","17": "v","16": ";","15": "'","29": "","28": "","27": "y","26": "u","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "t","10": "n","11": "w","12": "m","13": "l","14": "","15": "\"","16": "s","17": "g","18": "x","19": "j","20": "f","21": "'","22": "","23": "e","24": "a","25": "d","26": "i","27": "o","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "c","12": "b","11": "p","10": "r","9": "h","8": "=","21": "`","20": "k","19": "q","18": "z","17": "v","16": ";","15": "-","29": "","28": "","27": "y","26": "u","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11926,10 +12024,10 @@
       <c r="E5" s="3">
         <v>34</v>
       </c>
-      <c r="F5" s="116">
+      <c r="F5" s="143">
         <v>35</v>
       </c>
-      <c r="G5" s="116">
+      <c r="G5" s="143">
         <v>36</v>
       </c>
       <c r="H5" s="3">
@@ -11939,10 +12037,10 @@
       <c r="J5" s="85">
         <v>37</v>
       </c>
-      <c r="K5" s="104">
+      <c r="K5" s="137">
         <v>36</v>
       </c>
-      <c r="L5" s="104">
+      <c r="L5" s="137">
         <v>35</v>
       </c>
       <c r="M5" s="87">
@@ -11967,8 +12065,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3">
         <v>38</v>
       </c>
@@ -11976,8 +12074,8 @@
       <c r="J6" s="85">
         <v>38</v>
       </c>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -11999,294 +12097,294 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE5B34B-6F30-40B8-8389-C7CFE152C0D1}">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="4.77734375" style="123"/>
-    <col min="8" max="8" width="4.77734375" style="123" customWidth="1"/>
-    <col min="9" max="18" width="4.77734375" style="123"/>
-    <col min="19" max="20" width="4.77734375" style="123" customWidth="1"/>
-    <col min="21" max="16384" width="4.77734375" style="123"/>
+    <col min="1" max="7" width="4.77734375" style="103"/>
+    <col min="8" max="8" width="4.77734375" style="103" customWidth="1"/>
+    <col min="9" max="18" width="4.77734375" style="103"/>
+    <col min="19" max="20" width="4.77734375" style="103" customWidth="1"/>
+    <col min="21" max="16384" width="4.77734375" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120">
+      <c r="A1" s="100">
         <f t="shared" ref="A1:G6" ca="1" si="0">OFFSET($I1,0,COLUMN($I1)-COLUMN())</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="B1" s="120">
+        <v>4</v>
+      </c>
+      <c r="B1" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="C1" s="120">
+        <v>3.5</v>
+      </c>
+      <c r="C1" s="100">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D1" s="100">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E1" s="101">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F1" s="101">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G1" s="102">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="177">
+        <v>5</v>
+      </c>
+      <c r="L1" s="175">
+        <v>4</v>
+      </c>
+      <c r="M1" s="160">
+        <v>3.5</v>
+      </c>
+      <c r="N1" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O1" s="160">
+        <v>3</v>
+      </c>
+      <c r="P1" s="173">
+        <v>3.5</v>
+      </c>
+      <c r="Q1" s="161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="104">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="B2" s="104">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="C2" s="104">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="100">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="101">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="D1" s="120">
+      <c r="F2" s="101">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="E1" s="121">
+        <v>3</v>
+      </c>
+      <c r="G2" s="102" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="F1" s="121">
+        <v>4.5</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="174" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="156">
+        <v>3</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2</v>
+      </c>
+      <c r="N2" s="171">
+        <v>1.5</v>
+      </c>
+      <c r="O2" s="171">
+        <v>1.5</v>
+      </c>
+      <c r="P2" s="155">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="105">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="G1" s="122">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="12">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L1" s="6">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="M1" s="7">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="N1" s="15">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="O1" s="15">
-        <v>2</v>
-      </c>
-      <c r="P1" s="26">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="Q1" s="56">
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="124">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5666666666666669</v>
-      </c>
-      <c r="B2" s="124">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="C2" s="124">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D2" s="120">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E2" s="121">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="F2" s="121">
+        <v>3</v>
+      </c>
+      <c r="B3" s="105">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="G2" s="122">
+      <c r="C3" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="13">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="L2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="100">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="101">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="101">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="106">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="176">
+        <v>4</v>
+      </c>
+      <c r="L3" s="153">
+        <v>2.5</v>
+      </c>
+      <c r="M3" s="171">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="171">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="171">
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="152">
         <v>2</v>
       </c>
-      <c r="M2" s="5">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="N2" s="16">
-        <v>1</v>
-      </c>
-      <c r="O2" s="18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P2" s="24">
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="Q2" s="25">
-        <v>2.5666666666666669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="125">
+      <c r="Q3" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="105">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="105">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B3" s="125">
+      <c r="C4" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="C3" s="124">
+        <v>2</v>
+      </c>
+      <c r="D4" s="100">
+        <f ca="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="101">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="D3" s="120">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E3" s="121">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F3" s="121">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G3" s="126">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="70">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N3" s="16">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O3" s="18">
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="125">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="107">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="125">
+      <c r="G4" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="C4" s="124">
+        <v>4.5</v>
+      </c>
+      <c r="H4" s="108">
+        <f t="shared" ref="H4:H6" ca="1" si="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="178">
+        <v>5</v>
+      </c>
+      <c r="K4" s="162">
+        <v>4.5</v>
+      </c>
+      <c r="L4" s="157">
+        <v>3</v>
+      </c>
+      <c r="M4" s="170">
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="10">
+        <v>2</v>
+      </c>
+      <c r="O4" s="10">
+        <v>2</v>
+      </c>
+      <c r="P4" s="159">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="105">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4666666666666668</v>
-      </c>
-      <c r="D4" s="120">
-        <f ca="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="E4" s="121">
+        <v>8</v>
+      </c>
+      <c r="B5" s="105">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="F4" s="127">
+        <v>7</v>
+      </c>
+      <c r="C5" s="104">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G4" s="128">
+        <v>3.5</v>
+      </c>
+      <c r="D5" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H4" s="128">
-        <f t="shared" ref="H2:H6" ca="1" si="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="J4" s="66">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="K4" s="67">
-        <v>3</v>
-      </c>
-      <c r="L4" s="57">
-        <v>2</v>
-      </c>
-      <c r="M4" s="10">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="N4" s="17">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O4" s="19">
-        <v>1.4666666666666668</v>
-      </c>
-      <c r="P4" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="125">
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="B5" s="125">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="145">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="C5" s="124">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="145">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5666666666666669</v>
-      </c>
-      <c r="D5" s="120">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E5" s="128">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="F5" s="129">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G5" s="129">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="128">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="108">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J5" s="68">
-        <v>3</v>
-      </c>
-      <c r="K5" s="106">
-        <v>1</v>
-      </c>
-      <c r="L5" s="118">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M5" s="69">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N5" s="78">
-        <v>2.3333333333333335</v>
+        <v>4.5</v>
+      </c>
+      <c r="J5" s="163">
+        <v>4.5</v>
+      </c>
+      <c r="K5" s="166">
+        <v>1.5</v>
+      </c>
+      <c r="L5" s="168">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="154">
+        <v>2.5</v>
+      </c>
+      <c r="N5" s="172">
+        <v>3.5</v>
       </c>
       <c r="O5" s="20">
-        <v>2.5666666666666669</v>
-      </c>
-      <c r="P5" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>4.8</v>
+        <v>3.5</v>
+      </c>
+      <c r="P5" s="164">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="165">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12295,23 +12393,23 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="130">
+      <c r="F6" s="146">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="130">
+      <c r="G6" s="146">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="128">
+      <c r="H6" s="108">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J6" s="77">
-        <v>2</v>
-      </c>
-      <c r="K6" s="107"/>
-      <c r="L6" s="109"/>
+        <v>3</v>
+      </c>
+      <c r="J6" s="158">
+        <v>3</v>
+      </c>
+      <c r="K6" s="167"/>
+      <c r="L6" s="169"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -12319,24 +12417,127 @@
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": "4"</v>
+      </c>
+      <c r="B8" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "3,5"</v>
+      </c>
+      <c r="C8" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "3"</v>
+      </c>
+      <c r="D8" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "2,5"</v>
+      </c>
+      <c r="E8" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "3,5"</v>
+      </c>
+      <c r="F8" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "4"</v>
+      </c>
+      <c r="G8" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": "5"</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": "5"</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "4"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "3,5"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "2,5"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "3"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "3,5"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "4"</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
+      <c r="A9" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "3,5"</v>
+      </c>
+      <c r="B9" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "2,5"</v>
+      </c>
+      <c r="C9" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "1,5"</v>
+      </c>
+      <c r="D9" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "1,5"</v>
+      </c>
+      <c r="E9" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "2"</v>
+      </c>
+      <c r="F9" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "3"</v>
+      </c>
+      <c r="G9" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "4.5"</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "4.5"</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "3"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "2"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "1,5"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "1,5"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "2,5"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "3,5"</v>
+      </c>
       <c r="R9" s="76"/>
       <c r="S9" s="76"/>
       <c r="T9" s="76"/>
@@ -12347,8 +12548,329 @@
       <c r="Y9" s="76"/>
       <c r="Z9" s="76"/>
     </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "3"</v>
+      </c>
+      <c r="B10" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "2"</v>
+      </c>
+      <c r="C10" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "0,5"</v>
+      </c>
+      <c r="D10" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "0,5"</v>
+      </c>
+      <c r="E10" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "0,5"</v>
+      </c>
+      <c r="F10" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "2,5"</v>
+      </c>
+      <c r="G10" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "4"</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "4"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "2,5"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "0,5"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "0,5"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "0,5"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "2"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "3"</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="76"/>
+      <c r="A11" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "4"</v>
+      </c>
+      <c r="B11" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "3"</v>
+      </c>
+      <c r="C11" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "2"</v>
+      </c>
+      <c r="D11" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "2"</v>
+      </c>
+      <c r="E11" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "1,5"</v>
+      </c>
+      <c r="F11" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "3"</v>
+      </c>
+      <c r="G11" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": "4,5"</v>
+      </c>
+      <c r="H11" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": "5"</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": "5"</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": "4,5"</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "3"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "1,5"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "2"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "2"</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "3"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": "4"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": "8"</v>
+      </c>
+      <c r="B12" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": "7"</v>
+      </c>
+      <c r="C12" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "3,5"</v>
+      </c>
+      <c r="D12" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "3,5"</v>
+      </c>
+      <c r="E12" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "2,5"</v>
+      </c>
+      <c r="F12" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": "0,5"</v>
+      </c>
+      <c r="G12" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": "1,5"</v>
+      </c>
+      <c r="H12" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": "4,5"</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": "4,5"</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": "1,5"</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": "0,5"</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "2,5"</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "3,5"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": "3,5"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": "7"</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": "8"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" t="str">
+        <f ca="1">_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": "3"</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": "3"</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f ca="1">_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "4","2": "3,5","3": "3","4": "2,5","5": "3,5","6": "4","7": "5","8": "3,5","9": "2,5","10": "1,5","11": "1,5","12": "2","13": "3","14": "4.5","15": "3","16": "2","17": "0,5","18": "0,5","19": "0,5","20": "2,5","21": "4","22": "4","23": "3","24": "2","25": "2","26": "1,5","27": "3","28": "4,5","29": "5","30": "8","31": "7","32": "3,5","33": "3,5","34": "2,5","35": "0,5","36": "1,5","37": "4,5","38": "3"</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "5","6": "4","5": "3,5","4": "2,5","3": "3","2": "3,5","1": "4","14": "4.5","13": "3","12": "2","11": "1,5","10": "1,5","9": "2,5","8": "3,5","21": "4","20": "2,5","19": "0,5","18": "0,5","17": "0,5","16": "2","15": "3","29": "5","28": "4,5","27": "3","26": "1,5","25": "2","24": "2","23": "3","22": "4","37": "4,5","36": "1,5","35": "0,5","34": "2,5","33": "3,5","32": "3,5","31": "7","30": "8","38": "3"</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f ca="1">_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "4","2": "3,5","3": "3","4": "2,5","5": "3,5","6": "4","7": "5","8": "3,5","9": "2,5","10": "1,5","11": "1,5","12": "2","13": "3","14": "4.5","15": "3","16": "2","17": "0,5","18": "0,5","19": "0,5","20": "2,5","21": "4","22": "4","23": "3","24": "2","25": "2","26": "1,5","27": "3","28": "4,5","29": "5","30": "8","31": "7","32": "3,5","33": "3,5","34": "2,5","35": "0,5","36": "1,5","37": "4,5","38": "3"}, "right": {"7": "5","6": "4","5": "3,5","4": "2,5","3": "3","2": "3,5","1": "4","14": "4.5","13": "3","12": "2","11": "1,5","10": "1,5","9": "2,5","8": "3,5","21": "4","20": "2,5","19": "0,5","18": "0,5","17": "0,5","16": "2","15": "3","29": "5","28": "4,5","27": "3","26": "1,5","25": "2","24": "2","23": "3","22": "4","37": "4,5","36": "1,5","35": "0,5","34": "2,5","33": "3,5","32": "3,5","31": "7","30": "8","38": "3"}}</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12377,201 +12899,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="120"/>
-      <c r="B1" s="131">
+      <c r="A1" s="100"/>
+      <c r="B1" s="109">
         <v>1</v>
       </c>
-      <c r="C1" s="131">
+      <c r="C1" s="109">
         <v>2</v>
       </c>
-      <c r="D1" s="131">
+      <c r="D1" s="109">
         <v>3</v>
       </c>
-      <c r="E1" s="132">
+      <c r="E1" s="110">
         <v>4</v>
       </c>
-      <c r="F1" s="132">
+      <c r="F1" s="110">
         <v>5</v>
       </c>
-      <c r="G1" s="121"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="123"/>
+      <c r="I1" s="103"/>
       <c r="J1" s="74"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134">
+      <c r="K1" s="111"/>
+      <c r="L1" s="112">
         <v>6</v>
       </c>
-      <c r="M1" s="135">
+      <c r="M1" s="113">
         <v>7</v>
       </c>
-      <c r="N1" s="136">
+      <c r="N1" s="114">
         <v>8</v>
       </c>
-      <c r="O1" s="136">
+      <c r="O1" s="114">
         <v>9</v>
       </c>
-      <c r="P1" s="136">
+      <c r="P1" s="114">
         <v>0</v>
       </c>
-      <c r="Q1" s="137" t="s">
+      <c r="Q1" s="115"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="181" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="106"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="179" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="105"/>
+      <c r="B4" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="120"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="121" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="138" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="139" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="140" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="140" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="141" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="149" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="125" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="133" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="138" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="142" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="142" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="125" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="125" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="124" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="127" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="138" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="142" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="142" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="144" t="s">
+      <c r="E5" s="108"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="145" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="139" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="140"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -12579,13 +13101,13 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="148"/>
       <c r="M6" s="74"/>
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
@@ -12647,13 +13169,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -12705,13 +13227,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "/"</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -12735,11 +13257,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -12763,13 +13285,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "\\"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -12829,7 +13351,7 @@
       </c>
       <c r="Q11" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": "/"</v>
+        <v>"22": ""</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -12843,15 +13365,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -12879,15 +13401,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -12911,23 +13433,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "p","11": "d","12": "v","13": "k","14": "","15": "'","16": "f","17": "h","18": "e","19": "o","20": "w","21": "","22": "`","23": "x","24": "c","25": "u","26": "r","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "p","11": "d","12": "v","13": "k","14": "","15": "/","16": "f","17": "h","18": "e","19": "o","20": "w","21": "'","22": "","23": "x","24": "c","25": "u","26": "r","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "[","21": "","20": "s","19": "a","18": "t","17": "i","16": "m","15": "\\","29": "","28": "","27": "\"","26": "n","25": "g","24": ",","23": ".","22": "/","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "=","21": "`","20": "s","19": "a","18": "t","17": "i","16": "m","15": "-","29": "","28": "","27": "\"","26": "n","25": "g","24": ",","23": ".","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "p","11": "d","12": "v","13": "k","14": "","15": "'","16": "f","17": "h","18": "e","19": "o","20": "w","21": "","22": "`","23": "x","24": "c","25": "u","26": "r","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "[","21": "","20": "s","19": "a","18": "t","17": "i","16": "m","15": "\\","29": "","28": "","27": "\"","26": "n","25": "g","24": ",","23": ".","22": "/","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "p","11": "d","12": "v","13": "k","14": "","15": "/","16": "f","17": "h","18": "e","19": "o","20": "w","21": "'","22": "","23": "x","24": "c","25": "u","26": "r","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "z","12": ";","11": "l","10": "y","9": "j","8": "=","21": "`","20": "s","19": "a","18": "t","17": "i","16": "m","15": "-","29": "","28": "","27": "\"","26": "n","25": "g","24": ",","23": ".","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12945,7 +13467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E980F9-6F0D-48BC-9620-9B07A08FEE06}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -12956,201 +13478,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="109">
+        <v>1</v>
+      </c>
+      <c r="C1" s="109">
+        <v>2</v>
+      </c>
+      <c r="D1" s="109">
+        <v>3</v>
+      </c>
+      <c r="E1" s="110">
+        <v>4</v>
+      </c>
+      <c r="F1" s="110">
+        <v>5</v>
+      </c>
+      <c r="G1" s="101"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="112">
+        <v>6</v>
+      </c>
+      <c r="M1" s="113">
+        <v>7</v>
+      </c>
+      <c r="N1" s="114">
+        <v>8</v>
+      </c>
+      <c r="O1" s="114">
+        <v>9</v>
+      </c>
+      <c r="P1" s="114">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="115"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="181" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="106"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="179" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="105"/>
+      <c r="B4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="131">
-        <v>1</v>
-      </c>
-      <c r="C1" s="131">
-        <v>2</v>
-      </c>
-      <c r="D1" s="131">
-        <v>3</v>
-      </c>
-      <c r="E1" s="132">
-        <v>4</v>
-      </c>
-      <c r="F1" s="132">
-        <v>5</v>
-      </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134">
-        <v>6</v>
-      </c>
-      <c r="M1" s="135">
-        <v>7</v>
-      </c>
-      <c r="N1" s="136">
+      <c r="C4" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="136">
-        <v>9</v>
-      </c>
-      <c r="P1" s="136">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="137" t="s">
+      <c r="O4" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="120"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="124" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="121" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="138" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="139" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="140" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="141" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="149"/>
-      <c r="B3" s="125" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="133" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="138" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="139" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="140" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="142" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="142"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="124" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="121" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="133" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="138" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="139" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="142" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="142"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="124" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="128" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="144" t="s">
+      <c r="E5" s="108"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="145" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="139" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="141" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -13158,13 +13680,13 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="148"/>
       <c r="M6" s="74"/>
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
@@ -13174,7 +13696,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": "z"</v>
+        <v>"1": ""</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
@@ -13226,13 +13748,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": "`"</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -13284,13 +13806,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "/"</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -13314,11 +13836,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -13342,7 +13864,7 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -13352,7 +13874,7 @@
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "/"</v>
+        <v>"23": "z"</v>
       </c>
       <c r="C11" t="str">
         <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
@@ -13422,15 +13944,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": "\\"</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "="</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "-"</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -13458,15 +13980,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": "'"</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -13490,23 +14012,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "z","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "`","9": "k","10": "s","11": "u","12": "b","13": "q","14": "","15": "","16": "n","17": "i","18": "a","19": "t","20": "y","21": "","22": "","23": "/","24": ";","25": "l","26": "g","27": "\"","28": "","29": "","30": "","31": "","32": "\\","33": "=","34": "-","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "k","10": "s","11": "u","12": "b","13": "q","14": "","15": "/","16": "n","17": "i","18": "a","19": "t","20": "y","21": "'","22": "","23": "z","24": ";","25": "l","26": "g","27": "\"","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "j","12": "p","11": "h","10": "m","9": "x","8": "[","21": "","20": "f","19": "r","18": "e","17": "o","16": "c","15": "","29": "","28": "","27": "v","26": "d","25": "w","24": ",","23": ".","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "'","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "p","11": "h","10": "m","9": "x","8": "=","21": "`","20": "f","19": "r","18": "e","17": "o","16": "c","15": "-","29": "","28": "","27": "v","26": "d","25": "w","24": ",","23": ".","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "z","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "`","9": "k","10": "s","11": "u","12": "b","13": "q","14": "","15": "","16": "n","17": "i","18": "a","19": "t","20": "y","21": "","22": "","23": "/","24": ";","25": "l","26": "g","27": "\"","28": "","29": "","30": "","31": "","32": "\\","33": "=","34": "-","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "","13": "j","12": "p","11": "h","10": "m","9": "x","8": "[","21": "","20": "f","19": "r","18": "e","17": "o","16": "c","15": "","29": "","28": "","27": "v","26": "d","25": "w","24": ",","23": ".","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "'","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "k","10": "s","11": "u","12": "b","13": "q","14": "","15": "/","16": "n","17": "i","18": "a","19": "t","20": "y","21": "'","22": "","23": "z","24": ";","25": "l","26": "g","27": "\"","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "p","11": "h","10": "m","9": "x","8": "=","21": "`","20": "f","19": "r","18": "e","17": "o","16": "c","15": "-","29": "","28": "","27": "v","26": "d","25": "w","24": ",","23": ".","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13525,7 +14047,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L6"/>
+      <selection activeCell="E23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13570,12 +14092,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
@@ -13591,14 +14113,10 @@
       <c r="F2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="81"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -13614,12 +14132,14 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -13635,10 +14155,14 @@
       <c r="F3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="95" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>20</v>
       </c>
@@ -13654,14 +14178,12 @@
       <c r="P3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>38</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -13696,33 +14218,33 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
+      <c r="C5" s="55" t="s">
+        <v>35</v>
+      </c>
       <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+        <v>36</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
       <c r="P5" s="84"/>
       <c r="Q5" s="84"/>
     </row>
@@ -13732,12 +14254,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -13799,13 +14321,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -13829,11 +14351,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -13857,13 +14379,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -13887,11 +14409,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -13915,13 +14437,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -13995,15 +14517,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -14031,15 +14553,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -14063,23 +14585,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "d","12": "f","13": "k","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "f","13": "k","14": "","15": "\"","16": "a","17": "s","18": "e","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "r","10": "l","9": ";","8": "[","21": "","20": "y","19": "n","18": "i","17": "o","16": "h","15": "'","29": "","28": "","27": "p","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "u","11": "r","10": "l","9": ";","8": "=","21": "`","20": "y","19": "n","18": "i","17": "o","16": "h","15": "-","29": "","28": "","27": "p","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "d","12": "f","13": "k","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "r","10": "l","9": ";","8": "[","21": "","20": "y","19": "n","18": "i","17": "o","16": "h","15": "'","29": "","28": "","27": "p","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "f","13": "k","14": "","15": "\"","16": "a","17": "s","18": "e","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "u","11": "r","10": "l","9": ";","8": "=","21": "`","20": "y","19": "n","18": "i","17": "o","16": "h","15": "-","29": "","28": "","27": "p","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14097,7 +14619,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14142,12 +14664,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
@@ -14163,14 +14685,10 @@
       <c r="F2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>26</v>
       </c>
@@ -14186,12 +14704,14 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>35</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -14207,10 +14727,14 @@
       <c r="F3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>14</v>
       </c>
@@ -14226,14 +14750,12 @@
       <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>38</v>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -14268,34 +14790,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -14304,12 +14826,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -14371,13 +14893,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "]"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -14401,11 +14923,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -14429,13 +14951,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "["</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -14459,11 +14981,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -14487,13 +15009,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "'"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -14567,15 +15089,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "-"</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "="</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -14603,15 +15125,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -14635,23 +15157,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "l","12": "d","13": "p","14": "\\","15": "","16": "a","17": "s","18": "r","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "l","12": "d","13": "p","14": "","15": "\"","16": "a","17": "s","18": "r","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "k","12": "m","11": "u","10": "y","9": ";","8": "[","21": "","20": "f","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "b","26": "h","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "k","12": "m","11": "u","10": "y","9": ";","8": "=","21": "`","20": "f","19": "n","18": "e","17": "i","16": "o","15": "-","29": "","28": "","27": "b","26": "h","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "l","12": "d","13": "p","14": "\\","15": "","16": "a","17": "s","18": "r","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "k","12": "m","11": "u","10": "y","9": ";","8": "[","21": "","20": "f","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "b","26": "h","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "l","12": "d","13": "p","14": "","15": "\"","16": "a","17": "s","18": "r","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "k","12": "m","11": "u","10": "y","9": ";","8": "=","21": "`","20": "f","19": "n","18": "e","17": "i","16": "o","15": "-","29": "","28": "","27": "b","26": "h","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
+      <c r="A20" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14669,7 +15191,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14710,12 +15232,12 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="91" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="55" t="s">
         <v>27</v>
       </c>
@@ -14731,14 +15253,10 @@
       <c r="F2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="71" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="81" t="s">
-        <v>48</v>
-      </c>
+      <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -14754,12 +15272,14 @@
       <c r="P2" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="90" t="s">
-        <v>37</v>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="180" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
@@ -14775,10 +15295,14 @@
       <c r="F3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="71"/>
+      <c r="K3" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="81" t="s">
         <v>24</v>
       </c>
@@ -14794,14 +15318,12 @@
       <c r="P3" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="84" t="s">
+      <c r="Q3" s="120" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -14824,10 +15346,10 @@
       <c r="L4" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="94" t="s">
+      <c r="M4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="90" t="s">
         <v>38</v>
       </c>
       <c r="O4" s="83" t="s">
@@ -14836,34 +15358,34 @@
       <c r="P4" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="O5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="P5" s="120"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -14872,12 +15394,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="138"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -14939,13 +15461,13 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "="</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": ""</v>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -14969,11 +15491,11 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "\\"</v>
+        <v>"14": ""</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "\""</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -14997,13 +15519,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "/"</v>
+        <v>"8": "="</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": "\""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -15027,11 +15549,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "'"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": ""</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -15061,7 +15583,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "`"</v>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -15135,15 +15657,15 @@
       </c>
       <c r="C12" t="str">
         <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "["</v>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "]"</v>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -15171,15 +15693,15 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "("</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": ")"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ""</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
@@ -15203,23 +15725,23 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": ",","10": "f","11": "h","12": "d","13": "k","14": "\\","15": "","16": "o","17": "a","18": "n","19": "t","20": "g","21": "","22": "`","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": ",","10": "f","11": "h","12": "d","13": "k","14": "","15": "\"","16": "o","17": "a","18": "n","19": "t","20": "g","21": "'","22": "","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "\"","13": "j","12": "c","11": "u","10": "l","9": ".","8": "/","21": "","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "c","11": "u","10": "l","9": ".","8": "=","21": "`","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": ",","10": "f","11": "h","12": "d","13": "k","14": "\\","15": "","16": "o","17": "a","18": "n","19": "t","20": "g","21": "","22": "`","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "\"","13": "j","12": "c","11": "u","10": "l","9": ".","8": "/","21": "","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": ",","10": "f","11": "h","12": "d","13": "k","14": "","15": "\"","16": "o","17": "a","18": "n","19": "t","20": "g","21": "'","22": "","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "c","11": "u","10": "l","9": ".","8": "=","21": "`","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="91" t="s">
         <v>51</v>
       </c>
     </row>

--- a/layouts/layouts.xlsx
+++ b/layouts/layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgaliamov\projects\personal\ergo-layouts\layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C06ADC5-0DF6-4D94-9D00-B26F92C337EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E413119-C5F9-4C85-B409-E2ABFDC80E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" tabRatio="874" firstSheet="2" activeTab="9" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="2088" yWindow="1152" windowWidth="22344" windowHeight="12660" tabRatio="874" firstSheet="2" activeTab="8" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -1350,6 +1350,102 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="13" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="20" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="17" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="18" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="28" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="14" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="15" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="13" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="19" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1374,24 +1470,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1404,6 +1482,18 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,96 +1507,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="13" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="20" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="17" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="18" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="28" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="14" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="15" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="13" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="19" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2325,10 +2325,10 @@
       <c r="A6" s="63">
         <v>9</v>
       </c>
-      <c r="B6" s="129">
+      <c r="B6" s="161">
         <v>3</v>
       </c>
-      <c r="C6" s="131">
+      <c r="C6" s="163">
         <v>1</v>
       </c>
       <c r="D6" s="64">
@@ -2350,11 +2350,11 @@
         <f t="shared" ref="J6:J7" si="10">A6*$C$1/$H$1</f>
         <v>4.5</v>
       </c>
-      <c r="K6" s="139">
+      <c r="K6" s="157">
         <f>B6*$C$1/$H$1</f>
         <v>1.5</v>
       </c>
-      <c r="L6" s="141">
+      <c r="L6" s="159">
         <f>C6*$C$1/$H$1</f>
         <v>0.5</v>
       </c>
@@ -2381,10 +2381,10 @@
       <c r="S6" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="133" t="s">
+      <c r="T6" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="U6" s="135" t="s">
+      <c r="U6" s="167" t="s">
         <v>66</v>
       </c>
       <c r="V6" s="87" t="s">
@@ -2405,10 +2405,10 @@
       <c r="AB6" s="85">
         <v>37</v>
       </c>
-      <c r="AC6" s="137">
+      <c r="AC6" s="155">
         <v>36</v>
       </c>
-      <c r="AD6" s="137">
+      <c r="AD6" s="155">
         <v>35</v>
       </c>
       <c r="AE6" s="87">
@@ -2431,8 +2431,8 @@
       <c r="A7" s="79">
         <v>6</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="132"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="164"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -2442,13 +2442,13 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K7" s="140"/>
-      <c r="L7" s="142"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="160"/>
       <c r="S7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="134"/>
-      <c r="U7" s="136"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="168"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
       <c r="X7" s="27"/>
@@ -2457,8 +2457,8 @@
       <c r="AB7" s="85">
         <v>38</v>
       </c>
-      <c r="AC7" s="138"/>
-      <c r="AD7" s="138"/>
+      <c r="AC7" s="156"/>
+      <c r="AD7" s="156"/>
       <c r="AE7" s="27"/>
       <c r="AF7" s="27"/>
       <c r="AG7" s="27"/>
@@ -3750,8 +3750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE1B9F7-56A1-4B2B-8844-93D3218A2256}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3837,7 +3837,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -3930,12 +3930,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -3954,12 +3954,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -4324,7 +4324,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,7 +4414,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -4507,12 +4507,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -4531,12 +4531,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -4896,7 +4896,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4986,7 +4986,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -5079,12 +5079,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -5103,12 +5103,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -5468,7 +5468,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5558,7 +5558,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -5651,12 +5651,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -5675,12 +5675,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -6040,7 +6040,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6130,7 +6130,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -6223,12 +6223,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -6247,12 +6247,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -6617,7 +6617,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6707,7 +6707,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6730,7 +6730,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -6800,12 +6800,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -6824,12 +6824,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -7189,7 +7189,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q4"/>
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7279,7 +7279,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7302,7 +7302,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -7372,12 +7372,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -7396,12 +7396,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -7761,7 +7761,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7851,7 +7851,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -7944,12 +7944,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -7968,12 +7968,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -8333,7 +8333,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8423,7 +8423,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -8516,12 +8516,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -8540,12 +8540,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -8905,7 +8905,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8991,7 +8991,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -9014,7 +9014,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -9084,12 +9084,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -9108,12 +9108,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -10092,7 +10092,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10140,7 +10140,7 @@
       <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="154" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="73" t="s">
@@ -10205,7 +10205,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -10275,12 +10275,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -10299,12 +10299,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -10661,7 +10661,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10751,7 +10751,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -10774,7 +10774,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -10844,12 +10844,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -10868,12 +10868,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -11231,7 +11231,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11321,7 +11321,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -11414,12 +11414,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -11438,12 +11438,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -12024,10 +12024,10 @@
       <c r="E5" s="3">
         <v>34</v>
       </c>
-      <c r="F5" s="143">
+      <c r="F5" s="169">
         <v>35</v>
       </c>
-      <c r="G5" s="143">
+      <c r="G5" s="169">
         <v>36</v>
       </c>
       <c r="H5" s="3">
@@ -12037,10 +12037,10 @@
       <c r="J5" s="85">
         <v>37</v>
       </c>
-      <c r="K5" s="137">
+      <c r="K5" s="155">
         <v>36</v>
       </c>
-      <c r="L5" s="137">
+      <c r="L5" s="155">
         <v>35</v>
       </c>
       <c r="M5" s="87">
@@ -12065,8 +12065,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3">
         <v>38</v>
       </c>
@@ -12074,8 +12074,8 @@
       <c r="J6" s="85">
         <v>38</v>
       </c>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -12143,25 +12143,25 @@
       </c>
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="177">
+      <c r="K1" s="150">
         <v>5</v>
       </c>
-      <c r="L1" s="175">
+      <c r="L1" s="148">
         <v>4</v>
       </c>
-      <c r="M1" s="160">
+      <c r="M1" s="137">
         <v>3.5</v>
       </c>
       <c r="N1" s="15">
         <v>2.5</v>
       </c>
-      <c r="O1" s="160">
+      <c r="O1" s="137">
         <v>3</v>
       </c>
-      <c r="P1" s="173">
+      <c r="P1" s="146">
         <v>3.5</v>
       </c>
-      <c r="Q1" s="161">
+      <c r="Q1" s="138">
         <v>4</v>
       </c>
     </row>
@@ -12196,22 +12196,22 @@
       </c>
       <c r="H2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="174" t="s">
+      <c r="K2" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="156">
+      <c r="L2" s="133">
         <v>3</v>
       </c>
       <c r="M2" s="5">
         <v>2</v>
       </c>
-      <c r="N2" s="171">
+      <c r="N2" s="144">
         <v>1.5</v>
       </c>
-      <c r="O2" s="171">
+      <c r="O2" s="144">
         <v>1.5</v>
       </c>
-      <c r="P2" s="155">
+      <c r="P2" s="132">
         <v>2.5</v>
       </c>
       <c r="Q2" s="25">
@@ -12249,22 +12249,22 @@
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="176">
+      <c r="K3" s="149">
         <v>4</v>
       </c>
-      <c r="L3" s="153">
+      <c r="L3" s="130">
         <v>2.5</v>
       </c>
-      <c r="M3" s="171">
+      <c r="M3" s="144">
         <v>0.5</v>
       </c>
-      <c r="N3" s="171">
+      <c r="N3" s="144">
         <v>0.5</v>
       </c>
-      <c r="O3" s="171">
+      <c r="O3" s="144">
         <v>0.5</v>
       </c>
-      <c r="P3" s="152">
+      <c r="P3" s="129">
         <v>2</v>
       </c>
       <c r="Q3" s="25">
@@ -12304,16 +12304,16 @@
         <f t="shared" ref="H4:H6" ca="1" si="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
         <v>5</v>
       </c>
-      <c r="J4" s="178">
+      <c r="J4" s="151">
         <v>5</v>
       </c>
-      <c r="K4" s="162">
+      <c r="K4" s="139">
         <v>4.5</v>
       </c>
-      <c r="L4" s="157">
+      <c r="L4" s="134">
         <v>3</v>
       </c>
-      <c r="M4" s="170">
+      <c r="M4" s="143">
         <v>1.5</v>
       </c>
       <c r="N4" s="10">
@@ -12322,10 +12322,10 @@
       <c r="O4" s="10">
         <v>2</v>
       </c>
-      <c r="P4" s="159">
+      <c r="P4" s="136">
         <v>3</v>
       </c>
-      <c r="Q4" s="176">
+      <c r="Q4" s="149">
         <v>4</v>
       </c>
     </row>
@@ -12350,11 +12350,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="F5" s="145">
+      <c r="F5" s="171">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G5" s="145">
+      <c r="G5" s="171">
         <f t="shared" ca="1" si="0"/>
         <v>1.5</v>
       </c>
@@ -12362,28 +12362,28 @@
         <f t="shared" ca="1" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="J5" s="163">
+      <c r="J5" s="140">
         <v>4.5</v>
       </c>
-      <c r="K5" s="166">
+      <c r="K5" s="173">
         <v>1.5</v>
       </c>
-      <c r="L5" s="168">
+      <c r="L5" s="175">
         <v>0.5</v>
       </c>
-      <c r="M5" s="154">
+      <c r="M5" s="131">
         <v>2.5</v>
       </c>
-      <c r="N5" s="172">
+      <c r="N5" s="145">
         <v>3.5</v>
       </c>
       <c r="O5" s="20">
         <v>3.5</v>
       </c>
-      <c r="P5" s="164">
+      <c r="P5" s="141">
         <v>7</v>
       </c>
-      <c r="Q5" s="165">
+      <c r="Q5" s="142">
         <v>8</v>
       </c>
     </row>
@@ -12393,11 +12393,11 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="146">
+      <c r="F6" s="172">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="146">
+      <c r="G6" s="172">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -12405,11 +12405,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="J6" s="158">
+      <c r="J6" s="135">
         <v>3</v>
       </c>
-      <c r="K6" s="167"/>
-      <c r="L6" s="169"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="176"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -12938,7 +12938,7 @@
       <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="154" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="104" t="s">
@@ -12999,7 +12999,7 @@
       <c r="F3" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="152" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="4"/>
@@ -13076,13 +13076,13 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="108"/>
       <c r="I5" s="103"/>
       <c r="J5" s="121"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="147" t="s">
+      <c r="K5" s="179"/>
+      <c r="L5" s="177" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -13101,13 +13101,13 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="108"/>
       <c r="I6" s="103"/>
       <c r="J6" s="121"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="148"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="178"/>
       <c r="M6" s="74"/>
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
@@ -13517,7 +13517,7 @@
       <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="154" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="104" t="s">
@@ -13578,13 +13578,13 @@
       <c r="F3" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="179" t="s">
+      <c r="G3" s="152" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="103"/>
       <c r="J3" s="74"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="111" t="s">
@@ -13655,13 +13655,13 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="108"/>
       <c r="I5" s="103"/>
       <c r="J5" s="121"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="147" t="s">
+      <c r="K5" s="179"/>
+      <c r="L5" s="177" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -13680,13 +13680,13 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="108"/>
       <c r="I6" s="103"/>
       <c r="J6" s="121"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="148"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="178"/>
       <c r="M6" s="74"/>
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
@@ -14137,7 +14137,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -14230,12 +14230,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -14254,12 +14254,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -14709,7 +14709,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -14732,7 +14732,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -14802,12 +14802,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -14826,12 +14826,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -15190,8 +15190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1F72C-151E-43E5-9E9B-7B384388A13F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15236,7 +15236,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>27</v>
@@ -15277,7 +15277,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="153" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -15296,11 +15296,11 @@
         <v>15</v>
       </c>
       <c r="G3" s="94" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="179" t="s">
+      <c r="K3" s="152" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -15370,12 +15370,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="151" t="s">
+      <c r="L5" s="181" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -15394,12 +15394,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="138"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -15467,7 +15467,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": "\\"</v>
+        <v>"8": "/"</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": "'"</v>
+        <v>"21": "\\"</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
@@ -15725,7 +15725,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": ",","10": "f","11": "h","12": "d","13": "k","14": "","15": "\"","16": "o","17": "a","18": "n","19": "t","20": "g","21": "'","22": "","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "/","9": ",","10": "f","11": "h","12": "d","13": "k","14": "","15": "\"","16": "o","17": "a","18": "n","19": "t","20": "g","21": "\\","22": "","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -15737,7 +15737,7 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": ",","10": "f","11": "h","12": "d","13": "k","14": "","15": "\"","16": "o","17": "a","18": "n","19": "t","20": "g","21": "'","22": "","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "c","11": "u","10": "l","9": ".","8": "=","21": "`","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "/","9": ",","10": "f","11": "h","12": "d","13": "k","14": "","15": "\"","16": "o","17": "a","18": "n","19": "t","20": "g","21": "\\","22": "","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "c","11": "u","10": "l","9": ".","8": "=","21": "`","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">

--- a/layouts/layouts.xlsx
+++ b/layouts/layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgaliamov\projects\personal\ergo-layouts\layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E413119-C5F9-4C85-B409-E2ABFDC80E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD5D155-8795-443B-8B55-04EBE8A89B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1152" windowWidth="22344" windowHeight="12660" tabRatio="874" firstSheet="2" activeTab="8" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" tabRatio="874" firstSheet="12" activeTab="27" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,19 @@
     <sheet name="Gelatin" sheetId="20" r:id="rId17"/>
     <sheet name="Kaehi" sheetId="14" r:id="rId18"/>
     <sheet name="Mtgap1" sheetId="5" r:id="rId19"/>
-    <sheet name="Dvorak" sheetId="9" r:id="rId20"/>
-    <sheet name="Querty" sheetId="3" r:id="rId21"/>
-    <sheet name="TNWMLC" sheetId="19" r:id="rId22"/>
+    <sheet name="Querty" sheetId="3" r:id="rId20"/>
+    <sheet name="TNWMLC" sheetId="19" r:id="rId21"/>
+    <sheet name="Dvorak" sheetId="9" r:id="rId22"/>
+    <sheet name="Capewell-Dvorak" sheetId="28" r:id="rId23"/>
+    <sheet name="Klausler" sheetId="29" r:id="rId24"/>
+    <sheet name="Arensito" sheetId="30" r:id="rId25"/>
+    <sheet name="C-Querty" sheetId="31" r:id="rId26"/>
+    <sheet name="C-Querty 1-2" sheetId="32" r:id="rId27"/>
+    <sheet name="C-Querty N" sheetId="33" r:id="rId28"/>
+    <sheet name="Capewell" sheetId="34" r:id="rId29"/>
+    <sheet name="Asset" sheetId="35" r:id="rId30"/>
+    <sheet name="Norman L" sheetId="36" r:id="rId31"/>
+    <sheet name="Norman LR" sheetId="37" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="117">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -978,7 +988,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1350,6 +1360,12 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,6 +1523,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2325,10 +2344,10 @@
       <c r="A6" s="63">
         <v>9</v>
       </c>
-      <c r="B6" s="161">
+      <c r="B6" s="163">
         <v>3</v>
       </c>
-      <c r="C6" s="163">
+      <c r="C6" s="165">
         <v>1</v>
       </c>
       <c r="D6" s="64">
@@ -2350,11 +2369,11 @@
         <f t="shared" ref="J6:J7" si="10">A6*$C$1/$H$1</f>
         <v>4.5</v>
       </c>
-      <c r="K6" s="157">
+      <c r="K6" s="159">
         <f>B6*$C$1/$H$1</f>
         <v>1.5</v>
       </c>
-      <c r="L6" s="159">
+      <c r="L6" s="161">
         <f>C6*$C$1/$H$1</f>
         <v>0.5</v>
       </c>
@@ -2381,10 +2400,10 @@
       <c r="S6" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="165" t="s">
+      <c r="T6" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="U6" s="167" t="s">
+      <c r="U6" s="169" t="s">
         <v>66</v>
       </c>
       <c r="V6" s="87" t="s">
@@ -2405,10 +2424,10 @@
       <c r="AB6" s="85">
         <v>37</v>
       </c>
-      <c r="AC6" s="155">
+      <c r="AC6" s="157">
         <v>36</v>
       </c>
-      <c r="AD6" s="155">
+      <c r="AD6" s="157">
         <v>35</v>
       </c>
       <c r="AE6" s="87">
@@ -2431,8 +2450,8 @@
       <c r="A7" s="79">
         <v>6</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="164"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="166"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -2442,13 +2461,13 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K7" s="158"/>
-      <c r="L7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="162"/>
       <c r="S7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="166"/>
-      <c r="U7" s="168"/>
+      <c r="T7" s="168"/>
+      <c r="U7" s="170"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
       <c r="X7" s="27"/>
@@ -2457,8 +2476,8 @@
       <c r="AB7" s="85">
         <v>38</v>
       </c>
-      <c r="AC7" s="156"/>
-      <c r="AD7" s="156"/>
+      <c r="AC7" s="158"/>
+      <c r="AD7" s="158"/>
       <c r="AE7" s="27"/>
       <c r="AF7" s="27"/>
       <c r="AG7" s="27"/>
@@ -3837,7 +3856,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3860,7 +3879,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -3930,12 +3949,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -3954,12 +3973,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -4414,7 +4433,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4437,7 +4456,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -4507,12 +4526,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -4531,12 +4550,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -4986,7 +5005,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5009,7 +5028,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -5079,12 +5098,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -5103,12 +5122,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -5558,7 +5577,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5581,7 +5600,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -5651,12 +5670,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -5675,12 +5694,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -6130,7 +6149,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6153,7 +6172,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -6223,12 +6242,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -6247,12 +6266,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -6616,7 +6635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0ED93C-CABF-47EC-AD81-D7985BA91921}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -6707,7 +6726,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6730,7 +6749,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -6800,12 +6819,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -6824,12 +6843,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -7279,7 +7298,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7302,7 +7321,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -7372,12 +7391,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -7396,12 +7415,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -7851,7 +7870,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7874,7 +7893,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -7944,12 +7963,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -7968,12 +7987,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -8423,7 +8442,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8446,7 +8465,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -8516,12 +8535,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -8540,12 +8559,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -8991,7 +9010,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -9014,7 +9033,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -9084,12 +9103,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -9108,12 +9127,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -10088,6 +10107,1148 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="M1" s="86">
+        <v>7</v>
+      </c>
+      <c r="N1" s="82">
+        <v>8</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="115"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="155" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="120"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "e"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "r"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "t"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "y"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "i"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "o"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "p"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "="</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "\""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "d"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "f"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "`"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "j"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "k"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "l"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": ";"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "n"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "("</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ")"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "e","12": "r","13": "t","14": "","15": "\"","16": "a","17": "s","18": "d","19": "f","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "`","20": "h","19": "j","18": "k","17": "l","16": ";","15": "-","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "e","12": "r","13": "t","14": "","15": "\"","16": "a","17": "s","18": "d","19": "f","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "`","20": "h","19": "j","18": "k","17": "l","16": ";","15": "-","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54629CB4-1357-4DAA-81A6-F9F9C3E3952D}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="M1" s="86">
+        <v>7</v>
+      </c>
+      <c r="N1" s="82">
+        <v>8</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="115"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="155" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="120"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "t"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "n"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "w"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "m"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "l"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "c"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "b"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "p"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "r"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "h"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "="</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "\""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "s"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "g"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "x"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "j"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "f"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "`"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "k"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "q"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "z"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "v"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": ";"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "e"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "a"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "d"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "i"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "o"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "y"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "u"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "("</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ")"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "t","10": "n","11": "w","12": "m","13": "l","14": "","15": "\"","16": "s","17": "g","18": "x","19": "j","20": "f","21": "'","22": "","23": "e","24": "a","25": "d","26": "i","27": "o","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "c","12": "b","11": "p","10": "r","9": "h","8": "=","21": "`","20": "k","19": "q","18": "z","17": "v","16": ";","15": "-","29": "","28": "","27": "y","26": "u","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "t","10": "n","11": "w","12": "m","13": "l","14": "","15": "\"","16": "s","17": "g","18": "x","19": "j","20": "f","21": "'","22": "","23": "e","24": "a","25": "d","26": "i","27": "o","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "c","12": "b","11": "p","10": "r","9": "h","8": "=","21": "`","20": "k","19": "q","18": "z","17": "v","16": ";","15": "-","29": "","28": "","27": "y","26": "u","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F82B80-7F41-4926-8A25-14D35408A7A1}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -10140,7 +11301,7 @@
       <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="156" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="73" t="s">
@@ -10205,7 +11366,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -10275,12 +11436,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -10299,12 +11460,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -10656,8 +11817,1715 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720F8D5D-73E1-45F5-8BD7-CB3647930C7B}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="100"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="M1" s="86">
+        <v>7</v>
+      </c>
+      <c r="N1" s="82">
+        <v>8</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="115"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="156" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="105"/>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="120"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "\""</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": ","</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "."</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "p"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "y"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "q"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "f"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "g"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "r"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "k"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "="</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "/"</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "a"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "i"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "u"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "`"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "d"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "h"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "t"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "n"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "s"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": ";"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "z"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "x"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "c"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "v"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "j"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "l"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "m"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "w"</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "b"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "("</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ")"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "\"","10": ",","11": ".","12": "p","13": "y","14": "","15": "/","16": "o","17": "a","18": "e","19": "i","20": "u","21": "'","22": "","23": ";","24": "z","25": "x","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "q","12": "f","11": "g","10": "r","9": "k","8": "=","21": "`","20": "d","19": "h","18": "t","17": "n","16": "s","15": "-","29": "","28": "","27": "j","26": "l","25": "m","24": "w","23": "b","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "\"","10": ",","11": ".","12": "p","13": "y","14": "","15": "/","16": "o","17": "a","18": "e","19": "i","20": "u","21": "'","22": "","23": ";","24": "z","25": "x","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "q","12": "f","11": "g","10": "r","9": "k","8": "=","21": "`","20": "d","19": "h","18": "t","17": "n","16": "s","15": "-","29": "","28": "","27": "j","26": "l","25": "m","24": "w","23": "b","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B54A7BB-7527-423A-B1D9-B7BEEBF75923}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="100"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="M1" s="86">
+        <v>7</v>
+      </c>
+      <c r="N1" s="82">
+        <v>8</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="115"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="156" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="184" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="120"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "k"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": ","</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "y"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "p"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "w"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "l"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "m"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "f"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "c"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "="</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "/"</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "a"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "i"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "d"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "`"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "r"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "t"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "h"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "s"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "q"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "\""</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": ";"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "z"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "x"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "g"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "b"</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "j"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "("</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ")"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "k","10": ",","11": "u","12": "y","13": "p","14": "","15": "/","16": "o","17": "a","18": "e","19": "i","20": "d","21": "'","22": "","23": "q","24": ".","25": "\"","26": ";","27": "z","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "w","12": "l","11": "m","10": "f","9": "c","8": "=","21": "`","20": "r","19": "n","18": "t","17": "h","16": "s","15": "-","29": "","28": "","27": "x","26": "v","25": "g","24": "b","23": "j","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "k","10": ",","11": "u","12": "y","13": "p","14": "","15": "/","16": "o","17": "a","18": "e","19": "i","20": "d","21": "'","22": "","23": "q","24": ".","25": "\"","26": ";","27": "z","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "w","12": "l","11": "m","10": "f","9": "c","8": "=","21": "`","20": "r","19": "n","18": "t","17": "h","16": "s","15": "-","29": "","28": "","27": "x","26": "v","25": "g","24": "b","23": "j","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F46AF9-62D0-40D3-9A2C-146AE5375FCA}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="100"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="M1" s="86">
+        <v>7</v>
+      </c>
+      <c r="N1" s="82">
+        <v>8</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="115"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="156" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="184" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="120"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "l"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "."</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "p"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "\""</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": ";"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "f"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "d"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "k"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "="</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "/"</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "r"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "b"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "`"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "s"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "i"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "t"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "w"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "h"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "j"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "v"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "c"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "y"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "m"</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "x"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "("</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ")"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "l","11": ".","12": "p","13": "\"","14": "","15": "/","16": "a","17": "r","18": "e","19": "n","20": "b","21": "'","22": "","23": "z","24": "w","25": ",","26": "h","27": "j","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": ";","12": "f","11": "u","10": "d","9": "k","8": "=","21": "`","20": "g","19": "s","18": "i","17": "t","16": "o","15": "-","29": "","28": "","27": "v","26": "c","25": "y","24": "m","23": "x","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "l","11": ".","12": "p","13": "\"","14": "","15": "/","16": "a","17": "r","18": "e","19": "n","20": "b","21": "'","22": "","23": "z","24": "w","25": ",","26": "h","27": "j","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": ";","12": "f","11": "u","10": "d","9": "k","8": "=","21": "`","20": "g","19": "s","18": "i","17": "t","16": "o","15": "-","29": "","28": "","27": "v","26": "c","25": "y","24": "m","23": "x","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0311A0FC-2DD3-4061-8ACC-BF92E96507B0}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
@@ -10719,39 +13587,39 @@
         <v>8</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
       <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="86" t="s">
-        <v>23</v>
-      </c>
       <c r="N2" s="82" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O2" s="83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" s="83" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="119" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -10761,10 +13629,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F3" s="52" t="s">
         <v>15</v>
@@ -10774,23 +13642,23 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="86" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N3" s="82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="84" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="120" t="s">
         <v>5</v>
@@ -10824,7 +13692,7 @@
         <v>24</v>
       </c>
       <c r="N4" s="82" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O4" s="83" t="s">
         <v>30</v>
@@ -10844,12 +13712,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="K5" s="129"/>
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -10868,12 +13736,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -10953,7 +13821,7 @@
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "e"</v>
+        <v>"11": "d"</v>
       </c>
       <c r="E9" t="str">
         <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
@@ -10961,7 +13829,7 @@
       </c>
       <c r="F9" t="str">
         <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "t"</v>
+        <v>"13": "f"</v>
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
@@ -10973,23 +13841,23 @@
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "y"</v>
+        <v>"13": "j"</v>
       </c>
       <c r="M9" t="str">
         <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "u"</v>
+        <v>"12": "y"</v>
       </c>
       <c r="N9" t="str">
         <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "i"</v>
+        <v>"11": "p"</v>
       </c>
       <c r="O9" t="str">
         <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "o"</v>
+        <v>"10": "l"</v>
       </c>
       <c r="P9" t="str">
         <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "p"</v>
+        <v>"9": "k"</v>
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
@@ -11011,11 +13879,11 @@
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "d"</v>
+        <v>"18": "e"</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "f"</v>
+        <v>"19": "t"</v>
       </c>
       <c r="F10" t="str">
         <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
@@ -11035,19 +13903,19 @@
       </c>
       <c r="M10" t="str">
         <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "j"</v>
+        <v>"19": "u"</v>
       </c>
       <c r="N10" t="str">
         <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "k"</v>
+        <v>"18": "i"</v>
       </c>
       <c r="O10" t="str">
         <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "l"</v>
+        <v>"17": "o"</v>
       </c>
       <c r="P10" t="str">
         <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": ";"</v>
+        <v>"16": ","</v>
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
@@ -11105,7 +13973,7 @@
       </c>
       <c r="N11" t="str">
         <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
+        <v>"25": ";"</v>
       </c>
       <c r="O11" t="str">
         <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
@@ -11199,36 +14067,35 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "e","12": "r","13": "t","14": "","15": "\"","16": "a","17": "s","18": "d","19": "f","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "r","13": "f","14": "","15": "\"","16": "a","17": "s","18": "e","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "`","20": "h","19": "j","18": "k","17": "l","16": ";","15": "-","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "y","11": "p","10": "l","9": "k","8": "=","21": "`","20": "h","19": "u","18": "i","17": "o","16": ",","15": "-","29": "","28": "","27": "n","26": "m","25": ";","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "e","12": "r","13": "t","14": "","15": "\"","16": "a","17": "s","18": "d","19": "f","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "`","20": "h","19": "j","18": "k","17": "l","16": ";","15": "-","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "r","13": "f","14": "","15": "\"","16": "a","17": "s","18": "e","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "y","11": "p","10": "l","9": "k","8": "=","21": "`","20": "h","19": "u","18": "i","17": "o","16": ",","15": "-","29": "","28": "","27": "n","26": "m","25": ";","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="L5:L6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54629CB4-1357-4DAA-81A6-F9F9C3E3952D}">
-  <dimension ref="A1:Q20"/>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892C4215-6A0C-40C0-88A6-1DE2D92E64FE}">
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
@@ -11283,81 +14150,81 @@
         <v>47</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="52" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>29</v>
       </c>
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
       <c r="K2" s="111"/>
       <c r="L2" s="81" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M2" s="86" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N2" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="83" t="s">
         <v>31</v>
-      </c>
-      <c r="O2" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="83" t="s">
-        <v>21</v>
       </c>
       <c r="Q2" s="119" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="52" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="94" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M3" s="86" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N3" s="82" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O3" s="83" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P3" s="84" t="s">
         <v>32</v>
@@ -11369,29 +14236,29 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
       <c r="L4" s="81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" s="86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" s="82" t="s">
         <v>27</v>
@@ -11414,12 +14281,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="K5" s="129"/>
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -11438,12 +14305,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -11515,23 +14382,23 @@
       </c>
       <c r="B9" t="str">
         <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "t"</v>
+        <v>"9": "q"</v>
       </c>
       <c r="C9" t="str">
         <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "n"</v>
+        <v>"10": "w"</v>
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "w"</v>
+        <v>"11": "d"</v>
       </c>
       <c r="E9" t="str">
         <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "m"</v>
+        <v>"12": "r"</v>
       </c>
       <c r="F9" t="str">
         <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "l"</v>
+        <v>"13": "t"</v>
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
@@ -11543,23 +14410,23 @@
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "c"</v>
+        <v>"13": "j"</v>
       </c>
       <c r="M9" t="str">
         <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "b"</v>
+        <v>"12": "y"</v>
       </c>
       <c r="N9" t="str">
         <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "p"</v>
+        <v>"11": "k"</v>
       </c>
       <c r="O9" t="str">
         <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "r"</v>
+        <v>"10": "l"</v>
       </c>
       <c r="P9" t="str">
         <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "h"</v>
+        <v>"9": "p"</v>
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
@@ -11573,23 +14440,23 @@
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "s"</v>
+        <v>"16": "a"</v>
       </c>
       <c r="C10" t="str">
         <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "g"</v>
+        <v>"17": "s"</v>
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "x"</v>
+        <v>"18": "e"</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "j"</v>
+        <v>"19": "f"</v>
       </c>
       <c r="F10" t="str">
         <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "f"</v>
+        <v>"20": "g"</v>
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
@@ -11601,19 +14468,19 @@
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "k"</v>
+        <v>"20": "h"</v>
       </c>
       <c r="M10" t="str">
         <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "q"</v>
+        <v>"19": "u"</v>
       </c>
       <c r="N10" t="str">
         <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "z"</v>
+        <v>"18": "i"</v>
       </c>
       <c r="O10" t="str">
         <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "v"</v>
+        <v>"17": "o"</v>
       </c>
       <c r="P10" t="str">
         <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
@@ -11631,23 +14498,23 @@
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "e"</v>
+        <v>"23": "z"</v>
       </c>
       <c r="C11" t="str">
         <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "a"</v>
+        <v>"24": "x"</v>
       </c>
       <c r="D11" t="str">
         <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "d"</v>
+        <v>"25": "c"</v>
       </c>
       <c r="E11" t="str">
         <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "i"</v>
+        <v>"26": "v"</v>
       </c>
       <c r="F11" t="str">
         <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "o"</v>
+        <v>"27": "b"</v>
       </c>
       <c r="G11" t="str">
         <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
@@ -11667,11 +14534,11 @@
       </c>
       <c r="L11" t="str">
         <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "y"</v>
+        <v>"27": "n"</v>
       </c>
       <c r="M11" t="str">
         <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "u"</v>
+        <v>"26": "m"</v>
       </c>
       <c r="N11" t="str">
         <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
@@ -11769,23 +14636,1158 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "t","10": "n","11": "w","12": "m","13": "l","14": "","15": "\"","16": "s","17": "g","18": "x","19": "j","20": "f","21": "'","22": "","23": "e","24": "a","25": "d","26": "i","27": "o","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "r","13": "t","14": "","15": "\"","16": "a","17": "s","18": "e","19": "f","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "c","12": "b","11": "p","10": "r","9": "h","8": "=","21": "`","20": "k","19": "q","18": "z","17": "v","16": ";","15": "-","29": "","28": "","27": "y","26": "u","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "y","11": "k","10": "l","9": "p","8": "=","21": "`","20": "h","19": "u","18": "i","17": "o","16": ";","15": "-","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "t","10": "n","11": "w","12": "m","13": "l","14": "","15": "\"","16": "s","17": "g","18": "x","19": "j","20": "f","21": "'","22": "","23": "e","24": "a","25": "d","26": "i","27": "o","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "c","12": "b","11": "p","10": "r","9": "h","8": "=","21": "`","20": "k","19": "q","18": "z","17": "v","16": ";","15": "-","29": "","28": "","27": "y","26": "u","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "r","13": "t","14": "","15": "\"","16": "a","17": "s","18": "e","19": "f","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "y","11": "k","10": "l","9": "p","8": "=","21": "`","20": "h","19": "u","18": "i","17": "o","16": ";","15": "-","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B703F12A-A2CB-4707-A296-A156E930D34D}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="M1" s="86">
+        <v>7</v>
+      </c>
+      <c r="N1" s="82">
+        <v>8</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="115"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="155" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="120"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "d"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "r"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "f"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "y"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "p"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "l"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "="</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "\""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "`"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "u"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "n"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "i"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "k"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "("</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ")"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "r","13": "f","14": "","15": "\"","16": "a","17": "s","18": "e","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "y","11": "p","10": "l","9": ";","8": "=","21": "`","20": "h","19": "u","18": "n","17": "i","16": "o","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "r","13": "f","14": "","15": "\"","16": "a","17": "s","18": "e","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "y","11": "p","10": "l","9": ";","8": "=","21": "`","20": "h","19": "u","18": "n","17": "i","16": "o","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74758FB7-FC95-4EDA-AF33-3D57BE0BA794}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="100"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="M1" s="86">
+        <v>7</v>
+      </c>
+      <c r="N1" s="82">
+        <v>8</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="115"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="156" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="120"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "."</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "m"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "y"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "d"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "g"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": ";"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "w"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "h"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": ","</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "\""</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "="</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "/"</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "r"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "s"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "f"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "`"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "k"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "n"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "i"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "x"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "c"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "z"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "j"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "p"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "l"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "u"</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "q"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "("</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ")"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": ".","10": "m","11": "y","12": "d","13": "g","14": "","15": "/","16": "a","17": "r","18": "e","19": "s","20": "f","21": "'","22": "","23": "x","24": "c","25": "z","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": ";","12": "w","11": "h","10": ",","9": "\"","8": "=","21": "`","20": "k","19": "t","18": "n","17": "i","16": "o","15": "-","29": "","28": "","27": "b","26": "p","25": "l","24": "u","23": "q","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": ".","10": "m","11": "y","12": "d","13": "g","14": "","15": "/","16": "a","17": "r","18": "e","19": "s","20": "f","21": "'","22": "","23": "x","24": "c","25": "z","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": ";","12": "w","11": "h","10": ",","9": "\"","8": "=","21": "`","20": "k","19": "t","18": "n","17": "i","16": "o","15": "-","29": "","28": "","27": "b","26": "p","25": "l","24": "u","23": "q","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12024,10 +16026,10 @@
       <c r="E5" s="3">
         <v>34</v>
       </c>
-      <c r="F5" s="169">
+      <c r="F5" s="171">
         <v>35</v>
       </c>
-      <c r="G5" s="169">
+      <c r="G5" s="171">
         <v>36</v>
       </c>
       <c r="H5" s="3">
@@ -12037,10 +16039,10 @@
       <c r="J5" s="85">
         <v>37</v>
       </c>
-      <c r="K5" s="155">
+      <c r="K5" s="157">
         <v>36</v>
       </c>
-      <c r="L5" s="155">
+      <c r="L5" s="157">
         <v>35</v>
       </c>
       <c r="M5" s="87">
@@ -12065,8 +16067,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3">
         <v>38</v>
       </c>
@@ -12074,8 +16076,8 @@
       <c r="J6" s="85">
         <v>38</v>
       </c>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -12095,12 +16097,1725 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07615F4B-C27E-42C2-8F03-B9EF37D496E8}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="M1" s="86">
+        <v>7</v>
+      </c>
+      <c r="N1" s="82">
+        <v>8</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="115"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="155" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="120"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "j"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "f"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "g"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "y"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "p"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "l"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "="</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "\""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "d"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "`"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "i"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "o"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "r"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "k"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "("</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ")"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "j","12": "f","13": "g","14": "","15": "\"","16": "a","17": "s","18": "e","19": "t","20": "d","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "y","12": "p","11": "u","10": "l","9": ";","8": "=","21": "`","20": "h","19": "n","18": "i","17": "o","16": "r","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "j","12": "f","13": "g","14": "","15": "\"","16": "a","17": "s","18": "e","19": "t","20": "d","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "y","12": "p","11": "u","10": "l","9": ";","8": "=","21": "`","20": "h","19": "n","18": "i","17": "o","16": "r","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE13D08-8BFF-4D8A-BF21-41A0D1FFB842}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="M1" s="86">
+        <v>7</v>
+      </c>
+      <c r="N1" s="82">
+        <v>8</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="115"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="155" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="120"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "k"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "c"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "d"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "g"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "z"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "r"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "l"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "="</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "\""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "f"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "t"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "a"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "v"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "`"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "y"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "i"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "o"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "h"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "x"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "b"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "w"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "s"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "q"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "p"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "("</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ")"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "k","10": "c","11": "d","12": "g","13": "z","14": "","15": "\"","16": "f","17": "t","18": "e","19": "a","20": "v","21": "'","22": "","23": "x","24": "b","25": "w","26": "s","27": "q","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "u","11": "r","10": "l","9": ";","8": "=","21": "`","20": "y","19": "n","18": "i","17": "o","16": "h","15": "-","29": "","28": "","27": "p","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "k","10": "c","11": "d","12": "g","13": "z","14": "","15": "\"","16": "f","17": "t","18": "e","19": "a","20": "v","21": "'","22": "","23": "x","24": "b","25": "w","26": "s","27": "q","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "u","11": "r","10": "l","9": ";","8": "=","21": "`","20": "y","19": "n","18": "i","17": "o","16": "h","15": "-","29": "","28": "","27": "p","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE8C162-FDE8-44F3-BA8C-5BCB87DCDACE}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="M1" s="86">
+        <v>7</v>
+      </c>
+      <c r="N1" s="82">
+        <v>8</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="115"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="155" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="120"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="122"/>
+      <c r="N5" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "k"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "c"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "d"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "g"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "z"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": ";"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "r"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "h"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "/"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "="</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "\""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "f"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "t"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "a"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "v"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "`"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "m"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "o"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "i"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "n"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "p"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "x"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "b"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "w"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "s"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "q"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "y"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "l"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "u"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": ","</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "."</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "("</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ")"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "k","10": "c","11": "d","12": "g","13": "z","14": "","15": "\"","16": "f","17": "t","18": "e","19": "a","20": "v","21": "'","22": "","23": "x","24": "b","25": "w","26": "s","27": "q","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": ";","11": "r","10": "h","9": "/","8": "=","21": "`","20": "m","19": "o","18": "i","17": "n","16": "p","15": "-","29": "","28": "","27": "y","26": "l","25": "u","24": ",","23": ".","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "k","10": "c","11": "d","12": "g","13": "z","14": "","15": "\"","16": "f","17": "t","18": "e","19": "a","20": "v","21": "'","22": "","23": "x","24": "b","25": "w","26": "s","27": "q","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": ";","11": "r","10": "h","9": "/","8": "=","21": "`","20": "m","19": "o","18": "i","17": "n","16": "p","15": "-","29": "","28": "","27": "y","26": "l","25": "u","24": ",","23": ".","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE5B34B-6F30-40B8-8389-C7CFE152C0D1}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L2" sqref="L2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12143,25 +17858,25 @@
       </c>
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="150">
+      <c r="K1" s="152">
         <v>5</v>
       </c>
-      <c r="L1" s="148">
+      <c r="L1" s="150">
         <v>4</v>
       </c>
-      <c r="M1" s="137">
+      <c r="M1" s="139">
         <v>3.5</v>
       </c>
       <c r="N1" s="15">
         <v>2.5</v>
       </c>
-      <c r="O1" s="137">
+      <c r="O1" s="139">
         <v>3</v>
       </c>
-      <c r="P1" s="146">
+      <c r="P1" s="148">
         <v>3.5</v>
       </c>
-      <c r="Q1" s="138">
+      <c r="Q1" s="140">
         <v>4</v>
       </c>
     </row>
@@ -12196,22 +17911,22 @@
       </c>
       <c r="H2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="147" t="s">
+      <c r="K2" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="133">
+      <c r="L2" s="135">
         <v>3</v>
       </c>
       <c r="M2" s="5">
         <v>2</v>
       </c>
-      <c r="N2" s="144">
+      <c r="N2" s="146">
         <v>1.5</v>
       </c>
-      <c r="O2" s="144">
+      <c r="O2" s="146">
         <v>1.5</v>
       </c>
-      <c r="P2" s="132">
+      <c r="P2" s="134">
         <v>2.5</v>
       </c>
       <c r="Q2" s="25">
@@ -12249,22 +17964,22 @@
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="149">
+      <c r="K3" s="151">
         <v>4</v>
       </c>
-      <c r="L3" s="130">
+      <c r="L3" s="132">
         <v>2.5</v>
       </c>
-      <c r="M3" s="144">
+      <c r="M3" s="146">
         <v>0.5</v>
       </c>
-      <c r="N3" s="144">
+      <c r="N3" s="146">
         <v>0.5</v>
       </c>
-      <c r="O3" s="144">
+      <c r="O3" s="146">
         <v>0.5</v>
       </c>
-      <c r="P3" s="129">
+      <c r="P3" s="131">
         <v>2</v>
       </c>
       <c r="Q3" s="25">
@@ -12304,16 +18019,16 @@
         <f t="shared" ref="H4:H6" ca="1" si="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
         <v>5</v>
       </c>
-      <c r="J4" s="151">
+      <c r="J4" s="153">
         <v>5</v>
       </c>
-      <c r="K4" s="139">
+      <c r="K4" s="141">
         <v>4.5</v>
       </c>
-      <c r="L4" s="134">
+      <c r="L4" s="136">
         <v>3</v>
       </c>
-      <c r="M4" s="143">
+      <c r="M4" s="145">
         <v>1.5</v>
       </c>
       <c r="N4" s="10">
@@ -12322,10 +18037,10 @@
       <c r="O4" s="10">
         <v>2</v>
       </c>
-      <c r="P4" s="136">
+      <c r="P4" s="138">
         <v>3</v>
       </c>
-      <c r="Q4" s="149">
+      <c r="Q4" s="151">
         <v>4</v>
       </c>
     </row>
@@ -12350,11 +18065,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="F5" s="171">
+      <c r="F5" s="173">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G5" s="171">
+      <c r="G5" s="173">
         <f t="shared" ca="1" si="0"/>
         <v>1.5</v>
       </c>
@@ -12362,28 +18077,28 @@
         <f t="shared" ca="1" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="J5" s="140">
+      <c r="J5" s="142">
         <v>4.5</v>
       </c>
-      <c r="K5" s="173">
+      <c r="K5" s="175">
         <v>1.5</v>
       </c>
-      <c r="L5" s="175">
+      <c r="L5" s="177">
         <v>0.5</v>
       </c>
-      <c r="M5" s="131">
+      <c r="M5" s="133">
         <v>2.5</v>
       </c>
-      <c r="N5" s="145">
+      <c r="N5" s="147">
         <v>3.5</v>
       </c>
       <c r="O5" s="20">
         <v>3.5</v>
       </c>
-      <c r="P5" s="141">
+      <c r="P5" s="143">
         <v>7</v>
       </c>
-      <c r="Q5" s="142">
+      <c r="Q5" s="144">
         <v>8</v>
       </c>
     </row>
@@ -12393,11 +18108,11 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="172">
+      <c r="F6" s="174">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="172">
+      <c r="G6" s="174">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
@@ -12405,11 +18120,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="J6" s="135">
+      <c r="J6" s="137">
         <v>3</v>
       </c>
-      <c r="K6" s="174"/>
-      <c r="L6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="178"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -12938,7 +18653,7 @@
       <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="156" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="104" t="s">
@@ -12999,7 +18714,7 @@
       <c r="F3" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="154" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="4"/>
@@ -13076,13 +18791,13 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
       <c r="H5" s="108"/>
       <c r="I5" s="103"/>
       <c r="J5" s="121"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="177" t="s">
+      <c r="K5" s="181"/>
+      <c r="L5" s="179" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -13101,13 +18816,13 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
       <c r="H6" s="108"/>
       <c r="I6" s="103"/>
       <c r="J6" s="121"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="178"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="180"/>
       <c r="M6" s="74"/>
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
@@ -13517,7 +19232,7 @@
       <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="156" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="104" t="s">
@@ -13578,13 +19293,13 @@
       <c r="F3" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="154" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="103"/>
       <c r="J3" s="74"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="111" t="s">
@@ -13655,13 +19370,13 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
       <c r="H5" s="108"/>
       <c r="I5" s="103"/>
       <c r="J5" s="121"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="177" t="s">
+      <c r="K5" s="181"/>
+      <c r="L5" s="179" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -13680,13 +19395,13 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
       <c r="H6" s="108"/>
       <c r="I6" s="103"/>
       <c r="J6" s="121"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="178"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="180"/>
       <c r="M6" s="74"/>
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
@@ -14137,7 +19852,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -14230,12 +19945,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -14254,12 +19969,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -14709,7 +20424,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -14732,7 +20447,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -14802,12 +20517,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -14826,12 +20541,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -15190,8 +20905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1F72C-151E-43E5-9E9B-7B384388A13F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15277,7 +20992,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -15300,7 +21015,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="154" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -15370,12 +21085,12 @@
         <v>36</v>
       </c>
       <c r="E5" s="108"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="183" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="122"/>
@@ -15394,12 +21109,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="156"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>

--- a/layouts/layouts.xlsx
+++ b/layouts/layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgaliamov\projects\personal\ergo-layouts\layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B18FC1-7DFF-42C6-BB2A-4C62D81BCE5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1644D8-6B24-4D94-9B3C-80AA4790628F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="29988" windowHeight="17496" tabRatio="874" activeTab="7" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="29988" windowHeight="17496" tabRatio="874" activeTab="8" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -21,32 +21,33 @@
     <sheet name="My 1.1" sheetId="38" r:id="rId6"/>
     <sheet name="My 2" sheetId="27" r:id="rId7"/>
     <sheet name="My 3" sheetId="39" r:id="rId8"/>
-    <sheet name="Norman" sheetId="21" r:id="rId9"/>
-    <sheet name="Soul" sheetId="13" r:id="rId10"/>
-    <sheet name="Mtgap2" sheetId="8" r:id="rId11"/>
-    <sheet name="Breakl15" sheetId="6" r:id="rId12"/>
-    <sheet name="QGMLWB" sheetId="16" r:id="rId13"/>
-    <sheet name="Workman" sheetId="10" r:id="rId14"/>
-    <sheet name="Niro" sheetId="12" r:id="rId15"/>
-    <sheet name="Collemak" sheetId="4" r:id="rId16"/>
-    <sheet name="QGMLWY" sheetId="18" r:id="rId17"/>
-    <sheet name="QFMLWY" sheetId="15" r:id="rId18"/>
-    <sheet name="Gelatin" sheetId="20" r:id="rId19"/>
-    <sheet name="Kaehi" sheetId="14" r:id="rId20"/>
-    <sheet name="Mtgap1" sheetId="5" r:id="rId21"/>
-    <sheet name="Querty" sheetId="3" r:id="rId22"/>
-    <sheet name="TNWMLC" sheetId="19" r:id="rId23"/>
-    <sheet name="Dvorak" sheetId="9" r:id="rId24"/>
-    <sheet name="Capewell-Dvorak" sheetId="28" r:id="rId25"/>
-    <sheet name="Klausler" sheetId="29" r:id="rId26"/>
-    <sheet name="Arensito" sheetId="30" r:id="rId27"/>
-    <sheet name="C-Querty" sheetId="31" r:id="rId28"/>
-    <sheet name="C-Querty 1-2" sheetId="32" r:id="rId29"/>
-    <sheet name="C-Querty N" sheetId="33" r:id="rId30"/>
-    <sheet name="Capewell" sheetId="34" r:id="rId31"/>
-    <sheet name="Asset" sheetId="35" r:id="rId32"/>
-    <sheet name="Norman L" sheetId="36" r:id="rId33"/>
-    <sheet name="Norman LR" sheetId="37" r:id="rId34"/>
+    <sheet name="My 4" sheetId="40" r:id="rId9"/>
+    <sheet name="Norman" sheetId="21" r:id="rId10"/>
+    <sheet name="Soul" sheetId="13" r:id="rId11"/>
+    <sheet name="Mtgap2" sheetId="8" r:id="rId12"/>
+    <sheet name="Breakl15" sheetId="6" r:id="rId13"/>
+    <sheet name="QGMLWB" sheetId="16" r:id="rId14"/>
+    <sheet name="Workman" sheetId="10" r:id="rId15"/>
+    <sheet name="Niro" sheetId="12" r:id="rId16"/>
+    <sheet name="Collemak" sheetId="4" r:id="rId17"/>
+    <sheet name="QGMLWY" sheetId="18" r:id="rId18"/>
+    <sheet name="QFMLWY" sheetId="15" r:id="rId19"/>
+    <sheet name="Gelatin" sheetId="20" r:id="rId20"/>
+    <sheet name="Kaehi" sheetId="14" r:id="rId21"/>
+    <sheet name="Mtgap1" sheetId="5" r:id="rId22"/>
+    <sheet name="Querty" sheetId="3" r:id="rId23"/>
+    <sheet name="TNWMLC" sheetId="19" r:id="rId24"/>
+    <sheet name="Dvorak" sheetId="9" r:id="rId25"/>
+    <sheet name="Capewell-Dvorak" sheetId="28" r:id="rId26"/>
+    <sheet name="Klausler" sheetId="29" r:id="rId27"/>
+    <sheet name="Arensito" sheetId="30" r:id="rId28"/>
+    <sheet name="C-Querty" sheetId="31" r:id="rId29"/>
+    <sheet name="C-Querty 1-2" sheetId="32" r:id="rId30"/>
+    <sheet name="C-Querty N" sheetId="33" r:id="rId31"/>
+    <sheet name="Capewell" sheetId="34" r:id="rId32"/>
+    <sheet name="Asset" sheetId="35" r:id="rId33"/>
+    <sheet name="Norman L" sheetId="36" r:id="rId34"/>
+    <sheet name="Norman LR" sheetId="37" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="123">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -414,9 +415,6 @@
     <t>Weighed 1</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>First attempt.</t>
   </si>
   <si>
@@ -430,6 +428,12 @@
   </si>
   <si>
     <t>Fail.</t>
+  </si>
+  <si>
+    <t>Use digraph statistics only.</t>
+  </si>
+  <si>
+    <t>start from worst.</t>
   </si>
 </sst>
 </file>
@@ -483,7 +487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,20 +528,8 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -981,20 +973,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1002,10 +1014,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1298,9 +1308,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="24" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1383,75 +1390,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="26" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="13" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="7" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="20" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="17" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="18" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="28" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="14" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="15" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="13" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="19" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1518,18 +1456,6 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1545,12 +1471,46 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="32" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="25" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="33" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="30" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
-    <cellStyle name="40% - Accent3" xfId="7" builtinId="39"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
-    <cellStyle name="60% - Accent3" xfId="8" builtinId="40"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1937,19 +1897,19 @@
     <row r="1" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="74"/>
       <c r="B1" s="74"/>
-      <c r="C1" s="124">
+      <c r="C1" s="123">
         <v>1</v>
       </c>
-      <c r="D1" s="125">
+      <c r="D1" s="124">
         <v>1</v>
       </c>
-      <c r="E1" s="126">
+      <c r="E1" s="125">
         <v>1</v>
       </c>
-      <c r="F1" s="127">
+      <c r="F1" s="126">
         <v>1</v>
       </c>
-      <c r="G1" s="128">
+      <c r="G1" s="127">
         <v>2</v>
       </c>
       <c r="H1" s="74">
@@ -2361,10 +2321,10 @@
       <c r="A6" s="63">
         <v>9</v>
       </c>
-      <c r="B6" s="164">
+      <c r="B6" s="140">
         <v>3</v>
       </c>
-      <c r="C6" s="166">
+      <c r="C6" s="142">
         <v>1</v>
       </c>
       <c r="D6" s="64">
@@ -2386,11 +2346,11 @@
         <f t="shared" ref="J6:J7" si="10">A6*$C$1/$H$1</f>
         <v>4.5</v>
       </c>
-      <c r="K6" s="160">
+      <c r="K6" s="136">
         <f>B6*$C$1/$H$1</f>
         <v>1.5</v>
       </c>
-      <c r="L6" s="162">
+      <c r="L6" s="138">
         <f>C6*$C$1/$H$1</f>
         <v>0.5</v>
       </c>
@@ -2417,10 +2377,10 @@
       <c r="S6" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="168" t="s">
+      <c r="T6" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="U6" s="170" t="s">
+      <c r="U6" s="146" t="s">
         <v>66</v>
       </c>
       <c r="V6" s="87" t="s">
@@ -2441,10 +2401,10 @@
       <c r="AB6" s="85">
         <v>37</v>
       </c>
-      <c r="AC6" s="158">
+      <c r="AC6" s="134">
         <v>36</v>
       </c>
-      <c r="AD6" s="158">
+      <c r="AD6" s="134">
         <v>35</v>
       </c>
       <c r="AE6" s="87">
@@ -2467,8 +2427,8 @@
       <c r="A7" s="79">
         <v>6</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="167"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="143"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -2478,13 +2438,13 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K7" s="161"/>
-      <c r="L7" s="163"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="139"/>
       <c r="S7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="169"/>
-      <c r="U7" s="171"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="147"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
       <c r="X7" s="27"/>
@@ -2493,8 +2453,8 @@
       <c r="AB7" s="85">
         <v>38</v>
       </c>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
+      <c r="AC7" s="135"/>
+      <c r="AD7" s="135"/>
       <c r="AE7" s="27"/>
       <c r="AF7" s="27"/>
       <c r="AG7" s="27"/>
@@ -3783,6 +3743,578 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DB0E27-6502-49FD-827E-25754C2CC2C1}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="M1" s="86">
+        <v>7</v>
+      </c>
+      <c r="N1" s="82">
+        <v>8</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="114"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="119"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "d"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "f"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "k"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "r"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "l"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "="</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "\""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "`"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "y"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "i"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "o"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "h"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "p"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "("</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ")"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "f","13": "k","14": "","15": "\"","16": "a","17": "s","18": "e","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "u","11": "r","10": "l","9": ";","8": "=","21": "`","20": "y","19": "n","18": "i","17": "o","16": "h","15": "-","29": "","28": "","27": "p","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "f","13": "k","14": "","15": "\"","16": "a","17": "s","18": "e","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "u","11": "r","10": "l","9": ";","8": "=","21": "`","20": "y","19": "n","18": "i","17": "o","16": "h","15": "-","29": "","28": "","27": "p","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA6E5BD-99B9-4E87-94B2-03F98F639228}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -3832,7 +4364,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -3856,7 +4388,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>26</v>
       </c>
@@ -3872,12 +4404,12 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3900,7 +4432,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -3918,7 +4450,7 @@
       <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3958,34 +4490,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,12 +4526,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -4354,7 +4886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1F72C-151E-43E5-9E9B-7B384388A13F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -4400,7 +4932,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -4424,7 +4956,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -4440,12 +4972,12 @@
       <c r="P2" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4468,7 +5000,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -4486,7 +5018,7 @@
       <c r="P3" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4526,34 +5058,34 @@
       <c r="P4" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,12 +5094,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -4927,7 +5459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE1B9F7-56A1-4B2B-8844-93D3218A2256}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -4973,7 +5505,7 @@
       <c r="P1" s="82">
         <v>8</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -4997,7 +5529,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>15</v>
       </c>
@@ -5013,12 +5545,12 @@
       <c r="P2" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5041,7 +5573,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -5059,7 +5591,7 @@
       <c r="P3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5099,34 +5631,34 @@
       <c r="P4" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,12 +5667,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -5500,7 +6032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0F971E-842D-4FFC-8F12-3AD6BFCF94FA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -5550,7 +6082,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -5574,7 +6106,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>3</v>
       </c>
@@ -5590,12 +6122,12 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5618,7 +6150,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -5636,7 +6168,7 @@
       <c r="P3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5676,34 +6208,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,12 +6244,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -6072,7 +6604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D0F36D-A06F-4E02-AC07-5A63EE7CD312}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -6122,7 +6654,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -6146,7 +6678,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -6162,12 +6694,12 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6190,7 +6722,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -6208,7 +6740,7 @@
       <c r="P3" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6248,34 +6780,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,12 +6816,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -6644,7 +7176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDBB2D6-01F8-44E3-8C08-222DAA0B7703}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -6694,7 +7226,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -6718,7 +7250,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -6734,12 +7266,12 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6762,7 +7294,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -6780,7 +7312,7 @@
       <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6820,34 +7352,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,12 +7388,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -7216,7 +7748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27715-3509-47E9-A9CB-5DE4634BE300}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -7266,7 +7798,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -7290,7 +7822,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -7306,12 +7838,12 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7334,7 +7866,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -7352,7 +7884,7 @@
       <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7392,34 +7924,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,12 +7960,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -7793,7 +8325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0ED93C-CABF-47EC-AD81-D7985BA91921}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -7843,7 +8375,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -7867,7 +8399,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>20</v>
       </c>
@@ -7883,12 +8415,12 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7911,7 +8443,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -7929,7 +8461,7 @@
       <c r="P3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7969,34 +8501,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,12 +8537,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -8365,7 +8897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8AC8BE-5EAD-43BE-A533-75865B4E96B5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -8415,7 +8947,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -8439,7 +8971,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>20</v>
       </c>
@@ -8455,12 +8987,12 @@
       <c r="P2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8483,7 +9015,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -8501,7 +9033,7 @@
       <c r="P3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8541,34 +9073,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8577,12 +9109,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -8921,578 +9453,6 @@
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
         <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "f","11": "m","12": "l","13": "w","14": "","15": "\"","16": "d","17": "s","18": "t","19": "n","20": "r","21": "'","22": "","23": "z","24": "v","25": "g","26": "c","27": "x","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "y","12": "u","11": "o","10": "b","9": "j","8": "=","21": "`","20": "i","19": "a","18": "e","17": "h","16": ";","15": "-","29": "","28": "","27": "p","26": "k","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F804FA-BE53-4998-936F-C2B5351F1D8E}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81">
-        <v>6</v>
-      </c>
-      <c r="M1" s="86">
-        <v>7</v>
-      </c>
-      <c r="N1" s="82">
-        <v>8</v>
-      </c>
-      <c r="O1" s="82">
-        <v>9</v>
-      </c>
-      <c r="P1" s="82">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="115"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="119" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="120"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="84"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": "\\"</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "w"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "f"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "p"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "g"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": ""</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": ""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "j"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "l"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "u"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "y"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": ";"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "="</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": "\""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "n"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "r"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "s"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "t"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "d"</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": "'"</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": "`"</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "h"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "a"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "e"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "i"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": "o"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "-"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "z"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "x"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "c"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "v"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "b"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "k"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "m"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "."</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "/"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": "["</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "]"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": ""</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": ""</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": "("</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ")"</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "f","12": "p","13": "g","14": "","15": "\"","16": "n","17": "r","18": "s","19": "t","20": "d","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "l","11": "u","10": "y","9": ";","8": "=","21": "`","20": "h","19": "a","18": "e","17": "i","16": "o","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "f","12": "p","13": "g","14": "","15": "\"","16": "n","17": "r","18": "s","19": "t","20": "d","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "l","11": "u","10": "y","9": ";","8": "=","21": "`","20": "h","19": "a","18": "e","17": "i","16": "o","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -10124,6 +10084,578 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F804FA-BE53-4998-936F-C2B5351F1D8E}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="M1" s="86">
+        <v>7</v>
+      </c>
+      <c r="N1" s="82">
+        <v>8</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="114"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="119"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "f"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "p"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "g"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "l"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "y"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "="</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "\""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "n"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "r"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "s"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "d"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "`"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "a"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "i"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "k"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "("</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ")"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "f","12": "p","13": "g","14": "","15": "\"","16": "n","17": "r","18": "s","19": "t","20": "d","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "l","11": "u","10": "y","9": ";","8": "=","21": "`","20": "h","19": "a","18": "e","17": "i","16": "o","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "f","12": "p","13": "g","14": "","15": "\"","16": "n","17": "r","18": "s","19": "t","20": "d","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "l","11": "u","10": "y","9": ";","8": "=","21": "`","20": "h","19": "a","18": "e","17": "i","16": "o","15": "-","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2B976-8DBD-44BC-8A4B-199C621F6D1E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -10173,7 +10705,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -10197,7 +10729,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -10213,12 +10745,12 @@
       <c r="P2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -10241,7 +10773,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -10259,7 +10791,7 @@
       <c r="P3" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10299,34 +10831,34 @@
       <c r="P4" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10335,12 +10867,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -10695,7 +11227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DCC6E8-8838-49B0-A240-A4CF935DB5EC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -10741,7 +11273,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -10765,7 +11297,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>26</v>
       </c>
@@ -10781,12 +11313,12 @@
       <c r="P2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -10809,7 +11341,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -10827,7 +11359,7 @@
       <c r="P3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10867,34 +11399,34 @@
       <c r="P4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10903,12 +11435,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -11268,7 +11800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -11318,7 +11850,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -11342,7 +11874,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>20</v>
       </c>
@@ -11358,12 +11890,12 @@
       <c r="P2" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -11386,7 +11918,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -11404,7 +11936,7 @@
       <c r="P3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -11444,34 +11976,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11480,12 +12012,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -11838,7 +12370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54629CB4-1357-4DAA-81A6-F9F9C3E3952D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -11888,7 +12420,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -11912,7 +12444,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>18</v>
       </c>
@@ -11928,12 +12460,12 @@
       <c r="P2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -11956,7 +12488,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -11974,7 +12506,7 @@
       <c r="P3" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -12014,34 +12546,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -12050,12 +12582,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -12410,7 +12942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F82B80-7F41-4926-8A25-14D35408A7A1}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -12460,10 +12992,10 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="132" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="73" t="s">
@@ -12484,7 +13016,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>14</v>
       </c>
@@ -12500,12 +13032,12 @@
       <c r="P2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="122" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -12528,7 +13060,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -12546,12 +13078,12 @@
       <c r="P3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="105"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
@@ -12586,34 +13118,34 @@
       <c r="P4" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
       <c r="K5" s="88"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -12622,12 +13154,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
       <c r="K6" s="89"/>
-      <c r="L6" s="159"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -12979,7 +13511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720F8D5D-73E1-45F5-8BD7-CB3647930C7B}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -13029,10 +13561,10 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="132" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="73" t="s">
@@ -13053,7 +13585,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>7</v>
       </c>
@@ -13069,12 +13601,12 @@
       <c r="P2" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="122" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -13097,7 +13629,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -13115,12 +13647,12 @@
       <c r="P3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="105"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
@@ -13155,34 +13687,34 @@
       <c r="P4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="184" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -13191,12 +13723,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="159"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -13548,7 +14080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B54A7BB-7527-423A-B1D9-B7BEEBF75923}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -13598,10 +14130,10 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="132" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="55" t="s">
@@ -13622,7 +14154,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>8</v>
       </c>
@@ -13638,12 +14170,12 @@
       <c r="P2" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="122" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -13666,7 +14198,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -13684,7 +14216,7 @@
       <c r="P3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13696,7 +14228,7 @@
       <c r="C4" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="133" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="52" t="s">
@@ -13724,34 +14256,34 @@
       <c r="P4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="184" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -13760,12 +14292,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="159"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -14117,7 +14649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F46AF9-62D0-40D3-9A2C-146AE5375FCA}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -14167,10 +14699,10 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="132" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="55" t="s">
@@ -14191,7 +14723,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>32</v>
       </c>
@@ -14207,12 +14739,12 @@
       <c r="P2" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="122" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -14235,7 +14767,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -14253,7 +14785,7 @@
       <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -14265,7 +14797,7 @@
       <c r="C4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="133" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="52" t="s">
@@ -14293,34 +14825,34 @@
       <c r="P4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="184" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -14329,12 +14861,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="159"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -14686,7 +15218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0311A0FC-2DD3-4061-8ACC-BF92E96507B0}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -14736,7 +15268,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -14760,7 +15292,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -14776,12 +15308,12 @@
       <c r="P2" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -14804,7 +15336,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -14822,7 +15354,7 @@
       <c r="P3" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -14862,34 +15394,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="184" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -14898,12 +15430,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="159"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -15242,575 +15774,6 @@
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
         <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "r","13": "f","14": "","15": "\"","16": "a","17": "s","18": "e","19": "t","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "y","11": "p","10": "l","9": "k","8": "=","21": "`","20": "h","19": "u","18": "i","17": "o","16": ",","15": "-","29": "","28": "","27": "n","26": "m","25": ";","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892C4215-6A0C-40C0-88A6-1DE2D92E64FE}">
-  <dimension ref="A1:Q18"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54">
-        <v>2</v>
-      </c>
-      <c r="D1" s="54">
-        <v>3</v>
-      </c>
-      <c r="E1" s="52">
-        <v>4</v>
-      </c>
-      <c r="F1" s="52">
-        <v>5</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81">
-        <v>6</v>
-      </c>
-      <c r="M1" s="86">
-        <v>7</v>
-      </c>
-      <c r="N1" s="82">
-        <v>8</v>
-      </c>
-      <c r="O1" s="82">
-        <v>9</v>
-      </c>
-      <c r="P1" s="82">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="115"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="119" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="120"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="184" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="84"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "1"</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "2"</v>
-      </c>
-      <c r="D8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "3"</v>
-      </c>
-      <c r="E8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "4"</v>
-      </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "5"</v>
-      </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="K8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": ""</v>
-      </c>
-      <c r="L8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "6"</v>
-      </c>
-      <c r="M8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "7"</v>
-      </c>
-      <c r="N8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "8"</v>
-      </c>
-      <c r="O8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "9"</v>
-      </c>
-      <c r="P8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "0"</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": ""</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": "\\"</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "q"</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "w"</v>
-      </c>
-      <c r="D9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "d"</v>
-      </c>
-      <c r="E9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "r"</v>
-      </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "t"</v>
-      </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": ""</v>
-      </c>
-      <c r="K9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": ""</v>
-      </c>
-      <c r="L9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "j"</v>
-      </c>
-      <c r="M9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "y"</v>
-      </c>
-      <c r="N9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "k"</v>
-      </c>
-      <c r="O9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "l"</v>
-      </c>
-      <c r="P9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "p"</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "="</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": "\""</v>
-      </c>
-      <c r="B10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
-        <v>"16": "a"</v>
-      </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "s"</v>
-      </c>
-      <c r="D10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "e"</v>
-      </c>
-      <c r="E10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "f"</v>
-      </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "g"</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": "'"</v>
-      </c>
-      <c r="K10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": "`"</v>
-      </c>
-      <c r="L10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "h"</v>
-      </c>
-      <c r="M10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "u"</v>
-      </c>
-      <c r="N10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "i"</v>
-      </c>
-      <c r="O10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "o"</v>
-      </c>
-      <c r="P10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": ";"</v>
-      </c>
-      <c r="Q10" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "-"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-      <c r="B11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
-        <v>"23": "z"</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
-        <v>"24": "x"</v>
-      </c>
-      <c r="D11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
-        <v>"25": "c"</v>
-      </c>
-      <c r="E11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "v"</v>
-      </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "b"</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="H11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": ""</v>
-      </c>
-      <c r="K11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": ""</v>
-      </c>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "n"</v>
-      </c>
-      <c r="M11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "m"</v>
-      </c>
-      <c r="N11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
-        <v>"25": ","</v>
-      </c>
-      <c r="O11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
-        <v>"24": "."</v>
-      </c>
-      <c r="P11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
-        <v>"23": "/"</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": ""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-      <c r="B12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": "["</v>
-      </c>
-      <c r="D12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "]"</v>
-      </c>
-      <c r="E12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": ""</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": ""</v>
-      </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="H12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": ""</v>
-      </c>
-      <c r="K12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": ""</v>
-      </c>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": " "</v>
-      </c>
-      <c r="M12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": ""</v>
-      </c>
-      <c r="N12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": "("</v>
-      </c>
-      <c r="O12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": ")"</v>
-      </c>
-      <c r="P12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": ""</v>
-      </c>
-      <c r="Q12" t="str">
-        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": ""</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": ""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "r","13": "t","14": "","15": "\"","16": "a","17": "s","18": "e","19": "f","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "y","11": "k","10": "l","9": "p","8": "=","21": "`","20": "h","19": "u","18": "i","17": "o","16": ";","15": "-","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "r","13": "t","14": "","15": "\"","16": "a","17": "s","18": "e","19": "f","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "y","11": "k","10": "l","9": "p","8": "=","21": "`","20": "h","19": "u","18": "i","17": "o","16": ";","15": "-","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
     </row>
   </sheetData>
@@ -16050,10 +16013,10 @@
       <c r="E5" s="3">
         <v>34</v>
       </c>
-      <c r="F5" s="172">
+      <c r="F5" s="148">
         <v>35</v>
       </c>
-      <c r="G5" s="172">
+      <c r="G5" s="148">
         <v>36</v>
       </c>
       <c r="H5" s="3">
@@ -16063,10 +16026,10 @@
       <c r="J5" s="85">
         <v>37</v>
       </c>
-      <c r="K5" s="158">
+      <c r="K5" s="134">
         <v>36</v>
       </c>
-      <c r="L5" s="158">
+      <c r="L5" s="134">
         <v>35</v>
       </c>
       <c r="M5" s="87">
@@ -16091,8 +16054,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3">
         <v>38</v>
       </c>
@@ -16100,8 +16063,8 @@
       <c r="J6" s="85">
         <v>38</v>
       </c>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -16122,6 +16085,575 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892C4215-6A0C-40C0-88A6-1DE2D92E64FE}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="M1" s="86">
+        <v>7</v>
+      </c>
+      <c r="N1" s="82">
+        <v>8</v>
+      </c>
+      <c r="O1" s="82">
+        <v>9</v>
+      </c>
+      <c r="P1" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="114"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="119"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "d"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "r"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "t"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "y"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "k"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "l"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "p"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "="</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "\""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "f"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "`"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "u"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "i"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "o"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": ";"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "n"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": "("</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ")"</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "r","13": "t","14": "","15": "\"","16": "a","17": "s","18": "e","19": "f","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "y","11": "k","10": "l","9": "p","8": "=","21": "`","20": "h","19": "u","18": "i","17": "o","16": ";","15": "-","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "w","11": "d","12": "r","13": "t","14": "","15": "\"","16": "a","17": "s","18": "e","19": "f","20": "g","21": "'","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "j","12": "y","11": "k","10": "l","9": "p","8": "=","21": "`","20": "h","19": "u","18": "i","17": "o","16": ";","15": "-","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B703F12A-A2CB-4707-A296-A156E930D34D}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -16171,7 +16703,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -16195,7 +16727,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>1</v>
       </c>
@@ -16211,12 +16743,12 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -16239,7 +16771,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -16257,7 +16789,7 @@
       <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -16297,34 +16829,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="184" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -16333,12 +16865,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="159"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -16690,7 +17222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74758FB7-FC95-4EDA-AF33-3D57BE0BA794}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -16740,10 +17272,10 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="132" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="55" t="s">
@@ -16764,7 +17296,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>32</v>
       </c>
@@ -16780,12 +17312,12 @@
       <c r="P2" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="122" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -16808,7 +17340,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -16826,7 +17358,7 @@
       <c r="P3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -16838,7 +17370,7 @@
       <c r="C4" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="133" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="52" t="s">
@@ -16866,34 +17398,34 @@
       <c r="P4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="184" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -16902,12 +17434,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="159"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -17259,7 +17791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07615F4B-C27E-42C2-8F03-B9EF37D496E8}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
@@ -17309,7 +17841,7 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -17333,7 +17865,7 @@
       <c r="G2" s="71"/>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="111"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="81" t="s">
         <v>20</v>
       </c>
@@ -17349,12 +17881,12 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -17377,7 +17909,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -17395,7 +17927,7 @@
       <c r="P3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17435,34 +17967,34 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="184" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="119" t="s">
+      <c r="O5" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
+      <c r="P5" s="119"/>
       <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -17471,12 +18003,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="159"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -17828,7 +18360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE13D08-8BFF-4D8A-BF21-41A0D1FFB842}">
   <dimension ref="A1:S20"/>
   <sheetViews>
@@ -17878,16 +18410,16 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="103" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="100" t="s">
@@ -17918,21 +18450,21 @@
       <c r="P2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="103" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="100" t="s">
@@ -17967,16 +18499,16 @@
       <c r="P3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="103" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="100" t="s">
@@ -17985,7 +18517,7 @@
       <c r="E4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="106" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="3"/>
@@ -18007,7 +18539,7 @@
       <c r="P4" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -18019,19 +18551,19 @@
         <v>36</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="184" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="118" t="s">
+      <c r="O5" s="117" t="s">
         <v>34</v>
       </c>
       <c r="P5" s="84"/>
@@ -18043,12 +18575,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="159"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -18403,7 +18935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE8C162-FDE8-44F3-BA8C-5BCB87DCDACE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
@@ -18453,16 +18985,16 @@
       <c r="P1" s="82">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="103" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="100" t="s">
@@ -18478,33 +19010,33 @@
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
       <c r="K2" s="81"/>
-      <c r="L2" s="111" t="s">
+      <c r="L2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="117" t="s">
+      <c r="N2" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="118" t="s">
+      <c r="O2" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="118" t="s">
+      <c r="P2" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="103" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="100" t="s">
@@ -18524,31 +19056,31 @@
       <c r="K3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="111" t="s">
+      <c r="L3" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="117" t="s">
+      <c r="N3" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="118" t="s">
+      <c r="O3" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="120" t="s">
+      <c r="P3" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="103" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="100" t="s">
@@ -18557,29 +19089,29 @@
       <c r="E4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="106" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
-      <c r="L4" s="111" t="s">
+      <c r="L4" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="116" t="s">
+      <c r="M4" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="118" t="s">
+      <c r="O4" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -18591,19 +19123,19 @@
         <v>36</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="3"/>
       <c r="J5" s="85"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="184" t="s">
+      <c r="K5" s="128"/>
+      <c r="L5" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="118" t="s">
+      <c r="O5" s="117" t="s">
         <v>34</v>
       </c>
       <c r="P5" s="84"/>
@@ -18615,12 +19147,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="3"/>
       <c r="J6" s="85"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="159"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -18980,81 +19512,65 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="4.77734375" style="103"/>
-    <col min="8" max="8" width="4.77734375" style="103" customWidth="1"/>
-    <col min="9" max="18" width="4.77734375" style="103"/>
-    <col min="19" max="20" width="4.77734375" style="103" customWidth="1"/>
-    <col min="21" max="16384" width="4.77734375" style="103"/>
+    <col min="1" max="7" width="4.77734375" style="102"/>
+    <col min="8" max="8" width="4.77734375" style="102" customWidth="1"/>
+    <col min="9" max="18" width="4.77734375" style="102"/>
+    <col min="19" max="20" width="4.77734375" style="102" customWidth="1"/>
+    <col min="21" max="16384" width="4.77734375" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="100">
-        <f t="shared" ref="A1:G6" ca="1" si="0">OFFSET($I1,0,COLUMN($I1)-COLUMN())</f>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="100"/>
+      <c r="B1" s="108">
+        <v>1</v>
+      </c>
+      <c r="C1" s="108">
+        <v>2</v>
+      </c>
+      <c r="D1" s="108">
+        <v>3</v>
+      </c>
+      <c r="E1" s="109">
         <v>4</v>
       </c>
-      <c r="B1" s="100">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="C1" s="100">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D1" s="100">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F1" s="109">
+        <v>5</v>
+      </c>
+      <c r="G1" s="101"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111">
+        <v>6</v>
+      </c>
+      <c r="M1" s="112">
+        <v>7</v>
+      </c>
+      <c r="N1" s="113">
+        <v>8</v>
+      </c>
+      <c r="O1" s="113">
+        <v>9</v>
+      </c>
+      <c r="P1" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="114"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="103">
+        <f t="shared" ref="A1:G6" ca="1" si="0">OFFSET($I2,0,COLUMN($I2)-COLUMN())</f>
         <v>2.5</v>
       </c>
-      <c r="E1" s="101">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="F1" s="101">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G1" s="102">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="152">
-        <v>5</v>
-      </c>
-      <c r="L1" s="150">
-        <v>4</v>
-      </c>
-      <c r="M1" s="139">
-        <v>3.5</v>
-      </c>
-      <c r="N1" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O1" s="139">
-        <v>3</v>
-      </c>
-      <c r="P1" s="148">
-        <v>3.5</v>
-      </c>
-      <c r="Q1" s="140">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="104">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="B2" s="104">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="C2" s="104">
+      <c r="C2" s="103">
         <f t="shared" ca="1" si="0"/>
         <v>1.5</v>
       </c>
@@ -19070,44 +19586,38 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="102" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
-      </c>
+      <c r="G2" s="105"/>
       <c r="H2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="149" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="135">
+      <c r="K2" s="110"/>
+      <c r="L2" s="103">
         <v>3</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="101">
         <v>2</v>
       </c>
-      <c r="N2" s="146">
+      <c r="N2" s="157">
         <v>1.5</v>
       </c>
-      <c r="O2" s="146">
+      <c r="O2" s="157">
         <v>1.5</v>
       </c>
-      <c r="P2" s="134">
+      <c r="P2" s="100">
         <v>2.5</v>
       </c>
-      <c r="Q2" s="25">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B3" s="105">
+      <c r="Q2" s="118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="104">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3" s="104">
+      <c r="C3" s="103">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
@@ -19123,44 +19633,40 @@
         <f t="shared" ca="1" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G3" s="106">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+      <c r="G3" s="130" t="s">
+        <v>38</v>
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="151">
+      <c r="K3" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="132">
+      <c r="L3" s="100">
         <v>2.5</v>
       </c>
-      <c r="M3" s="146">
+      <c r="M3" s="157">
         <v>0.5</v>
       </c>
-      <c r="N3" s="146">
+      <c r="N3" s="157">
         <v>0.5</v>
       </c>
-      <c r="O3" s="146">
+      <c r="O3" s="157">
         <v>0.5</v>
       </c>
-      <c r="P3" s="131">
+      <c r="P3" s="101">
         <v>2</v>
       </c>
-      <c r="Q3" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="105">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B4" s="105">
+      <c r="Q3" s="119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="103">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
@@ -19172,208 +19678,154 @@
         <f t="shared" ca="1" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F4" s="107">
+      <c r="F4" s="106">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="G4" s="108">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="H4" s="108">
-        <f t="shared" ref="H4:H6" ca="1" si="1">OFFSET($I4,0,COLUMN($I4)-COLUMN())</f>
-        <v>5</v>
-      </c>
-      <c r="J4" s="153">
-        <v>5</v>
-      </c>
-      <c r="K4" s="141">
-        <v>4.5</v>
-      </c>
-      <c r="L4" s="136">
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="158">
         <v>3</v>
       </c>
-      <c r="M4" s="145">
+      <c r="M4" s="157">
         <v>1.5</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="101">
         <v>2</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="101">
         <v>2</v>
       </c>
-      <c r="P4" s="138">
+      <c r="P4" s="103">
         <v>3</v>
       </c>
-      <c r="Q4" s="151">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="105">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B5" s="105">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C5" s="104">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="D5" s="100">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="E5" s="108">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="F5" s="174">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="174">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H5" s="108">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="J5" s="142">
-        <v>4.5</v>
-      </c>
-      <c r="K5" s="176">
-        <v>1.5</v>
-      </c>
-      <c r="L5" s="178">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="133">
-        <v>2.5</v>
-      </c>
-      <c r="N5" s="147">
-        <v>3.5</v>
-      </c>
-      <c r="O5" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="P5" s="143">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="144">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q4" s="119"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="107"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="107"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="175">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="175">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="108">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J6" s="137">
-        <v>3</v>
-      </c>
-      <c r="K6" s="177"/>
-      <c r="L6" s="179"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="107"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="153"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": "4"</v>
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
       </c>
       <c r="B8" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
-        <v>"2": "3,5"</v>
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
       </c>
       <c r="C8" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
-        <v>"3": "3"</v>
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
       </c>
       <c r="D8" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
-        <v>"4": "2,5"</v>
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
       </c>
       <c r="E8" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
-        <v>"5": "3,5"</v>
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
       </c>
       <c r="F8" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
-        <v>"6": "4"</v>
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
       </c>
       <c r="G8" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
-        <v>"7": "5"</v>
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" t="str">
         <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
-        <v>"7": "5"</v>
+        <v>"7": ""</v>
       </c>
       <c r="L8" t="str">
         <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
-        <v>"6": "4"</v>
+        <v>"6": "6"</v>
       </c>
       <c r="M8" t="str">
         <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
-        <v>"5": "3,5"</v>
+        <v>"5": "7"</v>
       </c>
       <c r="N8" t="str">
         <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
-        <v>"4": "2,5"</v>
+        <v>"4": "8"</v>
       </c>
       <c r="O8" t="str">
         <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
-        <v>"3": "3"</v>
+        <v>"3": "9"</v>
       </c>
       <c r="P8" t="str">
         <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
-        <v>"2": "3,5"</v>
+        <v>"2": "0"</v>
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "4"</v>
+        <v>"1": ""</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
-        <v>"8": "3,5"</v>
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": "\\"</v>
       </c>
       <c r="B9" t="str">
         <f ca="1">_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
-        <v>"9": "2,5"</v>
+        <v>"9": "2.5"</v>
       </c>
       <c r="C9" t="str">
         <f ca="1">_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
-        <v>"10": "1,5"</v>
+        <v>"10": "1.5"</v>
       </c>
       <c r="D9" t="str">
         <f ca="1">_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "1,5"</v>
+        <v>"11": "1.5"</v>
       </c>
       <c r="E9" t="str">
         <f ca="1">_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
@@ -19384,15 +19836,15 @@
         <v>"13": "3"</v>
       </c>
       <c r="G9" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "4.5"</v>
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": ""</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": "4.5"</v>
+        <v>"14": ""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -19404,19 +19856,19 @@
       </c>
       <c r="N9" t="str">
         <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "1,5"</v>
+        <v>"11": "1.5"</v>
       </c>
       <c r="O9" t="str">
         <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "1,5"</v>
+        <v>"10": "1.5"</v>
       </c>
       <c r="P9" t="str">
         <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "2,5"</v>
+        <v>"9": "2.5"</v>
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "3,5"</v>
+        <v>"8": "="</v>
       </c>
       <c r="R9" s="76"/>
       <c r="S9" s="76"/>
@@ -19430,8 +19882,8 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": "3"</v>
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": "/"</v>
       </c>
       <c r="B10" t="str">
         <f ca="1">_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -19439,46 +19891,46 @@
       </c>
       <c r="C10" t="str">
         <f ca="1">_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "0,5"</v>
+        <v>"17": "0.5"</v>
       </c>
       <c r="D10" t="str">
         <f ca="1">_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "0,5"</v>
+        <v>"18": "0.5"</v>
       </c>
       <c r="E10" t="str">
         <f ca="1">_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "0,5"</v>
+        <v>"19": "0.5"</v>
       </c>
       <c r="F10" t="str">
         <f ca="1">_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "2,5"</v>
+        <v>"20": "2.5"</v>
       </c>
       <c r="G10" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": "4"</v>
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "'"</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": "4"</v>
+        <v>"21": "`"</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "2,5"</v>
+        <v>"20": "2.5"</v>
       </c>
       <c r="M10" t="str">
         <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "0,5"</v>
+        <v>"19": "0.5"</v>
       </c>
       <c r="N10" t="str">
         <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "0,5"</v>
+        <v>"18": "0.5"</v>
       </c>
       <c r="O10" t="str">
         <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "0,5"</v>
+        <v>"17": "0.5"</v>
       </c>
       <c r="P10" t="str">
         <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
@@ -19486,13 +19938,13 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": "3"</v>
+        <v>"15": "-"</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": "4"</v>
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
       </c>
       <c r="B11" t="str">
         <f ca="1">_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -19508,28 +19960,28 @@
       </c>
       <c r="E11" t="str">
         <f ca="1">_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
-        <v>"26": "1,5"</v>
+        <v>"26": "1.5"</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
         <v>"27": "3"</v>
       </c>
       <c r="G11" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
-        <v>"28": "4,5"</v>
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
       </c>
       <c r="H11" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
-        <v>"29": "5"</v>
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
       </c>
       <c r="I11"/>
       <c r="J11" t="str">
         <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
-        <v>"29": "5"</v>
+        <v>"29": ""</v>
       </c>
       <c r="K11" t="str">
         <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
-        <v>"28": "4,5"</v>
+        <v>"28": ""</v>
       </c>
       <c r="L11" t="str">
         <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
@@ -19537,7 +19989,7 @@
       </c>
       <c r="M11" t="str">
         <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "1,5"</v>
+        <v>"26": "1.5"</v>
       </c>
       <c r="N11" t="str">
         <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
@@ -19553,74 +20005,74 @@
       </c>
       <c r="Q11" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
-        <v>"22": "4"</v>
+        <v>"22": ""</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
-        <v>"30": "8"</v>
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
       </c>
       <c r="B12" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
-        <v>"31": "7"</v>
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
       </c>
       <c r="C12" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
-        <v>"32": "3,5"</v>
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": "["</v>
       </c>
       <c r="D12" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "3,5"</v>
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "]"</v>
       </c>
       <c r="E12" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "2,5"</v>
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
       </c>
       <c r="F12" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
-        <v>"35": "0,5"</v>
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
       </c>
       <c r="G12" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
-        <v>"36": "1,5"</v>
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
       </c>
       <c r="H12" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
-        <v>"37": "4,5"</v>
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
       </c>
       <c r="I12"/>
       <c r="J12" t="str">
         <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
-        <v>"37": "4,5"</v>
+        <v>"37": ""</v>
       </c>
       <c r="K12" t="str">
         <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
-        <v>"36": "1,5"</v>
+        <v>"36": ""</v>
       </c>
       <c r="L12" t="str">
         <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": "0,5"</v>
+        <v>"35": " "</v>
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
-        <v>"34": "2,5"</v>
+        <v>"34": ""</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
-        <v>"33": "3,5"</v>
+        <v>"33": "("</v>
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": "3,5"</v>
+        <v>"32": ")"</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": "7"</v>
+        <v>"31": ""</v>
       </c>
       <c r="Q12" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
-        <v>"30": "8"</v>
+        <v>"30": ""</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -19632,13 +20084,13 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="str">
-        <f ca="1">_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
-        <v>"38": "3"</v>
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
       </c>
       <c r="I13"/>
       <c r="J13" t="str">
         <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
-        <v>"38": "3"</v>
+        <v>"38": ""</v>
       </c>
       <c r="K13"/>
       <c r="L13"/>
@@ -19670,7 +20122,7 @@
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f ca="1">_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "4","2": "3,5","3": "3","4": "2,5","5": "3,5","6": "4","7": "5","8": "3,5","9": "2,5","10": "1,5","11": "1,5","12": "2","13": "3","14": "4.5","15": "3","16": "2","17": "0,5","18": "0,5","19": "0,5","20": "2,5","21": "4","22": "4","23": "3","24": "2","25": "2","26": "1,5","27": "3","28": "4,5","29": "5","30": "8","31": "7","32": "3,5","33": "3,5","34": "2,5","35": "0,5","36": "1,5","37": "4,5","38": "3"</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "2.5","10": "1.5","11": "1.5","12": "2","13": "3","14": "","15": "/","16": "2","17": "0.5","18": "0.5","19": "0.5","20": "2.5","21": "'","22": "","23": "3","24": "2","25": "2","26": "1.5","27": "3","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -19692,7 +20144,7 @@
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "5","6": "4","5": "3,5","4": "2,5","3": "3","2": "3,5","1": "4","14": "4.5","13": "3","12": "2","11": "1,5","10": "1,5","9": "2,5","8": "3,5","21": "4","20": "2,5","19": "0,5","18": "0,5","17": "0,5","16": "2","15": "3","29": "5","28": "4,5","27": "3","26": "1,5","25": "2","24": "2","23": "3","22": "4","37": "4,5","36": "1,5","35": "0,5","34": "2,5","33": "3,5","32": "3,5","31": "7","30": "8","38": "3"</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "3","12": "2","11": "1.5","10": "1.5","9": "2.5","8": "=","21": "`","20": "2.5","19": "0.5","18": "0.5","17": "0.5","16": "2","15": "-","29": "","28": "","27": "3","26": "1.5","25": "2","24": "2","23": "3","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -19733,7 +20185,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f ca="1">_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "4","2": "3,5","3": "3","4": "2,5","5": "3,5","6": "4","7": "5","8": "3,5","9": "2,5","10": "1,5","11": "1,5","12": "2","13": "3","14": "4.5","15": "3","16": "2","17": "0,5","18": "0,5","19": "0,5","20": "2,5","21": "4","22": "4","23": "3","24": "2","25": "2","26": "1,5","27": "3","28": "4,5","29": "5","30": "8","31": "7","32": "3,5","33": "3,5","34": "2,5","35": "0,5","36": "1,5","37": "4,5","38": "3"}, "right": {"7": "5","6": "4","5": "3,5","4": "2,5","3": "3","2": "3,5","1": "4","14": "4.5","13": "3","12": "2","11": "1,5","10": "1,5","9": "2,5","8": "3,5","21": "4","20": "2,5","19": "0,5","18": "0,5","17": "0,5","16": "2","15": "3","29": "5","28": "4,5","27": "3","26": "1,5","25": "2","24": "2","23": "3","22": "4","37": "4,5","36": "1,5","35": "0,5","34": "2,5","33": "3,5","32": "3,5","31": "7","30": "8","38": "3"}}</v>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "2.5","10": "1.5","11": "1.5","12": "2","13": "3","14": "","15": "/","16": "2","17": "0.5","18": "0.5","19": "0.5","20": "2.5","21": "'","22": "","23": "3","24": "2","25": "2","26": "1.5","27": "3","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "","13": "3","12": "2","11": "1.5","10": "1.5","9": "2.5","8": "=","21": "`","20": "2.5","19": "0.5","18": "0.5","17": "0.5","16": "2","15": "-","29": "","28": "","27": "3","26": "1.5","25": "2","24": "2","23": "3","22": "","37": "","36": "","35": " ","34": "","33": "(","32": ")","31": "","30": "","38": ""}}</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -19769,7 +20221,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19780,51 +20232,51 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="100"/>
-      <c r="B1" s="109">
+      <c r="B1" s="108">
         <v>1</v>
       </c>
-      <c r="C1" s="109">
+      <c r="C1" s="108">
         <v>2</v>
       </c>
-      <c r="D1" s="109">
+      <c r="D1" s="108">
         <v>3</v>
       </c>
-      <c r="E1" s="110">
+      <c r="E1" s="109">
         <v>4</v>
       </c>
-      <c r="F1" s="110">
+      <c r="F1" s="109">
         <v>5</v>
       </c>
       <c r="G1" s="101"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="103"/>
+      <c r="I1" s="102"/>
       <c r="J1" s="74"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112">
+      <c r="K1" s="110"/>
+      <c r="L1" s="111">
         <v>6</v>
       </c>
-      <c r="M1" s="113">
+      <c r="M1" s="112">
         <v>7</v>
       </c>
-      <c r="N1" s="114">
+      <c r="N1" s="113">
         <v>8</v>
       </c>
-      <c r="O1" s="114">
+      <c r="O1" s="113">
         <v>9</v>
       </c>
-      <c r="P1" s="114">
+      <c r="P1" s="113">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="103" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="100" t="s">
@@ -19836,41 +20288,41 @@
       <c r="F2" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="106"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="103"/>
+      <c r="I2" s="102"/>
       <c r="J2" s="74"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111" t="s">
+      <c r="K2" s="110"/>
+      <c r="L2" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="117" t="s">
+      <c r="N2" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="118" t="s">
+      <c r="O2" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="118" t="s">
+      <c r="P2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="103" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="100" t="s">
@@ -19882,40 +20334,40 @@
       <c r="F3" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="154" t="s">
+      <c r="G3" s="130" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="103"/>
+      <c r="I3" s="102"/>
       <c r="J3" s="74"/>
-      <c r="K3" s="106" t="s">
+      <c r="K3" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="111" t="s">
+      <c r="L3" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="117" t="s">
+      <c r="N3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="118" t="s">
+      <c r="O3" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="120" t="s">
+      <c r="P3" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="103" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="100" t="s">
@@ -19924,59 +20376,59 @@
       <c r="E4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="111" t="s">
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="116" t="s">
+      <c r="M4" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="118" t="s">
+      <c r="O4" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="180" t="s">
+      <c r="E5" s="107"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="117" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="118" t="s">
+      <c r="O5" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -19984,13 +20436,13 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="181"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="153"/>
       <c r="M6" s="74"/>
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
@@ -20351,7 +20803,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="G1" sqref="G1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20362,51 +20814,51 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="100"/>
-      <c r="B1" s="109">
+      <c r="B1" s="108">
         <v>1</v>
       </c>
-      <c r="C1" s="109">
+      <c r="C1" s="108">
         <v>2</v>
       </c>
-      <c r="D1" s="109">
+      <c r="D1" s="108">
         <v>3</v>
       </c>
-      <c r="E1" s="110">
+      <c r="E1" s="109">
         <v>4</v>
       </c>
-      <c r="F1" s="110">
+      <c r="F1" s="109">
         <v>5</v>
       </c>
       <c r="G1" s="101"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="103"/>
+      <c r="I1" s="102"/>
       <c r="J1" s="74"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112">
+      <c r="K1" s="110"/>
+      <c r="L1" s="111">
         <v>6</v>
       </c>
-      <c r="M1" s="113">
+      <c r="M1" s="112">
         <v>7</v>
       </c>
-      <c r="N1" s="114">
+      <c r="N1" s="113">
         <v>8</v>
       </c>
-      <c r="O1" s="114">
+      <c r="O1" s="113">
         <v>9</v>
       </c>
-      <c r="P1" s="114">
+      <c r="P1" s="113">
         <v>0</v>
       </c>
-      <c r="Q1" s="115"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="103" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="100" t="s">
@@ -20418,41 +20870,41 @@
       <c r="F2" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="106"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="103"/>
+      <c r="I2" s="102"/>
       <c r="J2" s="74"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111" t="s">
+      <c r="K2" s="110"/>
+      <c r="L2" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="117" t="s">
+      <c r="N2" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="118" t="s">
+      <c r="O2" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="118" t="s">
+      <c r="P2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="119" t="s">
+      <c r="Q2" s="118" t="s">
         <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="103" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="100" t="s">
@@ -20464,43 +20916,43 @@
       <c r="F3" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="154" t="s">
+      <c r="G3" s="130" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="103"/>
+      <c r="I3" s="102"/>
       <c r="J3" s="74"/>
-      <c r="K3" s="106" t="s">
+      <c r="K3" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="111" t="s">
+      <c r="L3" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="116" t="s">
+      <c r="M3" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="117" t="s">
+      <c r="N3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="118" t="s">
+      <c r="O3" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="120" t="s">
+      <c r="P3" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="120" t="s">
+      <c r="Q3" s="119" t="s">
         <v>5</v>
       </c>
       <c r="S3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="103" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="100" t="s">
@@ -20509,59 +20961,59 @@
       <c r="E4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="111" t="s">
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="116" t="s">
+      <c r="M4" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="118" t="s">
+      <c r="O4" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="119"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="104" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="103" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="180" t="s">
+      <c r="E5" s="107"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="1